--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -917,7 +917,9 @@
       <c r="J12" t="n">
         <v>2</v>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
       <c r="L12" t="n">
         <v>849.9</v>
       </c>
@@ -962,7 +964,9 @@
       <c r="J13" t="n">
         <v>2</v>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="K13" t="n">
+        <v>100</v>
+      </c>
       <c r="L13" t="n">
         <v>849.9</v>
       </c>
@@ -1052,7 +1056,9 @@
       <c r="J15" t="n">
         <v>4</v>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="K15" t="n">
+        <v>100</v>
+      </c>
       <c r="L15" t="n">
         <v>850.2</v>
       </c>
@@ -1097,7 +1103,9 @@
       <c r="J16" t="n">
         <v>4</v>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="K16" t="n">
+        <v>100</v>
+      </c>
       <c r="L16" t="n">
         <v>850.4</v>
       </c>
@@ -1142,7 +1150,9 @@
       <c r="J17" t="n">
         <v>5</v>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="K17" t="n">
+        <v>100</v>
+      </c>
       <c r="L17" t="n">
         <v>850.7</v>
       </c>
@@ -1187,7 +1197,9 @@
       <c r="J18" t="n">
         <v>6</v>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="K18" t="n">
+        <v>100</v>
+      </c>
       <c r="L18" t="n">
         <v>851.1</v>
       </c>
@@ -1232,7 +1244,9 @@
       <c r="J19" t="n">
         <v>8</v>
       </c>
-      <c r="K19" t="inlineStr"/>
+      <c r="K19" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L19" t="n">
         <v>851.3</v>
       </c>
@@ -1277,7 +1291,9 @@
       <c r="J20" t="n">
         <v>8</v>
       </c>
-      <c r="K20" t="inlineStr"/>
+      <c r="K20" t="n">
+        <v>33.33333333333333</v>
+      </c>
       <c r="L20" t="n">
         <v>851.5</v>
       </c>
@@ -1322,7 +1338,9 @@
       <c r="J21" t="n">
         <v>11</v>
       </c>
-      <c r="K21" t="inlineStr"/>
+      <c r="K21" t="n">
+        <v>-11.11111111111111</v>
+      </c>
       <c r="L21" t="n">
         <v>851.4</v>
       </c>
@@ -1369,7 +1387,9 @@
       <c r="J22" t="n">
         <v>13</v>
       </c>
-      <c r="K22" t="inlineStr"/>
+      <c r="K22" t="n">
+        <v>9.090909090909092</v>
+      </c>
       <c r="L22" t="n">
         <v>851.5</v>
       </c>
@@ -1417,7 +1437,7 @@
         <v>16</v>
       </c>
       <c r="K23" t="n">
-        <v>-12.5</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L23" t="n">
         <v>851.3</v>
@@ -1466,7 +1486,7 @@
         <v>17</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L24" t="n">
         <v>851.2</v>
@@ -1515,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="K25" t="n">
-        <v>-6.666666666666667</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L25" t="n">
         <v>850.9</v>
@@ -1564,7 +1584,7 @@
         <v>20</v>
       </c>
       <c r="K26" t="n">
-        <v>-22.22222222222222</v>
+        <v>-46.66666666666666</v>
       </c>
       <c r="L26" t="n">
         <v>850.3</v>
@@ -1613,7 +1633,7 @@
         <v>20</v>
       </c>
       <c r="K27" t="n">
-        <v>-22.22222222222222</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L27" t="n">
         <v>849.6</v>
@@ -1662,7 +1682,7 @@
         <v>23</v>
       </c>
       <c r="K28" t="n">
-        <v>-4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L28" t="n">
         <v>849.1</v>
@@ -1711,7 +1731,7 @@
         <v>24</v>
       </c>
       <c r="K29" t="n">
-        <v>-9.090909090909092</v>
+        <v>-25</v>
       </c>
       <c r="L29" t="n">
         <v>848.7</v>
@@ -1760,7 +1780,7 @@
         <v>24</v>
       </c>
       <c r="K30" t="n">
-        <v>-9.090909090909092</v>
+        <v>-7.692307692307693</v>
       </c>
       <c r="L30" t="n">
         <v>848.3</v>
@@ -1809,7 +1829,7 @@
         <v>25</v>
       </c>
       <c r="K31" t="n">
-        <v>-13.04347826086956</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L31" t="n">
         <v>848.1</v>
@@ -1860,7 +1880,7 @@
         <v>26</v>
       </c>
       <c r="K32" t="n">
-        <v>-8.333333333333332</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>847.8</v>
@@ -1911,7 +1931,7 @@
         <v>26</v>
       </c>
       <c r="K33" t="n">
-        <v>-8.333333333333332</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L33" t="n">
         <v>847.8</v>
@@ -1962,7 +1982,7 @@
         <v>27</v>
       </c>
       <c r="K34" t="n">
-        <v>-4</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>847.8</v>
@@ -2013,7 +2033,7 @@
         <v>27</v>
       </c>
       <c r="K35" t="n">
-        <v>-13.04347826086956</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L35" t="n">
         <v>847.8</v>
@@ -2064,7 +2084,7 @@
         <v>27</v>
       </c>
       <c r="K36" t="n">
-        <v>-13.04347826086956</v>
+        <v>42.85714285714285</v>
       </c>
       <c r="L36" t="n">
         <v>848.1</v>
@@ -2115,7 +2135,7 @@
         <v>28</v>
       </c>
       <c r="K37" t="n">
-        <v>-13.04347826086956</v>
+        <v>20</v>
       </c>
       <c r="L37" t="n">
         <v>848.5</v>
@@ -2166,7 +2186,7 @@
         <v>29</v>
       </c>
       <c r="K38" t="n">
-        <v>-21.73913043478261</v>
+        <v>20</v>
       </c>
       <c r="L38" t="n">
         <v>848.5</v>
@@ -2217,7 +2237,7 @@
         <v>29</v>
       </c>
       <c r="K39" t="n">
-        <v>-14.28571428571428</v>
+        <v>20</v>
       </c>
       <c r="L39" t="n">
         <v>848.6</v>
@@ -2268,7 +2288,7 @@
         <v>32</v>
       </c>
       <c r="K40" t="n">
-        <v>-25</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L40" t="n">
         <v>848.4</v>
@@ -2319,7 +2339,7 @@
         <v>33</v>
       </c>
       <c r="K41" t="n">
-        <v>-9.090909090909092</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L41" t="n">
         <v>848.4</v>
@@ -2370,7 +2390,7 @@
         <v>37</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L42" t="n">
         <v>848.7</v>
@@ -2472,7 +2492,7 @@
         <v>39</v>
       </c>
       <c r="K44" t="n">
-        <v>9.090909090909092</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L44" t="n">
         <v>849.1</v>
@@ -2523,7 +2543,7 @@
         <v>40</v>
       </c>
       <c r="K45" t="n">
-        <v>13.04347826086956</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L45" t="n">
         <v>849.4</v>
@@ -2574,7 +2594,7 @@
         <v>41</v>
       </c>
       <c r="K46" t="n">
-        <v>33.33333333333333</v>
+        <v>23.07692307692308</v>
       </c>
       <c r="L46" t="n">
         <v>849.8</v>
@@ -2625,7 +2645,7 @@
         <v>44</v>
       </c>
       <c r="K47" t="n">
-        <v>41.66666666666667</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L47" t="n">
         <v>850.4</v>
@@ -2676,7 +2696,7 @@
         <v>48</v>
       </c>
       <c r="K48" t="n">
-        <v>44</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L48" t="n">
         <v>851.5</v>
@@ -2727,7 +2747,7 @@
         <v>51</v>
       </c>
       <c r="K49" t="n">
-        <v>33.33333333333333</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L49" t="n">
         <v>852.3</v>
@@ -2778,7 +2798,7 @@
         <v>52</v>
       </c>
       <c r="K50" t="n">
-        <v>35.71428571428572</v>
+        <v>57.89473684210527</v>
       </c>
       <c r="L50" t="n">
         <v>853.5</v>
@@ -2829,7 +2849,7 @@
         <v>53</v>
       </c>
       <c r="K51" t="n">
-        <v>42.85714285714285</v>
+        <v>50</v>
       </c>
       <c r="L51" t="n">
         <v>854.7</v>
@@ -2880,7 +2900,7 @@
         <v>54</v>
       </c>
       <c r="K52" t="n">
-        <v>42.85714285714285</v>
+        <v>62.5</v>
       </c>
       <c r="L52" t="n">
         <v>855.6</v>
@@ -2931,7 +2951,7 @@
         <v>54</v>
       </c>
       <c r="K53" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L53" t="n">
         <v>856.6</v>
@@ -2982,7 +3002,7 @@
         <v>55</v>
       </c>
       <c r="K54" t="n">
-        <v>42.85714285714285</v>
+        <v>60</v>
       </c>
       <c r="L54" t="n">
         <v>857.6</v>
@@ -3033,7 +3053,7 @@
         <v>55</v>
       </c>
       <c r="K55" t="n">
-        <v>42.85714285714285</v>
+        <v>57.14285714285714</v>
       </c>
       <c r="L55" t="n">
         <v>858.5</v>
@@ -3084,7 +3104,7 @@
         <v>57</v>
       </c>
       <c r="K56" t="n">
-        <v>46.66666666666666</v>
+        <v>53.84615384615385</v>
       </c>
       <c r="L56" t="n">
         <v>859.5</v>
@@ -3135,7 +3155,7 @@
         <v>59</v>
       </c>
       <c r="K57" t="n">
-        <v>35.48387096774194</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L57" t="n">
         <v>860</v>
@@ -3186,7 +3206,7 @@
         <v>60</v>
       </c>
       <c r="K58" t="n">
-        <v>35.48387096774194</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L58" t="n">
         <v>860</v>
@@ -3237,7 +3257,7 @@
         <v>63</v>
       </c>
       <c r="K59" t="n">
-        <v>23.52941176470588</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L59" t="n">
         <v>860</v>
@@ -3288,7 +3308,7 @@
         <v>67</v>
       </c>
       <c r="K60" t="n">
-        <v>42.85714285714285</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L60" t="n">
         <v>860.3</v>
@@ -3339,7 +3359,7 @@
         <v>67</v>
       </c>
       <c r="K61" t="n">
-        <v>41.17647058823529</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L61" t="n">
         <v>860.5</v>
@@ -3390,7 +3410,7 @@
         <v>67</v>
       </c>
       <c r="K62" t="n">
-        <v>33.33333333333333</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L62" t="n">
         <v>860.6</v>
@@ -3441,7 +3461,7 @@
         <v>67</v>
       </c>
       <c r="K63" t="n">
-        <v>37.93103448275862</v>
+        <v>0</v>
       </c>
       <c r="L63" t="n">
         <v>860.7</v>
@@ -3492,7 +3512,7 @@
         <v>68</v>
       </c>
       <c r="K64" t="n">
-        <v>37.93103448275862</v>
+        <v>7.692307692307693</v>
       </c>
       <c r="L64" t="n">
         <v>860.8</v>
@@ -3543,7 +3563,7 @@
         <v>69</v>
       </c>
       <c r="K65" t="n">
-        <v>31.03448275862069</v>
+        <v>-16.66666666666666</v>
       </c>
       <c r="L65" t="n">
         <v>860.8</v>
@@ -3594,7 +3614,7 @@
         <v>69</v>
       </c>
       <c r="K66" t="n">
-        <v>28.57142857142857</v>
+        <v>0</v>
       </c>
       <c r="L66" t="n">
         <v>860.6</v>
@@ -3645,7 +3665,7 @@
         <v>70</v>
       </c>
       <c r="K67" t="n">
-        <v>15.38461538461539</v>
+        <v>0</v>
       </c>
       <c r="L67" t="n">
         <v>860.5</v>
@@ -3696,7 +3716,7 @@
         <v>73</v>
       </c>
       <c r="K68" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="L68" t="n">
         <v>860.2</v>
@@ -3747,7 +3767,7 @@
         <v>73</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>-66.66666666666666</v>
       </c>
       <c r="L69" t="n">
         <v>860.2</v>
@@ -3798,7 +3818,7 @@
         <v>78</v>
       </c>
       <c r="K70" t="n">
-        <v>15.38461538461539</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L70" t="n">
         <v>860.3</v>
@@ -3849,7 +3869,7 @@
         <v>82</v>
       </c>
       <c r="K71" t="n">
-        <v>-3.448275862068965</v>
+        <v>-20</v>
       </c>
       <c r="L71" t="n">
         <v>860</v>
@@ -3900,7 +3920,7 @@
         <v>84</v>
       </c>
       <c r="K72" t="n">
-        <v>-13.33333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L72" t="n">
         <v>859.5</v>
@@ -3951,7 +3971,7 @@
         <v>88</v>
       </c>
       <c r="K73" t="n">
-        <v>-23.52941176470588</v>
+        <v>-50</v>
       </c>
       <c r="L73" t="n">
         <v>858.6</v>
@@ -4002,7 +4022,7 @@
         <v>88</v>
       </c>
       <c r="K74" t="n">
-        <v>-27.27272727272727</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L74" t="n">
         <v>857.6</v>
@@ -4053,7 +4073,7 @@
         <v>88</v>
       </c>
       <c r="K75" t="n">
-        <v>-27.27272727272727</v>
+        <v>-47.36842105263158</v>
       </c>
       <c r="L75" t="n">
         <v>856.7</v>
@@ -4104,7 +4124,7 @@
         <v>91</v>
       </c>
       <c r="K76" t="n">
-        <v>-23.52941176470588</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L76" t="n">
         <v>856.1</v>
@@ -4155,7 +4175,7 @@
         <v>96</v>
       </c>
       <c r="K77" t="n">
-        <v>-29.72972972972973</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L77" t="n">
         <v>855.1</v>
@@ -4206,7 +4226,7 @@
         <v>102</v>
       </c>
       <c r="K78" t="n">
-        <v>-9.523809523809524</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L78" t="n">
         <v>855</v>
@@ -4257,7 +4277,7 @@
         <v>103</v>
       </c>
       <c r="K79" t="n">
-        <v>-5</v>
+        <v>-28</v>
       </c>
       <c r="L79" t="n">
         <v>854.8</v>
@@ -4308,7 +4328,7 @@
         <v>103</v>
       </c>
       <c r="K80" t="n">
-        <v>-16.66666666666666</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L80" t="n">
         <v>854.1</v>
@@ -4359,7 +4379,7 @@
         <v>103</v>
       </c>
       <c r="K81" t="n">
-        <v>-16.66666666666666</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L81" t="n">
         <v>853.8</v>
@@ -4410,7 +4430,7 @@
         <v>106</v>
       </c>
       <c r="K82" t="n">
-        <v>-7.692307692307693</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L82" t="n">
         <v>854</v>
@@ -4461,7 +4481,7 @@
         <v>107</v>
       </c>
       <c r="K83" t="n">
-        <v>-10</v>
+        <v>26.31578947368421</v>
       </c>
       <c r="L83" t="n">
         <v>854.5</v>
@@ -4512,7 +4532,7 @@
         <v>109</v>
       </c>
       <c r="K84" t="n">
-        <v>-17.07317073170732</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L84" t="n">
         <v>854.8</v>
@@ -4563,7 +4583,7 @@
         <v>113</v>
       </c>
       <c r="K85" t="n">
-        <v>-22.72727272727273</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L85" t="n">
         <v>854.7</v>
@@ -4614,7 +4634,7 @@
         <v>117</v>
       </c>
       <c r="K86" t="n">
-        <v>-12.5</v>
+        <v>23.80952380952381</v>
       </c>
       <c r="L86" t="n">
         <v>854.7</v>
@@ -4665,7 +4685,7 @@
         <v>120</v>
       </c>
       <c r="K87" t="n">
-        <v>-16</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L87" t="n">
         <v>854.9</v>
@@ -4716,7 +4736,7 @@
         <v>122</v>
       </c>
       <c r="K88" t="n">
-        <v>-14.28571428571428</v>
+        <v>-26.31578947368421</v>
       </c>
       <c r="L88" t="n">
         <v>854.3</v>
@@ -4767,7 +4787,7 @@
         <v>125</v>
       </c>
       <c r="K89" t="n">
-        <v>-7.692307692307693</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L89" t="n">
         <v>854.1</v>
@@ -4818,7 +4838,7 @@
         <v>126</v>
       </c>
       <c r="K90" t="n">
-        <v>-20.83333333333334</v>
+        <v>-13.04347826086956</v>
       </c>
       <c r="L90" t="n">
         <v>853.8</v>
@@ -4869,7 +4889,7 @@
         <v>128</v>
       </c>
       <c r="K91" t="n">
-        <v>-8.695652173913043</v>
+        <v>-18.18181818181818</v>
       </c>
       <c r="L91" t="n">
         <v>853.7</v>
@@ -4920,7 +4940,7 @@
         <v>132</v>
       </c>
       <c r="K92" t="n">
-        <v>-12.5</v>
+        <v>-28</v>
       </c>
       <c r="L92" t="n">
         <v>852.9</v>
@@ -4971,7 +4991,7 @@
         <v>137</v>
       </c>
       <c r="K93" t="n">
-        <v>-14.28571428571428</v>
+        <v>-35.71428571428572</v>
       </c>
       <c r="L93" t="n">
         <v>851.7</v>
@@ -5022,7 +5042,7 @@
         <v>137</v>
       </c>
       <c r="K94" t="n">
-        <v>-14.28571428571428</v>
+        <v>-25</v>
       </c>
       <c r="L94" t="n">
         <v>850.7</v>
@@ -5073,7 +5093,7 @@
         <v>141</v>
       </c>
       <c r="K95" t="n">
-        <v>-5.660377358490567</v>
+        <v>-25</v>
       </c>
       <c r="L95" t="n">
         <v>850.5</v>
@@ -5124,7 +5144,7 @@
         <v>141</v>
       </c>
       <c r="K96" t="n">
-        <v>-12</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L96" t="n">
         <v>849.9</v>
@@ -5175,7 +5195,7 @@
         <v>141</v>
       </c>
       <c r="K97" t="n">
-        <v>-2.222222222222222</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L97" t="n">
         <v>849.6</v>
@@ -5226,7 +5246,7 @@
         <v>143</v>
       </c>
       <c r="K98" t="n">
-        <v>-12.19512195121951</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L98" t="n">
         <v>849.7</v>
@@ -5277,7 +5297,7 @@
         <v>144</v>
       </c>
       <c r="K99" t="n">
-        <v>-12.19512195121951</v>
+        <v>-11.11111111111111</v>
       </c>
       <c r="L99" t="n">
         <v>849.4</v>
@@ -5328,7 +5348,7 @@
         <v>145</v>
       </c>
       <c r="K100" t="n">
-        <v>-14.28571428571428</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L100" t="n">
         <v>849.1</v>
@@ -5379,7 +5399,7 @@
         <v>149</v>
       </c>
       <c r="K101" t="n">
-        <v>-21.73913043478261</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L101" t="n">
         <v>848.2</v>
@@ -5430,7 +5450,7 @@
         <v>152</v>
       </c>
       <c r="K102" t="n">
-        <v>-21.73913043478261</v>
+        <v>20</v>
       </c>
       <c r="L102" t="n">
         <v>848</v>
@@ -5481,7 +5501,7 @@
         <v>155</v>
       </c>
       <c r="K103" t="n">
-        <v>-25</v>
+        <v>0</v>
       </c>
       <c r="L103" t="n">
         <v>848</v>
@@ -5532,7 +5552,7 @@
         <v>155</v>
       </c>
       <c r="K104" t="n">
-        <v>-21.73913043478261</v>
+        <v>-28.57142857142857</v>
       </c>
       <c r="L104" t="n">
         <v>848</v>
@@ -5583,7 +5603,7 @@
         <v>159</v>
       </c>
       <c r="K105" t="n">
-        <v>-4.347826086956522</v>
+        <v>0</v>
       </c>
       <c r="L105" t="n">
         <v>848</v>
@@ -5634,7 +5654,7 @@
         <v>160</v>
       </c>
       <c r="K106" t="n">
-        <v>-11.62790697674419</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L106" t="n">
         <v>848.1</v>
@@ -5685,7 +5705,7 @@
         <v>161</v>
       </c>
       <c r="K107" t="n">
-        <v>-2.439024390243902</v>
+        <v>0</v>
       </c>
       <c r="L107" t="n">
         <v>848.3</v>
@@ -5736,7 +5756,7 @@
         <v>167</v>
       </c>
       <c r="K108" t="n">
-        <v>-11.11111111111111</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L108" t="n">
         <v>847.7</v>
@@ -5787,7 +5807,7 @@
         <v>173</v>
       </c>
       <c r="K109" t="n">
-        <v>-4.166666666666666</v>
+        <v>7.142857142857142</v>
       </c>
       <c r="L109" t="n">
         <v>847.8</v>
@@ -5838,7 +5858,7 @@
         <v>174</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="L110" t="n">
         <v>848.1</v>
@@ -5889,7 +5909,7 @@
         <v>175</v>
       </c>
       <c r="K111" t="n">
-        <v>-2.127659574468085</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L111" t="n">
         <v>848.9</v>
@@ -5940,7 +5960,7 @@
         <v>175</v>
       </c>
       <c r="K112" t="n">
-        <v>6.976744186046512</v>
+        <v>40</v>
       </c>
       <c r="L112" t="n">
         <v>849.4</v>
@@ -5991,7 +6011,7 @@
         <v>179</v>
       </c>
       <c r="K113" t="n">
-        <v>9.523809523809524</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L113" t="n">
         <v>849.8</v>
@@ -6042,7 +6062,7 @@
         <v>181</v>
       </c>
       <c r="K114" t="n">
-        <v>13.63636363636363</v>
+        <v>9.090909090909092</v>
       </c>
       <c r="L114" t="n">
         <v>850.4</v>
@@ -6093,7 +6113,7 @@
         <v>183</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L115" t="n">
         <v>850.4</v>
@@ -6144,7 +6164,7 @@
         <v>184</v>
       </c>
       <c r="K116" t="n">
-        <v>2.325581395348837</v>
+        <v>-4.347826086956522</v>
       </c>
       <c r="L116" t="n">
         <v>850.4</v>
@@ -6195,7 +6215,7 @@
         <v>186</v>
       </c>
       <c r="K117" t="n">
-        <v>-2.222222222222222</v>
+        <v>15.78947368421053</v>
       </c>
       <c r="L117" t="n">
         <v>850.1</v>
@@ -6246,7 +6266,7 @@
         <v>186</v>
       </c>
       <c r="K118" t="n">
-        <v>-6.976744186046512</v>
+        <v>-23.07692307692308</v>
       </c>
       <c r="L118" t="n">
         <v>850.4</v>
@@ -6297,7 +6317,7 @@
         <v>189</v>
       </c>
       <c r="K119" t="n">
-        <v>2.222222222222222</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L119" t="n">
         <v>850.4</v>
@@ -6348,7 +6368,7 @@
         <v>194</v>
       </c>
       <c r="K120" t="n">
-        <v>-6.122448979591836</v>
+        <v>-36.84210526315789</v>
       </c>
       <c r="L120" t="n">
         <v>849.8</v>
@@ -6399,7 +6419,7 @@
         <v>195</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>-40</v>
       </c>
       <c r="L121" t="n">
         <v>849</v>
@@ -6450,7 +6470,7 @@
         <v>196</v>
       </c>
       <c r="K122" t="n">
-        <v>-9.090909090909092</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L122" t="n">
         <v>848.1</v>
@@ -6501,7 +6521,7 @@
         <v>198</v>
       </c>
       <c r="K123" t="n">
-        <v>2.325581395348837</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L123" t="n">
         <v>847.8</v>
@@ -6552,7 +6572,7 @@
         <v>201</v>
       </c>
       <c r="K124" t="n">
-        <v>-4.347826086956522</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L124" t="n">
         <v>847</v>
@@ -6603,7 +6623,7 @@
         <v>201</v>
       </c>
       <c r="K125" t="n">
-        <v>-14.28571428571428</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L125" t="n">
         <v>846.4</v>
@@ -6654,7 +6674,7 @@
         <v>201</v>
       </c>
       <c r="K126" t="n">
-        <v>-17.07317073170732</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L126" t="n">
         <v>845.7</v>
@@ -6705,7 +6725,7 @@
         <v>203</v>
       </c>
       <c r="K127" t="n">
-        <v>-23.80952380952381</v>
+        <v>-41.17647058823529</v>
       </c>
       <c r="L127" t="n">
         <v>845</v>
@@ -6756,7 +6776,7 @@
         <v>203</v>
       </c>
       <c r="K128" t="n">
-        <v>-11.11111111111111</v>
+        <v>-71.42857142857143</v>
       </c>
       <c r="L128" t="n">
         <v>844.3</v>
@@ -6807,7 +6827,7 @@
         <v>203</v>
       </c>
       <c r="K129" t="n">
-        <v>-33.33333333333333</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L129" t="n">
         <v>843.3</v>
@@ -6858,7 +6878,7 @@
         <v>204</v>
       </c>
       <c r="K130" t="n">
-        <v>-40</v>
+        <v>-55.55555555555556</v>
       </c>
       <c r="L130" t="n">
         <v>842.7</v>
@@ -6909,7 +6929,7 @@
         <v>204</v>
       </c>
       <c r="K131" t="n">
-        <v>-44.82758620689656</v>
+        <v>-50</v>
       </c>
       <c r="L131" t="n">
         <v>842.2</v>
@@ -6960,7 +6980,7 @@
         <v>207</v>
       </c>
       <c r="K132" t="n">
-        <v>-31.25</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L132" t="n">
         <v>842.1</v>
@@ -7011,7 +7031,7 @@
         <v>208</v>
       </c>
       <c r="K133" t="n">
-        <v>-24.13793103448276</v>
+        <v>-14.28571428571428</v>
       </c>
       <c r="L133" t="n">
         <v>841.7</v>
@@ -7062,7 +7082,7 @@
         <v>209</v>
       </c>
       <c r="K134" t="n">
-        <v>-35.71428571428572</v>
+        <v>-25</v>
       </c>
       <c r="L134" t="n">
         <v>841.5</v>
@@ -7113,7 +7133,7 @@
         <v>211</v>
       </c>
       <c r="K135" t="n">
-        <v>-35.71428571428572</v>
+        <v>-40</v>
       </c>
       <c r="L135" t="n">
         <v>841.1</v>
@@ -7164,7 +7184,7 @@
         <v>213</v>
       </c>
       <c r="K136" t="n">
-        <v>-44.82758620689656</v>
+        <v>-40</v>
       </c>
       <c r="L136" t="n">
         <v>840.5</v>
@@ -7215,7 +7235,7 @@
         <v>217</v>
       </c>
       <c r="K137" t="n">
-        <v>-48.38709677419355</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L137" t="n">
         <v>839.7</v>
@@ -7266,7 +7286,7 @@
         <v>217</v>
       </c>
       <c r="K138" t="n">
-        <v>-48.38709677419355</v>
+        <v>-57.14285714285714</v>
       </c>
       <c r="L138" t="n">
         <v>838.9</v>
@@ -7317,7 +7337,7 @@
         <v>220</v>
       </c>
       <c r="K139" t="n">
-        <v>-48.38709677419355</v>
+        <v>-25</v>
       </c>
       <c r="L139" t="n">
         <v>838.4</v>
@@ -7368,7 +7388,7 @@
         <v>222</v>
       </c>
       <c r="K140" t="n">
-        <v>-42.85714285714285</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L140" t="n">
         <v>837.8</v>
@@ -7419,7 +7439,7 @@
         <v>223</v>
       </c>
       <c r="K141" t="n">
-        <v>-35.71428571428572</v>
+        <v>-50</v>
       </c>
       <c r="L141" t="n">
         <v>837.3</v>
@@ -7470,7 +7490,7 @@
         <v>225</v>
       </c>
       <c r="K142" t="n">
-        <v>-37.93103448275862</v>
+        <v>-52.94117647058824</v>
       </c>
       <c r="L142" t="n">
         <v>836.3</v>
@@ -7521,7 +7541,7 @@
         <v>227</v>
       </c>
       <c r="K143" t="n">
-        <v>-37.93103448275862</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L143" t="n">
         <v>835.6</v>
@@ -7572,7 +7592,7 @@
         <v>228</v>
       </c>
       <c r="K144" t="n">
-        <v>-33.33333333333333</v>
+        <v>-29.41176470588236</v>
       </c>
       <c r="L144" t="n">
         <v>834.9</v>
@@ -7623,7 +7643,7 @@
         <v>228</v>
       </c>
       <c r="K145" t="n">
-        <v>-33.33333333333333</v>
+        <v>-20</v>
       </c>
       <c r="L145" t="n">
         <v>834.4</v>
@@ -7674,7 +7694,7 @@
         <v>229</v>
       </c>
       <c r="K146" t="n">
-        <v>-35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L146" t="n">
         <v>834</v>
@@ -7725,7 +7745,7 @@
         <v>232</v>
       </c>
       <c r="K147" t="n">
-        <v>-17.24137931034483</v>
+        <v>20</v>
       </c>
       <c r="L147" t="n">
         <v>834.3</v>
@@ -7776,7 +7796,7 @@
         <v>234</v>
       </c>
       <c r="K148" t="n">
-        <v>-9.67741935483871</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L148" t="n">
         <v>834.8</v>
@@ -7827,7 +7847,7 @@
         <v>234</v>
       </c>
       <c r="K149" t="n">
-        <v>-9.67741935483871</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L149" t="n">
         <v>835</v>
@@ -7878,7 +7898,7 @@
         <v>234</v>
       </c>
       <c r="K150" t="n">
-        <v>-6.666666666666667</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L150" t="n">
         <v>835.4</v>
@@ -7929,7 +7949,7 @@
         <v>234</v>
       </c>
       <c r="K151" t="n">
-        <v>-6.666666666666667</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L151" t="n">
         <v>835.7</v>
@@ -7980,7 +8000,7 @@
         <v>235</v>
       </c>
       <c r="K152" t="n">
-        <v>-14.28571428571428</v>
+        <v>50</v>
       </c>
       <c r="L152" t="n">
         <v>836.3</v>
@@ -8031,7 +8051,7 @@
         <v>235</v>
       </c>
       <c r="K153" t="n">
-        <v>-11.11111111111111</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="L153" t="n">
         <v>836.7</v>
@@ -8082,7 +8102,7 @@
         <v>237</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L154" t="n">
         <v>837.4</v>
@@ -8133,7 +8153,7 @@
         <v>240</v>
       </c>
       <c r="K155" t="n">
-        <v>17.24137931034483</v>
+        <v>100</v>
       </c>
       <c r="L155" t="n">
         <v>838.4</v>
@@ -8184,7 +8204,7 @@
         <v>241</v>
       </c>
       <c r="K156" t="n">
-        <v>21.42857142857143</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="L156" t="n">
         <v>839.4</v>
@@ -8235,7 +8255,7 @@
         <v>242</v>
       </c>
       <c r="K157" t="n">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="L157" t="n">
         <v>840.2</v>
@@ -8286,7 +8306,7 @@
         <v>246</v>
       </c>
       <c r="K158" t="n">
-        <v>51.72413793103448</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L158" t="n">
         <v>841.2</v>
@@ -8337,7 +8357,7 @@
         <v>246</v>
       </c>
       <c r="K159" t="n">
-        <v>46.15384615384615</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L159" t="n">
         <v>842.2</v>
@@ -8388,7 +8408,7 @@
         <v>247</v>
       </c>
       <c r="K160" t="n">
-        <v>52</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L160" t="n">
         <v>843.1</v>
@@ -8439,7 +8459,7 @@
         <v>247</v>
       </c>
       <c r="K161" t="n">
-        <v>50</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L161" t="n">
         <v>844</v>
@@ -8490,7 +8510,7 @@
         <v>248</v>
       </c>
       <c r="K162" t="n">
-        <v>65.21739130434783</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="L162" t="n">
         <v>844.9</v>
@@ -8541,7 +8561,7 @@
         <v>250</v>
       </c>
       <c r="K163" t="n">
-        <v>47.82608695652174</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L163" t="n">
         <v>845.6</v>
@@ -8592,7 +8612,7 @@
         <v>257</v>
       </c>
       <c r="K164" t="n">
-        <v>65.51724137931035</v>
+        <v>52.94117647058824</v>
       </c>
       <c r="L164" t="n">
         <v>846.8</v>
@@ -8643,7 +8663,7 @@
         <v>259</v>
       </c>
       <c r="K165" t="n">
-        <v>54.83870967741935</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="L165" t="n">
         <v>847.5</v>
@@ -8694,7 +8714,7 @@
         <v>260</v>
       </c>
       <c r="K166" t="n">
-        <v>54.83870967741935</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L166" t="n">
         <v>848.2</v>
@@ -8745,7 +8765,7 @@
         <v>262</v>
       </c>
       <c r="K167" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L167" t="n">
         <v>848.6</v>
@@ -8796,7 +8816,7 @@
         <v>262</v>
       </c>
       <c r="K168" t="n">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L168" t="n">
         <v>848.6</v>
@@ -8847,7 +8867,7 @@
         <v>262</v>
       </c>
       <c r="K169" t="n">
-        <v>35.71428571428572</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L169" t="n">
         <v>848.6</v>
@@ -8898,7 +8918,7 @@
         <v>262</v>
       </c>
       <c r="K170" t="n">
-        <v>35.71428571428572</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="L170" t="n">
         <v>848.7</v>
@@ -8949,7 +8969,7 @@
         <v>262</v>
       </c>
       <c r="K171" t="n">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L171" t="n">
         <v>848.8</v>
@@ -9000,7 +9020,7 @@
         <v>262</v>
       </c>
       <c r="K172" t="n">
-        <v>33.33333333333333</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L172" t="n">
         <v>848.8</v>
@@ -9051,7 +9071,7 @@
         <v>265</v>
       </c>
       <c r="K173" t="n">
-        <v>40</v>
+        <v>-25</v>
       </c>
       <c r="L173" t="n">
         <v>849.3</v>
@@ -9102,7 +9122,7 @@
         <v>265</v>
       </c>
       <c r="K174" t="n">
-        <v>35.71428571428572</v>
+        <v>0</v>
       </c>
       <c r="L174" t="n">
         <v>849.1</v>
@@ -9153,7 +9173,7 @@
         <v>266</v>
       </c>
       <c r="K175" t="n">
-        <v>30.76923076923077</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L175" t="n">
         <v>849.2</v>
@@ -9204,7 +9224,7 @@
         <v>269</v>
       </c>
       <c r="K176" t="n">
-        <v>42.85714285714285</v>
+        <v>100</v>
       </c>
       <c r="L176" t="n">
         <v>849.7</v>
@@ -9255,7 +9275,7 @@
         <v>269</v>
       </c>
       <c r="K177" t="n">
-        <v>40.74074074074074</v>
+        <v>100</v>
       </c>
       <c r="L177" t="n">
         <v>850.4</v>
@@ -9306,7 +9326,7 @@
         <v>271</v>
       </c>
       <c r="K178" t="n">
-        <v>20</v>
+        <v>55.55555555555556</v>
       </c>
       <c r="L178" t="n">
         <v>850.9</v>
@@ -9357,7 +9377,7 @@
         <v>273</v>
       </c>
       <c r="K179" t="n">
-        <v>25.92592592592592</v>
+        <v>63.63636363636363</v>
       </c>
       <c r="L179" t="n">
         <v>851.6</v>
@@ -9408,7 +9428,7 @@
         <v>277</v>
       </c>
       <c r="K180" t="n">
-        <v>13.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L180" t="n">
         <v>851.9</v>
@@ -9459,7 +9479,7 @@
         <v>281</v>
       </c>
       <c r="K181" t="n">
-        <v>23.52941176470588</v>
+        <v>36.84210526315789</v>
       </c>
       <c r="L181" t="n">
         <v>852.6</v>
@@ -9510,7 +9530,7 @@
         <v>281</v>
       </c>
       <c r="K182" t="n">
-        <v>21.21212121212121</v>
+        <v>25</v>
       </c>
       <c r="L182" t="n">
         <v>853.3</v>
@@ -9561,7 +9581,7 @@
         <v>282</v>
       </c>
       <c r="K183" t="n">
-        <v>31.25</v>
+        <v>29.41176470588236</v>
       </c>
       <c r="L183" t="n">
         <v>853.8</v>
@@ -9612,7 +9632,7 @@
         <v>284</v>
       </c>
       <c r="K184" t="n">
-        <v>18.51851851851852</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L184" t="n">
         <v>854.5</v>
@@ -9663,7 +9683,7 @@
         <v>284</v>
       </c>
       <c r="K185" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="L185" t="n">
         <v>855.1</v>
@@ -9714,7 +9734,7 @@
         <v>285</v>
       </c>
       <c r="K186" t="n">
-        <v>28</v>
+        <v>12.5</v>
       </c>
       <c r="L186" t="n">
         <v>855.3</v>
@@ -9765,7 +9785,7 @@
         <v>285</v>
       </c>
       <c r="K187" t="n">
-        <v>39.1304347826087</v>
+        <v>28.57142857142857</v>
       </c>
       <c r="L187" t="n">
         <v>855.5</v>
@@ -9816,7 +9836,7 @@
         <v>288</v>
       </c>
       <c r="K188" t="n">
-        <v>23.07692307692308</v>
+        <v>-6.666666666666667</v>
       </c>
       <c r="L188" t="n">
         <v>855.6</v>
@@ -9867,7 +9887,7 @@
         <v>290</v>
       </c>
       <c r="K189" t="n">
-        <v>28.57142857142857</v>
+        <v>38.46153846153847</v>
       </c>
       <c r="L189" t="n">
         <v>855.7</v>
@@ -9918,7 +9938,7 @@
         <v>291</v>
       </c>
       <c r="K190" t="n">
-        <v>31.03448275862069</v>
+        <v>20</v>
       </c>
       <c r="L190" t="n">
         <v>856.3</v>
@@ -9969,7 +9989,7 @@
         <v>292</v>
       </c>
       <c r="K191" t="n">
-        <v>33.33333333333333</v>
+        <v>27.27272727272727</v>
       </c>
       <c r="L191" t="n">
         <v>856.6</v>
@@ -10020,7 +10040,7 @@
         <v>292</v>
       </c>
       <c r="K192" t="n">
-        <v>33.33333333333333</v>
+        <v>20</v>
       </c>
       <c r="L192" t="n">
         <v>856.9</v>
@@ -10071,7 +10091,7 @@
         <v>292</v>
       </c>
       <c r="K193" t="n">
-        <v>25.92592592592592</v>
+        <v>0</v>
       </c>
       <c r="L193" t="n">
         <v>857.1</v>
@@ -10122,7 +10142,7 @@
         <v>293</v>
       </c>
       <c r="K194" t="n">
-        <v>28.57142857142857</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="L194" t="n">
         <v>857.2</v>
@@ -10173,7 +10193,7 @@
         <v>293</v>
       </c>
       <c r="K195" t="n">
-        <v>25.92592592592592</v>
+        <v>25</v>
       </c>
       <c r="L195" t="n">
         <v>857.3</v>
@@ -10224,7 +10244,7 @@
         <v>293</v>
       </c>
       <c r="K196" t="n">
-        <v>16.66666666666666</v>
+        <v>25</v>
       </c>
       <c r="L196" t="n">
         <v>857.5</v>
@@ -10275,7 +10295,7 @@
         <v>295</v>
       </c>
       <c r="K197" t="n">
-        <v>23.07692307692308</v>
+        <v>100</v>
       </c>
       <c r="L197" t="n">
         <v>857.9</v>
@@ -10326,7 +10346,7 @@
         <v>296</v>
       </c>
       <c r="K198" t="n">
-        <v>28</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="L198" t="n">
         <v>858.5</v>
@@ -10377,7 +10397,7 @@
         <v>297</v>
       </c>
       <c r="K199" t="n">
-        <v>16.66666666666666</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="L199" t="n">
         <v>858.8</v>
@@ -10428,7 +10448,7 @@
         <v>298</v>
       </c>
       <c r="K200" t="n">
-        <v>33.33333333333333</v>
+        <v>0</v>
       </c>
       <c r="L200" t="n">
         <v>858.9</v>
@@ -10479,7 +10499,7 @@
         <v>299</v>
       </c>
       <c r="K201" t="n">
-        <v>22.22222222222222</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L201" t="n">
         <v>859</v>
@@ -10530,7 +10550,7 @@
         <v>302</v>
       </c>
       <c r="K202" t="n">
-        <v>4.761904761904762</v>
+        <v>-20</v>
       </c>
       <c r="L202" t="n">
         <v>858.8</v>
@@ -10581,7 +10601,7 @@
         <v>304</v>
       </c>
       <c r="K203" t="n">
-        <v>9.090909090909092</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L203" t="n">
         <v>858.8</v>
@@ -10632,7 +10652,7 @@
         <v>304</v>
       </c>
       <c r="K204" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L204" t="n">
         <v>858.7</v>
@@ -10683,7 +10703,7 @@
         <v>304</v>
       </c>
       <c r="K205" t="n">
-        <v>0</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L205" t="n">
         <v>858.6</v>
@@ -10734,7 +10754,7 @@
         <v>306</v>
       </c>
       <c r="K206" t="n">
-        <v>14.28571428571428</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L206" t="n">
         <v>858.7</v>
@@ -10785,7 +10805,7 @@
         <v>320</v>
       </c>
       <c r="K207" t="n">
-        <v>48.57142857142857</v>
+        <v>58.33333333333334</v>
       </c>
       <c r="L207" t="n">
         <v>860</v>
@@ -10836,7 +10856,7 @@
         <v>357</v>
       </c>
       <c r="K208" t="n">
-        <v>82.60869565217391</v>
+        <v>86.66666666666667</v>
       </c>
       <c r="L208" t="n">
         <v>865.1</v>
@@ -10887,7 +10907,7 @@
         <v>357</v>
       </c>
       <c r="K209" t="n">
-        <v>82.08955223880598</v>
+        <v>89.83050847457628</v>
       </c>
       <c r="L209" t="n">
         <v>870.3</v>
@@ -10938,7 +10958,7 @@
         <v>358</v>
       </c>
       <c r="K210" t="n">
-        <v>79.1044776119403</v>
+        <v>86.4406779661017</v>
       </c>
       <c r="L210" t="n">
         <v>875.5</v>
@@ -10989,7 +11009,7 @@
         <v>362</v>
       </c>
       <c r="K211" t="n">
-        <v>68.57142857142857</v>
+        <v>83.33333333333334</v>
       </c>
       <c r="L211" t="n">
         <v>880.2</v>
@@ -11040,7 +11060,7 @@
         <v>370</v>
       </c>
       <c r="K212" t="n">
-        <v>51.28205128205128</v>
+        <v>60.60606060606061</v>
       </c>
       <c r="L212" t="n">
         <v>884.4</v>
@@ -11091,7 +11111,7 @@
         <v>372</v>
       </c>
       <c r="K213" t="n">
-        <v>52.5</v>
+        <v>61.76470588235294</v>
       </c>
       <c r="L213" t="n">
         <v>888.6</v>
@@ -11142,7 +11162,7 @@
         <v>388</v>
       </c>
       <c r="K214" t="n">
-        <v>60</v>
+        <v>69.04761904761905</v>
       </c>
       <c r="L214" t="n">
         <v>894.4</v>
@@ -11193,7 +11213,7 @@
         <v>392</v>
       </c>
       <c r="K215" t="n">
-        <v>53.53535353535354</v>
+        <v>60.46511627906976</v>
       </c>
       <c r="L215" t="n">
         <v>899.8</v>
@@ -11244,7 +11264,7 @@
         <v>395</v>
       </c>
       <c r="K216" t="n">
-        <v>49.01960784313725</v>
+        <v>46.66666666666666</v>
       </c>
       <c r="L216" t="n">
         <v>904.7</v>
@@ -11295,7 +11315,7 @@
         <v>396</v>
       </c>
       <c r="K217" t="n">
-        <v>48.51485148514851</v>
+        <v>-2.564102564102564</v>
       </c>
       <c r="L217" t="n">
         <v>908.3</v>
@@ -11346,7 +11366,7 @@
         <v>405</v>
       </c>
       <c r="K218" t="n">
-        <v>37.61467889908257</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L218" t="n">
         <v>907.3</v>
@@ -11397,7 +11417,7 @@
         <v>406</v>
       </c>
       <c r="K219" t="n">
-        <v>37.61467889908257</v>
+        <v>-20.83333333333334</v>
       </c>
       <c r="L219" t="n">
         <v>906.2</v>
@@ -11448,7 +11468,7 @@
         <v>416</v>
       </c>
       <c r="K220" t="n">
-        <v>44.06779661016949</v>
+        <v>7.407407407407407</v>
       </c>
       <c r="L220" t="n">
         <v>906.2</v>
@@ -11499,7 +11519,7 @@
         <v>417</v>
       </c>
       <c r="K221" t="n">
-        <v>44.06779661016949</v>
+        <v>27.65957446808511</v>
       </c>
       <c r="L221" t="n">
         <v>906.7</v>
@@ -11550,7 +11570,7 @@
         <v>418</v>
       </c>
       <c r="K222" t="n">
-        <v>46.55172413793103</v>
+        <v>21.73913043478261</v>
       </c>
       <c r="L222" t="n">
         <v>907.9</v>
@@ -11601,7 +11621,7 @@
         <v>423</v>
       </c>
       <c r="K223" t="n">
-        <v>47.89915966386555</v>
+        <v>-2.857142857142857</v>
       </c>
       <c r="L223" t="n">
         <v>909.4</v>
@@ -11652,7 +11672,7 @@
         <v>425</v>
       </c>
       <c r="K224" t="n">
-        <v>48.7603305785124</v>
+        <v>15.15151515151515</v>
       </c>
       <c r="L224" t="n">
         <v>909.5</v>
@@ -11703,7 +11723,7 @@
         <v>426</v>
       </c>
       <c r="K225" t="n">
-        <v>49.18032786885246</v>
+        <v>29.03225806451613</v>
       </c>
       <c r="L225" t="n">
         <v>910.1</v>
@@ -11754,7 +11774,7 @@
         <v>426</v>
       </c>
       <c r="K226" t="n">
-        <v>48.33333333333334</v>
+        <v>26.66666666666667</v>
       </c>
       <c r="L226" t="n">
         <v>911</v>
@@ -11805,7 +11825,7 @@
         <v>430</v>
       </c>
       <c r="K227" t="n">
-        <v>36.36363636363637</v>
+        <v>52</v>
       </c>
       <c r="L227" t="n">
         <v>911.4</v>
@@ -11856,7 +11876,7 @@
         <v>435</v>
       </c>
       <c r="K228" t="n">
-        <v>-2.564102564102564</v>
+        <v>31.03448275862069</v>
       </c>
       <c r="L228" t="n">
         <v>912.2</v>
@@ -11907,7 +11927,7 @@
         <v>435</v>
       </c>
       <c r="K229" t="n">
-        <v>-2.564102564102564</v>
+        <v>-5.263157894736842</v>
       </c>
       <c r="L229" t="n">
         <v>913.1</v>
@@ -11958,7 +11978,7 @@
         <v>441</v>
       </c>
       <c r="K230" t="n">
-        <v>6.024096385542169</v>
+        <v>16.66666666666666</v>
       </c>
       <c r="L230" t="n">
         <v>913.6</v>
@@ -12009,7 +12029,7 @@
         <v>442</v>
       </c>
       <c r="K231" t="n">
-        <v>12.5</v>
+        <v>25</v>
       </c>
       <c r="L231" t="n">
         <v>914.1</v>
@@ -12060,7 +12080,7 @@
         <v>445</v>
       </c>
       <c r="K232" t="n">
-        <v>20</v>
+        <v>-9.090909090909092</v>
       </c>
       <c r="L232" t="n">
         <v>914.4</v>
@@ -12111,7 +12131,7 @@
         <v>449</v>
       </c>
       <c r="K233" t="n">
-        <v>11.68831168831169</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L233" t="n">
         <v>913.8</v>
@@ -12162,7 +12182,7 @@
         <v>453</v>
       </c>
       <c r="K234" t="n">
-        <v>-4.615384615384616</v>
+        <v>-18.51851851851852</v>
       </c>
       <c r="L234" t="n">
         <v>913.4</v>
@@ -12213,7 +12233,7 @@
         <v>457</v>
       </c>
       <c r="K235" t="n">
-        <v>7.692307692307693</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L235" t="n">
         <v>913.3</v>
@@ -12315,7 +12335,7 @@
         <v>465</v>
       </c>
       <c r="K237" t="n">
-        <v>21.73913043478261</v>
+        <v>53.33333333333334</v>
       </c>
       <c r="L237" t="n">
         <v>914.4</v>
@@ -12366,7 +12386,7 @@
         <v>471</v>
       </c>
       <c r="K238" t="n">
-        <v>27.27272727272727</v>
+        <v>27.77777777777778</v>
       </c>
       <c r="L238" t="n">
         <v>915.4</v>
@@ -12417,7 +12437,7 @@
         <v>474</v>
       </c>
       <c r="K239" t="n">
-        <v>32.35294117647059</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L239" t="n">
         <v>916.7</v>
@@ -12468,7 +12488,7 @@
         <v>475</v>
       </c>
       <c r="K240" t="n">
-        <v>22.03389830508474</v>
+        <v>21.21212121212121</v>
       </c>
       <c r="L240" t="n">
         <v>917.5</v>
@@ -12519,7 +12539,7 @@
         <v>479</v>
       </c>
       <c r="K241" t="n">
-        <v>12.90322580645161</v>
+        <v>17.64705882352941</v>
       </c>
       <c r="L241" t="n">
         <v>917.8</v>
@@ -12570,7 +12590,7 @@
         <v>484</v>
       </c>
       <c r="K242" t="n">
-        <v>6.060606060606061</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L242" t="n">
         <v>917.9</v>
@@ -12621,7 +12641,7 @@
         <v>485</v>
       </c>
       <c r="K243" t="n">
-        <v>0</v>
+        <v>6.25</v>
       </c>
       <c r="L243" t="n">
         <v>918.5</v>
@@ -12672,7 +12692,7 @@
         <v>486</v>
       </c>
       <c r="K244" t="n">
-        <v>-1.639344262295082</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L244" t="n">
         <v>918.8</v>
@@ -12723,7 +12743,7 @@
         <v>487</v>
       </c>
       <c r="K245" t="n">
-        <v>-1.639344262295082</v>
+        <v>-3.448275862068965</v>
       </c>
       <c r="L245" t="n">
         <v>918.8</v>
@@ -12774,7 +12794,7 @@
         <v>489</v>
       </c>
       <c r="K246" t="n">
-        <v>-4.761904761904762</v>
+        <v>-41.66666666666667</v>
       </c>
       <c r="L246" t="n">
         <v>918.5</v>
@@ -12825,7 +12845,7 @@
         <v>493</v>
       </c>
       <c r="K247" t="n">
-        <v>-4.761904761904762</v>
+        <v>-36.36363636363637</v>
       </c>
       <c r="L247" t="n">
         <v>917.1</v>
@@ -12876,7 +12896,7 @@
         <v>495</v>
       </c>
       <c r="K248" t="n">
-        <v>0</v>
+        <v>-61.90476190476191</v>
       </c>
       <c r="L248" t="n">
         <v>916.1</v>
@@ -12927,7 +12947,7 @@
         <v>497</v>
       </c>
       <c r="K249" t="n">
-        <v>-3.225806451612903</v>
+        <v>-72.72727272727273</v>
       </c>
       <c r="L249" t="n">
         <v>914.6</v>
@@ -12978,7 +12998,7 @@
         <v>502</v>
       </c>
       <c r="K250" t="n">
-        <v>-4.918032786885246</v>
+        <v>-30.43478260869566</v>
       </c>
       <c r="L250" t="n">
         <v>913.5</v>
@@ -13029,7 +13049,7 @@
         <v>503</v>
       </c>
       <c r="K251" t="n">
-        <v>-8.196721311475409</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L251" t="n">
         <v>912.7</v>
@@ -13080,7 +13100,7 @@
         <v>504</v>
       </c>
       <c r="K252" t="n">
-        <v>-1.694915254237288</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L252" t="n">
         <v>912.5</v>
@@ -13131,7 +13151,7 @@
         <v>504</v>
       </c>
       <c r="K253" t="n">
-        <v>5.454545454545454</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L253" t="n">
         <v>912.2</v>
@@ -13182,7 +13202,7 @@
         <v>505</v>
       </c>
       <c r="K254" t="n">
-        <v>0</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L254" t="n">
         <v>911.9</v>
@@ -13233,7 +13253,7 @@
         <v>510</v>
       </c>
       <c r="K255" t="n">
-        <v>-16.9811320754717</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L255" t="n">
         <v>911</v>
@@ -13284,7 +13304,7 @@
         <v>511</v>
       </c>
       <c r="K256" t="n">
-        <v>-20.75471698113208</v>
+        <v>-22.22222222222222</v>
       </c>
       <c r="L256" t="n">
         <v>910.2</v>
@@ -13335,7 +13355,7 @@
         <v>516</v>
       </c>
       <c r="K257" t="n">
-        <v>-25.49019607843137</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="L257" t="n">
         <v>910.3</v>
@@ -13386,7 +13406,7 @@
         <v>517</v>
       </c>
       <c r="K258" t="n">
-        <v>-13.04347826086956</v>
+        <v>30</v>
       </c>
       <c r="L258" t="n">
         <v>910.7</v>
@@ -13437,7 +13457,7 @@
         <v>521</v>
       </c>
       <c r="K259" t="n">
-        <v>-27.65957446808511</v>
+        <v>-15.78947368421053</v>
       </c>
       <c r="L259" t="n">
         <v>910.9</v>
@@ -13488,7 +13508,7 @@
         <v>524</v>
       </c>
       <c r="K260" t="n">
-        <v>-22.44897959183674</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L260" t="n">
         <v>910.9</v>
@@ -13539,7 +13559,7 @@
         <v>525</v>
       </c>
       <c r="K261" t="n">
-        <v>-13.04347826086956</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L261" t="n">
         <v>911.1</v>
@@ -13590,7 +13610,7 @@
         <v>525</v>
       </c>
       <c r="K262" t="n">
-        <v>-2.439024390243902</v>
+        <v>4.761904761904762</v>
       </c>
       <c r="L262" t="n">
         <v>911.2</v>
@@ -13641,7 +13661,7 @@
         <v>526</v>
       </c>
       <c r="K263" t="n">
-        <v>-7.317073170731707</v>
+        <v>-4.761904761904762</v>
       </c>
       <c r="L263" t="n">
         <v>911.2</v>
@@ -13692,7 +13712,7 @@
         <v>526</v>
       </c>
       <c r="K264" t="n">
-        <v>-10</v>
+        <v>25</v>
       </c>
       <c r="L264" t="n">
         <v>911.1</v>
@@ -13743,7 +13763,7 @@
         <v>530</v>
       </c>
       <c r="K265" t="n">
-        <v>-20.93023255813954</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L265" t="n">
         <v>911.1</v>
@@ -13794,7 +13814,7 @@
         <v>534</v>
       </c>
       <c r="K266" t="n">
-        <v>-6.666666666666667</v>
+        <v>0</v>
       </c>
       <c r="L266" t="n">
         <v>911.6</v>
@@ -13845,7 +13865,7 @@
         <v>538</v>
       </c>
       <c r="K267" t="n">
-        <v>-6.666666666666667</v>
+        <v>-23.80952380952381</v>
       </c>
       <c r="L267" t="n">
         <v>911.2</v>
@@ -13896,7 +13916,7 @@
         <v>540</v>
       </c>
       <c r="K268" t="n">
-        <v>2.222222222222222</v>
+        <v>5.263157894736842</v>
       </c>
       <c r="L268" t="n">
         <v>910.9</v>
@@ -13947,7 +13967,7 @@
         <v>545</v>
       </c>
       <c r="K269" t="n">
-        <v>-4.166666666666666</v>
+        <v>-33.33333333333333</v>
       </c>
       <c r="L269" t="n">
         <v>910.5</v>
@@ -13998,7 +14018,7 @@
         <v>548</v>
       </c>
       <c r="K270" t="n">
-        <v>-8.695652173913043</v>
+        <v>-21.73913043478261</v>
       </c>
       <c r="L270" t="n">
         <v>910.1</v>
@@ -14049,7 +14069,7 @@
         <v>551</v>
       </c>
       <c r="K271" t="n">
-        <v>-12.5</v>
+        <v>-30.76923076923077</v>
       </c>
       <c r="L271" t="n">
         <v>909.3</v>
@@ -14100,7 +14120,7 @@
         <v>551</v>
       </c>
       <c r="K272" t="n">
-        <v>-14.8936170212766</v>
+        <v>-28</v>
       </c>
       <c r="L272" t="n">
         <v>908.5</v>
@@ -14151,7 +14171,7 @@
         <v>555</v>
       </c>
       <c r="K273" t="n">
-        <v>-21.56862745098039</v>
+        <v>-37.93103448275862</v>
       </c>
       <c r="L273" t="n">
         <v>907.4</v>
@@ -14202,7 +14222,7 @@
         <v>562</v>
       </c>
       <c r="K274" t="n">
-        <v>-8.771929824561402</v>
+        <v>0</v>
       </c>
       <c r="L274" t="n">
         <v>907</v>
@@ -14253,7 +14273,7 @@
         <v>565</v>
       </c>
       <c r="K275" t="n">
-        <v>5.454545454545454</v>
+        <v>-3.225806451612903</v>
       </c>
       <c r="L275" t="n">
         <v>907.3</v>
@@ -14304,7 +14324,7 @@
         <v>572</v>
       </c>
       <c r="K276" t="n">
-        <v>-4.918032786885246</v>
+        <v>-11.76470588235294</v>
       </c>
       <c r="L276" t="n">
         <v>906.5</v>

--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:S276"/>
+  <dimension ref="A1:M255"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,60 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>closegap_cunsum</t>
+          <t>high_check</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>closegap_abs_cumsum</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>CMO</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>MA5</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>MA20</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>MA30</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>SPP</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -483,17 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="inlineStr"/>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr"/>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr"/>
-      <c r="R2" t="inlineStr"/>
-      <c r="S2" t="n">
+      <c r="M2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -525,18 +491,10 @@
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
+      <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="inlineStr"/>
-      <c r="O3" t="inlineStr"/>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr"/>
-      <c r="R3" t="inlineStr"/>
-      <c r="S3" t="n">
+      <c r="M3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -566,20 +524,12 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J4" t="n">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
-      <c r="P4" t="inlineStr"/>
-      <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="n">
+      <c r="M4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -611,18 +561,10 @@
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>2</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="n">
+      <c r="M5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -654,18 +596,10 @@
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>2</v>
-      </c>
+      <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="inlineStr"/>
-      <c r="O6" t="inlineStr"/>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="inlineStr"/>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="n">
+      <c r="M6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -697,18 +631,10 @@
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>2</v>
-      </c>
+      <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="inlineStr"/>
-      <c r="N7" t="inlineStr"/>
-      <c r="O7" t="inlineStr"/>
-      <c r="P7" t="inlineStr"/>
-      <c r="Q7" t="inlineStr"/>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="n">
+      <c r="M7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -740,18 +666,10 @@
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>2</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
-      <c r="O8" t="inlineStr"/>
-      <c r="P8" t="inlineStr"/>
-      <c r="Q8" t="inlineStr"/>
-      <c r="R8" t="inlineStr"/>
-      <c r="S8" t="n">
+      <c r="M8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -783,18 +701,10 @@
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
+      <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
-      <c r="N9" t="inlineStr"/>
-      <c r="O9" t="inlineStr"/>
-      <c r="P9" t="inlineStr"/>
-      <c r="Q9" t="inlineStr"/>
-      <c r="R9" t="inlineStr"/>
-      <c r="S9" t="n">
+      <c r="M9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -826,18 +736,10 @@
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>2</v>
-      </c>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr"/>
-      <c r="N10" t="inlineStr"/>
-      <c r="O10" t="inlineStr"/>
-      <c r="P10" t="inlineStr"/>
-      <c r="Q10" t="inlineStr"/>
-      <c r="R10" t="inlineStr"/>
-      <c r="S10" t="n">
+      <c r="M10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -869,20 +771,10 @@
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>2</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="n">
-        <v>849.9</v>
-      </c>
-      <c r="M11" t="inlineStr"/>
-      <c r="N11" t="inlineStr"/>
-      <c r="O11" t="inlineStr"/>
-      <c r="P11" t="inlineStr"/>
-      <c r="Q11" t="inlineStr"/>
-      <c r="R11" t="inlineStr"/>
-      <c r="S11" t="n">
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -914,22 +806,10 @@
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>849.9</v>
-      </c>
-      <c r="M12" t="inlineStr"/>
-      <c r="N12" t="inlineStr"/>
-      <c r="O12" t="inlineStr"/>
-      <c r="P12" t="inlineStr"/>
-      <c r="Q12" t="inlineStr"/>
-      <c r="R12" t="inlineStr"/>
-      <c r="S12" t="n">
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -961,22 +841,10 @@
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>2</v>
-      </c>
-      <c r="K13" t="n">
-        <v>100</v>
-      </c>
-      <c r="L13" t="n">
-        <v>849.9</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
-      <c r="N13" t="inlineStr"/>
-      <c r="O13" t="inlineStr"/>
-      <c r="P13" t="inlineStr"/>
-      <c r="Q13" t="inlineStr"/>
-      <c r="R13" t="inlineStr"/>
-      <c r="S13" t="n">
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
+      <c r="M13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,20 +876,10 @@
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>2</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="n">
-        <v>850</v>
-      </c>
-      <c r="M14" t="inlineStr"/>
-      <c r="N14" t="inlineStr"/>
-      <c r="O14" t="inlineStr"/>
-      <c r="P14" t="inlineStr"/>
-      <c r="Q14" t="inlineStr"/>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="n">
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1051,24 +909,12 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
-      </c>
-      <c r="J15" t="n">
-        <v>4</v>
-      </c>
-      <c r="K15" t="n">
-        <v>100</v>
-      </c>
-      <c r="L15" t="n">
-        <v>850.2</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
-      <c r="N15" t="inlineStr"/>
-      <c r="O15" t="inlineStr"/>
-      <c r="P15" t="inlineStr"/>
-      <c r="Q15" t="inlineStr"/>
-      <c r="R15" t="inlineStr"/>
-      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
+      <c r="M15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1098,24 +944,12 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>2</v>
-      </c>
-      <c r="J16" t="n">
-        <v>4</v>
-      </c>
-      <c r="K16" t="n">
-        <v>100</v>
-      </c>
-      <c r="L16" t="n">
-        <v>850.4</v>
-      </c>
-      <c r="M16" t="inlineStr"/>
-      <c r="N16" t="inlineStr"/>
-      <c r="O16" t="inlineStr"/>
-      <c r="P16" t="inlineStr"/>
-      <c r="Q16" t="inlineStr"/>
-      <c r="R16" t="inlineStr"/>
-      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1145,24 +979,12 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
-      </c>
-      <c r="J17" t="n">
-        <v>5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>100</v>
-      </c>
-      <c r="L17" t="n">
-        <v>850.7</v>
-      </c>
-      <c r="M17" t="inlineStr"/>
-      <c r="N17" t="inlineStr"/>
-      <c r="O17" t="inlineStr"/>
-      <c r="P17" t="inlineStr"/>
-      <c r="Q17" t="inlineStr"/>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1192,24 +1014,12 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="n">
-        <v>6</v>
-      </c>
-      <c r="K18" t="n">
-        <v>100</v>
-      </c>
-      <c r="L18" t="n">
-        <v>851.1</v>
-      </c>
-      <c r="M18" t="inlineStr"/>
-      <c r="N18" t="inlineStr"/>
-      <c r="O18" t="inlineStr"/>
-      <c r="P18" t="inlineStr"/>
-      <c r="Q18" t="inlineStr"/>
-      <c r="R18" t="inlineStr"/>
-      <c r="S18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1239,24 +1049,12 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
-      </c>
-      <c r="J19" t="n">
-        <v>8</v>
-      </c>
-      <c r="K19" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L19" t="n">
-        <v>851.3</v>
-      </c>
-      <c r="M19" t="inlineStr"/>
-      <c r="N19" t="inlineStr"/>
-      <c r="O19" t="inlineStr"/>
-      <c r="P19" t="inlineStr"/>
-      <c r="Q19" t="inlineStr"/>
-      <c r="R19" t="inlineStr"/>
-      <c r="S19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1286,24 +1084,12 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>8</v>
-      </c>
-      <c r="K20" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L20" t="n">
-        <v>851.5</v>
-      </c>
-      <c r="M20" t="inlineStr"/>
-      <c r="N20" t="inlineStr"/>
-      <c r="O20" t="inlineStr"/>
-      <c r="P20" t="inlineStr"/>
-      <c r="Q20" t="inlineStr"/>
-      <c r="R20" t="inlineStr"/>
-      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1333,26 +1119,12 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>11</v>
-      </c>
-      <c r="K21" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L21" t="n">
-        <v>851.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>850.65</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
-      <c r="O21" t="inlineStr"/>
-      <c r="P21" t="inlineStr"/>
-      <c r="Q21" t="inlineStr"/>
-      <c r="R21" t="inlineStr"/>
-      <c r="S21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1382,26 +1154,12 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>13</v>
-      </c>
-      <c r="K22" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L22" t="n">
-        <v>851.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>850.7</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
-      <c r="O22" t="inlineStr"/>
-      <c r="P22" t="inlineStr"/>
-      <c r="Q22" t="inlineStr"/>
-      <c r="R22" t="inlineStr"/>
-      <c r="S22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1431,26 +1189,12 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>16</v>
-      </c>
-      <c r="K23" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L23" t="n">
-        <v>851.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
-        <v>850.6</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
-      <c r="O23" t="inlineStr"/>
-      <c r="P23" t="inlineStr"/>
-      <c r="Q23" t="inlineStr"/>
-      <c r="R23" t="inlineStr"/>
-      <c r="S23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1480,26 +1224,12 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>17</v>
-      </c>
-      <c r="K24" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L24" t="n">
-        <v>851.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>850.6</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
-      <c r="O24" t="inlineStr"/>
-      <c r="P24" t="inlineStr"/>
-      <c r="Q24" t="inlineStr"/>
-      <c r="R24" t="inlineStr"/>
-      <c r="S24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1529,26 +1259,12 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>17</v>
-      </c>
-      <c r="K25" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L25" t="n">
-        <v>850.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
-        <v>850.55</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
-      <c r="O25" t="inlineStr"/>
-      <c r="P25" t="inlineStr"/>
-      <c r="Q25" t="inlineStr"/>
-      <c r="R25" t="inlineStr"/>
-      <c r="S25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1578,26 +1294,12 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J26" t="n">
-        <v>20</v>
-      </c>
-      <c r="K26" t="n">
-        <v>-46.66666666666666</v>
-      </c>
-      <c r="L26" t="n">
-        <v>850.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>850.35</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
-      <c r="O26" t="inlineStr"/>
-      <c r="P26" t="inlineStr"/>
-      <c r="Q26" t="inlineStr"/>
-      <c r="R26" t="inlineStr"/>
-      <c r="S26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1627,26 +1329,12 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J27" t="n">
-        <v>20</v>
-      </c>
-      <c r="K27" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L27" t="n">
-        <v>849.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
-        <v>850.15</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
-      <c r="O27" t="inlineStr"/>
-      <c r="P27" t="inlineStr"/>
-      <c r="Q27" t="inlineStr"/>
-      <c r="R27" t="inlineStr"/>
-      <c r="S27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1676,26 +1364,12 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>23</v>
-      </c>
-      <c r="K28" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L28" t="n">
-        <v>849.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>850.1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
-      <c r="O28" t="inlineStr"/>
-      <c r="P28" t="inlineStr"/>
-      <c r="Q28" t="inlineStr"/>
-      <c r="R28" t="inlineStr"/>
-      <c r="S28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1725,26 +1399,12 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J29" t="n">
-        <v>24</v>
-      </c>
-      <c r="K29" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L29" t="n">
-        <v>848.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>850</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
-      <c r="O29" t="inlineStr"/>
-      <c r="P29" t="inlineStr"/>
-      <c r="Q29" t="inlineStr"/>
-      <c r="R29" t="inlineStr"/>
-      <c r="S29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1774,26 +1434,12 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J30" t="n">
-        <v>24</v>
-      </c>
-      <c r="K30" t="n">
-        <v>-7.692307692307693</v>
-      </c>
-      <c r="L30" t="n">
-        <v>848.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>849.9</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
-      <c r="O30" t="inlineStr"/>
-      <c r="P30" t="inlineStr"/>
-      <c r="Q30" t="inlineStr"/>
-      <c r="R30" t="inlineStr"/>
-      <c r="S30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1823,28 +1469,12 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J31" t="n">
-        <v>25</v>
-      </c>
-      <c r="K31" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L31" t="n">
-        <v>848.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>849.75</v>
-      </c>
-      <c r="N31" t="n">
-        <v>849.8</v>
-      </c>
-      <c r="O31" t="inlineStr"/>
-      <c r="P31" t="inlineStr"/>
-      <c r="Q31" t="inlineStr"/>
-      <c r="R31" t="inlineStr"/>
-      <c r="S31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1874,28 +1504,12 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J32" t="n">
-        <v>26</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>847.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
-        <v>849.65</v>
-      </c>
-      <c r="N32" t="n">
-        <v>849.7333333333333</v>
-      </c>
-      <c r="O32" t="inlineStr"/>
-      <c r="P32" t="inlineStr"/>
-      <c r="Q32" t="inlineStr"/>
-      <c r="R32" t="inlineStr"/>
-      <c r="S32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1925,28 +1539,12 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J33" t="n">
-        <v>26</v>
-      </c>
-      <c r="K33" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L33" t="n">
-        <v>847.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>849.55</v>
-      </c>
-      <c r="N33" t="n">
-        <v>849.6666666666666</v>
-      </c>
-      <c r="O33" t="inlineStr"/>
-      <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1976,28 +1574,12 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J34" t="n">
-        <v>27</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>847.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>849.5</v>
-      </c>
-      <c r="N34" t="n">
-        <v>849.6666666666666</v>
-      </c>
-      <c r="O34" t="inlineStr"/>
-      <c r="P34" t="inlineStr"/>
-      <c r="Q34" t="inlineStr"/>
-      <c r="R34" t="inlineStr"/>
-      <c r="S34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2027,28 +1609,12 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J35" t="n">
-        <v>27</v>
-      </c>
-      <c r="K35" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L35" t="n">
-        <v>847.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>849.35</v>
-      </c>
-      <c r="N35" t="n">
-        <v>849.6333333333333</v>
-      </c>
-      <c r="O35" t="inlineStr"/>
-      <c r="P35" t="inlineStr"/>
-      <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
-      <c r="S35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2078,28 +1644,12 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J36" t="n">
-        <v>27</v>
-      </c>
-      <c r="K36" t="n">
-        <v>42.85714285714285</v>
-      </c>
-      <c r="L36" t="n">
-        <v>848.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>849.2</v>
-      </c>
-      <c r="N36" t="n">
-        <v>849.6</v>
-      </c>
-      <c r="O36" t="inlineStr"/>
-      <c r="P36" t="inlineStr"/>
-      <c r="Q36" t="inlineStr"/>
-      <c r="R36" t="inlineStr"/>
-      <c r="S36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2131,26 +1681,10 @@
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>28</v>
-      </c>
-      <c r="K37" t="n">
-        <v>20</v>
-      </c>
-      <c r="L37" t="n">
-        <v>848.5</v>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>849.05</v>
-      </c>
-      <c r="N37" t="n">
-        <v>849.6</v>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr"/>
-      <c r="R37" t="inlineStr"/>
-      <c r="S37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2180,28 +1714,12 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>29</v>
-      </c>
-      <c r="K38" t="n">
-        <v>20</v>
-      </c>
-      <c r="L38" t="n">
-        <v>848.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>848.8</v>
-      </c>
-      <c r="N38" t="n">
-        <v>849.5666666666667</v>
-      </c>
-      <c r="O38" t="inlineStr"/>
-      <c r="P38" t="inlineStr"/>
-      <c r="Q38" t="inlineStr"/>
-      <c r="R38" t="inlineStr"/>
-      <c r="S38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2231,28 +1749,12 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J39" t="n">
-        <v>29</v>
-      </c>
-      <c r="K39" t="n">
-        <v>20</v>
-      </c>
-      <c r="L39" t="n">
-        <v>848.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>848.65</v>
-      </c>
-      <c r="N39" t="n">
-        <v>849.5333333333333</v>
-      </c>
-      <c r="O39" t="inlineStr"/>
-      <c r="P39" t="inlineStr"/>
-      <c r="Q39" t="inlineStr"/>
-      <c r="R39" t="inlineStr"/>
-      <c r="S39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2282,28 +1784,12 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J40" t="n">
-        <v>32</v>
-      </c>
-      <c r="K40" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L40" t="n">
-        <v>848.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
-        <v>848.35</v>
-      </c>
-      <c r="N40" t="n">
-        <v>849.4</v>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr"/>
-      <c r="R40" t="inlineStr"/>
-      <c r="S40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2333,28 +1819,12 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>-3</v>
-      </c>
-      <c r="J41" t="n">
-        <v>33</v>
-      </c>
-      <c r="K41" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L41" t="n">
-        <v>848.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>848.25</v>
-      </c>
-      <c r="N41" t="n">
-        <v>849.3</v>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr"/>
-      <c r="R41" t="inlineStr"/>
-      <c r="S41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2384,28 +1854,12 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
-      </c>
-      <c r="J42" t="n">
-        <v>37</v>
-      </c>
-      <c r="K42" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L42" t="n">
-        <v>848.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>848.25</v>
-      </c>
-      <c r="N42" t="n">
-        <v>849.3333333333334</v>
-      </c>
-      <c r="O42" t="inlineStr"/>
-      <c r="P42" t="inlineStr"/>
-      <c r="Q42" t="inlineStr"/>
-      <c r="R42" t="inlineStr"/>
-      <c r="S42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2437,26 +1891,10 @@
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>38</v>
-      </c>
-      <c r="K43" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L43" t="n">
-        <v>848.9</v>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>848.35</v>
-      </c>
-      <c r="N43" t="n">
-        <v>849.3333333333334</v>
-      </c>
-      <c r="O43" t="inlineStr"/>
-      <c r="P43" t="inlineStr"/>
-      <c r="Q43" t="inlineStr"/>
-      <c r="R43" t="inlineStr"/>
-      <c r="S43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2486,28 +1924,12 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
-      </c>
-      <c r="J44" t="n">
-        <v>39</v>
-      </c>
-      <c r="K44" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L44" t="n">
-        <v>849.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
-        <v>848.45</v>
-      </c>
-      <c r="N44" t="n">
-        <v>849.3666666666667</v>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr"/>
-      <c r="R44" t="inlineStr"/>
-      <c r="S44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2537,28 +1959,12 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
-      </c>
-      <c r="J45" t="n">
-        <v>40</v>
-      </c>
-      <c r="K45" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L45" t="n">
-        <v>849.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
-        <v>848.6</v>
-      </c>
-      <c r="N45" t="n">
-        <v>849.3666666666667</v>
-      </c>
-      <c r="O45" t="inlineStr"/>
-      <c r="P45" t="inlineStr"/>
-      <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
-      <c r="S45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2588,28 +1994,12 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>3</v>
-      </c>
-      <c r="J46" t="n">
-        <v>41</v>
-      </c>
-      <c r="K46" t="n">
-        <v>23.07692307692308</v>
-      </c>
-      <c r="L46" t="n">
-        <v>849.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
-        <v>848.95</v>
-      </c>
-      <c r="N46" t="n">
-        <v>849.4</v>
-      </c>
-      <c r="O46" t="inlineStr"/>
-      <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2639,28 +2029,12 @@
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>6</v>
-      </c>
-      <c r="J47" t="n">
-        <v>44</v>
-      </c>
-      <c r="K47" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L47" t="n">
-        <v>850.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
-        <v>849.45</v>
-      </c>
-      <c r="N47" t="n">
-        <v>849.5</v>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr"/>
-      <c r="R47" t="inlineStr"/>
-      <c r="S47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2690,28 +2064,12 @@
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>10</v>
-      </c>
-      <c r="J48" t="n">
-        <v>48</v>
-      </c>
-      <c r="K48" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="L48" t="n">
-        <v>851.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>850</v>
-      </c>
-      <c r="N48" t="n">
-        <v>849.7</v>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
-      <c r="S48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2741,28 +2099,12 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>7</v>
-      </c>
-      <c r="J49" t="n">
-        <v>51</v>
-      </c>
-      <c r="K49" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="L49" t="n">
-        <v>852.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>850.45</v>
-      </c>
-      <c r="N49" t="n">
-        <v>849.8666666666667</v>
-      </c>
-      <c r="O49" t="inlineStr"/>
-      <c r="P49" t="inlineStr"/>
-      <c r="Q49" t="inlineStr"/>
-      <c r="R49" t="inlineStr"/>
-      <c r="S49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2792,28 +2134,12 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>8</v>
-      </c>
-      <c r="J50" t="n">
-        <v>52</v>
-      </c>
-      <c r="K50" t="n">
-        <v>57.89473684210527</v>
-      </c>
-      <c r="L50" t="n">
-        <v>853.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
-        <v>850.95</v>
-      </c>
-      <c r="N50" t="n">
-        <v>850.0666666666667</v>
-      </c>
-      <c r="O50" t="inlineStr"/>
-      <c r="P50" t="inlineStr"/>
-      <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
-      <c r="S50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2843,28 +2169,12 @@
         <v>0</v>
       </c>
       <c r="I51" t="n">
-        <v>9</v>
-      </c>
-      <c r="J51" t="n">
-        <v>53</v>
-      </c>
-      <c r="K51" t="n">
-        <v>50</v>
-      </c>
-      <c r="L51" t="n">
-        <v>854.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>851.55</v>
-      </c>
-      <c r="N51" t="n">
-        <v>850.4</v>
-      </c>
-      <c r="O51" t="inlineStr"/>
-      <c r="P51" t="inlineStr"/>
-      <c r="Q51" t="inlineStr"/>
-      <c r="R51" t="inlineStr"/>
-      <c r="S51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2894,28 +2204,12 @@
         <v>0</v>
       </c>
       <c r="I52" t="n">
-        <v>10</v>
-      </c>
-      <c r="J52" t="n">
-        <v>54</v>
-      </c>
-      <c r="K52" t="n">
-        <v>62.5</v>
-      </c>
-      <c r="L52" t="n">
-        <v>855.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>852.15</v>
-      </c>
-      <c r="N52" t="n">
-        <v>850.7</v>
-      </c>
-      <c r="O52" t="inlineStr"/>
-      <c r="P52" t="inlineStr"/>
-      <c r="Q52" t="inlineStr"/>
-      <c r="R52" t="inlineStr"/>
-      <c r="S52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2945,28 +2239,12 @@
         <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>10</v>
-      </c>
-      <c r="J53" t="n">
-        <v>54</v>
-      </c>
-      <c r="K53" t="n">
-        <v>60</v>
-      </c>
-      <c r="L53" t="n">
-        <v>856.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
-        <v>852.75</v>
-      </c>
-      <c r="N53" t="n">
-        <v>851.1</v>
-      </c>
-      <c r="O53" t="inlineStr"/>
-      <c r="P53" t="inlineStr"/>
-      <c r="Q53" t="inlineStr"/>
-      <c r="R53" t="inlineStr"/>
-      <c r="S53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2996,28 +2274,12 @@
         <v>0</v>
       </c>
       <c r="I54" t="n">
-        <v>11</v>
-      </c>
-      <c r="J54" t="n">
-        <v>55</v>
-      </c>
-      <c r="K54" t="n">
-        <v>60</v>
-      </c>
-      <c r="L54" t="n">
-        <v>857.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
-        <v>853.35</v>
-      </c>
-      <c r="N54" t="n">
-        <v>851.5</v>
-      </c>
-      <c r="O54" t="inlineStr"/>
-      <c r="P54" t="inlineStr"/>
-      <c r="Q54" t="inlineStr"/>
-      <c r="R54" t="inlineStr"/>
-      <c r="S54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3047,28 +2309,12 @@
         <v>0</v>
       </c>
       <c r="I55" t="n">
-        <v>11</v>
-      </c>
-      <c r="J55" t="n">
-        <v>55</v>
-      </c>
-      <c r="K55" t="n">
-        <v>57.14285714285714</v>
-      </c>
-      <c r="L55" t="n">
-        <v>858.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>853.95</v>
-      </c>
-      <c r="N55" t="n">
-        <v>851.9</v>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
-      <c r="S55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3098,28 +2344,12 @@
         <v>0</v>
       </c>
       <c r="I56" t="n">
-        <v>13</v>
-      </c>
-      <c r="J56" t="n">
-        <v>57</v>
-      </c>
-      <c r="K56" t="n">
-        <v>53.84615384615385</v>
-      </c>
-      <c r="L56" t="n">
-        <v>859.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
-        <v>854.65</v>
-      </c>
-      <c r="N56" t="n">
-        <v>852.4666666666667</v>
-      </c>
-      <c r="O56" t="inlineStr"/>
-      <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3149,28 +2379,12 @@
         <v>0</v>
       </c>
       <c r="I57" t="n">
-        <v>11</v>
-      </c>
-      <c r="J57" t="n">
-        <v>59</v>
-      </c>
-      <c r="K57" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L57" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
-        <v>855.2</v>
-      </c>
-      <c r="N57" t="n">
-        <v>852.9666666666667</v>
-      </c>
-      <c r="O57" t="inlineStr"/>
-      <c r="P57" t="inlineStr"/>
-      <c r="Q57" t="inlineStr"/>
-      <c r="R57" t="inlineStr"/>
-      <c r="S57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3200,28 +2414,12 @@
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>10</v>
-      </c>
-      <c r="J58" t="n">
-        <v>60</v>
-      </c>
-      <c r="K58" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L58" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>855.75</v>
-      </c>
-      <c r="N58" t="n">
-        <v>853.3333333333334</v>
-      </c>
-      <c r="O58" t="inlineStr"/>
-      <c r="P58" t="inlineStr"/>
-      <c r="Q58" t="inlineStr"/>
-      <c r="R58" t="inlineStr"/>
-      <c r="S58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3251,28 +2449,12 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>7</v>
-      </c>
-      <c r="J59" t="n">
-        <v>63</v>
-      </c>
-      <c r="K59" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L59" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
-        <v>856.15</v>
-      </c>
-      <c r="N59" t="n">
-        <v>853.6333333333333</v>
-      </c>
-      <c r="O59" t="inlineStr"/>
-      <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
-      <c r="S59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3302,28 +2484,12 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>11</v>
-      </c>
-      <c r="J60" t="n">
-        <v>67</v>
-      </c>
-      <c r="K60" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L60" t="n">
-        <v>860.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>856.9</v>
-      </c>
-      <c r="N60" t="n">
-        <v>854.0666666666667</v>
-      </c>
-      <c r="O60" t="inlineStr"/>
-      <c r="P60" t="inlineStr"/>
-      <c r="Q60" t="inlineStr"/>
-      <c r="R60" t="inlineStr"/>
-      <c r="S60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,28 +2519,12 @@
         <v>0</v>
       </c>
       <c r="I61" t="n">
-        <v>11</v>
-      </c>
-      <c r="J61" t="n">
-        <v>67</v>
-      </c>
-      <c r="K61" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L61" t="n">
-        <v>860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
-        <v>857.6</v>
-      </c>
-      <c r="N61" t="n">
-        <v>854.5333333333333</v>
-      </c>
-      <c r="O61" t="inlineStr"/>
-      <c r="P61" t="inlineStr"/>
-      <c r="Q61" t="inlineStr"/>
-      <c r="R61" t="inlineStr"/>
-      <c r="S61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3404,28 +2554,12 @@
         <v>0</v>
       </c>
       <c r="I62" t="n">
-        <v>11</v>
-      </c>
-      <c r="J62" t="n">
-        <v>67</v>
-      </c>
-      <c r="K62" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L62" t="n">
-        <v>860.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>858.1</v>
-      </c>
-      <c r="N62" t="n">
-        <v>854.9666666666667</v>
-      </c>
-      <c r="O62" t="inlineStr"/>
-      <c r="P62" t="inlineStr"/>
-      <c r="Q62" t="inlineStr"/>
-      <c r="R62" t="inlineStr"/>
-      <c r="S62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3455,28 +2589,12 @@
         <v>0</v>
       </c>
       <c r="I63" t="n">
-        <v>11</v>
-      </c>
-      <c r="J63" t="n">
-        <v>67</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
-      </c>
-      <c r="L63" t="n">
-        <v>860.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>858.65</v>
-      </c>
-      <c r="N63" t="n">
-        <v>855.4</v>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr"/>
-      <c r="R63" t="inlineStr"/>
-      <c r="S63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3506,28 +2624,12 @@
         <v>0</v>
       </c>
       <c r="I64" t="n">
-        <v>12</v>
-      </c>
-      <c r="J64" t="n">
-        <v>68</v>
-      </c>
-      <c r="K64" t="n">
-        <v>7.692307692307693</v>
-      </c>
-      <c r="L64" t="n">
-        <v>860.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
-        <v>859.2</v>
-      </c>
-      <c r="N64" t="n">
-        <v>855.8333333333334</v>
-      </c>
-      <c r="O64" t="inlineStr"/>
-      <c r="P64" t="inlineStr"/>
-      <c r="Q64" t="inlineStr"/>
-      <c r="R64" t="inlineStr"/>
-      <c r="S64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3557,28 +2659,12 @@
         <v>0</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
-      </c>
-      <c r="J65" t="n">
-        <v>69</v>
-      </c>
-      <c r="K65" t="n">
-        <v>-16.66666666666666</v>
-      </c>
-      <c r="L65" t="n">
-        <v>860.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>859.65</v>
-      </c>
-      <c r="N65" t="n">
-        <v>856.2333333333333</v>
-      </c>
-      <c r="O65" t="inlineStr"/>
-      <c r="P65" t="inlineStr"/>
-      <c r="Q65" t="inlineStr"/>
-      <c r="R65" t="inlineStr"/>
-      <c r="S65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3608,28 +2694,12 @@
         <v>0</v>
       </c>
       <c r="I66" t="n">
-        <v>11</v>
-      </c>
-      <c r="J66" t="n">
-        <v>69</v>
-      </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>860.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>860.05</v>
-      </c>
-      <c r="N66" t="n">
-        <v>856.6333333333333</v>
-      </c>
-      <c r="O66" t="inlineStr"/>
-      <c r="P66" t="inlineStr"/>
-      <c r="Q66" t="inlineStr"/>
-      <c r="R66" t="inlineStr"/>
-      <c r="S66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3659,28 +2729,12 @@
         <v>0</v>
       </c>
       <c r="I67" t="n">
-        <v>10</v>
-      </c>
-      <c r="J67" t="n">
-        <v>70</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>860.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>860.25</v>
-      </c>
-      <c r="N67" t="n">
-        <v>856.9666666666667</v>
-      </c>
-      <c r="O67" t="inlineStr"/>
-      <c r="P67" t="inlineStr"/>
-      <c r="Q67" t="inlineStr"/>
-      <c r="R67" t="inlineStr"/>
-      <c r="S67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3710,28 +2764,12 @@
         <v>0</v>
       </c>
       <c r="I68" t="n">
-        <v>7</v>
-      </c>
-      <c r="J68" t="n">
-        <v>73</v>
-      </c>
-      <c r="K68" t="n">
-        <v>0</v>
-      </c>
-      <c r="L68" t="n">
-        <v>860.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>860.1</v>
-      </c>
-      <c r="N68" t="n">
-        <v>857.2333333333333</v>
-      </c>
-      <c r="O68" t="inlineStr"/>
-      <c r="P68" t="inlineStr"/>
-      <c r="Q68" t="inlineStr"/>
-      <c r="R68" t="inlineStr"/>
-      <c r="S68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3761,28 +2799,12 @@
         <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>7</v>
-      </c>
-      <c r="J69" t="n">
-        <v>73</v>
-      </c>
-      <c r="K69" t="n">
-        <v>-66.66666666666666</v>
-      </c>
-      <c r="L69" t="n">
-        <v>860.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
-        <v>860.1</v>
-      </c>
-      <c r="N69" t="n">
-        <v>857.5</v>
-      </c>
-      <c r="O69" t="inlineStr"/>
-      <c r="P69" t="inlineStr"/>
-      <c r="Q69" t="inlineStr"/>
-      <c r="R69" t="inlineStr"/>
-      <c r="S69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3812,28 +2834,12 @@
         <v>0</v>
       </c>
       <c r="I70" t="n">
-        <v>12</v>
-      </c>
-      <c r="J70" t="n">
-        <v>78</v>
-      </c>
-      <c r="K70" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L70" t="n">
-        <v>860.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>860.3</v>
-      </c>
-      <c r="N70" t="n">
-        <v>858.0333333333333</v>
-      </c>
-      <c r="O70" t="inlineStr"/>
-      <c r="P70" t="inlineStr"/>
-      <c r="Q70" t="inlineStr"/>
-      <c r="R70" t="inlineStr"/>
-      <c r="S70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3863,28 +2869,12 @@
         <v>0</v>
       </c>
       <c r="I71" t="n">
-        <v>8</v>
-      </c>
-      <c r="J71" t="n">
-        <v>82</v>
-      </c>
-      <c r="K71" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L71" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
-        <v>860.25</v>
-      </c>
-      <c r="N71" t="n">
-        <v>858.4</v>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3914,28 +2904,12 @@
         <v>0</v>
       </c>
       <c r="I72" t="n">
-        <v>6</v>
-      </c>
-      <c r="J72" t="n">
-        <v>84</v>
-      </c>
-      <c r="K72" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L72" t="n">
-        <v>859.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>860.05</v>
-      </c>
-      <c r="N72" t="n">
-        <v>858.5666666666667</v>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3965,28 +2939,12 @@
         <v>0</v>
       </c>
       <c r="I73" t="n">
-        <v>2</v>
-      </c>
-      <c r="J73" t="n">
-        <v>88</v>
-      </c>
-      <c r="K73" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L73" t="n">
-        <v>858.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>859.65</v>
-      </c>
-      <c r="N73" t="n">
-        <v>858.6333333333333</v>
-      </c>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4016,28 +2974,12 @@
         <v>0</v>
       </c>
       <c r="I74" t="n">
-        <v>2</v>
-      </c>
-      <c r="J74" t="n">
-        <v>88</v>
-      </c>
-      <c r="K74" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L74" t="n">
-        <v>857.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>859.2</v>
-      </c>
-      <c r="N74" t="n">
-        <v>858.6666666666666</v>
-      </c>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4067,28 +3009,12 @@
         <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>2</v>
-      </c>
-      <c r="J75" t="n">
-        <v>88</v>
-      </c>
-      <c r="K75" t="n">
-        <v>-47.36842105263158</v>
-      </c>
-      <c r="L75" t="n">
-        <v>856.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>858.75</v>
-      </c>
-      <c r="N75" t="n">
-        <v>858.6666666666666</v>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4118,28 +3044,12 @@
         <v>0</v>
       </c>
       <c r="I76" t="n">
-        <v>5</v>
-      </c>
-      <c r="J76" t="n">
-        <v>91</v>
-      </c>
-      <c r="K76" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L76" t="n">
-        <v>856.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>858.35</v>
-      </c>
-      <c r="N76" t="n">
-        <v>858.7333333333333</v>
-      </c>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4171,26 +3081,10 @@
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>96</v>
-      </c>
-      <c r="K77" t="n">
-        <v>-30.43478260869566</v>
-      </c>
-      <c r="L77" t="n">
-        <v>855.1</v>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>857.8</v>
-      </c>
-      <c r="N77" t="n">
-        <v>858.5333333333333</v>
-      </c>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4220,28 +3114,12 @@
         <v>0</v>
       </c>
       <c r="I78" t="n">
-        <v>6</v>
-      </c>
-      <c r="J78" t="n">
-        <v>102</v>
-      </c>
-      <c r="K78" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L78" t="n">
-        <v>855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>857.6</v>
-      </c>
-      <c r="N78" t="n">
-        <v>858.4</v>
-      </c>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4271,28 +3149,12 @@
         <v>0</v>
       </c>
       <c r="I79" t="n">
-        <v>5</v>
-      </c>
-      <c r="J79" t="n">
-        <v>103</v>
-      </c>
-      <c r="K79" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L79" t="n">
-        <v>854.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>857.5</v>
-      </c>
-      <c r="N79" t="n">
-        <v>858.3333333333334</v>
-      </c>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4322,28 +3184,12 @@
         <v>0</v>
       </c>
       <c r="I80" t="n">
-        <v>5</v>
-      </c>
-      <c r="J80" t="n">
-        <v>103</v>
-      </c>
-      <c r="K80" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L80" t="n">
-        <v>854.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>857.2</v>
-      </c>
-      <c r="N80" t="n">
-        <v>858.2333333333333</v>
-      </c>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4373,28 +3219,12 @@
         <v>0</v>
       </c>
       <c r="I81" t="n">
-        <v>5</v>
-      </c>
-      <c r="J81" t="n">
-        <v>103</v>
-      </c>
-      <c r="K81" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L81" t="n">
-        <v>853.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
-        <v>856.9</v>
-      </c>
-      <c r="N81" t="n">
-        <v>858.1</v>
-      </c>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4424,28 +3254,12 @@
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>8</v>
-      </c>
-      <c r="J82" t="n">
-        <v>106</v>
-      </c>
-      <c r="K82" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L82" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>856.75</v>
-      </c>
-      <c r="N82" t="n">
-        <v>858.0333333333333</v>
-      </c>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4475,28 +3289,12 @@
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>7</v>
-      </c>
-      <c r="J83" t="n">
-        <v>107</v>
-      </c>
-      <c r="K83" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="L83" t="n">
-        <v>854.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>856.55</v>
-      </c>
-      <c r="N83" t="n">
-        <v>857.9333333333333</v>
-      </c>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4526,28 +3324,12 @@
         <v>0</v>
       </c>
       <c r="I84" t="n">
-        <v>5</v>
-      </c>
-      <c r="J84" t="n">
-        <v>109</v>
-      </c>
-      <c r="K84" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L84" t="n">
-        <v>854.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>856.2</v>
-      </c>
-      <c r="N84" t="n">
-        <v>857.7333333333333</v>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4577,28 +3359,12 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
-      </c>
-      <c r="J85" t="n">
-        <v>113</v>
-      </c>
-      <c r="K85" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L85" t="n">
-        <v>854.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>855.7</v>
-      </c>
-      <c r="N85" t="n">
-        <v>857.4</v>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4628,28 +3394,12 @@
         <v>0</v>
       </c>
       <c r="I86" t="n">
-        <v>5</v>
-      </c>
-      <c r="J86" t="n">
-        <v>117</v>
-      </c>
-      <c r="K86" t="n">
-        <v>23.80952380952381</v>
-      </c>
-      <c r="L86" t="n">
-        <v>854.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
-        <v>855.4</v>
-      </c>
-      <c r="N86" t="n">
-        <v>857.1333333333333</v>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4679,28 +3429,12 @@
         <v>0</v>
       </c>
       <c r="I87" t="n">
-        <v>2</v>
-      </c>
-      <c r="J87" t="n">
-        <v>120</v>
-      </c>
-      <c r="K87" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L87" t="n">
-        <v>854.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>855</v>
-      </c>
-      <c r="N87" t="n">
-        <v>856.8333333333334</v>
-      </c>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4732,26 +3466,10 @@
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>122</v>
-      </c>
-      <c r="K88" t="n">
-        <v>-26.31578947368421</v>
-      </c>
-      <c r="L88" t="n">
-        <v>854.3</v>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
-        <v>854.65</v>
-      </c>
-      <c r="N88" t="n">
-        <v>856.5</v>
-      </c>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4781,28 +3499,12 @@
         <v>0</v>
       </c>
       <c r="I89" t="n">
-        <v>3</v>
-      </c>
-      <c r="J89" t="n">
-        <v>125</v>
-      </c>
-      <c r="K89" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L89" t="n">
-        <v>854.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>854.45</v>
-      </c>
-      <c r="N89" t="n">
-        <v>856.3666666666667</v>
-      </c>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4832,28 +3534,12 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
-      </c>
-      <c r="J90" t="n">
-        <v>126</v>
-      </c>
-      <c r="K90" t="n">
-        <v>-13.04347826086956</v>
-      </c>
-      <c r="L90" t="n">
-        <v>853.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>853.95</v>
-      </c>
-      <c r="N90" t="n">
-        <v>856.0666666666667</v>
-      </c>
-      <c r="O90" t="inlineStr"/>
-      <c r="P90" t="inlineStr"/>
-      <c r="Q90" t="inlineStr"/>
-      <c r="R90" t="inlineStr"/>
-      <c r="S90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4883,28 +3569,12 @@
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>4</v>
-      </c>
-      <c r="J91" t="n">
-        <v>128</v>
-      </c>
-      <c r="K91" t="n">
-        <v>-18.18181818181818</v>
-      </c>
-      <c r="L91" t="n">
-        <v>853.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>853.75</v>
-      </c>
-      <c r="N91" t="n">
-        <v>855.8333333333334</v>
-      </c>
-      <c r="O91" t="inlineStr"/>
-      <c r="P91" t="inlineStr"/>
-      <c r="Q91" t="inlineStr"/>
-      <c r="R91" t="inlineStr"/>
-      <c r="S91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4936,26 +3606,10 @@
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>132</v>
-      </c>
-      <c r="K92" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L92" t="n">
-        <v>852.9</v>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>853.45</v>
-      </c>
-      <c r="N92" t="n">
-        <v>855.4666666666667</v>
-      </c>
-      <c r="O92" t="inlineStr"/>
-      <c r="P92" t="inlineStr"/>
-      <c r="Q92" t="inlineStr"/>
-      <c r="R92" t="inlineStr"/>
-      <c r="S92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4985,28 +3639,12 @@
         <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J93" t="n">
-        <v>137</v>
-      </c>
-      <c r="K93" t="n">
-        <v>-35.71428571428572</v>
-      </c>
-      <c r="L93" t="n">
-        <v>851.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
-        <v>853.1</v>
-      </c>
-      <c r="N93" t="n">
-        <v>854.9333333333333</v>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr"/>
-      <c r="R93" t="inlineStr"/>
-      <c r="S93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5036,28 +3674,12 @@
         <v>0</v>
       </c>
       <c r="I94" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J94" t="n">
-        <v>137</v>
-      </c>
-      <c r="K94" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L94" t="n">
-        <v>850.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>852.75</v>
-      </c>
-      <c r="N94" t="n">
-        <v>854.3666666666667</v>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr"/>
-      <c r="R94" t="inlineStr"/>
-      <c r="S94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5087,28 +3709,12 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J95" t="n">
-        <v>141</v>
-      </c>
-      <c r="K95" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L95" t="n">
-        <v>850.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>852.6</v>
-      </c>
-      <c r="N95" t="n">
-        <v>853.9666666666667</v>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr"/>
-      <c r="R95" t="inlineStr"/>
-      <c r="S95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,28 +3744,12 @@
         <v>0</v>
       </c>
       <c r="I96" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J96" t="n">
-        <v>141</v>
-      </c>
-      <c r="K96" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L96" t="n">
-        <v>849.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
-        <v>852.3</v>
-      </c>
-      <c r="N96" t="n">
-        <v>853.5666666666667</v>
-      </c>
-      <c r="O96" t="inlineStr"/>
-      <c r="P96" t="inlineStr"/>
-      <c r="Q96" t="inlineStr"/>
-      <c r="R96" t="inlineStr"/>
-      <c r="S96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5189,28 +3779,12 @@
         <v>0</v>
       </c>
       <c r="I97" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J97" t="n">
-        <v>141</v>
-      </c>
-      <c r="K97" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L97" t="n">
-        <v>849.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
-        <v>852.25</v>
-      </c>
-      <c r="N97" t="n">
-        <v>853.2</v>
-      </c>
-      <c r="O97" t="inlineStr"/>
-      <c r="P97" t="inlineStr"/>
-      <c r="Q97" t="inlineStr"/>
-      <c r="R97" t="inlineStr"/>
-      <c r="S97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5240,28 +3814,12 @@
         <v>0</v>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
-      </c>
-      <c r="J98" t="n">
-        <v>143</v>
-      </c>
-      <c r="K98" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L98" t="n">
-        <v>849.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>852</v>
-      </c>
-      <c r="N98" t="n">
-        <v>853</v>
-      </c>
-      <c r="O98" t="inlineStr"/>
-      <c r="P98" t="inlineStr"/>
-      <c r="Q98" t="inlineStr"/>
-      <c r="R98" t="inlineStr"/>
-      <c r="S98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5293,26 +3851,10 @@
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>144</v>
-      </c>
-      <c r="K99" t="n">
-        <v>-11.11111111111111</v>
-      </c>
-      <c r="L99" t="n">
-        <v>849.4</v>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>851.75</v>
-      </c>
-      <c r="N99" t="n">
-        <v>852.7666666666667</v>
-      </c>
-      <c r="O99" t="inlineStr"/>
-      <c r="P99" t="inlineStr"/>
-      <c r="Q99" t="inlineStr"/>
-      <c r="R99" t="inlineStr"/>
-      <c r="S99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5342,28 +3884,12 @@
         <v>0</v>
       </c>
       <c r="I100" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J100" t="n">
-        <v>145</v>
-      </c>
-      <c r="K100" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L100" t="n">
-        <v>849.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>851.45</v>
-      </c>
-      <c r="N100" t="n">
-        <v>852.3333333333334</v>
-      </c>
-      <c r="O100" t="inlineStr"/>
-      <c r="P100" t="inlineStr"/>
-      <c r="Q100" t="inlineStr"/>
-      <c r="R100" t="inlineStr"/>
-      <c r="S100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5393,28 +3919,12 @@
         <v>0</v>
       </c>
       <c r="I101" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J101" t="n">
-        <v>149</v>
-      </c>
-      <c r="K101" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L101" t="n">
-        <v>848.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>850.95</v>
-      </c>
-      <c r="N101" t="n">
-        <v>851.9</v>
-      </c>
-      <c r="O101" t="inlineStr"/>
-      <c r="P101" t="inlineStr"/>
-      <c r="Q101" t="inlineStr"/>
-      <c r="R101" t="inlineStr"/>
-      <c r="S101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5444,28 +3954,12 @@
         <v>0</v>
       </c>
       <c r="I102" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J102" t="n">
-        <v>152</v>
-      </c>
-      <c r="K102" t="n">
-        <v>20</v>
-      </c>
-      <c r="L102" t="n">
-        <v>848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>850.45</v>
-      </c>
-      <c r="N102" t="n">
-        <v>851.6333333333333</v>
-      </c>
-      <c r="O102" t="inlineStr"/>
-      <c r="P102" t="inlineStr"/>
-      <c r="Q102" t="inlineStr"/>
-      <c r="R102" t="inlineStr"/>
-      <c r="S102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5495,28 +3989,12 @@
         <v>0</v>
       </c>
       <c r="I103" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J103" t="n">
-        <v>155</v>
-      </c>
-      <c r="K103" t="n">
-        <v>0</v>
-      </c>
-      <c r="L103" t="n">
-        <v>848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
-        <v>849.85</v>
-      </c>
-      <c r="N103" t="n">
-        <v>851.4</v>
-      </c>
-      <c r="O103" t="inlineStr"/>
-      <c r="P103" t="inlineStr"/>
-      <c r="Q103" t="inlineStr"/>
-      <c r="R103" t="inlineStr"/>
-      <c r="S103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5546,28 +4024,12 @@
         <v>0</v>
       </c>
       <c r="I104" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J104" t="n">
-        <v>155</v>
-      </c>
-      <c r="K104" t="n">
-        <v>-28.57142857142857</v>
-      </c>
-      <c r="L104" t="n">
-        <v>848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>849.35</v>
-      </c>
-      <c r="N104" t="n">
-        <v>851.1666666666666</v>
-      </c>
-      <c r="O104" t="inlineStr"/>
-      <c r="P104" t="inlineStr"/>
-      <c r="Q104" t="inlineStr"/>
-      <c r="R104" t="inlineStr"/>
-      <c r="S104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5597,28 +4059,12 @@
         <v>0</v>
       </c>
       <c r="I105" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J105" t="n">
-        <v>159</v>
-      </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>848</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>849.25</v>
-      </c>
-      <c r="N105" t="n">
-        <v>851.0666666666667</v>
-      </c>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5650,26 +4096,10 @@
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>160</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L106" t="n">
-        <v>848.1</v>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>849</v>
-      </c>
-      <c r="N106" t="n">
-        <v>850.9</v>
-      </c>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5699,28 +4129,12 @@
         <v>0</v>
       </c>
       <c r="I107" t="n">
-        <v>1</v>
-      </c>
-      <c r="J107" t="n">
-        <v>161</v>
-      </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>848.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>848.95</v>
-      </c>
-      <c r="N107" t="n">
-        <v>850.9333333333333</v>
-      </c>
-      <c r="O107" t="inlineStr"/>
-      <c r="P107" t="inlineStr"/>
-      <c r="Q107" t="inlineStr"/>
-      <c r="R107" t="inlineStr"/>
-      <c r="S107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5750,28 +4164,12 @@
         <v>0</v>
       </c>
       <c r="I108" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J108" t="n">
-        <v>167</v>
-      </c>
-      <c r="K108" t="n">
-        <v>-21.73913043478261</v>
-      </c>
-      <c r="L108" t="n">
-        <v>847.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
-        <v>848.7</v>
-      </c>
-      <c r="N108" t="n">
-        <v>850.5666666666667</v>
-      </c>
-      <c r="O108" t="inlineStr"/>
-      <c r="P108" t="inlineStr"/>
-      <c r="Q108" t="inlineStr"/>
-      <c r="R108" t="inlineStr"/>
-      <c r="S108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5801,28 +4199,12 @@
         <v>0</v>
       </c>
       <c r="I109" t="n">
-        <v>1</v>
-      </c>
-      <c r="J109" t="n">
-        <v>173</v>
-      </c>
-      <c r="K109" t="n">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="L109" t="n">
-        <v>847.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
-        <v>848.6</v>
-      </c>
-      <c r="N109" t="n">
-        <v>850.4333333333333</v>
-      </c>
-      <c r="O109" t="inlineStr"/>
-      <c r="P109" t="inlineStr"/>
-      <c r="Q109" t="inlineStr"/>
-      <c r="R109" t="inlineStr"/>
-      <c r="S109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5852,28 +4234,12 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>2</v>
-      </c>
-      <c r="J110" t="n">
-        <v>174</v>
-      </c>
-      <c r="K110" t="n">
-        <v>28</v>
-      </c>
-      <c r="L110" t="n">
-        <v>848.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
-        <v>848.6</v>
-      </c>
-      <c r="N110" t="n">
-        <v>850.3333333333334</v>
-      </c>
-      <c r="O110" t="inlineStr"/>
-      <c r="P110" t="inlineStr"/>
-      <c r="Q110" t="inlineStr"/>
-      <c r="R110" t="inlineStr"/>
-      <c r="S110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5903,28 +4269,12 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>3</v>
-      </c>
-      <c r="J111" t="n">
-        <v>175</v>
-      </c>
-      <c r="K111" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L111" t="n">
-        <v>848.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
-        <v>848.55</v>
-      </c>
-      <c r="N111" t="n">
-        <v>850.2666666666667</v>
-      </c>
-      <c r="O111" t="inlineStr"/>
-      <c r="P111" t="inlineStr"/>
-      <c r="Q111" t="inlineStr"/>
-      <c r="R111" t="inlineStr"/>
-      <c r="S111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5954,28 +4304,12 @@
         <v>0</v>
       </c>
       <c r="I112" t="n">
-        <v>3</v>
-      </c>
-      <c r="J112" t="n">
-        <v>175</v>
-      </c>
-      <c r="K112" t="n">
-        <v>40</v>
-      </c>
-      <c r="L112" t="n">
-        <v>849.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
-        <v>848.7</v>
-      </c>
-      <c r="N112" t="n">
-        <v>850.1</v>
-      </c>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6005,28 +4339,12 @@
         <v>0</v>
       </c>
       <c r="I113" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J113" t="n">
-        <v>179</v>
-      </c>
-      <c r="K113" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L113" t="n">
-        <v>849.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
-        <v>848.9</v>
-      </c>
-      <c r="N113" t="n">
-        <v>849.8333333333334</v>
-      </c>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6056,28 +4374,12 @@
         <v>0</v>
       </c>
       <c r="I114" t="n">
-        <v>1</v>
-      </c>
-      <c r="J114" t="n">
-        <v>181</v>
-      </c>
-      <c r="K114" t="n">
-        <v>9.090909090909092</v>
-      </c>
-      <c r="L114" t="n">
-        <v>850.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
-        <v>849.2</v>
-      </c>
-      <c r="N114" t="n">
-        <v>849.7</v>
-      </c>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6107,28 +4409,12 @@
         <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>-1</v>
-      </c>
-      <c r="J115" t="n">
-        <v>183</v>
-      </c>
-      <c r="K115" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L115" t="n">
-        <v>850.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
-        <v>849.2</v>
-      </c>
-      <c r="N115" t="n">
-        <v>849.6333333333333</v>
-      </c>
-      <c r="O115" t="inlineStr"/>
-      <c r="P115" t="inlineStr"/>
-      <c r="Q115" t="inlineStr"/>
-      <c r="R115" t="inlineStr"/>
-      <c r="S115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6160,26 +4446,10 @@
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>184</v>
-      </c>
-      <c r="K116" t="n">
-        <v>-4.347826086956522</v>
-      </c>
-      <c r="L116" t="n">
-        <v>850.4</v>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
-        <v>849.25</v>
-      </c>
-      <c r="N116" t="n">
-        <v>849.4666666666667</v>
-      </c>
-      <c r="O116" t="inlineStr"/>
-      <c r="P116" t="inlineStr"/>
-      <c r="Q116" t="inlineStr"/>
-      <c r="R116" t="inlineStr"/>
-      <c r="S116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6209,28 +4479,12 @@
         <v>0</v>
       </c>
       <c r="I117" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J117" t="n">
-        <v>186</v>
-      </c>
-      <c r="K117" t="n">
-        <v>15.78947368421053</v>
-      </c>
-      <c r="L117" t="n">
-        <v>850.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
-        <v>849.2</v>
-      </c>
-      <c r="N117" t="n">
-        <v>849.3333333333334</v>
-      </c>
-      <c r="O117" t="inlineStr"/>
-      <c r="P117" t="inlineStr"/>
-      <c r="Q117" t="inlineStr"/>
-      <c r="R117" t="inlineStr"/>
-      <c r="S117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6260,28 +4514,12 @@
         <v>0</v>
       </c>
       <c r="I118" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J118" t="n">
-        <v>186</v>
-      </c>
-      <c r="K118" t="n">
-        <v>-23.07692307692308</v>
-      </c>
-      <c r="L118" t="n">
-        <v>850.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
-        <v>849.05</v>
-      </c>
-      <c r="N118" t="n">
-        <v>849.2666666666667</v>
-      </c>
-      <c r="O118" t="inlineStr"/>
-      <c r="P118" t="inlineStr"/>
-      <c r="Q118" t="inlineStr"/>
-      <c r="R118" t="inlineStr"/>
-      <c r="S118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6311,28 +4549,12 @@
         <v>0</v>
       </c>
       <c r="I119" t="n">
-        <v>1</v>
-      </c>
-      <c r="J119" t="n">
-        <v>189</v>
-      </c>
-      <c r="K119" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L119" t="n">
-        <v>850.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
-        <v>849.1</v>
-      </c>
-      <c r="N119" t="n">
-        <v>849.2</v>
-      </c>
-      <c r="O119" t="inlineStr"/>
-      <c r="P119" t="inlineStr"/>
-      <c r="Q119" t="inlineStr"/>
-      <c r="R119" t="inlineStr"/>
-      <c r="S119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6362,28 +4584,12 @@
         <v>0</v>
       </c>
       <c r="I120" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J120" t="n">
-        <v>194</v>
-      </c>
-      <c r="K120" t="n">
-        <v>-36.84210526315789</v>
-      </c>
-      <c r="L120" t="n">
-        <v>849.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
-        <v>848.95</v>
-      </c>
-      <c r="N120" t="n">
-        <v>849</v>
-      </c>
-      <c r="O120" t="inlineStr"/>
-      <c r="P120" t="inlineStr"/>
-      <c r="Q120" t="inlineStr"/>
-      <c r="R120" t="inlineStr"/>
-      <c r="S120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6413,28 +4619,12 @@
         <v>0</v>
       </c>
       <c r="I121" t="n">
-        <v>-5</v>
-      </c>
-      <c r="J121" t="n">
-        <v>195</v>
-      </c>
-      <c r="K121" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L121" t="n">
-        <v>849</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
-        <v>848.95</v>
-      </c>
-      <c r="N121" t="n">
-        <v>848.7</v>
-      </c>
-      <c r="O121" t="inlineStr"/>
-      <c r="P121" t="inlineStr"/>
-      <c r="Q121" t="inlineStr"/>
-      <c r="R121" t="inlineStr"/>
-      <c r="S121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6464,28 +4654,12 @@
         <v>0</v>
       </c>
       <c r="I122" t="n">
-        <v>-6</v>
-      </c>
-      <c r="J122" t="n">
-        <v>196</v>
-      </c>
-      <c r="K122" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L122" t="n">
-        <v>848.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
-        <v>848.75</v>
-      </c>
-      <c r="N122" t="n">
-        <v>848.5</v>
-      </c>
-      <c r="O122" t="inlineStr"/>
-      <c r="P122" t="inlineStr"/>
-      <c r="Q122" t="inlineStr"/>
-      <c r="R122" t="inlineStr"/>
-      <c r="S122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6515,28 +4689,12 @@
         <v>0</v>
       </c>
       <c r="I123" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J123" t="n">
-        <v>198</v>
-      </c>
-      <c r="K123" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L123" t="n">
-        <v>847.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
-        <v>848.8</v>
-      </c>
-      <c r="N123" t="n">
-        <v>848.5333333333333</v>
-      </c>
-      <c r="O123" t="inlineStr"/>
-      <c r="P123" t="inlineStr"/>
-      <c r="Q123" t="inlineStr"/>
-      <c r="R123" t="inlineStr"/>
-      <c r="S123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6566,28 +4724,12 @@
         <v>0</v>
       </c>
       <c r="I124" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J124" t="n">
-        <v>201</v>
-      </c>
-      <c r="K124" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L124" t="n">
-        <v>847</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
-        <v>848.7</v>
-      </c>
-      <c r="N124" t="n">
-        <v>848.4666666666667</v>
-      </c>
-      <c r="O124" t="inlineStr"/>
-      <c r="P124" t="inlineStr"/>
-      <c r="Q124" t="inlineStr"/>
-      <c r="R124" t="inlineStr"/>
-      <c r="S124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6617,28 +4759,12 @@
         <v>0</v>
       </c>
       <c r="I125" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J125" t="n">
-        <v>201</v>
-      </c>
-      <c r="K125" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L125" t="n">
-        <v>846.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
-        <v>848.4</v>
-      </c>
-      <c r="N125" t="n">
-        <v>848.2666666666667</v>
-      </c>
-      <c r="O125" t="inlineStr"/>
-      <c r="P125" t="inlineStr"/>
-      <c r="Q125" t="inlineStr"/>
-      <c r="R125" t="inlineStr"/>
-      <c r="S125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6668,28 +4794,12 @@
         <v>0</v>
       </c>
       <c r="I126" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J126" t="n">
-        <v>201</v>
-      </c>
-      <c r="K126" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L126" t="n">
-        <v>845.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
-        <v>848.05</v>
-      </c>
-      <c r="N126" t="n">
-        <v>848.0666666666667</v>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr"/>
-      <c r="R126" t="inlineStr"/>
-      <c r="S126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6719,28 +4829,12 @@
         <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J127" t="n">
-        <v>203</v>
-      </c>
-      <c r="K127" t="n">
-        <v>-41.17647058823529</v>
-      </c>
-      <c r="L127" t="n">
-        <v>845</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
-        <v>847.55</v>
-      </c>
-      <c r="N127" t="n">
-        <v>847.8</v>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr"/>
-      <c r="R127" t="inlineStr"/>
-      <c r="S127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6770,28 +4864,12 @@
         <v>0</v>
       </c>
       <c r="I128" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J128" t="n">
-        <v>203</v>
-      </c>
-      <c r="K128" t="n">
-        <v>-71.42857142857143</v>
-      </c>
-      <c r="L128" t="n">
-        <v>844.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
-        <v>847.35</v>
-      </c>
-      <c r="N128" t="n">
-        <v>847.4666666666667</v>
-      </c>
-      <c r="O128" t="inlineStr"/>
-      <c r="P128" t="inlineStr"/>
-      <c r="Q128" t="inlineStr"/>
-      <c r="R128" t="inlineStr"/>
-      <c r="S128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6821,28 +4899,12 @@
         <v>0</v>
       </c>
       <c r="I129" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J129" t="n">
-        <v>203</v>
-      </c>
-      <c r="K129" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L129" t="n">
-        <v>843.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
-        <v>846.85</v>
-      </c>
-      <c r="N129" t="n">
-        <v>847.1666666666666</v>
-      </c>
-      <c r="O129" t="inlineStr"/>
-      <c r="P129" t="inlineStr"/>
-      <c r="Q129" t="inlineStr"/>
-      <c r="R129" t="inlineStr"/>
-      <c r="S129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6872,28 +4934,12 @@
         <v>0</v>
       </c>
       <c r="I130" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J130" t="n">
-        <v>204</v>
-      </c>
-      <c r="K130" t="n">
-        <v>-55.55555555555556</v>
-      </c>
-      <c r="L130" t="n">
-        <v>842.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
-        <v>846.25</v>
-      </c>
-      <c r="N130" t="n">
-        <v>846.8666666666667</v>
-      </c>
-      <c r="O130" t="inlineStr"/>
-      <c r="P130" t="inlineStr"/>
-      <c r="Q130" t="inlineStr"/>
-      <c r="R130" t="inlineStr"/>
-      <c r="S130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6923,28 +4969,12 @@
         <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>-10</v>
-      </c>
-      <c r="J131" t="n">
-        <v>204</v>
-      </c>
-      <c r="K131" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L131" t="n">
-        <v>842.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
-        <v>845.6</v>
-      </c>
-      <c r="N131" t="n">
-        <v>846.7</v>
-      </c>
-      <c r="O131" t="inlineStr"/>
-      <c r="P131" t="inlineStr"/>
-      <c r="Q131" t="inlineStr"/>
-      <c r="R131" t="inlineStr"/>
-      <c r="S131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6974,28 +5004,12 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>-7</v>
-      </c>
-      <c r="J132" t="n">
-        <v>207</v>
-      </c>
-      <c r="K132" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L132" t="n">
-        <v>842.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
-        <v>845.1</v>
-      </c>
-      <c r="N132" t="n">
-        <v>846.5333333333333</v>
-      </c>
-      <c r="O132" t="inlineStr"/>
-      <c r="P132" t="inlineStr"/>
-      <c r="Q132" t="inlineStr"/>
-      <c r="R132" t="inlineStr"/>
-      <c r="S132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7025,28 +5039,12 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>-8</v>
-      </c>
-      <c r="J133" t="n">
-        <v>208</v>
-      </c>
-      <c r="K133" t="n">
-        <v>-14.28571428571428</v>
-      </c>
-      <c r="L133" t="n">
-        <v>841.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
-        <v>844.75</v>
-      </c>
-      <c r="N133" t="n">
-        <v>846.4333333333333</v>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr"/>
-      <c r="R133" t="inlineStr"/>
-      <c r="S133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7076,28 +5074,12 @@
         <v>0</v>
       </c>
       <c r="I134" t="n">
-        <v>-9</v>
-      </c>
-      <c r="J134" t="n">
-        <v>209</v>
-      </c>
-      <c r="K134" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L134" t="n">
-        <v>841.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
-        <v>844.25</v>
-      </c>
-      <c r="N134" t="n">
-        <v>846.3</v>
-      </c>
-      <c r="O134" t="inlineStr"/>
-      <c r="P134" t="inlineStr"/>
-      <c r="Q134" t="inlineStr"/>
-      <c r="R134" t="inlineStr"/>
-      <c r="S134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7127,28 +5109,12 @@
         <v>0</v>
       </c>
       <c r="I135" t="n">
-        <v>-11</v>
-      </c>
-      <c r="J135" t="n">
-        <v>211</v>
-      </c>
-      <c r="K135" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L135" t="n">
-        <v>841.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
-        <v>843.75</v>
-      </c>
-      <c r="N135" t="n">
-        <v>845.9666666666667</v>
-      </c>
-      <c r="O135" t="inlineStr"/>
-      <c r="P135" t="inlineStr"/>
-      <c r="Q135" t="inlineStr"/>
-      <c r="R135" t="inlineStr"/>
-      <c r="S135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7178,28 +5144,12 @@
         <v>0</v>
       </c>
       <c r="I136" t="n">
-        <v>-13</v>
-      </c>
-      <c r="J136" t="n">
-        <v>213</v>
-      </c>
-      <c r="K136" t="n">
-        <v>-40</v>
-      </c>
-      <c r="L136" t="n">
-        <v>840.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
-        <v>843.1</v>
-      </c>
-      <c r="N136" t="n">
-        <v>845.5333333333333</v>
-      </c>
-      <c r="O136" t="inlineStr"/>
-      <c r="P136" t="inlineStr"/>
-      <c r="Q136" t="inlineStr"/>
-      <c r="R136" t="inlineStr"/>
-      <c r="S136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7226,31 +5176,21 @@
         <v>847.9333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J137" t="n">
-        <v>217</v>
-      </c>
-      <c r="K137" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L137" t="n">
-        <v>839.7</v>
+        <v>837</v>
+      </c>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
       </c>
       <c r="M137" t="n">
-        <v>842.35</v>
-      </c>
-      <c r="N137" t="n">
-        <v>844.9333333333333</v>
-      </c>
-      <c r="O137" t="inlineStr"/>
-      <c r="P137" t="inlineStr"/>
-      <c r="Q137" t="inlineStr"/>
-      <c r="R137" t="inlineStr"/>
-      <c r="S137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7277,31 +5217,21 @@
         <v>847.55</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>217</v>
-      </c>
-      <c r="K138" t="n">
-        <v>-57.14285714285714</v>
-      </c>
-      <c r="L138" t="n">
-        <v>838.9</v>
+        <v>833</v>
+      </c>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M138" t="n">
-        <v>841.6</v>
-      </c>
-      <c r="N138" t="n">
-        <v>844.5333333333333</v>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr"/>
-      <c r="R138" t="inlineStr"/>
-      <c r="S138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7328,31 +5258,21 @@
         <v>847.2333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>220</v>
-      </c>
-      <c r="K139" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L139" t="n">
-        <v>838.4</v>
+        <v>836</v>
+      </c>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M139" t="n">
-        <v>840.85</v>
-      </c>
-      <c r="N139" t="n">
-        <v>844.0333333333333</v>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr"/>
-      <c r="R139" t="inlineStr"/>
-      <c r="S139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7379,31 +5299,21 @@
         <v>846.8833333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J140" t="n">
-        <v>222</v>
-      </c>
-      <c r="K140" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L140" t="n">
-        <v>837.8</v>
+        <v>834</v>
+      </c>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M140" t="n">
-        <v>840.25</v>
-      </c>
-      <c r="N140" t="n">
-        <v>843.4333333333333</v>
-      </c>
-      <c r="O140" t="inlineStr"/>
-      <c r="P140" t="inlineStr"/>
-      <c r="Q140" t="inlineStr"/>
-      <c r="R140" t="inlineStr"/>
-      <c r="S140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7430,31 +5340,21 @@
         <v>846.55</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J141" t="n">
-        <v>223</v>
-      </c>
-      <c r="K141" t="n">
-        <v>-50</v>
-      </c>
-      <c r="L141" t="n">
-        <v>837.3</v>
+        <v>835</v>
+      </c>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M141" t="n">
-        <v>839.75</v>
-      </c>
-      <c r="N141" t="n">
-        <v>842.8333333333334</v>
-      </c>
-      <c r="O141" t="inlineStr"/>
-      <c r="P141" t="inlineStr"/>
-      <c r="Q141" t="inlineStr"/>
-      <c r="R141" t="inlineStr"/>
-      <c r="S141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7481,31 +5381,21 @@
         <v>846.1333333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>225</v>
-      </c>
-      <c r="K142" t="n">
-        <v>-52.94117647058824</v>
-      </c>
-      <c r="L142" t="n">
-        <v>836.3</v>
+        <v>833</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M142" t="n">
-        <v>839.2</v>
-      </c>
-      <c r="N142" t="n">
-        <v>842.1666666666666</v>
-      </c>
-      <c r="O142" t="inlineStr"/>
-      <c r="P142" t="inlineStr"/>
-      <c r="Q142" t="inlineStr"/>
-      <c r="R142" t="inlineStr"/>
-      <c r="S142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7532,31 +5422,21 @@
         <v>845.7666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
-        <v>-15</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>227</v>
-      </c>
-      <c r="K143" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L143" t="n">
-        <v>835.6</v>
+        <v>835</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M143" t="n">
-        <v>838.65</v>
-      </c>
-      <c r="N143" t="n">
-        <v>841.7</v>
-      </c>
-      <c r="O143" t="inlineStr"/>
-      <c r="P143" t="inlineStr"/>
-      <c r="Q143" t="inlineStr"/>
-      <c r="R143" t="inlineStr"/>
-      <c r="S143" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7583,31 +5463,21 @@
         <v>845.4166666666666</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J144" t="n">
-        <v>228</v>
-      </c>
-      <c r="K144" t="n">
-        <v>-29.41176470588236</v>
-      </c>
-      <c r="L144" t="n">
-        <v>834.9</v>
+        <v>834</v>
+      </c>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M144" t="n">
-        <v>838.2</v>
-      </c>
-      <c r="N144" t="n">
-        <v>841.1333333333333</v>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr"/>
-      <c r="R144" t="inlineStr"/>
-      <c r="S144" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7634,31 +5504,21 @@
         <v>845.1333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
-        <v>-16</v>
+        <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>228</v>
-      </c>
-      <c r="K145" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L145" t="n">
-        <v>834.4</v>
+        <v>834</v>
+      </c>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M145" t="n">
-        <v>837.75</v>
-      </c>
-      <c r="N145" t="n">
-        <v>840.6333333333333</v>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr"/>
-      <c r="R145" t="inlineStr"/>
-      <c r="S145" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7685,31 +5545,21 @@
         <v>844.7666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
-        <v>-17</v>
+        <v>0</v>
       </c>
       <c r="J146" t="n">
-        <v>229</v>
-      </c>
-      <c r="K146" t="n">
-        <v>0</v>
-      </c>
-      <c r="L146" t="n">
         <v>834</v>
       </c>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M146" t="n">
-        <v>837.25</v>
-      </c>
-      <c r="N146" t="n">
-        <v>840.0666666666667</v>
-      </c>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7736,31 +5586,21 @@
         <v>844.5</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
-        <v>-14</v>
+        <v>0</v>
       </c>
       <c r="J147" t="n">
-        <v>232</v>
-      </c>
-      <c r="K147" t="n">
-        <v>20</v>
-      </c>
-      <c r="L147" t="n">
-        <v>834.3</v>
+        <v>833</v>
+      </c>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M147" t="n">
-        <v>837</v>
-      </c>
-      <c r="N147" t="n">
-        <v>839.6666666666666</v>
-      </c>
-      <c r="O147" t="inlineStr"/>
-      <c r="P147" t="inlineStr"/>
-      <c r="Q147" t="inlineStr"/>
-      <c r="R147" t="inlineStr"/>
-      <c r="S147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7787,31 +5627,21 @@
         <v>844.3</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J148" t="n">
-        <v>234</v>
-      </c>
-      <c r="K148" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L148" t="n">
-        <v>834.8</v>
+        <v>838</v>
+      </c>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M148" t="n">
-        <v>836.85</v>
-      </c>
-      <c r="N148" t="n">
-        <v>839.3333333333334</v>
-      </c>
-      <c r="O148" t="inlineStr"/>
-      <c r="P148" t="inlineStr"/>
-      <c r="Q148" t="inlineStr"/>
-      <c r="R148" t="inlineStr"/>
-      <c r="S148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7838,31 +5668,21 @@
         <v>844.05</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J149" t="n">
-        <v>234</v>
-      </c>
-      <c r="K149" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L149" t="n">
-        <v>835</v>
+        <v>838</v>
+      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M149" t="n">
-        <v>836.7</v>
-      </c>
-      <c r="N149" t="n">
-        <v>838.9</v>
-      </c>
-      <c r="O149" t="inlineStr"/>
-      <c r="P149" t="inlineStr"/>
-      <c r="Q149" t="inlineStr"/>
-      <c r="R149" t="inlineStr"/>
-      <c r="S149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7889,31 +5709,21 @@
         <v>843.8166666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>234</v>
-      </c>
-      <c r="K150" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L150" t="n">
-        <v>835.4</v>
+        <v>838</v>
+      </c>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M150" t="n">
-        <v>836.6</v>
-      </c>
-      <c r="N150" t="n">
-        <v>838.6333333333333</v>
-      </c>
-      <c r="O150" t="inlineStr"/>
-      <c r="P150" t="inlineStr"/>
-      <c r="Q150" t="inlineStr"/>
-      <c r="R150" t="inlineStr"/>
-      <c r="S150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7940,31 +5750,21 @@
         <v>843.55</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
-        <v>-12</v>
+        <v>0</v>
       </c>
       <c r="J151" t="n">
-        <v>234</v>
-      </c>
-      <c r="K151" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L151" t="n">
-        <v>835.7</v>
+        <v>838</v>
+      </c>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M151" t="n">
-        <v>836.5</v>
-      </c>
-      <c r="N151" t="n">
-        <v>838.4</v>
-      </c>
-      <c r="O151" t="inlineStr"/>
-      <c r="P151" t="inlineStr"/>
-      <c r="Q151" t="inlineStr"/>
-      <c r="R151" t="inlineStr"/>
-      <c r="S151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7991,31 +5791,21 @@
         <v>843.3666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J152" t="n">
-        <v>235</v>
-      </c>
-      <c r="K152" t="n">
-        <v>50</v>
-      </c>
-      <c r="L152" t="n">
-        <v>836.3</v>
+        <v>839</v>
+      </c>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M152" t="n">
-        <v>836.3</v>
-      </c>
-      <c r="N152" t="n">
-        <v>838.2333333333333</v>
-      </c>
-      <c r="O152" t="inlineStr"/>
-      <c r="P152" t="inlineStr"/>
-      <c r="Q152" t="inlineStr"/>
-      <c r="R152" t="inlineStr"/>
-      <c r="S152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8042,31 +5832,21 @@
         <v>843.2666666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
-        <v>-11</v>
+        <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>235</v>
-      </c>
-      <c r="K153" t="n">
-        <v>71.42857142857143</v>
-      </c>
-      <c r="L153" t="n">
-        <v>836.7</v>
+        <v>839</v>
+      </c>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M153" t="n">
-        <v>836.15</v>
-      </c>
-      <c r="N153" t="n">
-        <v>838</v>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr"/>
-      <c r="R153" t="inlineStr"/>
-      <c r="S153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8093,31 +5873,21 @@
         <v>843.2</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
-        <v>-9</v>
+        <v>0</v>
       </c>
       <c r="J154" t="n">
-        <v>237</v>
-      </c>
-      <c r="K154" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L154" t="n">
-        <v>837.4</v>
+        <v>841</v>
+      </c>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M154" t="n">
-        <v>836.15</v>
-      </c>
-      <c r="N154" t="n">
-        <v>837.9333333333333</v>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr"/>
-      <c r="R154" t="inlineStr"/>
-      <c r="S154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8144,31 +5914,21 @@
         <v>843.1166666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J155" t="n">
-        <v>240</v>
-      </c>
-      <c r="K155" t="n">
-        <v>100</v>
-      </c>
-      <c r="L155" t="n">
-        <v>838.4</v>
+        <v>844</v>
+      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M155" t="n">
-        <v>836.4</v>
-      </c>
-      <c r="N155" t="n">
-        <v>837.9666666666667</v>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr"/>
-      <c r="R155" t="inlineStr"/>
-      <c r="S155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8195,31 +5955,21 @@
         <v>843.0166666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
-        <v>-7</v>
+        <v>0</v>
       </c>
       <c r="J156" t="n">
-        <v>241</v>
-      </c>
-      <c r="K156" t="n">
-        <v>77.77777777777779</v>
-      </c>
-      <c r="L156" t="n">
-        <v>839.4</v>
+        <v>843</v>
+      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M156" t="n">
-        <v>836.7</v>
-      </c>
-      <c r="N156" t="n">
-        <v>837.9666666666667</v>
-      </c>
-      <c r="O156" t="inlineStr"/>
-      <c r="P156" t="inlineStr"/>
-      <c r="Q156" t="inlineStr"/>
-      <c r="R156" t="inlineStr"/>
-      <c r="S156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8246,31 +5996,21 @@
         <v>842.9333333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
-        <v>-6</v>
+        <v>0</v>
       </c>
       <c r="J157" t="n">
-        <v>242</v>
-      </c>
-      <c r="K157" t="n">
-        <v>75</v>
-      </c>
-      <c r="L157" t="n">
-        <v>840.2</v>
+        <v>843</v>
+      </c>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M157" t="n">
-        <v>837.25</v>
-      </c>
-      <c r="N157" t="n">
-        <v>838.0666666666667</v>
-      </c>
-      <c r="O157" t="inlineStr"/>
-      <c r="P157" t="inlineStr"/>
-      <c r="Q157" t="inlineStr"/>
-      <c r="R157" t="inlineStr"/>
-      <c r="S157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8297,31 +6037,21 @@
         <v>842.8833333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J158" t="n">
-        <v>246</v>
-      </c>
-      <c r="K158" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L158" t="n">
-        <v>841.2</v>
+        <v>848</v>
+      </c>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M158" t="n">
-        <v>838</v>
-      </c>
-      <c r="N158" t="n">
-        <v>838.3</v>
-      </c>
-      <c r="O158" t="inlineStr"/>
-      <c r="P158" t="inlineStr"/>
-      <c r="Q158" t="inlineStr"/>
-      <c r="R158" t="inlineStr"/>
-      <c r="S158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8348,31 +6078,21 @@
         <v>842.85</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>246</v>
-      </c>
-      <c r="K159" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L159" t="n">
-        <v>842.2</v>
+        <v>848</v>
+      </c>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M159" t="n">
-        <v>838.6</v>
-      </c>
-      <c r="N159" t="n">
-        <v>838.5333333333333</v>
-      </c>
-      <c r="O159" t="inlineStr"/>
-      <c r="P159" t="inlineStr"/>
-      <c r="Q159" t="inlineStr"/>
-      <c r="R159" t="inlineStr"/>
-      <c r="S159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8399,31 +6119,21 @@
         <v>842.8166666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
-        <v>247</v>
-      </c>
-      <c r="K160" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L160" t="n">
-        <v>843.1</v>
+        <v>848</v>
+      </c>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M160" t="n">
-        <v>839.25</v>
-      </c>
-      <c r="N160" t="n">
-        <v>838.7666666666667</v>
-      </c>
-      <c r="O160" t="inlineStr"/>
-      <c r="P160" t="inlineStr"/>
-      <c r="Q160" t="inlineStr"/>
-      <c r="R160" t="inlineStr"/>
-      <c r="S160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8450,31 +6160,21 @@
         <v>842.85</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
-        <v>-3</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
-        <v>247</v>
-      </c>
-      <c r="K161" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L161" t="n">
-        <v>844</v>
+        <v>847</v>
+      </c>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M161" t="n">
-        <v>839.85</v>
-      </c>
-      <c r="N161" t="n">
-        <v>839</v>
-      </c>
-      <c r="O161" t="inlineStr"/>
-      <c r="P161" t="inlineStr"/>
-      <c r="Q161" t="inlineStr"/>
-      <c r="R161" t="inlineStr"/>
-      <c r="S161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8504,28 +6204,16 @@
         <v>0</v>
       </c>
       <c r="I162" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J162" t="n">
-        <v>248</v>
-      </c>
-      <c r="K162" t="n">
-        <v>69.23076923076923</v>
-      </c>
-      <c r="L162" t="n">
-        <v>844.9</v>
+        <v>0</v>
+      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M162" t="n">
-        <v>840.6</v>
-      </c>
-      <c r="N162" t="n">
-        <v>839.1666666666666</v>
-      </c>
-      <c r="O162" t="inlineStr"/>
-      <c r="P162" t="inlineStr"/>
-      <c r="Q162" t="inlineStr"/>
-      <c r="R162" t="inlineStr"/>
-      <c r="S162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8555,28 +6243,16 @@
         <v>0</v>
       </c>
       <c r="I163" t="n">
-        <v>-4</v>
-      </c>
-      <c r="J163" t="n">
-        <v>250</v>
-      </c>
-      <c r="K163" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L163" t="n">
-        <v>845.6</v>
+        <v>0</v>
+      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M163" t="n">
-        <v>841.15</v>
-      </c>
-      <c r="N163" t="n">
-        <v>839.3</v>
-      </c>
-      <c r="O163" t="inlineStr"/>
-      <c r="P163" t="inlineStr"/>
-      <c r="Q163" t="inlineStr"/>
-      <c r="R163" t="inlineStr"/>
-      <c r="S163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8606,28 +6282,16 @@
         <v>0</v>
       </c>
       <c r="I164" t="n">
-        <v>3</v>
-      </c>
-      <c r="J164" t="n">
-        <v>257</v>
-      </c>
-      <c r="K164" t="n">
-        <v>52.94117647058824</v>
-      </c>
-      <c r="L164" t="n">
-        <v>846.8</v>
+        <v>0</v>
+      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M164" t="n">
-        <v>842.1</v>
-      </c>
-      <c r="N164" t="n">
-        <v>839.7</v>
-      </c>
-      <c r="O164" t="inlineStr"/>
-      <c r="P164" t="inlineStr"/>
-      <c r="Q164" t="inlineStr"/>
-      <c r="R164" t="inlineStr"/>
-      <c r="S164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8657,28 +6321,16 @@
         <v>0</v>
       </c>
       <c r="I165" t="n">
-        <v>1</v>
-      </c>
-      <c r="J165" t="n">
-        <v>259</v>
-      </c>
-      <c r="K165" t="n">
-        <v>44.44444444444444</v>
-      </c>
-      <c r="L165" t="n">
-        <v>847.5</v>
+        <v>0</v>
+      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M165" t="n">
-        <v>842.95</v>
-      </c>
-      <c r="N165" t="n">
-        <v>840.1</v>
-      </c>
-      <c r="O165" t="inlineStr"/>
-      <c r="P165" t="inlineStr"/>
-      <c r="Q165" t="inlineStr"/>
-      <c r="R165" t="inlineStr"/>
-      <c r="S165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8710,26 +6362,14 @@
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>260</v>
-      </c>
-      <c r="K166" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L166" t="n">
-        <v>848.2</v>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M166" t="n">
-        <v>843.8</v>
-      </c>
-      <c r="N166" t="n">
-        <v>840.5333333333333</v>
-      </c>
-      <c r="O166" t="inlineStr"/>
-      <c r="P166" t="inlineStr"/>
-      <c r="Q166" t="inlineStr"/>
-      <c r="R166" t="inlineStr"/>
-      <c r="S166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8759,28 +6399,16 @@
         <v>0</v>
       </c>
       <c r="I167" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J167" t="n">
-        <v>262</v>
-      </c>
-      <c r="K167" t="n">
-        <v>0</v>
-      </c>
-      <c r="L167" t="n">
-        <v>848.6</v>
+        <v>0</v>
+      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M167" t="n">
-        <v>844.4</v>
-      </c>
-      <c r="N167" t="n">
-        <v>841.0333333333333</v>
-      </c>
-      <c r="O167" t="inlineStr"/>
-      <c r="P167" t="inlineStr"/>
-      <c r="Q167" t="inlineStr"/>
-      <c r="R167" t="inlineStr"/>
-      <c r="S167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8810,28 +6438,16 @@
         <v>0</v>
       </c>
       <c r="I168" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J168" t="n">
-        <v>262</v>
-      </c>
-      <c r="K168" t="n">
-        <v>0</v>
-      </c>
-      <c r="L168" t="n">
-        <v>848.6</v>
+        <v>0</v>
+      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M168" t="n">
-        <v>844.9</v>
-      </c>
-      <c r="N168" t="n">
-        <v>841.5333333333333</v>
-      </c>
-      <c r="O168" t="inlineStr"/>
-      <c r="P168" t="inlineStr"/>
-      <c r="Q168" t="inlineStr"/>
-      <c r="R168" t="inlineStr"/>
-      <c r="S168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8861,28 +6477,16 @@
         <v>0</v>
       </c>
       <c r="I169" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J169" t="n">
-        <v>262</v>
-      </c>
-      <c r="K169" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L169" t="n">
-        <v>848.6</v>
+        <v>0</v>
+      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M169" t="n">
-        <v>845.4</v>
-      </c>
-      <c r="N169" t="n">
-        <v>841.9333333333333</v>
-      </c>
-      <c r="O169" t="inlineStr"/>
-      <c r="P169" t="inlineStr"/>
-      <c r="Q169" t="inlineStr"/>
-      <c r="R169" t="inlineStr"/>
-      <c r="S169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8912,28 +6516,16 @@
         <v>0</v>
       </c>
       <c r="I170" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J170" t="n">
-        <v>262</v>
-      </c>
-      <c r="K170" t="n">
-        <v>6.666666666666667</v>
-      </c>
-      <c r="L170" t="n">
-        <v>848.7</v>
+        <v>0</v>
+      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M170" t="n">
-        <v>845.9</v>
-      </c>
-      <c r="N170" t="n">
-        <v>842.4</v>
-      </c>
-      <c r="O170" t="inlineStr"/>
-      <c r="P170" t="inlineStr"/>
-      <c r="Q170" t="inlineStr"/>
-      <c r="R170" t="inlineStr"/>
-      <c r="S170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8963,28 +6555,16 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J171" t="n">
-        <v>262</v>
-      </c>
-      <c r="K171" t="n">
-        <v>0</v>
-      </c>
-      <c r="L171" t="n">
-        <v>848.8</v>
+        <v>0</v>
+      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M171" t="n">
-        <v>846.4</v>
-      </c>
-      <c r="N171" t="n">
-        <v>842.8333333333334</v>
-      </c>
-      <c r="O171" t="inlineStr"/>
-      <c r="P171" t="inlineStr"/>
-      <c r="Q171" t="inlineStr"/>
-      <c r="R171" t="inlineStr"/>
-      <c r="S171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9014,28 +6594,16 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>-2</v>
-      </c>
-      <c r="J172" t="n">
-        <v>262</v>
-      </c>
-      <c r="K172" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L172" t="n">
-        <v>848.8</v>
+        <v>0</v>
+      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M172" t="n">
-        <v>846.85</v>
-      </c>
-      <c r="N172" t="n">
-        <v>843.3333333333334</v>
-      </c>
-      <c r="O172" t="inlineStr"/>
-      <c r="P172" t="inlineStr"/>
-      <c r="Q172" t="inlineStr"/>
-      <c r="R172" t="inlineStr"/>
-      <c r="S172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9065,28 +6633,16 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>1</v>
-      </c>
-      <c r="J173" t="n">
-        <v>265</v>
-      </c>
-      <c r="K173" t="n">
-        <v>-25</v>
-      </c>
-      <c r="L173" t="n">
-        <v>849.3</v>
+        <v>0</v>
+      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M173" t="n">
-        <v>847.45</v>
-      </c>
-      <c r="N173" t="n">
-        <v>843.8666666666667</v>
-      </c>
-      <c r="O173" t="inlineStr"/>
-      <c r="P173" t="inlineStr"/>
-      <c r="Q173" t="inlineStr"/>
-      <c r="R173" t="inlineStr"/>
-      <c r="S173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9116,28 +6672,16 @@
         <v>0</v>
       </c>
       <c r="I174" t="n">
-        <v>1</v>
-      </c>
-      <c r="J174" t="n">
-        <v>265</v>
-      </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>849.1</v>
+        <v>0</v>
+      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M174" t="n">
-        <v>847.95</v>
-      </c>
-      <c r="N174" t="n">
-        <v>844.4333333333333</v>
-      </c>
-      <c r="O174" t="inlineStr"/>
-      <c r="P174" t="inlineStr"/>
-      <c r="Q174" t="inlineStr"/>
-      <c r="R174" t="inlineStr"/>
-      <c r="S174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9167,28 +6711,16 @@
         <v>0</v>
       </c>
       <c r="I175" t="n">
-        <v>2</v>
-      </c>
-      <c r="J175" t="n">
-        <v>266</v>
-      </c>
-      <c r="K175" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L175" t="n">
-        <v>849.2</v>
+        <v>0</v>
+      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M175" t="n">
-        <v>848.35</v>
-      </c>
-      <c r="N175" t="n">
-        <v>845.0333333333333</v>
-      </c>
-      <c r="O175" t="inlineStr"/>
-      <c r="P175" t="inlineStr"/>
-      <c r="Q175" t="inlineStr"/>
-      <c r="R175" t="inlineStr"/>
-      <c r="S175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9218,28 +6750,16 @@
         <v>0</v>
       </c>
       <c r="I176" t="n">
-        <v>5</v>
-      </c>
-      <c r="J176" t="n">
-        <v>269</v>
-      </c>
-      <c r="K176" t="n">
-        <v>100</v>
-      </c>
-      <c r="L176" t="n">
-        <v>849.7</v>
+        <v>0</v>
+      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M176" t="n">
-        <v>848.95</v>
-      </c>
-      <c r="N176" t="n">
-        <v>845.7666666666667</v>
-      </c>
-      <c r="O176" t="inlineStr"/>
-      <c r="P176" t="inlineStr"/>
-      <c r="Q176" t="inlineStr"/>
-      <c r="R176" t="inlineStr"/>
-      <c r="S176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9269,28 +6789,16 @@
         <v>0</v>
       </c>
       <c r="I177" t="n">
-        <v>5</v>
-      </c>
-      <c r="J177" t="n">
-        <v>269</v>
-      </c>
-      <c r="K177" t="n">
-        <v>100</v>
-      </c>
-      <c r="L177" t="n">
-        <v>850.4</v>
+        <v>0</v>
+      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M177" t="n">
-        <v>849.5</v>
-      </c>
-      <c r="N177" t="n">
-        <v>846.4</v>
-      </c>
-      <c r="O177" t="inlineStr"/>
-      <c r="P177" t="inlineStr"/>
-      <c r="Q177" t="inlineStr"/>
-      <c r="R177" t="inlineStr"/>
-      <c r="S177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9320,28 +6828,16 @@
         <v>0</v>
       </c>
       <c r="I178" t="n">
-        <v>3</v>
-      </c>
-      <c r="J178" t="n">
-        <v>271</v>
-      </c>
-      <c r="K178" t="n">
-        <v>55.55555555555556</v>
-      </c>
-      <c r="L178" t="n">
-        <v>850.9</v>
+        <v>0</v>
+      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M178" t="n">
-        <v>849.75</v>
-      </c>
-      <c r="N178" t="n">
-        <v>846.9</v>
-      </c>
-      <c r="O178" t="inlineStr"/>
-      <c r="P178" t="inlineStr"/>
-      <c r="Q178" t="inlineStr"/>
-      <c r="R178" t="inlineStr"/>
-      <c r="S178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9371,28 +6867,16 @@
         <v>0</v>
       </c>
       <c r="I179" t="n">
-        <v>5</v>
-      </c>
-      <c r="J179" t="n">
-        <v>273</v>
-      </c>
-      <c r="K179" t="n">
-        <v>63.63636363636363</v>
-      </c>
-      <c r="L179" t="n">
-        <v>851.6</v>
+        <v>0</v>
+      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M179" t="n">
-        <v>850.1</v>
-      </c>
-      <c r="N179" t="n">
-        <v>847.4666666666667</v>
-      </c>
-      <c r="O179" t="inlineStr"/>
-      <c r="P179" t="inlineStr"/>
-      <c r="Q179" t="inlineStr"/>
-      <c r="R179" t="inlineStr"/>
-      <c r="S179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9422,28 +6906,16 @@
         <v>0</v>
       </c>
       <c r="I180" t="n">
-        <v>1</v>
-      </c>
-      <c r="J180" t="n">
-        <v>277</v>
-      </c>
-      <c r="K180" t="n">
-        <v>20</v>
-      </c>
-      <c r="L180" t="n">
-        <v>851.9</v>
+        <v>0</v>
+      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M180" t="n">
-        <v>850.3</v>
-      </c>
-      <c r="N180" t="n">
-        <v>847.9</v>
-      </c>
-      <c r="O180" t="inlineStr"/>
-      <c r="P180" t="inlineStr"/>
-      <c r="Q180" t="inlineStr"/>
-      <c r="R180" t="inlineStr"/>
-      <c r="S180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9473,28 +6945,16 @@
         <v>0</v>
       </c>
       <c r="I181" t="n">
-        <v>5</v>
-      </c>
-      <c r="J181" t="n">
-        <v>281</v>
-      </c>
-      <c r="K181" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="L181" t="n">
-        <v>852.6</v>
+        <v>0</v>
+      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M181" t="n">
-        <v>850.7</v>
-      </c>
-      <c r="N181" t="n">
-        <v>848.4666666666667</v>
-      </c>
-      <c r="O181" t="inlineStr"/>
-      <c r="P181" t="inlineStr"/>
-      <c r="Q181" t="inlineStr"/>
-      <c r="R181" t="inlineStr"/>
-      <c r="S181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9524,28 +6984,16 @@
         <v>0</v>
       </c>
       <c r="I182" t="n">
-        <v>5</v>
-      </c>
-      <c r="J182" t="n">
-        <v>281</v>
-      </c>
-      <c r="K182" t="n">
-        <v>25</v>
-      </c>
-      <c r="L182" t="n">
-        <v>853.3</v>
+        <v>0</v>
+      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M182" t="n">
-        <v>851.05</v>
-      </c>
-      <c r="N182" t="n">
-        <v>849</v>
-      </c>
-      <c r="O182" t="inlineStr"/>
-      <c r="P182" t="inlineStr"/>
-      <c r="Q182" t="inlineStr"/>
-      <c r="R182" t="inlineStr"/>
-      <c r="S182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9575,28 +7023,16 @@
         <v>0</v>
       </c>
       <c r="I183" t="n">
-        <v>6</v>
-      </c>
-      <c r="J183" t="n">
-        <v>282</v>
-      </c>
-      <c r="K183" t="n">
-        <v>29.41176470588236</v>
-      </c>
-      <c r="L183" t="n">
-        <v>853.8</v>
+        <v>0</v>
+      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M183" t="n">
-        <v>851.55</v>
-      </c>
-      <c r="N183" t="n">
-        <v>849.5666666666667</v>
-      </c>
-      <c r="O183" t="inlineStr"/>
-      <c r="P183" t="inlineStr"/>
-      <c r="Q183" t="inlineStr"/>
-      <c r="R183" t="inlineStr"/>
-      <c r="S183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9626,28 +7062,16 @@
         <v>0</v>
       </c>
       <c r="I184" t="n">
-        <v>8</v>
-      </c>
-      <c r="J184" t="n">
-        <v>284</v>
-      </c>
-      <c r="K184" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L184" t="n">
-        <v>854.5</v>
+        <v>0</v>
+      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M184" t="n">
-        <v>851.8</v>
-      </c>
-      <c r="N184" t="n">
-        <v>850.1333333333333</v>
-      </c>
-      <c r="O184" t="inlineStr"/>
-      <c r="P184" t="inlineStr"/>
-      <c r="Q184" t="inlineStr"/>
-      <c r="R184" t="inlineStr"/>
-      <c r="S184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9677,28 +7101,16 @@
         <v>0</v>
       </c>
       <c r="I185" t="n">
-        <v>8</v>
-      </c>
-      <c r="J185" t="n">
-        <v>284</v>
-      </c>
-      <c r="K185" t="n">
-        <v>20</v>
-      </c>
-      <c r="L185" t="n">
-        <v>855.1</v>
+        <v>0</v>
+      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M185" t="n">
-        <v>852.15</v>
-      </c>
-      <c r="N185" t="n">
-        <v>850.6</v>
-      </c>
-      <c r="O185" t="inlineStr"/>
-      <c r="P185" t="inlineStr"/>
-      <c r="Q185" t="inlineStr"/>
-      <c r="R185" t="inlineStr"/>
-      <c r="S185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9728,28 +7140,16 @@
         <v>0</v>
       </c>
       <c r="I186" t="n">
-        <v>7</v>
-      </c>
-      <c r="J186" t="n">
-        <v>285</v>
-      </c>
-      <c r="K186" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="L186" t="n">
-        <v>855.3</v>
+        <v>0</v>
+      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M186" t="n">
-        <v>852.5</v>
-      </c>
-      <c r="N186" t="n">
-        <v>851.0666666666667</v>
-      </c>
-      <c r="O186" t="inlineStr"/>
-      <c r="P186" t="inlineStr"/>
-      <c r="Q186" t="inlineStr"/>
-      <c r="R186" t="inlineStr"/>
-      <c r="S186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9779,28 +7179,16 @@
         <v>0</v>
       </c>
       <c r="I187" t="n">
-        <v>7</v>
-      </c>
-      <c r="J187" t="n">
-        <v>285</v>
-      </c>
-      <c r="K187" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="L187" t="n">
-        <v>855.5</v>
+        <v>0</v>
+      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M187" t="n">
-        <v>852.95</v>
-      </c>
-      <c r="N187" t="n">
-        <v>851.5</v>
-      </c>
-      <c r="O187" t="inlineStr"/>
-      <c r="P187" t="inlineStr"/>
-      <c r="Q187" t="inlineStr"/>
-      <c r="R187" t="inlineStr"/>
-      <c r="S187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9830,28 +7218,16 @@
         <v>0</v>
       </c>
       <c r="I188" t="n">
-        <v>4</v>
-      </c>
-      <c r="J188" t="n">
-        <v>288</v>
-      </c>
-      <c r="K188" t="n">
-        <v>-6.666666666666667</v>
-      </c>
-      <c r="L188" t="n">
-        <v>855.6</v>
+        <v>0</v>
+      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M188" t="n">
-        <v>853.25</v>
-      </c>
-      <c r="N188" t="n">
-        <v>851.7</v>
-      </c>
-      <c r="O188" t="inlineStr"/>
-      <c r="P188" t="inlineStr"/>
-      <c r="Q188" t="inlineStr"/>
-      <c r="R188" t="inlineStr"/>
-      <c r="S188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9881,28 +7257,16 @@
         <v>0</v>
       </c>
       <c r="I189" t="n">
-        <v>6</v>
-      </c>
-      <c r="J189" t="n">
-        <v>290</v>
-      </c>
-      <c r="K189" t="n">
-        <v>38.46153846153847</v>
-      </c>
-      <c r="L189" t="n">
-        <v>855.7</v>
+        <v>0</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M189" t="n">
-        <v>853.65</v>
-      </c>
-      <c r="N189" t="n">
-        <v>851.9666666666667</v>
-      </c>
-      <c r="O189" t="inlineStr"/>
-      <c r="P189" t="inlineStr"/>
-      <c r="Q189" t="inlineStr"/>
-      <c r="R189" t="inlineStr"/>
-      <c r="S189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9932,28 +7296,16 @@
         <v>0</v>
       </c>
       <c r="I190" t="n">
-        <v>7</v>
-      </c>
-      <c r="J190" t="n">
-        <v>291</v>
-      </c>
-      <c r="K190" t="n">
-        <v>20</v>
-      </c>
-      <c r="L190" t="n">
-        <v>856.3</v>
+        <v>0</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M190" t="n">
-        <v>854.1</v>
-      </c>
-      <c r="N190" t="n">
-        <v>852.3</v>
-      </c>
-      <c r="O190" t="inlineStr"/>
-      <c r="P190" t="inlineStr"/>
-      <c r="Q190" t="inlineStr"/>
-      <c r="R190" t="inlineStr"/>
-      <c r="S190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9983,28 +7335,16 @@
         <v>0</v>
       </c>
       <c r="I191" t="n">
-        <v>8</v>
-      </c>
-      <c r="J191" t="n">
-        <v>292</v>
-      </c>
-      <c r="K191" t="n">
-        <v>27.27272727272727</v>
-      </c>
-      <c r="L191" t="n">
-        <v>856.6</v>
+        <v>0</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M191" t="n">
-        <v>854.6</v>
-      </c>
-      <c r="N191" t="n">
-        <v>852.6666666666666</v>
-      </c>
-      <c r="O191" t="inlineStr"/>
-      <c r="P191" t="inlineStr"/>
-      <c r="Q191" t="inlineStr"/>
-      <c r="R191" t="inlineStr"/>
-      <c r="S191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10034,28 +7374,16 @@
         <v>0</v>
       </c>
       <c r="I192" t="n">
-        <v>8</v>
-      </c>
-      <c r="J192" t="n">
-        <v>292</v>
-      </c>
-      <c r="K192" t="n">
-        <v>20</v>
-      </c>
-      <c r="L192" t="n">
-        <v>856.9</v>
+        <v>0</v>
+      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M192" t="n">
-        <v>855.1</v>
-      </c>
-      <c r="N192" t="n">
-        <v>853</v>
-      </c>
-      <c r="O192" t="inlineStr"/>
-      <c r="P192" t="inlineStr"/>
-      <c r="Q192" t="inlineStr"/>
-      <c r="R192" t="inlineStr"/>
-      <c r="S192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10085,28 +7413,16 @@
         <v>0</v>
       </c>
       <c r="I193" t="n">
-        <v>8</v>
-      </c>
-      <c r="J193" t="n">
-        <v>292</v>
-      </c>
-      <c r="K193" t="n">
-        <v>0</v>
-      </c>
-      <c r="L193" t="n">
-        <v>857.1</v>
+        <v>0</v>
+      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M193" t="n">
-        <v>855.45</v>
-      </c>
-      <c r="N193" t="n">
-        <v>853.4</v>
-      </c>
-      <c r="O193" t="inlineStr"/>
-      <c r="P193" t="inlineStr"/>
-      <c r="Q193" t="inlineStr"/>
-      <c r="R193" t="inlineStr"/>
-      <c r="S193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10136,28 +7452,16 @@
         <v>0</v>
       </c>
       <c r="I194" t="n">
-        <v>9</v>
-      </c>
-      <c r="J194" t="n">
-        <v>293</v>
-      </c>
-      <c r="K194" t="n">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="L194" t="n">
-        <v>857.2</v>
+        <v>0</v>
+      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M194" t="n">
-        <v>855.85</v>
-      </c>
-      <c r="N194" t="n">
-        <v>853.6</v>
-      </c>
-      <c r="O194" t="inlineStr"/>
-      <c r="P194" t="inlineStr"/>
-      <c r="Q194" t="inlineStr"/>
-      <c r="R194" t="inlineStr"/>
-      <c r="S194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10187,28 +7491,16 @@
         <v>0</v>
       </c>
       <c r="I195" t="n">
-        <v>9</v>
-      </c>
-      <c r="J195" t="n">
-        <v>293</v>
-      </c>
-      <c r="K195" t="n">
-        <v>25</v>
-      </c>
-      <c r="L195" t="n">
-        <v>857.3</v>
+        <v>0</v>
+      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M195" t="n">
-        <v>856.2</v>
-      </c>
-      <c r="N195" t="n">
-        <v>853.8666666666667</v>
-      </c>
-      <c r="O195" t="inlineStr"/>
-      <c r="P195" t="inlineStr"/>
-      <c r="Q195" t="inlineStr"/>
-      <c r="R195" t="inlineStr"/>
-      <c r="S195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10238,28 +7530,16 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>9</v>
-      </c>
-      <c r="J196" t="n">
-        <v>293</v>
-      </c>
-      <c r="K196" t="n">
-        <v>25</v>
-      </c>
-      <c r="L196" t="n">
-        <v>857.5</v>
+        <v>0</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M196" t="n">
-        <v>856.4</v>
-      </c>
-      <c r="N196" t="n">
-        <v>854.1666666666666</v>
-      </c>
-      <c r="O196" t="inlineStr"/>
-      <c r="P196" t="inlineStr"/>
-      <c r="Q196" t="inlineStr"/>
-      <c r="R196" t="inlineStr"/>
-      <c r="S196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10289,28 +7569,16 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>11</v>
-      </c>
-      <c r="J197" t="n">
-        <v>295</v>
-      </c>
-      <c r="K197" t="n">
-        <v>100</v>
-      </c>
-      <c r="L197" t="n">
-        <v>857.9</v>
+        <v>0</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M197" t="n">
-        <v>856.7</v>
-      </c>
-      <c r="N197" t="n">
-        <v>854.6</v>
-      </c>
-      <c r="O197" t="inlineStr"/>
-      <c r="P197" t="inlineStr"/>
-      <c r="Q197" t="inlineStr"/>
-      <c r="R197" t="inlineStr"/>
-      <c r="S197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10340,28 +7608,16 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>10</v>
-      </c>
-      <c r="J198" t="n">
-        <v>296</v>
-      </c>
-      <c r="K198" t="n">
-        <v>66.66666666666666</v>
-      </c>
-      <c r="L198" t="n">
-        <v>858.5</v>
+        <v>0</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M198" t="n">
-        <v>857.05</v>
-      </c>
-      <c r="N198" t="n">
-        <v>855</v>
-      </c>
-      <c r="O198" t="inlineStr"/>
-      <c r="P198" t="inlineStr"/>
-      <c r="Q198" t="inlineStr"/>
-      <c r="R198" t="inlineStr"/>
-      <c r="S198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10391,28 +7647,16 @@
         <v>0</v>
       </c>
       <c r="I199" t="n">
-        <v>9</v>
-      </c>
-      <c r="J199" t="n">
-        <v>297</v>
-      </c>
-      <c r="K199" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="L199" t="n">
-        <v>858.8</v>
+        <v>0</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M199" t="n">
-        <v>857.25</v>
-      </c>
-      <c r="N199" t="n">
-        <v>855.3666666666667</v>
-      </c>
-      <c r="O199" t="inlineStr"/>
-      <c r="P199" t="inlineStr"/>
-      <c r="Q199" t="inlineStr"/>
-      <c r="R199" t="inlineStr"/>
-      <c r="S199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10442,28 +7686,16 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>8</v>
-      </c>
-      <c r="J200" t="n">
-        <v>298</v>
-      </c>
-      <c r="K200" t="n">
-        <v>0</v>
-      </c>
-      <c r="L200" t="n">
-        <v>858.9</v>
+        <v>0</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M200" t="n">
-        <v>857.6</v>
-      </c>
-      <c r="N200" t="n">
-        <v>855.7</v>
-      </c>
-      <c r="O200" t="inlineStr"/>
-      <c r="P200" t="inlineStr"/>
-      <c r="Q200" t="inlineStr"/>
-      <c r="R200" t="inlineStr"/>
-      <c r="S200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10493,28 +7725,16 @@
         <v>0</v>
       </c>
       <c r="I201" t="n">
-        <v>9</v>
-      </c>
-      <c r="J201" t="n">
-        <v>299</v>
-      </c>
-      <c r="K201" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L201" t="n">
-        <v>859</v>
+        <v>0</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M201" t="n">
-        <v>857.8</v>
-      </c>
-      <c r="N201" t="n">
-        <v>856.0666666666667</v>
-      </c>
-      <c r="O201" t="inlineStr"/>
-      <c r="P201" t="inlineStr"/>
-      <c r="Q201" t="inlineStr"/>
-      <c r="R201" t="inlineStr"/>
-      <c r="S201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10544,28 +7764,16 @@
         <v>0</v>
       </c>
       <c r="I202" t="n">
-        <v>6</v>
-      </c>
-      <c r="J202" t="n">
-        <v>302</v>
-      </c>
-      <c r="K202" t="n">
-        <v>-20</v>
-      </c>
-      <c r="L202" t="n">
-        <v>858.8</v>
+        <v>0</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M202" t="n">
-        <v>857.85</v>
-      </c>
-      <c r="N202" t="n">
-        <v>856.3333333333334</v>
-      </c>
-      <c r="O202" t="inlineStr"/>
-      <c r="P202" t="inlineStr"/>
-      <c r="Q202" t="inlineStr"/>
-      <c r="R202" t="inlineStr"/>
-      <c r="S202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10595,28 +7803,16 @@
         <v>0</v>
       </c>
       <c r="I203" t="n">
-        <v>8</v>
-      </c>
-      <c r="J203" t="n">
-        <v>304</v>
-      </c>
-      <c r="K203" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L203" t="n">
-        <v>858.8</v>
+        <v>0</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M203" t="n">
-        <v>857.95</v>
-      </c>
-      <c r="N203" t="n">
-        <v>856.5666666666667</v>
-      </c>
-      <c r="O203" t="inlineStr"/>
-      <c r="P203" t="inlineStr"/>
-      <c r="Q203" t="inlineStr"/>
-      <c r="R203" t="inlineStr"/>
-      <c r="S203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10646,28 +7842,16 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>8</v>
-      </c>
-      <c r="J204" t="n">
-        <v>304</v>
-      </c>
-      <c r="K204" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L204" t="n">
-        <v>858.7</v>
+        <v>0</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M204" t="n">
-        <v>857.95</v>
-      </c>
-      <c r="N204" t="n">
-        <v>856.8</v>
-      </c>
-      <c r="O204" t="inlineStr"/>
-      <c r="P204" t="inlineStr"/>
-      <c r="Q204" t="inlineStr"/>
-      <c r="R204" t="inlineStr"/>
-      <c r="S204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10697,28 +7881,16 @@
         <v>0</v>
       </c>
       <c r="I205" t="n">
-        <v>8</v>
-      </c>
-      <c r="J205" t="n">
-        <v>304</v>
-      </c>
-      <c r="K205" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L205" t="n">
-        <v>858.6</v>
+        <v>0</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M205" t="n">
-        <v>857.95</v>
-      </c>
-      <c r="N205" t="n">
-        <v>857</v>
-      </c>
-      <c r="O205" t="inlineStr"/>
-      <c r="P205" t="inlineStr"/>
-      <c r="Q205" t="inlineStr"/>
-      <c r="R205" t="inlineStr"/>
-      <c r="S205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10748,28 +7920,16 @@
         <v>0</v>
       </c>
       <c r="I206" t="n">
-        <v>10</v>
-      </c>
-      <c r="J206" t="n">
-        <v>306</v>
-      </c>
-      <c r="K206" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L206" t="n">
-        <v>858.7</v>
+        <v>0</v>
+      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M206" t="n">
-        <v>858.1</v>
-      </c>
-      <c r="N206" t="n">
-        <v>857.1666666666666</v>
-      </c>
-      <c r="O206" t="inlineStr"/>
-      <c r="P206" t="inlineStr"/>
-      <c r="Q206" t="inlineStr"/>
-      <c r="R206" t="inlineStr"/>
-      <c r="S206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10799,28 +7959,16 @@
         <v>0</v>
       </c>
       <c r="I207" t="n">
-        <v>24</v>
-      </c>
-      <c r="J207" t="n">
-        <v>320</v>
-      </c>
-      <c r="K207" t="n">
-        <v>58.33333333333334</v>
-      </c>
-      <c r="L207" t="n">
-        <v>860</v>
+        <v>0</v>
+      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M207" t="n">
-        <v>858.95</v>
-      </c>
-      <c r="N207" t="n">
-        <v>857.8</v>
-      </c>
-      <c r="O207" t="inlineStr"/>
-      <c r="P207" t="inlineStr"/>
-      <c r="Q207" t="inlineStr"/>
-      <c r="R207" t="inlineStr"/>
-      <c r="S207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10850,28 +7998,16 @@
         <v>0</v>
       </c>
       <c r="I208" t="n">
-        <v>61</v>
-      </c>
-      <c r="J208" t="n">
-        <v>357</v>
-      </c>
-      <c r="K208" t="n">
-        <v>86.66666666666667</v>
-      </c>
-      <c r="L208" t="n">
-        <v>865.1</v>
+        <v>0</v>
+      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M208" t="n">
-        <v>861.8</v>
-      </c>
-      <c r="N208" t="n">
-        <v>859.7333333333333</v>
-      </c>
-      <c r="O208" t="inlineStr"/>
-      <c r="P208" t="inlineStr"/>
-      <c r="Q208" t="inlineStr"/>
-      <c r="R208" t="inlineStr"/>
-      <c r="S208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10901,28 +8037,16 @@
         <v>0</v>
       </c>
       <c r="I209" t="n">
-        <v>61</v>
-      </c>
-      <c r="J209" t="n">
-        <v>357</v>
-      </c>
-      <c r="K209" t="n">
-        <v>89.83050847457628</v>
-      </c>
-      <c r="L209" t="n">
-        <v>870.3</v>
+        <v>0</v>
+      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M209" t="n">
-        <v>864.55</v>
-      </c>
-      <c r="N209" t="n">
-        <v>861.6</v>
-      </c>
-      <c r="O209" t="inlineStr"/>
-      <c r="P209" t="inlineStr"/>
-      <c r="Q209" t="inlineStr"/>
-      <c r="R209" t="inlineStr"/>
-      <c r="S209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -10952,28 +8076,16 @@
         <v>0</v>
       </c>
       <c r="I210" t="n">
-        <v>60</v>
-      </c>
-      <c r="J210" t="n">
-        <v>358</v>
-      </c>
-      <c r="K210" t="n">
-        <v>86.4406779661017</v>
-      </c>
-      <c r="L210" t="n">
-        <v>875.5</v>
+        <v>0</v>
+      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M210" t="n">
-        <v>867.2</v>
-      </c>
-      <c r="N210" t="n">
-        <v>863.5666666666667</v>
-      </c>
-      <c r="O210" t="inlineStr"/>
-      <c r="P210" t="inlineStr"/>
-      <c r="Q210" t="inlineStr"/>
-      <c r="R210" t="inlineStr"/>
-      <c r="S210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11003,28 +8115,16 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>56</v>
-      </c>
-      <c r="J211" t="n">
-        <v>362</v>
-      </c>
-      <c r="K211" t="n">
-        <v>83.33333333333334</v>
-      </c>
-      <c r="L211" t="n">
-        <v>880.2</v>
+        <v>0</v>
+      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M211" t="n">
-        <v>869.6</v>
-      </c>
-      <c r="N211" t="n">
-        <v>865.2666666666667</v>
-      </c>
-      <c r="O211" t="inlineStr"/>
-      <c r="P211" t="inlineStr"/>
-      <c r="Q211" t="inlineStr"/>
-      <c r="R211" t="inlineStr"/>
-      <c r="S211" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11054,28 +8154,16 @@
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>48</v>
-      </c>
-      <c r="J212" t="n">
-        <v>370</v>
-      </c>
-      <c r="K212" t="n">
-        <v>60.60606060606061</v>
-      </c>
-      <c r="L212" t="n">
-        <v>884.4</v>
+        <v>0</v>
+      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M212" t="n">
-        <v>871.6</v>
-      </c>
-      <c r="N212" t="n">
-        <v>866.7</v>
-      </c>
-      <c r="O212" t="inlineStr"/>
-      <c r="P212" t="inlineStr"/>
-      <c r="Q212" t="inlineStr"/>
-      <c r="R212" t="inlineStr"/>
-      <c r="S212" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11105,28 +8193,16 @@
         <v>0</v>
       </c>
       <c r="I213" t="n">
-        <v>50</v>
-      </c>
-      <c r="J213" t="n">
-        <v>372</v>
-      </c>
-      <c r="K213" t="n">
-        <v>61.76470588235294</v>
-      </c>
-      <c r="L213" t="n">
-        <v>888.6</v>
+        <v>0</v>
+      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
       </c>
       <c r="M213" t="n">
-        <v>873.7</v>
-      </c>
-      <c r="N213" t="n">
-        <v>868.1666666666666</v>
-      </c>
-      <c r="O213" t="inlineStr"/>
-      <c r="P213" t="inlineStr"/>
-      <c r="Q213" t="inlineStr"/>
-      <c r="R213" t="inlineStr"/>
-      <c r="S213" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11156,30 +8232,16 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>66</v>
-      </c>
-      <c r="J214" t="n">
-        <v>388</v>
-      </c>
-      <c r="K214" t="n">
-        <v>69.04761904761905</v>
-      </c>
-      <c r="L214" t="n">
-        <v>894.4</v>
-      </c>
-      <c r="M214" t="n">
-        <v>876.55</v>
-      </c>
-      <c r="N214" t="n">
-        <v>870.1</v>
-      </c>
-      <c r="O214" t="inlineStr"/>
-      <c r="P214" t="inlineStr"/>
-      <c r="Q214" t="inlineStr"/>
-      <c r="R214" t="inlineStr"/>
-      <c r="S214" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -11207,28 +8269,12 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>62</v>
-      </c>
-      <c r="J215" t="n">
-        <v>392</v>
-      </c>
-      <c r="K215" t="n">
-        <v>60.46511627906976</v>
-      </c>
-      <c r="L215" t="n">
-        <v>899.8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
-        <v>879.2</v>
-      </c>
-      <c r="N215" t="n">
-        <v>871.9</v>
-      </c>
-      <c r="O215" t="inlineStr"/>
-      <c r="P215" t="inlineStr"/>
-      <c r="Q215" t="inlineStr"/>
-      <c r="R215" t="inlineStr"/>
-      <c r="S215" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11258,28 +8304,12 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>59</v>
-      </c>
-      <c r="J216" t="n">
-        <v>395</v>
-      </c>
-      <c r="K216" t="n">
-        <v>46.66666666666666</v>
-      </c>
-      <c r="L216" t="n">
-        <v>904.7</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
-        <v>881.7</v>
-      </c>
-      <c r="N216" t="n">
-        <v>873.6333333333333</v>
-      </c>
-      <c r="O216" t="inlineStr"/>
-      <c r="P216" t="inlineStr"/>
-      <c r="Q216" t="inlineStr"/>
-      <c r="R216" t="inlineStr"/>
-      <c r="S216" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11309,28 +8339,12 @@
         <v>0</v>
       </c>
       <c r="I217" t="n">
-        <v>60</v>
-      </c>
-      <c r="J217" t="n">
-        <v>396</v>
-      </c>
-      <c r="K217" t="n">
-        <v>-2.564102564102564</v>
-      </c>
-      <c r="L217" t="n">
-        <v>908.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
-        <v>884.15</v>
-      </c>
-      <c r="N217" t="n">
-        <v>875.4</v>
-      </c>
-      <c r="O217" t="inlineStr"/>
-      <c r="P217" t="inlineStr"/>
-      <c r="Q217" t="inlineStr"/>
-      <c r="R217" t="inlineStr"/>
-      <c r="S217" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11360,28 +8374,12 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>51</v>
-      </c>
-      <c r="J218" t="n">
-        <v>405</v>
-      </c>
-      <c r="K218" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L218" t="n">
-        <v>907.3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
-        <v>886.2</v>
-      </c>
-      <c r="N218" t="n">
-        <v>876.9666666666667</v>
-      </c>
-      <c r="O218" t="inlineStr"/>
-      <c r="P218" t="inlineStr"/>
-      <c r="Q218" t="inlineStr"/>
-      <c r="R218" t="inlineStr"/>
-      <c r="S218" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11411,28 +8409,12 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>50</v>
-      </c>
-      <c r="J219" t="n">
-        <v>406</v>
-      </c>
-      <c r="K219" t="n">
-        <v>-20.83333333333334</v>
-      </c>
-      <c r="L219" t="n">
-        <v>906.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
-        <v>888.25</v>
-      </c>
-      <c r="N219" t="n">
-        <v>878.4333333333333</v>
-      </c>
-      <c r="O219" t="inlineStr"/>
-      <c r="P219" t="inlineStr"/>
-      <c r="Q219" t="inlineStr"/>
-      <c r="R219" t="inlineStr"/>
-      <c r="S219" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11462,28 +8444,12 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>60</v>
-      </c>
-      <c r="J220" t="n">
-        <v>416</v>
-      </c>
-      <c r="K220" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="L220" t="n">
-        <v>906.2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
-        <v>890.85</v>
-      </c>
-      <c r="N220" t="n">
-        <v>880.2</v>
-      </c>
-      <c r="O220" t="inlineStr"/>
-      <c r="P220" t="inlineStr"/>
-      <c r="Q220" t="inlineStr"/>
-      <c r="R220" t="inlineStr"/>
-      <c r="S220" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11513,28 +8479,12 @@
         <v>0</v>
       </c>
       <c r="I221" t="n">
-        <v>61</v>
-      </c>
-      <c r="J221" t="n">
-        <v>417</v>
-      </c>
-      <c r="K221" t="n">
-        <v>27.65957446808511</v>
-      </c>
-      <c r="L221" t="n">
-        <v>906.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
-        <v>893.45</v>
-      </c>
-      <c r="N221" t="n">
-        <v>881.9666666666667</v>
-      </c>
-      <c r="O221" t="inlineStr"/>
-      <c r="P221" t="inlineStr"/>
-      <c r="Q221" t="inlineStr"/>
-      <c r="R221" t="inlineStr"/>
-      <c r="S221" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11564,28 +8514,12 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>60</v>
-      </c>
-      <c r="J222" t="n">
-        <v>418</v>
-      </c>
-      <c r="K222" t="n">
-        <v>21.73913043478261</v>
-      </c>
-      <c r="L222" t="n">
-        <v>907.9</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
-        <v>896.15</v>
-      </c>
-      <c r="N222" t="n">
-        <v>883.7</v>
-      </c>
-      <c r="O222" t="inlineStr"/>
-      <c r="P222" t="inlineStr"/>
-      <c r="Q222" t="inlineStr"/>
-      <c r="R222" t="inlineStr"/>
-      <c r="S222" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11615,28 +8549,12 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>65</v>
-      </c>
-      <c r="J223" t="n">
-        <v>423</v>
-      </c>
-      <c r="K223" t="n">
-        <v>-2.857142857142857</v>
-      </c>
-      <c r="L223" t="n">
-        <v>909.4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
-        <v>899</v>
-      </c>
-      <c r="N223" t="n">
-        <v>885.6</v>
-      </c>
-      <c r="O223" t="inlineStr"/>
-      <c r="P223" t="inlineStr"/>
-      <c r="Q223" t="inlineStr"/>
-      <c r="R223" t="inlineStr"/>
-      <c r="S223" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11666,28 +8584,12 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>67</v>
-      </c>
-      <c r="J224" t="n">
-        <v>425</v>
-      </c>
-      <c r="K224" t="n">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="L224" t="n">
-        <v>909.5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
-        <v>901.95</v>
-      </c>
-      <c r="N224" t="n">
-        <v>887.5333333333333</v>
-      </c>
-      <c r="O224" t="inlineStr"/>
-      <c r="P224" t="inlineStr"/>
-      <c r="Q224" t="inlineStr"/>
-      <c r="R224" t="inlineStr"/>
-      <c r="S224" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11717,28 +8619,12 @@
         <v>0</v>
       </c>
       <c r="I225" t="n">
-        <v>68</v>
-      </c>
-      <c r="J225" t="n">
-        <v>426</v>
-      </c>
-      <c r="K225" t="n">
-        <v>29.03225806451613</v>
-      </c>
-      <c r="L225" t="n">
-        <v>910.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
-        <v>904.95</v>
-      </c>
-      <c r="N225" t="n">
-        <v>889.5</v>
-      </c>
-      <c r="O225" t="inlineStr"/>
-      <c r="P225" t="inlineStr"/>
-      <c r="Q225" t="inlineStr"/>
-      <c r="R225" t="inlineStr"/>
-      <c r="S225" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11768,28 +8654,12 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>68</v>
-      </c>
-      <c r="J226" t="n">
-        <v>426</v>
-      </c>
-      <c r="K226" t="n">
-        <v>26.66666666666667</v>
-      </c>
-      <c r="L226" t="n">
-        <v>911</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
-        <v>907.85</v>
-      </c>
-      <c r="N226" t="n">
-        <v>891.4666666666667</v>
-      </c>
-      <c r="O226" t="inlineStr"/>
-      <c r="P226" t="inlineStr"/>
-      <c r="Q226" t="inlineStr"/>
-      <c r="R226" t="inlineStr"/>
-      <c r="S226" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11819,28 +8689,12 @@
         <v>0</v>
       </c>
       <c r="I227" t="n">
-        <v>64</v>
-      </c>
-      <c r="J227" t="n">
-        <v>430</v>
-      </c>
-      <c r="K227" t="n">
-        <v>52</v>
-      </c>
-      <c r="L227" t="n">
-        <v>911.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
-        <v>909.85</v>
-      </c>
-      <c r="N227" t="n">
-        <v>893.2333333333333</v>
-      </c>
-      <c r="O227" t="inlineStr"/>
-      <c r="P227" t="inlineStr"/>
-      <c r="Q227" t="inlineStr"/>
-      <c r="R227" t="inlineStr"/>
-      <c r="S227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11870,28 +8724,12 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>59</v>
-      </c>
-      <c r="J228" t="n">
-        <v>435</v>
-      </c>
-      <c r="K228" t="n">
-        <v>31.03448275862069</v>
-      </c>
-      <c r="L228" t="n">
-        <v>912.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
-        <v>909.75</v>
-      </c>
-      <c r="N228" t="n">
-        <v>894.8666666666667</v>
-      </c>
-      <c r="O228" t="inlineStr"/>
-      <c r="P228" t="inlineStr"/>
-      <c r="Q228" t="inlineStr"/>
-      <c r="R228" t="inlineStr"/>
-      <c r="S228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11921,28 +8759,12 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>59</v>
-      </c>
-      <c r="J229" t="n">
-        <v>435</v>
-      </c>
-      <c r="K229" t="n">
-        <v>-5.263157894736842</v>
-      </c>
-      <c r="L229" t="n">
-        <v>913.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
-        <v>909.65</v>
-      </c>
-      <c r="N229" t="n">
-        <v>896.5333333333333</v>
-      </c>
-      <c r="O229" t="inlineStr"/>
-      <c r="P229" t="inlineStr"/>
-      <c r="Q229" t="inlineStr"/>
-      <c r="R229" t="inlineStr"/>
-      <c r="S229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -11972,28 +8794,12 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>65</v>
-      </c>
-      <c r="J230" t="n">
-        <v>441</v>
-      </c>
-      <c r="K230" t="n">
-        <v>16.66666666666666</v>
-      </c>
-      <c r="L230" t="n">
-        <v>913.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
-        <v>909.9</v>
-      </c>
-      <c r="N230" t="n">
-        <v>898.4333333333333</v>
-      </c>
-      <c r="O230" t="inlineStr"/>
-      <c r="P230" t="inlineStr"/>
-      <c r="Q230" t="inlineStr"/>
-      <c r="R230" t="inlineStr"/>
-      <c r="S230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12023,28 +8829,12 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>66</v>
-      </c>
-      <c r="J231" t="n">
-        <v>442</v>
-      </c>
-      <c r="K231" t="n">
-        <v>25</v>
-      </c>
-      <c r="L231" t="n">
-        <v>914.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
-        <v>910.4</v>
-      </c>
-      <c r="N231" t="n">
-        <v>900.3333333333334</v>
-      </c>
-      <c r="O231" t="inlineStr"/>
-      <c r="P231" t="inlineStr"/>
-      <c r="Q231" t="inlineStr"/>
-      <c r="R231" t="inlineStr"/>
-      <c r="S231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12074,28 +8864,12 @@
         <v>0</v>
       </c>
       <c r="I232" t="n">
-        <v>63</v>
-      </c>
-      <c r="J232" t="n">
-        <v>445</v>
-      </c>
-      <c r="K232" t="n">
-        <v>-9.090909090909092</v>
-      </c>
-      <c r="L232" t="n">
-        <v>914.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
-        <v>911.15</v>
-      </c>
-      <c r="N232" t="n">
-        <v>902.2333333333333</v>
-      </c>
-      <c r="O232" t="inlineStr"/>
-      <c r="P232" t="inlineStr"/>
-      <c r="Q232" t="inlineStr"/>
-      <c r="R232" t="inlineStr"/>
-      <c r="S232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12125,28 +8899,12 @@
         <v>0</v>
       </c>
       <c r="I233" t="n">
-        <v>59</v>
-      </c>
-      <c r="J233" t="n">
-        <v>449</v>
-      </c>
-      <c r="K233" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L233" t="n">
-        <v>913.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
-        <v>911.6</v>
-      </c>
-      <c r="N233" t="n">
-        <v>903.9333333333333</v>
-      </c>
-      <c r="O233" t="inlineStr"/>
-      <c r="P233" t="inlineStr"/>
-      <c r="Q233" t="inlineStr"/>
-      <c r="R233" t="inlineStr"/>
-      <c r="S233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12176,28 +8934,12 @@
         <v>0</v>
       </c>
       <c r="I234" t="n">
-        <v>63</v>
-      </c>
-      <c r="J234" t="n">
-        <v>453</v>
-      </c>
-      <c r="K234" t="n">
-        <v>-18.51851851851852</v>
-      </c>
-      <c r="L234" t="n">
-        <v>913.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
-        <v>911.45</v>
-      </c>
-      <c r="N234" t="n">
-        <v>905.7666666666667</v>
-      </c>
-      <c r="O234" t="inlineStr"/>
-      <c r="P234" t="inlineStr"/>
-      <c r="Q234" t="inlineStr"/>
-      <c r="R234" t="inlineStr"/>
-      <c r="S234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12227,28 +8969,12 @@
         <v>0</v>
       </c>
       <c r="I235" t="n">
-        <v>67</v>
-      </c>
-      <c r="J235" t="n">
-        <v>457</v>
-      </c>
-      <c r="K235" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L235" t="n">
-        <v>913.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
-        <v>911.7</v>
-      </c>
-      <c r="N235" t="n">
-        <v>907.7333333333333</v>
-      </c>
-      <c r="O235" t="inlineStr"/>
-      <c r="P235" t="inlineStr"/>
-      <c r="Q235" t="inlineStr"/>
-      <c r="R235" t="inlineStr"/>
-      <c r="S235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12278,28 +9004,12 @@
         <v>0</v>
       </c>
       <c r="I236" t="n">
-        <v>68</v>
-      </c>
-      <c r="J236" t="n">
-        <v>458</v>
-      </c>
-      <c r="K236" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L236" t="n">
-        <v>913.3</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
-        <v>912.15</v>
-      </c>
-      <c r="N236" t="n">
-        <v>909.6666666666666</v>
-      </c>
-      <c r="O236" t="inlineStr"/>
-      <c r="P236" t="inlineStr"/>
-      <c r="Q236" t="inlineStr"/>
-      <c r="R236" t="inlineStr"/>
-      <c r="S236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12329,28 +9039,12 @@
         <v>0</v>
       </c>
       <c r="I237" t="n">
-        <v>75</v>
-      </c>
-      <c r="J237" t="n">
-        <v>465</v>
-      </c>
-      <c r="K237" t="n">
-        <v>53.33333333333334</v>
-      </c>
-      <c r="L237" t="n">
-        <v>914.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
-        <v>912.9</v>
-      </c>
-      <c r="N237" t="n">
-        <v>911.3666666666667</v>
-      </c>
-      <c r="O237" t="inlineStr"/>
-      <c r="P237" t="inlineStr"/>
-      <c r="Q237" t="inlineStr"/>
-      <c r="R237" t="inlineStr"/>
-      <c r="S237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12380,28 +9074,12 @@
         <v>0</v>
       </c>
       <c r="I238" t="n">
-        <v>69</v>
-      </c>
-      <c r="J238" t="n">
-        <v>471</v>
-      </c>
-      <c r="K238" t="n">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="L238" t="n">
-        <v>915.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
-        <v>913.8</v>
-      </c>
-      <c r="N238" t="n">
-        <v>911.6333333333333</v>
-      </c>
-      <c r="O238" t="inlineStr"/>
-      <c r="P238" t="inlineStr"/>
-      <c r="Q238" t="inlineStr"/>
-      <c r="R238" t="inlineStr"/>
-      <c r="S238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12431,28 +9109,12 @@
         <v>0</v>
       </c>
       <c r="I239" t="n">
-        <v>72</v>
-      </c>
-      <c r="J239" t="n">
-        <v>474</v>
-      </c>
-      <c r="K239" t="n">
-        <v>21.21212121212121</v>
-      </c>
-      <c r="L239" t="n">
-        <v>916.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
-        <v>914.9</v>
-      </c>
-      <c r="N239" t="n">
-        <v>912</v>
-      </c>
-      <c r="O239" t="inlineStr"/>
-      <c r="P239" t="inlineStr"/>
-      <c r="Q239" t="inlineStr"/>
-      <c r="R239" t="inlineStr"/>
-      <c r="S239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12482,28 +9144,12 @@
         <v>0</v>
       </c>
       <c r="I240" t="n">
-        <v>73</v>
-      </c>
-      <c r="J240" t="n">
-        <v>475</v>
-      </c>
-      <c r="K240" t="n">
-        <v>21.21212121212121</v>
-      </c>
-      <c r="L240" t="n">
-        <v>917.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
-        <v>915.55</v>
-      </c>
-      <c r="N240" t="n">
-        <v>912.4333333333333</v>
-      </c>
-      <c r="O240" t="inlineStr"/>
-      <c r="P240" t="inlineStr"/>
-      <c r="Q240" t="inlineStr"/>
-      <c r="R240" t="inlineStr"/>
-      <c r="S240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12533,28 +9179,12 @@
         <v>0</v>
       </c>
       <c r="I241" t="n">
-        <v>69</v>
-      </c>
-      <c r="J241" t="n">
-        <v>479</v>
-      </c>
-      <c r="K241" t="n">
-        <v>17.64705882352941</v>
-      </c>
-      <c r="L241" t="n">
-        <v>917.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
-        <v>915.95</v>
-      </c>
-      <c r="N241" t="n">
-        <v>912.8666666666667</v>
-      </c>
-      <c r="O241" t="inlineStr"/>
-      <c r="P241" t="inlineStr"/>
-      <c r="Q241" t="inlineStr"/>
-      <c r="R241" t="inlineStr"/>
-      <c r="S241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12584,28 +9214,12 @@
         <v>0</v>
       </c>
       <c r="I242" t="n">
-        <v>64</v>
-      </c>
-      <c r="J242" t="n">
-        <v>484</v>
-      </c>
-      <c r="K242" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L242" t="n">
-        <v>917.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
-        <v>916.15</v>
-      </c>
-      <c r="N242" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="O242" t="inlineStr"/>
-      <c r="P242" t="inlineStr"/>
-      <c r="Q242" t="inlineStr"/>
-      <c r="R242" t="inlineStr"/>
-      <c r="S242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12635,28 +9249,12 @@
         <v>0</v>
       </c>
       <c r="I243" t="n">
-        <v>65</v>
-      </c>
-      <c r="J243" t="n">
-        <v>485</v>
-      </c>
-      <c r="K243" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="L243" t="n">
-        <v>918.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
-        <v>916.15</v>
-      </c>
-      <c r="N243" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="O243" t="inlineStr"/>
-      <c r="P243" t="inlineStr"/>
-      <c r="Q243" t="inlineStr"/>
-      <c r="R243" t="inlineStr"/>
-      <c r="S243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12686,28 +9284,12 @@
         <v>0</v>
       </c>
       <c r="I244" t="n">
-        <v>66</v>
-      </c>
-      <c r="J244" t="n">
-        <v>486</v>
-      </c>
-      <c r="K244" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L244" t="n">
-        <v>918.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
-        <v>916.1</v>
-      </c>
-      <c r="N244" t="n">
-        <v>913.9</v>
-      </c>
-      <c r="O244" t="inlineStr"/>
-      <c r="P244" t="inlineStr"/>
-      <c r="Q244" t="inlineStr"/>
-      <c r="R244" t="inlineStr"/>
-      <c r="S244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12737,28 +9319,12 @@
         <v>0</v>
       </c>
       <c r="I245" t="n">
-        <v>67</v>
-      </c>
-      <c r="J245" t="n">
-        <v>487</v>
-      </c>
-      <c r="K245" t="n">
-        <v>-3.448275862068965</v>
-      </c>
-      <c r="L245" t="n">
-        <v>918.8</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
-        <v>916.05</v>
-      </c>
-      <c r="N245" t="n">
-        <v>914.0666666666667</v>
-      </c>
-      <c r="O245" t="inlineStr"/>
-      <c r="P245" t="inlineStr"/>
-      <c r="Q245" t="inlineStr"/>
-      <c r="R245" t="inlineStr"/>
-      <c r="S245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12788,28 +9354,12 @@
         <v>0</v>
       </c>
       <c r="I246" t="n">
-        <v>65</v>
-      </c>
-      <c r="J246" t="n">
-        <v>489</v>
-      </c>
-      <c r="K246" t="n">
-        <v>-41.66666666666667</v>
-      </c>
-      <c r="L246" t="n">
-        <v>918.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
-        <v>915.9</v>
-      </c>
-      <c r="N246" t="n">
-        <v>914.2666666666667</v>
-      </c>
-      <c r="O246" t="inlineStr"/>
-      <c r="P246" t="inlineStr"/>
-      <c r="Q246" t="inlineStr"/>
-      <c r="R246" t="inlineStr"/>
-      <c r="S246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12839,28 +9389,12 @@
         <v>0</v>
       </c>
       <c r="I247" t="n">
-        <v>61</v>
-      </c>
-      <c r="J247" t="n">
-        <v>493</v>
-      </c>
-      <c r="K247" t="n">
-        <v>-36.36363636363637</v>
-      </c>
-      <c r="L247" t="n">
-        <v>917.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
-        <v>915.75</v>
-      </c>
-      <c r="N247" t="n">
-        <v>914.3</v>
-      </c>
-      <c r="O247" t="inlineStr"/>
-      <c r="P247" t="inlineStr"/>
-      <c r="Q247" t="inlineStr"/>
-      <c r="R247" t="inlineStr"/>
-      <c r="S247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12890,28 +9424,12 @@
         <v>0</v>
       </c>
       <c r="I248" t="n">
-        <v>59</v>
-      </c>
-      <c r="J248" t="n">
-        <v>495</v>
-      </c>
-      <c r="K248" t="n">
-        <v>-61.90476190476191</v>
-      </c>
-      <c r="L248" t="n">
-        <v>916.1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
-        <v>915.75</v>
-      </c>
-      <c r="N248" t="n">
-        <v>914.5666666666667</v>
-      </c>
-      <c r="O248" t="inlineStr"/>
-      <c r="P248" t="inlineStr"/>
-      <c r="Q248" t="inlineStr"/>
-      <c r="R248" t="inlineStr"/>
-      <c r="S248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12941,28 +9459,12 @@
         <v>0</v>
       </c>
       <c r="I249" t="n">
-        <v>57</v>
-      </c>
-      <c r="J249" t="n">
-        <v>497</v>
-      </c>
-      <c r="K249" t="n">
-        <v>-72.72727272727273</v>
-      </c>
-      <c r="L249" t="n">
-        <v>914.6</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
-        <v>915.65</v>
-      </c>
-      <c r="N249" t="n">
-        <v>914.8</v>
-      </c>
-      <c r="O249" t="inlineStr"/>
-      <c r="P249" t="inlineStr"/>
-      <c r="Q249" t="inlineStr"/>
-      <c r="R249" t="inlineStr"/>
-      <c r="S249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -12992,28 +9494,12 @@
         <v>0</v>
       </c>
       <c r="I250" t="n">
-        <v>62</v>
-      </c>
-      <c r="J250" t="n">
-        <v>502</v>
-      </c>
-      <c r="K250" t="n">
-        <v>-30.43478260869566</v>
-      </c>
-      <c r="L250" t="n">
-        <v>913.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
-        <v>915.5</v>
-      </c>
-      <c r="N250" t="n">
-        <v>914.8666666666667</v>
-      </c>
-      <c r="O250" t="inlineStr"/>
-      <c r="P250" t="inlineStr"/>
-      <c r="Q250" t="inlineStr"/>
-      <c r="R250" t="inlineStr"/>
-      <c r="S250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13043,28 +9529,12 @@
         <v>0</v>
       </c>
       <c r="I251" t="n">
-        <v>61</v>
-      </c>
-      <c r="J251" t="n">
-        <v>503</v>
-      </c>
-      <c r="K251" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L251" t="n">
-        <v>912.7</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
-        <v>915.25</v>
-      </c>
-      <c r="N251" t="n">
-        <v>914.8666666666667</v>
-      </c>
-      <c r="O251" t="inlineStr"/>
-      <c r="P251" t="inlineStr"/>
-      <c r="Q251" t="inlineStr"/>
-      <c r="R251" t="inlineStr"/>
-      <c r="S251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13094,28 +9564,12 @@
         <v>0</v>
       </c>
       <c r="I252" t="n">
-        <v>62</v>
-      </c>
-      <c r="J252" t="n">
-        <v>504</v>
-      </c>
-      <c r="K252" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L252" t="n">
-        <v>912.5</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
-        <v>915.2</v>
-      </c>
-      <c r="N252" t="n">
-        <v>914.9333333333333</v>
-      </c>
-      <c r="O252" t="inlineStr"/>
-      <c r="P252" t="inlineStr"/>
-      <c r="Q252" t="inlineStr"/>
-      <c r="R252" t="inlineStr"/>
-      <c r="S252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13145,28 +9599,12 @@
         <v>0</v>
       </c>
       <c r="I253" t="n">
-        <v>62</v>
-      </c>
-      <c r="J253" t="n">
-        <v>504</v>
-      </c>
-      <c r="K253" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L253" t="n">
-        <v>912.2</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
-        <v>915.35</v>
-      </c>
-      <c r="N253" t="n">
-        <v>914.8333333333334</v>
-      </c>
-      <c r="O253" t="inlineStr"/>
-      <c r="P253" t="inlineStr"/>
-      <c r="Q253" t="inlineStr"/>
-      <c r="R253" t="inlineStr"/>
-      <c r="S253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13196,28 +9634,12 @@
         <v>0</v>
       </c>
       <c r="I254" t="n">
-        <v>63</v>
-      </c>
-      <c r="J254" t="n">
-        <v>505</v>
-      </c>
-      <c r="K254" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L254" t="n">
-        <v>911.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
-        <v>915.35</v>
-      </c>
-      <c r="N254" t="n">
-        <v>914.7</v>
-      </c>
-      <c r="O254" t="inlineStr"/>
-      <c r="P254" t="inlineStr"/>
-      <c r="Q254" t="inlineStr"/>
-      <c r="R254" t="inlineStr"/>
-      <c r="S254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13247,1099 +9669,12 @@
         <v>0</v>
       </c>
       <c r="I255" t="n">
-        <v>58</v>
-      </c>
-      <c r="J255" t="n">
-        <v>510</v>
-      </c>
-      <c r="K255" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L255" t="n">
-        <v>911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
-        <v>914.9</v>
-      </c>
-      <c r="N255" t="n">
-        <v>914.3666666666667</v>
-      </c>
-      <c r="O255" t="inlineStr"/>
-      <c r="P255" t="inlineStr"/>
-      <c r="Q255" t="inlineStr"/>
-      <c r="R255" t="inlineStr"/>
-      <c r="S255" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
-        <v>254</v>
-      </c>
-      <c r="B256" t="n">
-        <v>907</v>
-      </c>
-      <c r="C256" t="n">
-        <v>907</v>
-      </c>
-      <c r="D256" t="n">
-        <v>907</v>
-      </c>
-      <c r="E256" t="n">
-        <v>907</v>
-      </c>
-      <c r="F256" t="n">
-        <v>334.3888</v>
-      </c>
-      <c r="G256" t="n">
-        <v>902.7333333333333</v>
-      </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="n">
-        <v>57</v>
-      </c>
-      <c r="J256" t="n">
-        <v>511</v>
-      </c>
-      <c r="K256" t="n">
-        <v>-22.22222222222222</v>
-      </c>
-      <c r="L256" t="n">
-        <v>910.2</v>
-      </c>
-      <c r="M256" t="n">
-        <v>914.35</v>
-      </c>
-      <c r="N256" t="n">
-        <v>914</v>
-      </c>
-      <c r="O256" t="inlineStr"/>
-      <c r="P256" t="inlineStr"/>
-      <c r="Q256" t="inlineStr"/>
-      <c r="R256" t="inlineStr"/>
-      <c r="S256" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
-        <v>255</v>
-      </c>
-      <c r="B257" t="n">
-        <v>912</v>
-      </c>
-      <c r="C257" t="n">
-        <v>912</v>
-      </c>
-      <c r="D257" t="n">
-        <v>912</v>
-      </c>
-      <c r="E257" t="n">
-        <v>912</v>
-      </c>
-      <c r="F257" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="G257" t="n">
-        <v>903.5833333333334</v>
-      </c>
-      <c r="H257" t="n">
-        <v>0</v>
-      </c>
-      <c r="I257" t="n">
-        <v>62</v>
-      </c>
-      <c r="J257" t="n">
-        <v>516</v>
-      </c>
-      <c r="K257" t="n">
-        <v>14.28571428571428</v>
-      </c>
-      <c r="L257" t="n">
-        <v>910.3</v>
-      </c>
-      <c r="M257" t="n">
-        <v>913.7</v>
-      </c>
-      <c r="N257" t="n">
-        <v>913.9333333333333</v>
-      </c>
-      <c r="O257" t="inlineStr"/>
-      <c r="P257" t="inlineStr"/>
-      <c r="Q257" t="inlineStr"/>
-      <c r="R257" t="inlineStr"/>
-      <c r="S257" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
-        <v>256</v>
-      </c>
-      <c r="B258" t="n">
-        <v>911</v>
-      </c>
-      <c r="C258" t="n">
-        <v>913</v>
-      </c>
-      <c r="D258" t="n">
-        <v>913</v>
-      </c>
-      <c r="E258" t="n">
-        <v>908</v>
-      </c>
-      <c r="F258" t="n">
-        <v>705.6678000000001</v>
-      </c>
-      <c r="G258" t="n">
-        <v>904.4666666666667</v>
-      </c>
-      <c r="H258" t="n">
-        <v>0</v>
-      </c>
-      <c r="I258" t="n">
-        <v>63</v>
-      </c>
-      <c r="J258" t="n">
-        <v>517</v>
-      </c>
-      <c r="K258" t="n">
-        <v>30</v>
-      </c>
-      <c r="L258" t="n">
-        <v>910.7</v>
-      </c>
-      <c r="M258" t="n">
-        <v>913.4</v>
-      </c>
-      <c r="N258" t="n">
-        <v>914.0666666666667</v>
-      </c>
-      <c r="O258" t="inlineStr"/>
-      <c r="P258" t="inlineStr"/>
-      <c r="Q258" t="inlineStr"/>
-      <c r="R258" t="inlineStr"/>
-      <c r="S258" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
-        <v>257</v>
-      </c>
-      <c r="B259" t="n">
-        <v>913</v>
-      </c>
-      <c r="C259" t="n">
-        <v>909</v>
-      </c>
-      <c r="D259" t="n">
-        <v>913</v>
-      </c>
-      <c r="E259" t="n">
-        <v>909</v>
-      </c>
-      <c r="F259" t="n">
-        <v>2.397</v>
-      </c>
-      <c r="G259" t="n">
-        <v>905.3</v>
-      </c>
-      <c r="H259" t="n">
-        <v>0</v>
-      </c>
-      <c r="I259" t="n">
-        <v>59</v>
-      </c>
-      <c r="J259" t="n">
-        <v>521</v>
-      </c>
-      <c r="K259" t="n">
-        <v>-15.78947368421053</v>
-      </c>
-      <c r="L259" t="n">
-        <v>910.9</v>
-      </c>
-      <c r="M259" t="n">
-        <v>912.75</v>
-      </c>
-      <c r="N259" t="n">
-        <v>914.0666666666667</v>
-      </c>
-      <c r="O259" t="inlineStr"/>
-      <c r="P259" t="inlineStr"/>
-      <c r="Q259" t="inlineStr"/>
-      <c r="R259" t="inlineStr"/>
-      <c r="S259" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
-        <v>258</v>
-      </c>
-      <c r="B260" t="n">
-        <v>908</v>
-      </c>
-      <c r="C260" t="n">
-        <v>912</v>
-      </c>
-      <c r="D260" t="n">
-        <v>912</v>
-      </c>
-      <c r="E260" t="n">
-        <v>908</v>
-      </c>
-      <c r="F260" t="n">
-        <v>69.7492</v>
-      </c>
-      <c r="G260" t="n">
-        <v>906.2</v>
-      </c>
-      <c r="H260" t="n">
-        <v>0</v>
-      </c>
-      <c r="I260" t="n">
-        <v>62</v>
-      </c>
-      <c r="J260" t="n">
-        <v>524</v>
-      </c>
-      <c r="K260" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L260" t="n">
-        <v>910.9</v>
-      </c>
-      <c r="M260" t="n">
-        <v>912.2</v>
-      </c>
-      <c r="N260" t="n">
-        <v>913.9666666666667</v>
-      </c>
-      <c r="O260" t="inlineStr"/>
-      <c r="P260" t="inlineStr"/>
-      <c r="Q260" t="inlineStr"/>
-      <c r="R260" t="inlineStr"/>
-      <c r="S260" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
-        <v>259</v>
-      </c>
-      <c r="B261" t="n">
-        <v>912</v>
-      </c>
-      <c r="C261" t="n">
-        <v>913</v>
-      </c>
-      <c r="D261" t="n">
-        <v>913</v>
-      </c>
-      <c r="E261" t="n">
-        <v>912</v>
-      </c>
-      <c r="F261" t="n">
-        <v>173.9691</v>
-      </c>
-      <c r="G261" t="n">
-        <v>907.1</v>
-      </c>
-      <c r="H261" t="n">
-        <v>0</v>
-      </c>
-      <c r="I261" t="n">
-        <v>63</v>
-      </c>
-      <c r="J261" t="n">
-        <v>525</v>
-      </c>
-      <c r="K261" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L261" t="n">
-        <v>911.1</v>
-      </c>
-      <c r="M261" t="n">
-        <v>911.9</v>
-      </c>
-      <c r="N261" t="n">
-        <v>913.8666666666667</v>
-      </c>
-      <c r="O261" t="inlineStr"/>
-      <c r="P261" t="inlineStr"/>
-      <c r="Q261" t="inlineStr"/>
-      <c r="R261" t="inlineStr"/>
-      <c r="S261" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
-        <v>260</v>
-      </c>
-      <c r="B262" t="n">
-        <v>913</v>
-      </c>
-      <c r="C262" t="n">
-        <v>913</v>
-      </c>
-      <c r="D262" t="n">
-        <v>913</v>
-      </c>
-      <c r="E262" t="n">
-        <v>913</v>
-      </c>
-      <c r="F262" t="n">
-        <v>703.4358999999999</v>
-      </c>
-      <c r="G262" t="n">
-        <v>908.05</v>
-      </c>
-      <c r="H262" t="n">
-        <v>0</v>
-      </c>
-      <c r="I262" t="n">
-        <v>63</v>
-      </c>
-      <c r="J262" t="n">
-        <v>525</v>
-      </c>
-      <c r="K262" t="n">
-        <v>4.761904761904762</v>
-      </c>
-      <c r="L262" t="n">
-        <v>911.2</v>
-      </c>
-      <c r="M262" t="n">
-        <v>911.85</v>
-      </c>
-      <c r="N262" t="n">
-        <v>913.8666666666667</v>
-      </c>
-      <c r="O262" t="inlineStr"/>
-      <c r="P262" t="inlineStr"/>
-      <c r="Q262" t="inlineStr"/>
-      <c r="R262" t="inlineStr"/>
-      <c r="S262" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
-        <v>261</v>
-      </c>
-      <c r="B263" t="n">
-        <v>912</v>
-      </c>
-      <c r="C263" t="n">
-        <v>912</v>
-      </c>
-      <c r="D263" t="n">
-        <v>912</v>
-      </c>
-      <c r="E263" t="n">
-        <v>912</v>
-      </c>
-      <c r="F263" t="n">
-        <v>395</v>
-      </c>
-      <c r="G263" t="n">
-        <v>908.95</v>
-      </c>
-      <c r="H263" t="n">
-        <v>0</v>
-      </c>
-      <c r="I263" t="n">
-        <v>62</v>
-      </c>
-      <c r="J263" t="n">
-        <v>526</v>
-      </c>
-      <c r="K263" t="n">
-        <v>-4.761904761904762</v>
-      </c>
-      <c r="L263" t="n">
-        <v>911.2</v>
-      </c>
-      <c r="M263" t="n">
-        <v>911.7</v>
-      </c>
-      <c r="N263" t="n">
-        <v>913.9666666666667</v>
-      </c>
-      <c r="O263" t="inlineStr"/>
-      <c r="P263" t="inlineStr"/>
-      <c r="Q263" t="inlineStr"/>
-      <c r="R263" t="inlineStr"/>
-      <c r="S263" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
-        <v>262</v>
-      </c>
-      <c r="B264" t="n">
-        <v>912</v>
-      </c>
-      <c r="C264" t="n">
-        <v>912</v>
-      </c>
-      <c r="D264" t="n">
-        <v>912</v>
-      </c>
-      <c r="E264" t="n">
-        <v>912</v>
-      </c>
-      <c r="F264" t="n">
-        <v>300</v>
-      </c>
-      <c r="G264" t="n">
-        <v>909.85</v>
-      </c>
-      <c r="H264" t="n">
-        <v>0</v>
-      </c>
-      <c r="I264" t="n">
-        <v>62</v>
-      </c>
-      <c r="J264" t="n">
-        <v>526</v>
-      </c>
-      <c r="K264" t="n">
-        <v>25</v>
-      </c>
-      <c r="L264" t="n">
-        <v>911.1</v>
-      </c>
-      <c r="M264" t="n">
-        <v>911.5</v>
-      </c>
-      <c r="N264" t="n">
-        <v>913.9333333333333</v>
-      </c>
-      <c r="O264" t="inlineStr"/>
-      <c r="P264" t="inlineStr"/>
-      <c r="Q264" t="inlineStr"/>
-      <c r="R264" t="inlineStr"/>
-      <c r="S264" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
-        <v>263</v>
-      </c>
-      <c r="B265" t="n">
-        <v>912</v>
-      </c>
-      <c r="C265" t="n">
-        <v>908</v>
-      </c>
-      <c r="D265" t="n">
-        <v>912</v>
-      </c>
-      <c r="E265" t="n">
-        <v>908</v>
-      </c>
-      <c r="F265" t="n">
-        <v>500.9002</v>
-      </c>
-      <c r="G265" t="n">
-        <v>910.6833333333333</v>
-      </c>
-      <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="n">
-        <v>58</v>
-      </c>
-      <c r="J265" t="n">
-        <v>530</v>
-      </c>
-      <c r="K265" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L265" t="n">
-        <v>911.1</v>
-      </c>
-      <c r="M265" t="n">
-        <v>911.05</v>
-      </c>
-      <c r="N265" t="n">
-        <v>913.6333333333333</v>
-      </c>
-      <c r="O265" t="inlineStr"/>
-      <c r="P265" t="inlineStr"/>
-      <c r="Q265" t="inlineStr"/>
-      <c r="R265" t="inlineStr"/>
-      <c r="S265" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
-        <v>264</v>
-      </c>
-      <c r="B266" t="n">
-        <v>910</v>
-      </c>
-      <c r="C266" t="n">
-        <v>912</v>
-      </c>
-      <c r="D266" t="n">
-        <v>912</v>
-      </c>
-      <c r="E266" t="n">
-        <v>910</v>
-      </c>
-      <c r="F266" t="n">
-        <v>242.2733</v>
-      </c>
-      <c r="G266" t="n">
-        <v>911.55</v>
-      </c>
-      <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="n">
-        <v>62</v>
-      </c>
-      <c r="J266" t="n">
-        <v>534</v>
-      </c>
-      <c r="K266" t="n">
-        <v>0</v>
-      </c>
-      <c r="L266" t="n">
-        <v>911.6</v>
-      </c>
-      <c r="M266" t="n">
-        <v>910.9</v>
-      </c>
-      <c r="N266" t="n">
-        <v>913.4333333333333</v>
-      </c>
-      <c r="O266" t="inlineStr"/>
-      <c r="P266" t="inlineStr"/>
-      <c r="Q266" t="inlineStr"/>
-      <c r="R266" t="inlineStr"/>
-      <c r="S266" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
-        <v>265</v>
-      </c>
-      <c r="B267" t="n">
-        <v>908</v>
-      </c>
-      <c r="C267" t="n">
-        <v>908</v>
-      </c>
-      <c r="D267" t="n">
-        <v>908</v>
-      </c>
-      <c r="E267" t="n">
-        <v>907</v>
-      </c>
-      <c r="F267" t="n">
-        <v>460.9437</v>
-      </c>
-      <c r="G267" t="n">
-        <v>912.1166666666667</v>
-      </c>
-      <c r="H267" t="n">
-        <v>0</v>
-      </c>
-      <c r="I267" t="n">
-        <v>58</v>
-      </c>
-      <c r="J267" t="n">
-        <v>538</v>
-      </c>
-      <c r="K267" t="n">
-        <v>-23.80952380952381</v>
-      </c>
-      <c r="L267" t="n">
-        <v>911.2</v>
-      </c>
-      <c r="M267" t="n">
-        <v>910.75</v>
-      </c>
-      <c r="N267" t="n">
-        <v>912.8666666666667</v>
-      </c>
-      <c r="O267" t="inlineStr"/>
-      <c r="P267" t="inlineStr"/>
-      <c r="Q267" t="inlineStr"/>
-      <c r="R267" t="inlineStr"/>
-      <c r="S267" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
-        <v>266</v>
-      </c>
-      <c r="B268" t="n">
-        <v>910</v>
-      </c>
-      <c r="C268" t="n">
-        <v>910</v>
-      </c>
-      <c r="D268" t="n">
-        <v>910</v>
-      </c>
-      <c r="E268" t="n">
-        <v>910</v>
-      </c>
-      <c r="F268" t="n">
-        <v>13.4069</v>
-      </c>
-      <c r="G268" t="n">
-        <v>912.1</v>
-      </c>
-      <c r="H268" t="n">
-        <v>0</v>
-      </c>
-      <c r="I268" t="n">
-        <v>60</v>
-      </c>
-      <c r="J268" t="n">
-        <v>540</v>
-      </c>
-      <c r="K268" t="n">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="L268" t="n">
-        <v>910.9</v>
-      </c>
-      <c r="M268" t="n">
-        <v>910.8</v>
-      </c>
-      <c r="N268" t="n">
-        <v>912.5666666666667</v>
-      </c>
-      <c r="O268" t="inlineStr"/>
-      <c r="P268" t="inlineStr"/>
-      <c r="Q268" t="inlineStr"/>
-      <c r="R268" t="inlineStr"/>
-      <c r="S268" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
-        <v>267</v>
-      </c>
-      <c r="B269" t="n">
-        <v>908</v>
-      </c>
-      <c r="C269" t="n">
-        <v>905</v>
-      </c>
-      <c r="D269" t="n">
-        <v>908</v>
-      </c>
-      <c r="E269" t="n">
-        <v>905</v>
-      </c>
-      <c r="F269" t="n">
-        <v>210.6805</v>
-      </c>
-      <c r="G269" t="n">
-        <v>912</v>
-      </c>
-      <c r="H269" t="n">
-        <v>0</v>
-      </c>
-      <c r="I269" t="n">
-        <v>55</v>
-      </c>
-      <c r="J269" t="n">
-        <v>545</v>
-      </c>
-      <c r="K269" t="n">
-        <v>-33.33333333333333</v>
-      </c>
-      <c r="L269" t="n">
-        <v>910.5</v>
-      </c>
-      <c r="M269" t="n">
-        <v>910.7</v>
-      </c>
-      <c r="N269" t="n">
-        <v>912</v>
-      </c>
-      <c r="O269" t="inlineStr"/>
-      <c r="P269" t="inlineStr"/>
-      <c r="Q269" t="inlineStr"/>
-      <c r="R269" t="inlineStr"/>
-      <c r="S269" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
-        <v>268</v>
-      </c>
-      <c r="B270" t="n">
-        <v>908</v>
-      </c>
-      <c r="C270" t="n">
-        <v>908</v>
-      </c>
-      <c r="D270" t="n">
-        <v>908</v>
-      </c>
-      <c r="E270" t="n">
-        <v>908</v>
-      </c>
-      <c r="F270" t="n">
-        <v>1</v>
-      </c>
-      <c r="G270" t="n">
-        <v>911.9666666666667</v>
-      </c>
-      <c r="H270" t="n">
-        <v>0</v>
-      </c>
-      <c r="I270" t="n">
-        <v>58</v>
-      </c>
-      <c r="J270" t="n">
-        <v>548</v>
-      </c>
-      <c r="K270" t="n">
-        <v>-21.73913043478261</v>
-      </c>
-      <c r="L270" t="n">
-        <v>910.1</v>
-      </c>
-      <c r="M270" t="n">
-        <v>910.5</v>
-      </c>
-      <c r="N270" t="n">
-        <v>911.5</v>
-      </c>
-      <c r="O270" t="inlineStr"/>
-      <c r="P270" t="inlineStr"/>
-      <c r="Q270" t="inlineStr"/>
-      <c r="R270" t="inlineStr"/>
-      <c r="S270" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
-        <v>269</v>
-      </c>
-      <c r="B271" t="n">
-        <v>906</v>
-      </c>
-      <c r="C271" t="n">
-        <v>905</v>
-      </c>
-      <c r="D271" t="n">
-        <v>906</v>
-      </c>
-      <c r="E271" t="n">
-        <v>905</v>
-      </c>
-      <c r="F271" t="n">
-        <v>1152.1454</v>
-      </c>
-      <c r="G271" t="n">
-        <v>911.95</v>
-      </c>
-      <c r="H271" t="n">
-        <v>0</v>
-      </c>
-      <c r="I271" t="n">
-        <v>55</v>
-      </c>
-      <c r="J271" t="n">
-        <v>551</v>
-      </c>
-      <c r="K271" t="n">
-        <v>-30.76923076923077</v>
-      </c>
-      <c r="L271" t="n">
-        <v>909.3</v>
-      </c>
-      <c r="M271" t="n">
-        <v>910.2</v>
-      </c>
-      <c r="N271" t="n">
-        <v>911.0333333333333</v>
-      </c>
-      <c r="O271" t="inlineStr"/>
-      <c r="P271" t="inlineStr"/>
-      <c r="Q271" t="inlineStr"/>
-      <c r="R271" t="inlineStr"/>
-      <c r="S271" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
-        <v>270</v>
-      </c>
-      <c r="B272" t="n">
-        <v>905</v>
-      </c>
-      <c r="C272" t="n">
-        <v>905</v>
-      </c>
-      <c r="D272" t="n">
-        <v>905</v>
-      </c>
-      <c r="E272" t="n">
-        <v>905</v>
-      </c>
-      <c r="F272" t="n">
-        <v>48.7026</v>
-      </c>
-      <c r="G272" t="n">
-        <v>912.0666666666667</v>
-      </c>
-      <c r="H272" t="n">
-        <v>0</v>
-      </c>
-      <c r="I272" t="n">
-        <v>55</v>
-      </c>
-      <c r="J272" t="n">
-        <v>551</v>
-      </c>
-      <c r="K272" t="n">
-        <v>-28</v>
-      </c>
-      <c r="L272" t="n">
-        <v>908.5</v>
-      </c>
-      <c r="M272" t="n">
-        <v>909.85</v>
-      </c>
-      <c r="N272" t="n">
-        <v>910.7333333333333</v>
-      </c>
-      <c r="O272" t="inlineStr"/>
-      <c r="P272" t="inlineStr"/>
-      <c r="Q272" t="inlineStr"/>
-      <c r="R272" t="inlineStr"/>
-      <c r="S272" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
-        <v>271</v>
-      </c>
-      <c r="B273" t="n">
-        <v>901</v>
-      </c>
-      <c r="C273" t="n">
-        <v>901</v>
-      </c>
-      <c r="D273" t="n">
-        <v>901</v>
-      </c>
-      <c r="E273" t="n">
-        <v>901</v>
-      </c>
-      <c r="F273" t="n">
-        <v>10.6538</v>
-      </c>
-      <c r="G273" t="n">
-        <v>912.0833333333334</v>
-      </c>
-      <c r="H273" t="n">
-        <v>0</v>
-      </c>
-      <c r="I273" t="n">
-        <v>51</v>
-      </c>
-      <c r="J273" t="n">
-        <v>555</v>
-      </c>
-      <c r="K273" t="n">
-        <v>-37.93103448275862</v>
-      </c>
-      <c r="L273" t="n">
-        <v>907.4</v>
-      </c>
-      <c r="M273" t="n">
-        <v>909.3</v>
-      </c>
-      <c r="N273" t="n">
-        <v>910.2666666666667</v>
-      </c>
-      <c r="O273" t="inlineStr"/>
-      <c r="P273" t="inlineStr"/>
-      <c r="Q273" t="inlineStr"/>
-      <c r="R273" t="inlineStr"/>
-      <c r="S273" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
-        <v>272</v>
-      </c>
-      <c r="B274" t="n">
-        <v>906</v>
-      </c>
-      <c r="C274" t="n">
-        <v>908</v>
-      </c>
-      <c r="D274" t="n">
-        <v>908</v>
-      </c>
-      <c r="E274" t="n">
-        <v>906</v>
-      </c>
-      <c r="F274" t="n">
-        <v>1662.974</v>
-      </c>
-      <c r="G274" t="n">
-        <v>911.95</v>
-      </c>
-      <c r="H274" t="n">
-        <v>0</v>
-      </c>
-      <c r="I274" t="n">
-        <v>58</v>
-      </c>
-      <c r="J274" t="n">
-        <v>562</v>
-      </c>
-      <c r="K274" t="n">
-        <v>0</v>
-      </c>
-      <c r="L274" t="n">
-        <v>907</v>
-      </c>
-      <c r="M274" t="n">
-        <v>909.05</v>
-      </c>
-      <c r="N274" t="n">
-        <v>910</v>
-      </c>
-      <c r="O274" t="inlineStr"/>
-      <c r="P274" t="inlineStr"/>
-      <c r="Q274" t="inlineStr"/>
-      <c r="R274" t="inlineStr"/>
-      <c r="S274" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
-        <v>273</v>
-      </c>
-      <c r="B275" t="n">
-        <v>908</v>
-      </c>
-      <c r="C275" t="n">
-        <v>911</v>
-      </c>
-      <c r="D275" t="n">
-        <v>911</v>
-      </c>
-      <c r="E275" t="n">
-        <v>908</v>
-      </c>
-      <c r="F275" t="n">
-        <v>2368.180751152579</v>
-      </c>
-      <c r="G275" t="n">
-        <v>911.9333333333333</v>
-      </c>
-      <c r="H275" t="n">
-        <v>0</v>
-      </c>
-      <c r="I275" t="n">
-        <v>61</v>
-      </c>
-      <c r="J275" t="n">
-        <v>565</v>
-      </c>
-      <c r="K275" t="n">
-        <v>-3.225806451612903</v>
-      </c>
-      <c r="L275" t="n">
-        <v>907.3</v>
-      </c>
-      <c r="M275" t="n">
-        <v>909.2</v>
-      </c>
-      <c r="N275" t="n">
-        <v>909.8</v>
-      </c>
-      <c r="O275" t="inlineStr"/>
-      <c r="P275" t="inlineStr"/>
-      <c r="Q275" t="inlineStr"/>
-      <c r="R275" t="inlineStr"/>
-      <c r="S275" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>906</v>
-      </c>
-      <c r="C276" t="n">
-        <v>904</v>
-      </c>
-      <c r="D276" t="n">
-        <v>906</v>
-      </c>
-      <c r="E276" t="n">
-        <v>904</v>
-      </c>
-      <c r="F276" t="n">
-        <v>1212.591</v>
-      </c>
-      <c r="G276" t="n">
-        <v>911.85</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>54</v>
-      </c>
-      <c r="J276" t="n">
-        <v>572</v>
-      </c>
-      <c r="K276" t="n">
-        <v>-11.76470588235294</v>
-      </c>
-      <c r="L276" t="n">
-        <v>906.5</v>
-      </c>
-      <c r="M276" t="n">
-        <v>909.05</v>
-      </c>
-      <c r="N276" t="n">
-        <v>909.4333333333333</v>
-      </c>
-      <c r="O276" t="inlineStr"/>
-      <c r="P276" t="inlineStr"/>
-      <c r="Q276" t="inlineStr"/>
-      <c r="R276" t="inlineStr"/>
-      <c r="S276" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -1571,13 +1571,17 @@
         <v>853.0333333333333</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
-      <c r="K34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>848</v>
+      </c>
+      <c r="K34" t="n">
+        <v>848</v>
+      </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1606,14 +1610,22 @@
         <v>852.9833333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>849</v>
+      </c>
+      <c r="K35" t="n">
+        <v>848</v>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,8 +1659,14 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
+      <c r="K36" t="n">
+        <v>848</v>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -3986,14 +4004,20 @@
         <v>855.0166666666667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>848</v>
+      </c>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4021,14 +4045,20 @@
         <v>854.9166666666666</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>845</v>
+      </c>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4056,14 +4086,20 @@
         <v>854.8666666666667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>845</v>
+      </c>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4091,14 +4127,20 @@
         <v>854.8166666666667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>849</v>
+      </c>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4126,14 +4168,20 @@
         <v>854.7333333333333</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>850</v>
+      </c>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4161,14 +4209,20 @@
         <v>854.4833333333333</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>851</v>
+      </c>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -4196,14 +4250,20 @@
         <v>854.3833333333333</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>845</v>
+      </c>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -4231,14 +4291,20 @@
         <v>854.2833333333333</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>851</v>
+      </c>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -4266,14 +4332,20 @@
         <v>854.1833333333333</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>852</v>
+      </c>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -4308,7 +4380,11 @@
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -4343,7 +4419,11 @@
       </c>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -4378,7 +4458,11 @@
       </c>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -4413,7 +4497,11 @@
       </c>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -4448,7 +4536,11 @@
       </c>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -4483,7 +4575,11 @@
       </c>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -4518,7 +4614,11 @@
       </c>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -4553,7 +4653,11 @@
       </c>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -4588,7 +4692,11 @@
       </c>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -4623,7 +4731,11 @@
       </c>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -4658,7 +4770,11 @@
       </c>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -4693,7 +4809,11 @@
       </c>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -4728,7 +4848,11 @@
       </c>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -4763,7 +4887,11 @@
       </c>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -4798,7 +4926,11 @@
       </c>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -4833,7 +4965,11 @@
       </c>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -4868,7 +5004,11 @@
       </c>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -4903,7 +5043,11 @@
       </c>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -4938,7 +5082,11 @@
       </c>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -4973,7 +5121,11 @@
       </c>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -5008,7 +5160,11 @@
       </c>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -5043,7 +5199,11 @@
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -5078,7 +5238,11 @@
       </c>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -5113,7 +5277,11 @@
       </c>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -5148,7 +5316,11 @@
       </c>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -5176,18 +5348,16 @@
         <v>847.9333333333333</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>837</v>
-      </c>
+      <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M137" t="n">
@@ -5217,14 +5387,12 @@
         <v>847.55</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>833</v>
-      </c>
+      <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr">
         <is>
@@ -5258,14 +5426,12 @@
         <v>847.2333333333333</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>836</v>
-      </c>
+      <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr">
         <is>
@@ -5299,14 +5465,12 @@
         <v>846.8833333333333</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>834</v>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr">
         <is>
@@ -5340,14 +5504,12 @@
         <v>846.55</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>835</v>
-      </c>
+      <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr">
         <is>
@@ -5381,14 +5543,12 @@
         <v>846.1333333333333</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>833</v>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr">
         <is>
@@ -5422,14 +5582,12 @@
         <v>845.7666666666667</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>835</v>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr">
         <is>
@@ -5463,14 +5621,12 @@
         <v>845.4166666666666</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>834</v>
-      </c>
+      <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
       <c r="L144" t="inlineStr">
         <is>
@@ -5504,14 +5660,12 @@
         <v>845.1333333333333</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>834</v>
-      </c>
+      <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
       <c r="L145" t="inlineStr">
         <is>
@@ -5545,14 +5699,12 @@
         <v>844.7666666666667</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>834</v>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr">
         <is>
@@ -5586,14 +5738,12 @@
         <v>844.5</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>833</v>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr">
         <is>
@@ -5627,14 +5777,12 @@
         <v>844.3</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>838</v>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr">
         <is>
@@ -5668,14 +5816,12 @@
         <v>844.05</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>838</v>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr">
         <is>
@@ -5709,14 +5855,12 @@
         <v>843.8166666666667</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>838</v>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr">
         <is>
@@ -5750,14 +5894,12 @@
         <v>843.55</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>838</v>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr">
         <is>
@@ -5791,14 +5933,12 @@
         <v>843.3666666666667</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>839</v>
-      </c>
+      <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
       <c r="L152" t="inlineStr">
         <is>
@@ -5832,14 +5972,12 @@
         <v>843.2666666666667</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>839</v>
-      </c>
+      <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
       <c r="L153" t="inlineStr">
         <is>
@@ -5873,14 +6011,12 @@
         <v>843.2</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>841</v>
-      </c>
+      <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
       <c r="L154" t="inlineStr">
         <is>
@@ -5914,14 +6050,12 @@
         <v>843.1166666666667</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>844</v>
-      </c>
+      <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
       <c r="L155" t="inlineStr">
         <is>
@@ -5955,14 +6089,12 @@
         <v>843.0166666666667</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>843</v>
-      </c>
+      <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr">
         <is>
@@ -5996,14 +6128,12 @@
         <v>842.9333333333333</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>843</v>
-      </c>
+      <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr">
         <is>
@@ -6037,14 +6167,12 @@
         <v>842.8833333333333</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>848</v>
-      </c>
+      <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr">
         <is>
@@ -6078,14 +6206,12 @@
         <v>842.85</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>848</v>
-      </c>
+      <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr">
         <is>
@@ -6119,14 +6245,12 @@
         <v>842.8166666666667</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>848</v>
-      </c>
+      <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
       <c r="L160" t="inlineStr">
         <is>
@@ -6160,14 +6284,12 @@
         <v>842.85</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>847</v>
-      </c>
+      <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr">
         <is>
@@ -8115,18 +8237,16 @@
         <v>0</v>
       </c>
       <c r="I211" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr"/>
       <c r="L211" t="inlineStr">
         <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8158,11 +8278,7 @@
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -8197,11 +8313,7 @@
       </c>
       <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -8232,16 +8344,14 @@
         <v>0</v>
       </c>
       <c r="I214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="M214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8269,7 +8379,7 @@
         <v>0</v>
       </c>
       <c r="I215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr"/>
@@ -8304,7 +8414,7 @@
         <v>0</v>
       </c>
       <c r="I216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr"/>
@@ -8374,7 +8484,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr"/>
@@ -8409,7 +8519,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr"/>
@@ -8444,7 +8554,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr"/>
@@ -8514,7 +8624,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr"/>
@@ -8549,7 +8659,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr"/>
@@ -8584,7 +8694,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr"/>
@@ -8654,7 +8764,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr"/>

--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M255"/>
+  <dimension ref="A1:M256"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,22 +433,22 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E2" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F2" t="n">
-        <v>698.25</v>
+        <v>3</v>
       </c>
       <c r="G2" t="n">
-        <v>854.3166666666667</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -480,10 +480,10 @@
         <v>850</v>
       </c>
       <c r="F3" t="n">
-        <v>71.7522</v>
+        <v>698.25</v>
       </c>
       <c r="G3" t="n">
-        <v>854.35</v>
+        <v>854.3166666666667</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -506,19 +506,19 @@
         <v>850</v>
       </c>
       <c r="C4" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D4" t="n">
         <v>850</v>
       </c>
       <c r="E4" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F4" t="n">
-        <v>1403.0223</v>
+        <v>71.7522</v>
       </c>
       <c r="G4" t="n">
-        <v>854.3666666666667</v>
+        <v>854.35</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -541,19 +541,19 @@
         <v>850</v>
       </c>
       <c r="C5" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D5" t="n">
         <v>850</v>
       </c>
       <c r="E5" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F5" t="n">
-        <v>516.379</v>
+        <v>1403.0223</v>
       </c>
       <c r="G5" t="n">
-        <v>854.3333333333334</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -585,10 +585,10 @@
         <v>850</v>
       </c>
       <c r="F6" t="n">
-        <v>300</v>
+        <v>516.379</v>
       </c>
       <c r="G6" t="n">
-        <v>854.3833333333333</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -620,10 +620,10 @@
         <v>850</v>
       </c>
       <c r="F7" t="n">
-        <v>13.8142</v>
+        <v>300</v>
       </c>
       <c r="G7" t="n">
-        <v>854.3666666666667</v>
+        <v>854.3833333333333</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -655,10 +655,10 @@
         <v>850</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>13.8142</v>
       </c>
       <c r="G8" t="n">
-        <v>854.35</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>850</v>
       </c>
       <c r="F9" t="n">
-        <v>239.17</v>
+        <v>400</v>
       </c>
       <c r="G9" t="n">
-        <v>854.3333333333334</v>
+        <v>854.35</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -725,10 +725,10 @@
         <v>850</v>
       </c>
       <c r="F10" t="n">
-        <v>18.1966</v>
+        <v>239.17</v>
       </c>
       <c r="G10" t="n">
-        <v>854.3166666666667</v>
+        <v>854.3333333333334</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -760,10 +760,10 @@
         <v>850</v>
       </c>
       <c r="F11" t="n">
-        <v>425.17</v>
+        <v>18.1966</v>
       </c>
       <c r="G11" t="n">
-        <v>854.2666666666667</v>
+        <v>854.3166666666667</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -795,10 +795,10 @@
         <v>850</v>
       </c>
       <c r="F12" t="n">
-        <v>127.1</v>
+        <v>425.17</v>
       </c>
       <c r="G12" t="n">
-        <v>854.2166666666667</v>
+        <v>854.2666666666667</v>
       </c>
       <c r="H12" t="n">
         <v>0</v>
@@ -830,10 +830,10 @@
         <v>850</v>
       </c>
       <c r="F13" t="n">
-        <v>86.1875</v>
+        <v>127.1</v>
       </c>
       <c r="G13" t="n">
-        <v>854.1666666666666</v>
+        <v>854.2166666666667</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -865,10 +865,10 @@
         <v>850</v>
       </c>
       <c r="F14" t="n">
-        <v>85.6623</v>
+        <v>86.1875</v>
       </c>
       <c r="G14" t="n">
-        <v>854.1166666666667</v>
+        <v>854.1666666666666</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -888,22 +888,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="C15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E15" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="F15" t="n">
-        <v>39.0447</v>
+        <v>85.6623</v>
       </c>
       <c r="G15" t="n">
-        <v>854.1</v>
+        <v>854.1166666666667</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -935,10 +935,10 @@
         <v>852</v>
       </c>
       <c r="F16" t="n">
-        <v>1.1802</v>
+        <v>39.0447</v>
       </c>
       <c r="G16" t="n">
-        <v>854.0833333333334</v>
+        <v>854.1</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -958,19 +958,19 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E17" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F17" t="n">
-        <v>168.6751</v>
+        <v>1.1802</v>
       </c>
       <c r="G17" t="n">
         <v>854.0833333333334</v>
@@ -993,22 +993,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="D18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="E18" t="n">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F18" t="n">
-        <v>1.6714</v>
+        <v>168.6751</v>
       </c>
       <c r="G18" t="n">
-        <v>854.1</v>
+        <v>854.0833333333334</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1028,22 +1028,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="C19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="D19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="E19" t="n">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="F19" t="n">
-        <v>1247</v>
+        <v>1.6714</v>
       </c>
       <c r="G19" t="n">
-        <v>854.0833333333334</v>
+        <v>854.1</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -1075,10 +1075,10 @@
         <v>852</v>
       </c>
       <c r="F20" t="n">
-        <v>0.4319</v>
+        <v>1247</v>
       </c>
       <c r="G20" t="n">
-        <v>854.0666666666667</v>
+        <v>854.0833333333334</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -1098,22 +1098,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="C21" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="D21" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="E21" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="F21" t="n">
-        <v>409.4525</v>
+        <v>0.4319</v>
       </c>
       <c r="G21" t="n">
-        <v>854</v>
+        <v>854.0666666666667</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -1133,22 +1133,22 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C22" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D22" t="n">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="E22" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="F22" t="n">
-        <v>651.357</v>
+        <v>409.4525</v>
       </c>
       <c r="G22" t="n">
-        <v>853.9666666666667</v>
+        <v>854</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -1168,22 +1168,22 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="C23" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="D23" t="n">
-        <v>849</v>
+        <v>852</v>
       </c>
       <c r="E23" t="n">
-        <v>848</v>
+        <v>851</v>
       </c>
       <c r="F23" t="n">
-        <v>114.5249</v>
+        <v>651.357</v>
       </c>
       <c r="G23" t="n">
-        <v>853.8833333333333</v>
+        <v>853.9666666666667</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>849</v>
       </c>
       <c r="C24" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D24" t="n">
         <v>849</v>
       </c>
       <c r="E24" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F24" t="n">
-        <v>123.54</v>
+        <v>114.5249</v>
       </c>
       <c r="G24" t="n">
-        <v>853.8166666666667</v>
+        <v>853.8833333333333</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -1250,10 +1250,10 @@
         <v>849</v>
       </c>
       <c r="F25" t="n">
-        <v>200</v>
+        <v>123.54</v>
       </c>
       <c r="G25" t="n">
-        <v>853.75</v>
+        <v>853.8166666666667</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -1276,19 +1276,19 @@
         <v>849</v>
       </c>
       <c r="C26" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D26" t="n">
         <v>849</v>
       </c>
       <c r="E26" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F26" t="n">
-        <v>2000</v>
+        <v>200</v>
       </c>
       <c r="G26" t="n">
-        <v>853.6333333333333</v>
+        <v>853.75</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1308,22 +1308,22 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C27" t="n">
         <v>846</v>
       </c>
       <c r="D27" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E27" t="n">
         <v>846</v>
       </c>
       <c r="F27" t="n">
-        <v>218.6768</v>
+        <v>2000</v>
       </c>
       <c r="G27" t="n">
-        <v>853.5166666666667</v>
+        <v>853.6333333333333</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -1343,22 +1343,22 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="C28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="D28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="E28" t="n">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F28" t="n">
-        <v>41.3448</v>
+        <v>218.6768</v>
       </c>
       <c r="G28" t="n">
-        <v>853.45</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -1378,22 +1378,22 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E29" t="n">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="F29" t="n">
-        <v>86.0414</v>
+        <v>41.3448</v>
       </c>
       <c r="G29" t="n">
-        <v>853.3666666666667</v>
+        <v>853.45</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -1425,10 +1425,10 @@
         <v>848</v>
       </c>
       <c r="F30" t="n">
-        <v>2.1393</v>
+        <v>86.0414</v>
       </c>
       <c r="G30" t="n">
-        <v>853.3</v>
+        <v>853.3666666666667</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1448,22 +1448,22 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E31" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F31" t="n">
-        <v>593.9132</v>
+        <v>2.1393</v>
       </c>
       <c r="G31" t="n">
-        <v>853.2166666666667</v>
+        <v>853.3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -1486,19 +1486,19 @@
         <v>847</v>
       </c>
       <c r="C32" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D32" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E32" t="n">
         <v>847</v>
       </c>
       <c r="F32" t="n">
-        <v>280.0005</v>
+        <v>593.9132</v>
       </c>
       <c r="G32" t="n">
-        <v>853.15</v>
+        <v>853.2166666666667</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C33" t="n">
         <v>848</v>
@@ -1527,13 +1527,13 @@
         <v>848</v>
       </c>
       <c r="E33" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F33" t="n">
-        <v>20.1463</v>
+        <v>280.0005</v>
       </c>
       <c r="G33" t="n">
-        <v>853.0833333333334</v>
+        <v>853.15</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -1553,35 +1553,31 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="D34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E34" t="n">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F34" t="n">
-        <v>11.4707</v>
+        <v>20.1463</v>
       </c>
       <c r="G34" t="n">
-        <v>853.0333333333333</v>
+        <v>853.0833333333334</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>848</v>
-      </c>
-      <c r="K34" t="n">
-        <v>848</v>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
@@ -1604,28 +1600,20 @@
         <v>849</v>
       </c>
       <c r="F35" t="n">
-        <v>8.529299999999999</v>
+        <v>11.4707</v>
       </c>
       <c r="G35" t="n">
-        <v>852.9833333333333</v>
+        <v>853.0333333333333</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>849</v>
-      </c>
-      <c r="K35" t="n">
-        <v>848</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1647,10 +1635,10 @@
         <v>849</v>
       </c>
       <c r="F36" t="n">
-        <v>33</v>
+        <v>8.529299999999999</v>
       </c>
       <c r="G36" t="n">
-        <v>852.9333333333333</v>
+        <v>852.9833333333333</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -1659,14 +1647,8 @@
         <v>0</v>
       </c>
       <c r="J36" t="inlineStr"/>
-      <c r="K36" t="n">
-        <v>848</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1676,22 +1658,22 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="D37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E37" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F37" t="n">
-        <v>85.1784</v>
+        <v>33</v>
       </c>
       <c r="G37" t="n">
-        <v>852.9</v>
+        <v>852.9333333333333</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -1711,22 +1693,22 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E38" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F38" t="n">
-        <v>288</v>
+        <v>85.1784</v>
       </c>
       <c r="G38" t="n">
-        <v>852.85</v>
+        <v>852.9</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -1758,10 +1740,10 @@
         <v>849</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1684</v>
+        <v>288</v>
       </c>
       <c r="G39" t="n">
-        <v>852.8</v>
+        <v>852.85</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1784,19 +1766,19 @@
         <v>849</v>
       </c>
       <c r="C40" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="D40" t="n">
         <v>849</v>
       </c>
       <c r="E40" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="F40" t="n">
-        <v>199.9254</v>
+        <v>0.1684</v>
       </c>
       <c r="G40" t="n">
-        <v>852.7</v>
+        <v>852.8</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -1816,22 +1798,22 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="C41" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="D41" t="n">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E41" t="n">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="F41" t="n">
-        <v>168.4056</v>
+        <v>199.9254</v>
       </c>
       <c r="G41" t="n">
-        <v>852.6</v>
+        <v>852.7</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1851,22 +1833,22 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="C42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="D42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="E42" t="n">
-        <v>851</v>
+        <v>847</v>
       </c>
       <c r="F42" t="n">
-        <v>3</v>
+        <v>168.4056</v>
       </c>
       <c r="G42" t="n">
-        <v>852.55</v>
+        <v>852.6</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -1886,22 +1868,22 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E43" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F43" t="n">
-        <v>1.1841</v>
+        <v>3</v>
       </c>
       <c r="G43" t="n">
-        <v>852.4333333333333</v>
+        <v>852.55</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -1921,22 +1903,22 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="D44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E44" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F44" t="n">
-        <v>411.2726</v>
+        <v>1.1841</v>
       </c>
       <c r="G44" t="n">
-        <v>852.3333333333334</v>
+        <v>852.4333333333333</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -1956,22 +1938,22 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="E45" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F45" t="n">
-        <v>5</v>
+        <v>411.2726</v>
       </c>
       <c r="G45" t="n">
-        <v>852.2166666666667</v>
+        <v>852.3333333333334</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -1991,22 +1973,22 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="D46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E46" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F46" t="n">
-        <v>20.1088</v>
+        <v>5</v>
       </c>
       <c r="G46" t="n">
-        <v>852.0833333333334</v>
+        <v>852.2166666666667</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -2029,19 +2011,19 @@
         <v>853</v>
       </c>
       <c r="C47" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D47" t="n">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="E47" t="n">
         <v>853</v>
       </c>
       <c r="F47" t="n">
-        <v>1958.7344</v>
+        <v>20.1088</v>
       </c>
       <c r="G47" t="n">
-        <v>851.9833333333333</v>
+        <v>852.0833333333334</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -2061,22 +2043,22 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="C48" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="D48" t="n">
-        <v>860</v>
+        <v>856</v>
       </c>
       <c r="E48" t="n">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="F48" t="n">
-        <v>100</v>
+        <v>1958.7344</v>
       </c>
       <c r="G48" t="n">
-        <v>851.9666666666667</v>
+        <v>851.9833333333333</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -2096,22 +2078,22 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E49" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F49" t="n">
-        <v>1166.8611</v>
+        <v>100</v>
       </c>
       <c r="G49" t="n">
-        <v>851.8833333333333</v>
+        <v>851.9666666666667</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -2131,22 +2113,22 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E50" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F50" t="n">
-        <v>3.5</v>
+        <v>1166.8611</v>
       </c>
       <c r="G50" t="n">
-        <v>851.8333333333334</v>
+        <v>851.8833333333333</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -2166,22 +2148,22 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E51" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F51" t="n">
-        <v>59.3317</v>
+        <v>3.5</v>
       </c>
       <c r="G51" t="n">
-        <v>851.8166666666667</v>
+        <v>851.8333333333334</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -2201,19 +2183,19 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="D52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="E52" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F52" t="n">
-        <v>39.49302325581395</v>
+        <v>59.3317</v>
       </c>
       <c r="G52" t="n">
         <v>851.8166666666667</v>
@@ -2236,7 +2218,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="C53" t="n">
         <v>860</v>
@@ -2245,10 +2227,10 @@
         <v>860</v>
       </c>
       <c r="E53" t="n">
-        <v>854</v>
+        <v>860</v>
       </c>
       <c r="F53" t="n">
-        <v>636.5223</v>
+        <v>39.49302325581395</v>
       </c>
       <c r="G53" t="n">
         <v>851.8166666666667</v>
@@ -2271,22 +2253,22 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="C54" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D54" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E54" t="n">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="F54" t="n">
-        <v>19.4459</v>
+        <v>636.5223</v>
       </c>
       <c r="G54" t="n">
-        <v>851.8</v>
+        <v>851.8166666666667</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2318,10 +2300,10 @@
         <v>861</v>
       </c>
       <c r="F55" t="n">
-        <v>3</v>
+        <v>19.4459</v>
       </c>
       <c r="G55" t="n">
-        <v>851.7166666666667</v>
+        <v>851.8</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -2341,22 +2323,22 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="C56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="D56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="E56" t="n">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F56" t="n">
-        <v>595.1332</v>
+        <v>3</v>
       </c>
       <c r="G56" t="n">
-        <v>851.65</v>
+        <v>851.7166666666667</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -2376,22 +2358,22 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="C57" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D57" t="n">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="E57" t="n">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="F57" t="n">
-        <v>601.5003</v>
+        <v>595.1332</v>
       </c>
       <c r="G57" t="n">
-        <v>851.6666666666666</v>
+        <v>851.65</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -2414,19 +2396,19 @@
         <v>860</v>
       </c>
       <c r="C58" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D58" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E58" t="n">
         <v>860</v>
       </c>
       <c r="F58" t="n">
-        <v>2209.3076</v>
+        <v>601.5003</v>
       </c>
       <c r="G58" t="n">
-        <v>851.7666666666667</v>
+        <v>851.6666666666666</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -2446,22 +2428,22 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="C59" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D59" t="n">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E59" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F59" t="n">
-        <v>28.147</v>
+        <v>2209.3076</v>
       </c>
       <c r="G59" t="n">
-        <v>851.85</v>
+        <v>851.7666666666667</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -2481,22 +2463,22 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="C60" t="n">
-        <v>861</v>
+        <v>857</v>
       </c>
       <c r="D60" t="n">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="E60" t="n">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="F60" t="n">
-        <v>80.51260000000001</v>
+        <v>28.147</v>
       </c>
       <c r="G60" t="n">
-        <v>852.0166666666667</v>
+        <v>851.85</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -2516,7 +2498,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C61" t="n">
         <v>861</v>
@@ -2525,13 +2507,13 @@
         <v>861</v>
       </c>
       <c r="E61" t="n">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="F61" t="n">
-        <v>324.9</v>
+        <v>80.51260000000001</v>
       </c>
       <c r="G61" t="n">
-        <v>852.1666666666666</v>
+        <v>852.0166666666667</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -2563,10 +2545,10 @@
         <v>861</v>
       </c>
       <c r="F62" t="n">
-        <v>304.4068</v>
+        <v>324.9</v>
       </c>
       <c r="G62" t="n">
-        <v>852.35</v>
+        <v>852.1666666666666</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -2598,10 +2580,10 @@
         <v>861</v>
       </c>
       <c r="F63" t="n">
-        <v>68.34310000000001</v>
+        <v>304.4068</v>
       </c>
       <c r="G63" t="n">
-        <v>852.5333333333333</v>
+        <v>852.35</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -2621,22 +2603,22 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E64" t="n">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="F64" t="n">
-        <v>2500</v>
+        <v>68.34310000000001</v>
       </c>
       <c r="G64" t="n">
-        <v>852.75</v>
+        <v>852.5333333333333</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -2656,22 +2638,22 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C65" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D65" t="n">
         <v>862</v>
       </c>
       <c r="E65" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="F65" t="n">
-        <v>3821.5587</v>
+        <v>2500</v>
       </c>
       <c r="G65" t="n">
-        <v>852.9333333333333</v>
+        <v>852.75</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2697,16 +2679,16 @@
         <v>861</v>
       </c>
       <c r="D66" t="n">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="E66" t="n">
         <v>861</v>
       </c>
       <c r="F66" t="n">
-        <v>38.989</v>
+        <v>3821.5587</v>
       </c>
       <c r="G66" t="n">
-        <v>853.1166666666667</v>
+        <v>852.9333333333333</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2726,22 +2708,22 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="C67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E67" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="F67" t="n">
-        <v>348.8372</v>
+        <v>38.989</v>
       </c>
       <c r="G67" t="n">
-        <v>853.2833333333333</v>
+        <v>853.1166666666667</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -2761,22 +2743,22 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="C68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="D68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="E68" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F68" t="n">
-        <v>331.0304</v>
+        <v>348.8372</v>
       </c>
       <c r="G68" t="n">
-        <v>853.4</v>
+        <v>853.2833333333333</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -2808,10 +2790,10 @@
         <v>857</v>
       </c>
       <c r="F69" t="n">
-        <v>1.8029</v>
+        <v>331.0304</v>
       </c>
       <c r="G69" t="n">
-        <v>853.5166666666667</v>
+        <v>853.4</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -2831,22 +2813,22 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="C70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="D70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="E70" t="n">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="F70" t="n">
-        <v>41.4958</v>
+        <v>1.8029</v>
       </c>
       <c r="G70" t="n">
-        <v>853.7166666666667</v>
+        <v>853.5166666666667</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -2866,22 +2848,22 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="C71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="D71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="E71" t="n">
-        <v>858</v>
+        <v>862</v>
       </c>
       <c r="F71" t="n">
-        <v>59.7192</v>
+        <v>41.4958</v>
       </c>
       <c r="G71" t="n">
-        <v>853.85</v>
+        <v>853.7166666666667</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -2901,22 +2883,22 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="D72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="E72" t="n">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="F72" t="n">
-        <v>32.9443</v>
+        <v>59.7192</v>
       </c>
       <c r="G72" t="n">
-        <v>853.95</v>
+        <v>853.85</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2936,22 +2918,22 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C73" t="n">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="D73" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E73" t="n">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="F73" t="n">
-        <v>335.2661</v>
+        <v>32.9443</v>
       </c>
       <c r="G73" t="n">
-        <v>853.9833333333333</v>
+        <v>853.95</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -2971,22 +2953,22 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C74" t="n">
         <v>852</v>
       </c>
       <c r="D74" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E74" t="n">
         <v>852</v>
       </c>
       <c r="F74" t="n">
-        <v>44.9</v>
+        <v>335.2661</v>
       </c>
       <c r="G74" t="n">
-        <v>854.0166666666667</v>
+        <v>853.9833333333333</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -3018,7 +3000,7 @@
         <v>852</v>
       </c>
       <c r="F75" t="n">
-        <v>224.9801</v>
+        <v>44.9</v>
       </c>
       <c r="G75" t="n">
         <v>854.0166666666667</v>
@@ -3041,22 +3023,22 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="C76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="E76" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F76" t="n">
-        <v>2</v>
+        <v>224.9801</v>
       </c>
       <c r="G76" t="n">
-        <v>854.0666666666667</v>
+        <v>854.0166666666667</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -3076,22 +3058,22 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="C77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="D77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="E77" t="n">
-        <v>850</v>
+        <v>855</v>
       </c>
       <c r="F77" t="n">
-        <v>109.67</v>
+        <v>2</v>
       </c>
       <c r="G77" t="n">
-        <v>854.0166666666667</v>
+        <v>854.0666666666667</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -3111,22 +3093,22 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="C78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="D78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="E78" t="n">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="F78" t="n">
-        <v>131.4252</v>
+        <v>109.67</v>
       </c>
       <c r="G78" t="n">
-        <v>854.05</v>
+        <v>854.0166666666667</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -3146,22 +3128,22 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="E79" t="n">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="F79" t="n">
-        <v>41.8965</v>
+        <v>131.4252</v>
       </c>
       <c r="G79" t="n">
-        <v>854.1</v>
+        <v>854.05</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -3193,10 +3175,10 @@
         <v>855</v>
       </c>
       <c r="F80" t="n">
-        <v>395.6313</v>
+        <v>41.8965</v>
       </c>
       <c r="G80" t="n">
-        <v>854.15</v>
+        <v>854.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -3228,10 +3210,10 @@
         <v>855</v>
       </c>
       <c r="F81" t="n">
-        <v>182.2685</v>
+        <v>395.6313</v>
       </c>
       <c r="G81" t="n">
-        <v>854.25</v>
+        <v>854.15</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -3251,22 +3233,22 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="C82" t="n">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="D82" t="n">
-        <v>859</v>
+        <v>855</v>
       </c>
       <c r="E82" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="F82" t="n">
-        <v>1085.7555</v>
+        <v>182.2685</v>
       </c>
       <c r="G82" t="n">
-        <v>854.3666666666667</v>
+        <v>854.25</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -3286,22 +3268,22 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C83" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D83" t="n">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="E83" t="n">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="F83" t="n">
-        <v>320.8635</v>
+        <v>1085.7555</v>
       </c>
       <c r="G83" t="n">
-        <v>854.5166666666667</v>
+        <v>854.3666666666667</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -3321,22 +3303,22 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="C84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="D84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="E84" t="n">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="F84" t="n">
-        <v>2.8081</v>
+        <v>320.8635</v>
       </c>
       <c r="G84" t="n">
-        <v>854.6166666666667</v>
+        <v>854.5166666666667</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -3356,22 +3338,22 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="C85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="E85" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F85" t="n">
-        <v>920.8492</v>
+        <v>2.8081</v>
       </c>
       <c r="G85" t="n">
-        <v>854.65</v>
+        <v>854.6166666666667</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -3391,22 +3373,22 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="C86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="E86" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F86" t="n">
-        <v>40</v>
+        <v>920.8492</v>
       </c>
       <c r="G86" t="n">
-        <v>854.8</v>
+        <v>854.65</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -3426,22 +3408,22 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="C87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="D87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="E87" t="n">
-        <v>852</v>
+        <v>855</v>
       </c>
       <c r="F87" t="n">
-        <v>506.6748</v>
+        <v>40</v>
       </c>
       <c r="G87" t="n">
-        <v>854.9</v>
+        <v>854.8</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -3461,22 +3443,22 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C88" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="D88" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E88" t="n">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="F88" t="n">
-        <v>451.4205</v>
+        <v>506.6748</v>
       </c>
       <c r="G88" t="n">
-        <v>854.9166666666666</v>
+        <v>854.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -3496,22 +3478,22 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C89" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D89" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E89" t="n">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="F89" t="n">
-        <v>255.1</v>
+        <v>451.4205</v>
       </c>
       <c r="G89" t="n">
-        <v>855</v>
+        <v>854.9166666666666</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -3531,22 +3513,22 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="D90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E90" t="n">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="F90" t="n">
-        <v>57.3018</v>
+        <v>255.1</v>
       </c>
       <c r="G90" t="n">
-        <v>855.0666666666667</v>
+        <v>855</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -3566,22 +3548,22 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C91" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D91" t="n">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="E91" t="n">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F91" t="n">
-        <v>31</v>
+        <v>57.3018</v>
       </c>
       <c r="G91" t="n">
-        <v>855.1833333333333</v>
+        <v>855.0666666666667</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -3601,22 +3583,22 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
+        <v>853</v>
+      </c>
+      <c r="C92" t="n">
         <v>854</v>
-      </c>
-      <c r="C92" t="n">
-        <v>850</v>
       </c>
       <c r="D92" t="n">
         <v>854</v>
       </c>
       <c r="E92" t="n">
-        <v>850</v>
+        <v>853</v>
       </c>
       <c r="F92" t="n">
-        <v>664.8584</v>
+        <v>31</v>
       </c>
       <c r="G92" t="n">
-        <v>855.2166666666667</v>
+        <v>855.1833333333333</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -3636,22 +3618,22 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
+        <v>854</v>
+      </c>
+      <c r="C93" t="n">
         <v>850</v>
       </c>
-      <c r="C93" t="n">
-        <v>845</v>
-      </c>
       <c r="D93" t="n">
+        <v>854</v>
+      </c>
+      <c r="E93" t="n">
         <v>850</v>
       </c>
-      <c r="E93" t="n">
-        <v>845</v>
-      </c>
       <c r="F93" t="n">
-        <v>3960.5528</v>
+        <v>664.8584</v>
       </c>
       <c r="G93" t="n">
-        <v>855.1666666666666</v>
+        <v>855.2166666666667</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -3671,22 +3653,22 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="C94" t="n">
         <v>845</v>
       </c>
       <c r="D94" t="n">
-        <v>845</v>
+        <v>850</v>
       </c>
       <c r="E94" t="n">
         <v>845</v>
       </c>
       <c r="F94" t="n">
-        <v>114.8634</v>
+        <v>3960.5528</v>
       </c>
       <c r="G94" t="n">
-        <v>855.1</v>
+        <v>855.1666666666666</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -3706,19 +3688,19 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="C95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="D95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="E95" t="n">
-        <v>849</v>
+        <v>845</v>
       </c>
       <c r="F95" t="n">
-        <v>441.67</v>
+        <v>114.8634</v>
       </c>
       <c r="G95" t="n">
         <v>855.1</v>
@@ -3753,7 +3735,7 @@
         <v>849</v>
       </c>
       <c r="F96" t="n">
-        <v>46.33</v>
+        <v>441.67</v>
       </c>
       <c r="G96" t="n">
         <v>855.1</v>
@@ -3776,22 +3758,22 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C97" t="n">
         <v>849</v>
       </c>
       <c r="D97" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E97" t="n">
         <v>849</v>
       </c>
       <c r="F97" t="n">
-        <v>139.939</v>
+        <v>46.33</v>
       </c>
       <c r="G97" t="n">
-        <v>855.0833333333334</v>
+        <v>855.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -3811,22 +3793,22 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C98" t="n">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D98" t="n">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="E98" t="n">
         <v>849</v>
       </c>
       <c r="F98" t="n">
-        <v>218.483</v>
+        <v>139.939</v>
       </c>
       <c r="G98" t="n">
-        <v>855.1166666666667</v>
+        <v>855.0833333333334</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -3846,22 +3828,22 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C99" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D99" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E99" t="n">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F99" t="n">
-        <v>5.6846</v>
+        <v>218.483</v>
       </c>
       <c r="G99" t="n">
-        <v>855.1333333333333</v>
+        <v>855.1166666666667</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -3881,22 +3863,22 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="C100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="D100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E100" t="n">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="F100" t="n">
-        <v>113.1924</v>
+        <v>5.6846</v>
       </c>
       <c r="G100" t="n">
-        <v>855.1833333333333</v>
+        <v>855.1333333333333</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -3916,22 +3898,22 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="C101" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="D101" t="n">
-        <v>846</v>
+        <v>849</v>
       </c>
       <c r="E101" t="n">
-        <v>845</v>
+        <v>849</v>
       </c>
       <c r="F101" t="n">
-        <v>1018.1908</v>
+        <v>113.1924</v>
       </c>
       <c r="G101" t="n">
-        <v>855.15</v>
+        <v>855.1833333333333</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -3951,22 +3933,22 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="C102" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="D102" t="n">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="E102" t="n">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="F102" t="n">
-        <v>202.6</v>
+        <v>1018.1908</v>
       </c>
       <c r="G102" t="n">
-        <v>855.1</v>
+        <v>855.15</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -3989,1767 +3971,1609 @@
         <v>848</v>
       </c>
       <c r="C103" t="n">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="D103" t="n">
         <v>848</v>
       </c>
       <c r="E103" t="n">
+        <v>848</v>
+      </c>
+      <c r="F103" t="n">
+        <v>202.6</v>
+      </c>
+      <c r="G103" t="n">
+        <v>855.1</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0</v>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="n">
+        <v>848</v>
+      </c>
+      <c r="C104" t="n">
         <v>845</v>
       </c>
-      <c r="F103" t="n">
+      <c r="D104" t="n">
+        <v>848</v>
+      </c>
+      <c r="E104" t="n">
+        <v>845</v>
+      </c>
+      <c r="F104" t="n">
         <v>101.1844</v>
       </c>
-      <c r="G103" t="n">
+      <c r="G104" t="n">
         <v>855.0166666666667</v>
       </c>
-      <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
-      <c r="J103" t="n">
+      <c r="H104" t="n">
+        <v>0</v>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="n">
+        <v>845</v>
+      </c>
+      <c r="C105" t="n">
+        <v>845</v>
+      </c>
+      <c r="D105" t="n">
+        <v>845</v>
+      </c>
+      <c r="E105" t="n">
+        <v>845</v>
+      </c>
+      <c r="F105" t="n">
+        <v>2000</v>
+      </c>
+      <c r="G105" t="n">
+        <v>854.9166666666666</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0</v>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
+      <c r="M105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="n">
+        <v>849</v>
+      </c>
+      <c r="C106" t="n">
+        <v>849</v>
+      </c>
+      <c r="D106" t="n">
+        <v>849</v>
+      </c>
+      <c r="E106" t="n">
+        <v>849</v>
+      </c>
+      <c r="F106" t="n">
+        <v>4.0076</v>
+      </c>
+      <c r="G106" t="n">
+        <v>854.8666666666667</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0</v>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
+      <c r="M106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="n">
+        <v>850</v>
+      </c>
+      <c r="C107" t="n">
+        <v>850</v>
+      </c>
+      <c r="D107" t="n">
+        <v>850</v>
+      </c>
+      <c r="E107" t="n">
+        <v>850</v>
+      </c>
+      <c r="F107" t="n">
+        <v>3.0094</v>
+      </c>
+      <c r="G107" t="n">
+        <v>854.8166666666667</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0</v>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
+      <c r="M107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="n">
+        <v>851</v>
+      </c>
+      <c r="C108" t="n">
+        <v>851</v>
+      </c>
+      <c r="D108" t="n">
+        <v>851</v>
+      </c>
+      <c r="E108" t="n">
+        <v>851</v>
+      </c>
+      <c r="F108" t="n">
+        <v>2</v>
+      </c>
+      <c r="G108" t="n">
+        <v>854.7333333333333</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0</v>
+      </c>
+      <c r="I108" t="n">
+        <v>0</v>
+      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
+      <c r="M108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="n">
+        <v>845</v>
+      </c>
+      <c r="C109" t="n">
+        <v>845</v>
+      </c>
+      <c r="D109" t="n">
+        <v>845</v>
+      </c>
+      <c r="E109" t="n">
+        <v>845</v>
+      </c>
+      <c r="F109" t="n">
+        <v>6.8147</v>
+      </c>
+      <c r="G109" t="n">
+        <v>854.4833333333333</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0</v>
+      </c>
+      <c r="I109" t="n">
+        <v>0</v>
+      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
+      <c r="M109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="n">
+        <v>846</v>
+      </c>
+      <c r="C110" t="n">
+        <v>851</v>
+      </c>
+      <c r="D110" t="n">
+        <v>851</v>
+      </c>
+      <c r="E110" t="n">
+        <v>846</v>
+      </c>
+      <c r="F110" t="n">
+        <v>365.7215</v>
+      </c>
+      <c r="G110" t="n">
+        <v>854.3833333333333</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0</v>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
+      <c r="M110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="n">
+        <v>852</v>
+      </c>
+      <c r="C111" t="n">
+        <v>852</v>
+      </c>
+      <c r="D111" t="n">
+        <v>852</v>
+      </c>
+      <c r="E111" t="n">
+        <v>852</v>
+      </c>
+      <c r="F111" t="n">
+        <v>77.7732</v>
+      </c>
+      <c r="G111" t="n">
+        <v>854.2833333333333</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0</v>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="n">
+        <v>853</v>
+      </c>
+      <c r="C112" t="n">
+        <v>853</v>
+      </c>
+      <c r="D112" t="n">
+        <v>853</v>
+      </c>
+      <c r="E112" t="n">
+        <v>853</v>
+      </c>
+      <c r="F112" t="n">
+        <v>10</v>
+      </c>
+      <c r="G112" t="n">
+        <v>854.1833333333333</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0</v>
+      </c>
+      <c r="I112" t="n">
+        <v>0</v>
+      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="n">
+        <v>853</v>
+      </c>
+      <c r="C113" t="n">
+        <v>853</v>
+      </c>
+      <c r="D113" t="n">
+        <v>853</v>
+      </c>
+      <c r="E113" t="n">
+        <v>853</v>
+      </c>
+      <c r="F113" t="n">
+        <v>100</v>
+      </c>
+      <c r="G113" t="n">
+        <v>854.0666666666667</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0</v>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
+      <c r="M113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="n">
+        <v>849</v>
+      </c>
+      <c r="C114" t="n">
+        <v>849</v>
+      </c>
+      <c r="D114" t="n">
+        <v>849</v>
+      </c>
+      <c r="E114" t="n">
+        <v>849</v>
+      </c>
+      <c r="F114" t="n">
+        <v>114.4673</v>
+      </c>
+      <c r="G114" t="n">
+        <v>853.8833333333333</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0</v>
+      </c>
+      <c r="I114" t="n">
+        <v>0</v>
+      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
+      <c r="M114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="n">
+        <v>851</v>
+      </c>
+      <c r="C115" t="n">
+        <v>851</v>
+      </c>
+      <c r="D115" t="n">
+        <v>851</v>
+      </c>
+      <c r="E115" t="n">
+        <v>851</v>
+      </c>
+      <c r="F115" t="n">
+        <v>3</v>
+      </c>
+      <c r="G115" t="n">
+        <v>853.7166666666667</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0</v>
+      </c>
+      <c r="I115" t="n">
+        <v>0</v>
+      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
+      <c r="M115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="n">
+        <v>849</v>
+      </c>
+      <c r="C116" t="n">
+        <v>849</v>
+      </c>
+      <c r="D116" t="n">
+        <v>849</v>
+      </c>
+      <c r="E116" t="n">
+        <v>849</v>
+      </c>
+      <c r="F116" t="n">
+        <v>4.4272</v>
+      </c>
+      <c r="G116" t="n">
+        <v>853.5166666666667</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0</v>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="n">
+        <v>849</v>
+      </c>
+      <c r="C117" t="n">
+        <v>850</v>
+      </c>
+      <c r="D117" t="n">
+        <v>850</v>
+      </c>
+      <c r="E117" t="n">
         <v>848</v>
       </c>
-      <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr">
+      <c r="F117" t="n">
+        <v>24.6888</v>
+      </c>
+      <c r="G117" t="n">
+        <v>853.3</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0</v>
+      </c>
+      <c r="I117" t="n">
+        <v>0</v>
+      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="n">
+        <v>848</v>
+      </c>
+      <c r="C118" t="n">
+        <v>848</v>
+      </c>
+      <c r="D118" t="n">
+        <v>848</v>
+      </c>
+      <c r="E118" t="n">
+        <v>848</v>
+      </c>
+      <c r="F118" t="n">
+        <v>966.5</v>
+      </c>
+      <c r="G118" t="n">
+        <v>853.0833333333334</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="n">
+        <v>848</v>
+      </c>
+      <c r="C119" t="n">
+        <v>848</v>
+      </c>
+      <c r="D119" t="n">
+        <v>848</v>
+      </c>
+      <c r="E119" t="n">
+        <v>848</v>
+      </c>
+      <c r="F119" t="n">
+        <v>241.4021</v>
+      </c>
+      <c r="G119" t="n">
+        <v>852.8833333333333</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
+      <c r="M119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="n">
+        <v>848</v>
+      </c>
+      <c r="C120" t="n">
+        <v>851</v>
+      </c>
+      <c r="D120" t="n">
+        <v>851</v>
+      </c>
+      <c r="E120" t="n">
+        <v>848</v>
+      </c>
+      <c r="F120" t="n">
+        <v>16.0266</v>
+      </c>
+      <c r="G120" t="n">
+        <v>852.7833333333333</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
+      <c r="M120" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="n">
+        <v>848</v>
+      </c>
+      <c r="C121" t="n">
+        <v>846</v>
+      </c>
+      <c r="D121" t="n">
+        <v>848</v>
+      </c>
+      <c r="E121" t="n">
+        <v>846</v>
+      </c>
+      <c r="F121" t="n">
+        <v>257.3078</v>
+      </c>
+      <c r="G121" t="n">
+        <v>852.5333333333333</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
+      <c r="M121" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="n">
+        <v>845</v>
+      </c>
+      <c r="C122" t="n">
+        <v>845</v>
+      </c>
+      <c r="D122" t="n">
+        <v>845</v>
+      </c>
+      <c r="E122" t="n">
+        <v>844</v>
+      </c>
+      <c r="F122" t="n">
+        <v>785.4837</v>
+      </c>
+      <c r="G122" t="n">
+        <v>852.2666666666667</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
+      <c r="M122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="n">
+        <v>844</v>
+      </c>
+      <c r="C123" t="n">
+        <v>844</v>
+      </c>
+      <c r="D123" t="n">
+        <v>844</v>
+      </c>
+      <c r="E123" t="n">
+        <v>844</v>
+      </c>
+      <c r="F123" t="n">
+        <v>2317.6813</v>
+      </c>
+      <c r="G123" t="n">
+        <v>851.9833333333333</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
+      <c r="M123" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="n">
+        <v>846</v>
+      </c>
+      <c r="C124" t="n">
+        <v>846</v>
+      </c>
+      <c r="D124" t="n">
+        <v>846</v>
+      </c>
+      <c r="E124" t="n">
+        <v>846</v>
+      </c>
+      <c r="F124" t="n">
+        <v>103.3134</v>
+      </c>
+      <c r="G124" t="n">
+        <v>851.7333333333333</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0</v>
+      </c>
+      <c r="I124" t="n">
+        <v>0</v>
+      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
+      <c r="M124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="n">
+        <v>844</v>
+      </c>
+      <c r="C125" t="n">
+        <v>843</v>
+      </c>
+      <c r="D125" t="n">
+        <v>844</v>
+      </c>
+      <c r="E125" t="n">
+        <v>843</v>
+      </c>
+      <c r="F125" t="n">
+        <v>1470.2318</v>
+      </c>
+      <c r="G125" t="n">
+        <v>851.4166666666666</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0</v>
+      </c>
+      <c r="I125" t="n">
+        <v>0</v>
+      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
+      <c r="M125" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="n">
+        <v>843</v>
+      </c>
+      <c r="C126" t="n">
+        <v>843</v>
+      </c>
+      <c r="D126" t="n">
+        <v>843</v>
+      </c>
+      <c r="E126" t="n">
+        <v>843</v>
+      </c>
+      <c r="F126" t="n">
+        <v>36.89</v>
+      </c>
+      <c r="G126" t="n">
+        <v>851.1166666666667</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0</v>
+      </c>
+      <c r="I126" t="n">
+        <v>0</v>
+      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="n">
+        <v>843</v>
+      </c>
+      <c r="C127" t="n">
+        <v>843</v>
+      </c>
+      <c r="D127" t="n">
+        <v>843</v>
+      </c>
+      <c r="E127" t="n">
+        <v>843</v>
+      </c>
+      <c r="F127" t="n">
+        <v>686.4924999999999</v>
+      </c>
+      <c r="G127" t="n">
+        <v>850.8166666666667</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0</v>
+      </c>
+      <c r="I127" t="n">
+        <v>0</v>
+      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="n">
+        <v>843</v>
+      </c>
+      <c r="C128" t="n">
+        <v>841</v>
+      </c>
+      <c r="D128" t="n">
+        <v>843</v>
+      </c>
+      <c r="E128" t="n">
+        <v>841</v>
+      </c>
+      <c r="F128" t="n">
+        <v>76.43940000000001</v>
+      </c>
+      <c r="G128" t="n">
+        <v>850.5</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0</v>
+      </c>
+      <c r="I128" t="n">
+        <v>0</v>
+      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
+      <c r="M128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="n">
+        <v>841</v>
+      </c>
+      <c r="C129" t="n">
+        <v>841</v>
+      </c>
+      <c r="D129" t="n">
+        <v>841</v>
+      </c>
+      <c r="E129" t="n">
+        <v>841</v>
+      </c>
+      <c r="F129" t="n">
+        <v>400</v>
+      </c>
+      <c r="G129" t="n">
+        <v>850.2333333333333</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0</v>
+      </c>
+      <c r="I129" t="n">
+        <v>0</v>
+      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
+      <c r="M129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="n">
+        <v>841</v>
+      </c>
+      <c r="C130" t="n">
+        <v>841</v>
+      </c>
+      <c r="D130" t="n">
+        <v>841</v>
+      </c>
+      <c r="E130" t="n">
+        <v>841</v>
+      </c>
+      <c r="F130" t="n">
+        <v>43.5531</v>
+      </c>
+      <c r="G130" t="n">
+        <v>849.9666666666667</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0</v>
+      </c>
+      <c r="I130" t="n">
+        <v>0</v>
+      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
+      <c r="M130" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="n">
+        <v>840</v>
+      </c>
+      <c r="C131" t="n">
+        <v>840</v>
+      </c>
+      <c r="D131" t="n">
+        <v>840</v>
+      </c>
+      <c r="E131" t="n">
+        <v>839</v>
+      </c>
+      <c r="F131" t="n">
+        <v>704.5178</v>
+      </c>
+      <c r="G131" t="n">
+        <v>849.6</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0</v>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
+      <c r="M131" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="n">
+        <v>839</v>
+      </c>
+      <c r="C132" t="n">
+        <v>840</v>
+      </c>
+      <c r="D132" t="n">
+        <v>840</v>
+      </c>
+      <c r="E132" t="n">
+        <v>839</v>
+      </c>
+      <c r="F132" t="n">
+        <v>2135.5001</v>
+      </c>
+      <c r="G132" t="n">
+        <v>849.3</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0</v>
+      </c>
+      <c r="I132" t="n">
+        <v>0</v>
+      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
+      <c r="M132" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="n">
+        <v>843</v>
+      </c>
+      <c r="C133" t="n">
+        <v>843</v>
+      </c>
+      <c r="D133" t="n">
+        <v>843</v>
+      </c>
+      <c r="E133" t="n">
+        <v>843</v>
+      </c>
+      <c r="F133" t="n">
+        <v>169.2908</v>
+      </c>
+      <c r="G133" t="n">
+        <v>849.0833333333334</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0</v>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="n">
+        <v>842</v>
+      </c>
+      <c r="C134" t="n">
+        <v>842</v>
+      </c>
+      <c r="D134" t="n">
+        <v>842</v>
+      </c>
+      <c r="E134" t="n">
+        <v>842</v>
+      </c>
+      <c r="F134" t="n">
+        <v>128.4198</v>
+      </c>
+      <c r="G134" t="n">
+        <v>848.9166666666666</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0</v>
+      </c>
+      <c r="I134" t="n">
+        <v>0</v>
+      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
+      <c r="M134" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="n">
+        <v>841</v>
+      </c>
+      <c r="C135" t="n">
+        <v>841</v>
+      </c>
+      <c r="D135" t="n">
+        <v>841</v>
+      </c>
+      <c r="E135" t="n">
+        <v>840</v>
+      </c>
+      <c r="F135" t="n">
+        <v>865.6896</v>
+      </c>
+      <c r="G135" t="n">
+        <v>848.7333333333333</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0</v>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
+      <c r="M135" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="n">
+        <v>838</v>
+      </c>
+      <c r="C136" t="n">
+        <v>839</v>
+      </c>
+      <c r="D136" t="n">
+        <v>839</v>
+      </c>
+      <c r="E136" t="n">
+        <v>837</v>
+      </c>
+      <c r="F136" t="n">
+        <v>400.9759</v>
+      </c>
+      <c r="G136" t="n">
+        <v>848.5166666666667</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0</v>
+      </c>
+      <c r="I136" t="n">
+        <v>0</v>
+      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
+      <c r="M136" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="n">
+        <v>837</v>
+      </c>
+      <c r="C137" t="n">
+        <v>837</v>
+      </c>
+      <c r="D137" t="n">
+        <v>837</v>
+      </c>
+      <c r="E137" t="n">
+        <v>837</v>
+      </c>
+      <c r="F137" t="n">
+        <v>300.1512</v>
+      </c>
+      <c r="G137" t="n">
+        <v>848.2166666666667</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0</v>
+      </c>
+      <c r="I137" t="n">
+        <v>0</v>
+      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
+      <c r="M137" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="n">
+        <v>837</v>
+      </c>
+      <c r="C138" t="n">
+        <v>833</v>
+      </c>
+      <c r="D138" t="n">
+        <v>837</v>
+      </c>
+      <c r="E138" t="n">
+        <v>833</v>
+      </c>
+      <c r="F138" t="n">
+        <v>102.373</v>
+      </c>
+      <c r="G138" t="n">
+        <v>847.9333333333333</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0</v>
+      </c>
+      <c r="I138" t="n">
+        <v>0</v>
+      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="n">
+        <v>833</v>
+      </c>
+      <c r="C139" t="n">
+        <v>833</v>
+      </c>
+      <c r="D139" t="n">
+        <v>833</v>
+      </c>
+      <c r="E139" t="n">
+        <v>833</v>
+      </c>
+      <c r="F139" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="G139" t="n">
+        <v>847.55</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0</v>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="n">
+        <v>836</v>
+      </c>
+      <c r="C140" t="n">
+        <v>836</v>
+      </c>
+      <c r="D140" t="n">
+        <v>836</v>
+      </c>
+      <c r="E140" t="n">
+        <v>836</v>
+      </c>
+      <c r="F140" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G140" t="n">
+        <v>847.2333333333333</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0</v>
+      </c>
+      <c r="I140" t="n">
+        <v>0</v>
+      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="n">
+        <v>834</v>
+      </c>
+      <c r="C141" t="n">
+        <v>834</v>
+      </c>
+      <c r="D141" t="n">
+        <v>834</v>
+      </c>
+      <c r="E141" t="n">
+        <v>834</v>
+      </c>
+      <c r="F141" t="n">
+        <v>63.0026</v>
+      </c>
+      <c r="G141" t="n">
+        <v>846.8833333333333</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0</v>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
+      <c r="M141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="n">
+        <v>835</v>
+      </c>
+      <c r="C142" t="n">
+        <v>835</v>
+      </c>
+      <c r="D142" t="n">
+        <v>835</v>
+      </c>
+      <c r="E142" t="n">
+        <v>835</v>
+      </c>
+      <c r="F142" t="n">
+        <v>101.04</v>
+      </c>
+      <c r="G142" t="n">
+        <v>846.55</v>
+      </c>
+      <c r="H142" t="n">
+        <v>1</v>
+      </c>
+      <c r="I142" t="n">
+        <v>0</v>
+      </c>
+      <c r="J142" t="n">
+        <v>834</v>
+      </c>
+      <c r="K142" t="n">
+        <v>834</v>
+      </c>
+      <c r="L142" t="inlineStr"/>
+      <c r="M142" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="n">
+        <v>833</v>
+      </c>
+      <c r="C143" t="n">
+        <v>833</v>
+      </c>
+      <c r="D143" t="n">
+        <v>833</v>
+      </c>
+      <c r="E143" t="n">
+        <v>833</v>
+      </c>
+      <c r="F143" t="n">
+        <v>600</v>
+      </c>
+      <c r="G143" t="n">
+        <v>846.1333333333333</v>
+      </c>
+      <c r="H143" t="n">
+        <v>1</v>
+      </c>
+      <c r="I143" t="n">
+        <v>0</v>
+      </c>
+      <c r="J143" t="n">
+        <v>835</v>
+      </c>
+      <c r="K143" t="n">
+        <v>834</v>
+      </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
+        <v>835</v>
+      </c>
+      <c r="C144" t="n">
+        <v>835</v>
+      </c>
+      <c r="D144" t="n">
+        <v>835</v>
+      </c>
+      <c r="E144" t="n">
+        <v>835</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.3612</v>
+      </c>
+      <c r="G144" t="n">
+        <v>845.7666666666667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>1</v>
+      </c>
+      <c r="I144" t="n">
+        <v>0</v>
+      </c>
+      <c r="J144" t="n">
+        <v>833</v>
+      </c>
+      <c r="K144" t="n">
+        <v>834</v>
+      </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
+        <v>834</v>
+      </c>
+      <c r="C145" t="n">
+        <v>834</v>
+      </c>
+      <c r="D145" t="n">
+        <v>834</v>
+      </c>
+      <c r="E145" t="n">
+        <v>834</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.8368</v>
+      </c>
+      <c r="G145" t="n">
+        <v>845.4166666666666</v>
+      </c>
+      <c r="H145" t="n">
+        <v>1</v>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>835</v>
+      </c>
+      <c r="K145" t="n">
+        <v>835</v>
+      </c>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>834</v>
+      </c>
+      <c r="C146" t="n">
+        <v>834</v>
+      </c>
+      <c r="D146" t="n">
+        <v>834</v>
+      </c>
+      <c r="E146" t="n">
+        <v>834</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.3434</v>
+      </c>
+      <c r="G146" t="n">
+        <v>845.1333333333333</v>
+      </c>
+      <c r="H146" t="n">
+        <v>1</v>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>834</v>
+      </c>
+      <c r="K146" t="n">
+        <v>835</v>
+      </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="M146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="n">
+        <v>834</v>
+      </c>
+      <c r="C147" t="n">
+        <v>833</v>
+      </c>
+      <c r="D147" t="n">
+        <v>834</v>
+      </c>
+      <c r="E147" t="n">
+        <v>833</v>
+      </c>
+      <c r="F147" t="n">
+        <v>63.022</v>
+      </c>
+      <c r="G147" t="n">
+        <v>844.7666666666667</v>
+      </c>
+      <c r="H147" t="n">
+        <v>1</v>
+      </c>
+      <c r="I147" t="n">
+        <v>0</v>
+      </c>
+      <c r="J147" t="n">
+        <v>834</v>
+      </c>
+      <c r="K147" t="n">
+        <v>835</v>
+      </c>
+      <c r="L147" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
-        <v>102</v>
-      </c>
-      <c r="B104" t="n">
-        <v>845</v>
-      </c>
-      <c r="C104" t="n">
-        <v>845</v>
-      </c>
-      <c r="D104" t="n">
-        <v>845</v>
-      </c>
-      <c r="E104" t="n">
-        <v>845</v>
-      </c>
-      <c r="F104" t="n">
-        <v>2000</v>
-      </c>
-      <c r="G104" t="n">
-        <v>854.9166666666666</v>
-      </c>
-      <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
-      <c r="J104" t="n">
-        <v>845</v>
-      </c>
-      <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
-        <v>103</v>
-      </c>
-      <c r="B105" t="n">
-        <v>849</v>
-      </c>
-      <c r="C105" t="n">
-        <v>849</v>
-      </c>
-      <c r="D105" t="n">
-        <v>849</v>
-      </c>
-      <c r="E105" t="n">
-        <v>849</v>
-      </c>
-      <c r="F105" t="n">
-        <v>4.0076</v>
-      </c>
-      <c r="G105" t="n">
-        <v>854.8666666666667</v>
-      </c>
-      <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
-      <c r="J105" t="n">
-        <v>845</v>
-      </c>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
-        <v>104</v>
-      </c>
-      <c r="B106" t="n">
-        <v>850</v>
-      </c>
-      <c r="C106" t="n">
-        <v>850</v>
-      </c>
-      <c r="D106" t="n">
-        <v>850</v>
-      </c>
-      <c r="E106" t="n">
-        <v>850</v>
-      </c>
-      <c r="F106" t="n">
-        <v>3.0094</v>
-      </c>
-      <c r="G106" t="n">
-        <v>854.8166666666667</v>
-      </c>
-      <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
-      <c r="J106" t="n">
-        <v>849</v>
-      </c>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
-        <v>105</v>
-      </c>
-      <c r="B107" t="n">
-        <v>851</v>
-      </c>
-      <c r="C107" t="n">
-        <v>851</v>
-      </c>
-      <c r="D107" t="n">
-        <v>851</v>
-      </c>
-      <c r="E107" t="n">
-        <v>851</v>
-      </c>
-      <c r="F107" t="n">
-        <v>2</v>
-      </c>
-      <c r="G107" t="n">
-        <v>854.7333333333333</v>
-      </c>
-      <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
-      <c r="J107" t="n">
-        <v>850</v>
-      </c>
-      <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
-        <v>106</v>
-      </c>
-      <c r="B108" t="n">
-        <v>845</v>
-      </c>
-      <c r="C108" t="n">
-        <v>845</v>
-      </c>
-      <c r="D108" t="n">
-        <v>845</v>
-      </c>
-      <c r="E108" t="n">
-        <v>845</v>
-      </c>
-      <c r="F108" t="n">
-        <v>6.8147</v>
-      </c>
-      <c r="G108" t="n">
-        <v>854.4833333333333</v>
-      </c>
-      <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
-      <c r="J108" t="n">
-        <v>851</v>
-      </c>
-      <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
-        <v>107</v>
-      </c>
-      <c r="B109" t="n">
-        <v>846</v>
-      </c>
-      <c r="C109" t="n">
-        <v>851</v>
-      </c>
-      <c r="D109" t="n">
-        <v>851</v>
-      </c>
-      <c r="E109" t="n">
-        <v>846</v>
-      </c>
-      <c r="F109" t="n">
-        <v>365.7215</v>
-      </c>
-      <c r="G109" t="n">
-        <v>854.3833333333333</v>
-      </c>
-      <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
-      <c r="J109" t="n">
-        <v>845</v>
-      </c>
-      <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
-        <v>108</v>
-      </c>
-      <c r="B110" t="n">
-        <v>852</v>
-      </c>
-      <c r="C110" t="n">
-        <v>852</v>
-      </c>
-      <c r="D110" t="n">
-        <v>852</v>
-      </c>
-      <c r="E110" t="n">
-        <v>852</v>
-      </c>
-      <c r="F110" t="n">
-        <v>77.7732</v>
-      </c>
-      <c r="G110" t="n">
-        <v>854.2833333333333</v>
-      </c>
-      <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
-      <c r="J110" t="n">
-        <v>851</v>
-      </c>
-      <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
-        <v>109</v>
-      </c>
-      <c r="B111" t="n">
-        <v>853</v>
-      </c>
-      <c r="C111" t="n">
-        <v>853</v>
-      </c>
-      <c r="D111" t="n">
-        <v>853</v>
-      </c>
-      <c r="E111" t="n">
-        <v>853</v>
-      </c>
-      <c r="F111" t="n">
-        <v>10</v>
-      </c>
-      <c r="G111" t="n">
-        <v>854.1833333333333</v>
-      </c>
-      <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
-      <c r="J111" t="n">
-        <v>852</v>
-      </c>
-      <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
-        <v>110</v>
-      </c>
-      <c r="B112" t="n">
-        <v>853</v>
-      </c>
-      <c r="C112" t="n">
-        <v>853</v>
-      </c>
-      <c r="D112" t="n">
-        <v>853</v>
-      </c>
-      <c r="E112" t="n">
-        <v>853</v>
-      </c>
-      <c r="F112" t="n">
-        <v>100</v>
-      </c>
-      <c r="G112" t="n">
-        <v>854.0666666666667</v>
-      </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
-        <v>111</v>
-      </c>
-      <c r="B113" t="n">
-        <v>849</v>
-      </c>
-      <c r="C113" t="n">
-        <v>849</v>
-      </c>
-      <c r="D113" t="n">
-        <v>849</v>
-      </c>
-      <c r="E113" t="n">
-        <v>849</v>
-      </c>
-      <c r="F113" t="n">
-        <v>114.4673</v>
-      </c>
-      <c r="G113" t="n">
-        <v>853.8833333333333</v>
-      </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
-        <v>112</v>
-      </c>
-      <c r="B114" t="n">
-        <v>851</v>
-      </c>
-      <c r="C114" t="n">
-        <v>851</v>
-      </c>
-      <c r="D114" t="n">
-        <v>851</v>
-      </c>
-      <c r="E114" t="n">
-        <v>851</v>
-      </c>
-      <c r="F114" t="n">
-        <v>3</v>
-      </c>
-      <c r="G114" t="n">
-        <v>853.7166666666667</v>
-      </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
-        <v>113</v>
-      </c>
-      <c r="B115" t="n">
-        <v>849</v>
-      </c>
-      <c r="C115" t="n">
-        <v>849</v>
-      </c>
-      <c r="D115" t="n">
-        <v>849</v>
-      </c>
-      <c r="E115" t="n">
-        <v>849</v>
-      </c>
-      <c r="F115" t="n">
-        <v>4.4272</v>
-      </c>
-      <c r="G115" t="n">
-        <v>853.5166666666667</v>
-      </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
-        <v>114</v>
-      </c>
-      <c r="B116" t="n">
-        <v>849</v>
-      </c>
-      <c r="C116" t="n">
-        <v>850</v>
-      </c>
-      <c r="D116" t="n">
-        <v>850</v>
-      </c>
-      <c r="E116" t="n">
-        <v>848</v>
-      </c>
-      <c r="F116" t="n">
-        <v>24.6888</v>
-      </c>
-      <c r="G116" t="n">
-        <v>853.3</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
-        <v>115</v>
-      </c>
-      <c r="B117" t="n">
-        <v>848</v>
-      </c>
-      <c r="C117" t="n">
-        <v>848</v>
-      </c>
-      <c r="D117" t="n">
-        <v>848</v>
-      </c>
-      <c r="E117" t="n">
-        <v>848</v>
-      </c>
-      <c r="F117" t="n">
-        <v>966.5</v>
-      </c>
-      <c r="G117" t="n">
-        <v>853.0833333333334</v>
-      </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
-        <v>116</v>
-      </c>
-      <c r="B118" t="n">
-        <v>848</v>
-      </c>
-      <c r="C118" t="n">
-        <v>848</v>
-      </c>
-      <c r="D118" t="n">
-        <v>848</v>
-      </c>
-      <c r="E118" t="n">
-        <v>848</v>
-      </c>
-      <c r="F118" t="n">
-        <v>241.4021</v>
-      </c>
-      <c r="G118" t="n">
-        <v>852.8833333333333</v>
-      </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
-        <v>117</v>
-      </c>
-      <c r="B119" t="n">
-        <v>848</v>
-      </c>
-      <c r="C119" t="n">
-        <v>851</v>
-      </c>
-      <c r="D119" t="n">
-        <v>851</v>
-      </c>
-      <c r="E119" t="n">
-        <v>848</v>
-      </c>
-      <c r="F119" t="n">
-        <v>16.0266</v>
-      </c>
-      <c r="G119" t="n">
-        <v>852.7833333333333</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
-        <v>118</v>
-      </c>
-      <c r="B120" t="n">
-        <v>848</v>
-      </c>
-      <c r="C120" t="n">
-        <v>846</v>
-      </c>
-      <c r="D120" t="n">
-        <v>848</v>
-      </c>
-      <c r="E120" t="n">
-        <v>846</v>
-      </c>
-      <c r="F120" t="n">
-        <v>257.3078</v>
-      </c>
-      <c r="G120" t="n">
-        <v>852.5333333333333</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
-        <v>119</v>
-      </c>
-      <c r="B121" t="n">
-        <v>845</v>
-      </c>
-      <c r="C121" t="n">
-        <v>845</v>
-      </c>
-      <c r="D121" t="n">
-        <v>845</v>
-      </c>
-      <c r="E121" t="n">
-        <v>844</v>
-      </c>
-      <c r="F121" t="n">
-        <v>785.4837</v>
-      </c>
-      <c r="G121" t="n">
-        <v>852.2666666666667</v>
-      </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
-        <v>120</v>
-      </c>
-      <c r="B122" t="n">
-        <v>844</v>
-      </c>
-      <c r="C122" t="n">
-        <v>844</v>
-      </c>
-      <c r="D122" t="n">
-        <v>844</v>
-      </c>
-      <c r="E122" t="n">
-        <v>844</v>
-      </c>
-      <c r="F122" t="n">
-        <v>2317.6813</v>
-      </c>
-      <c r="G122" t="n">
-        <v>851.9833333333333</v>
-      </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
-        <v>121</v>
-      </c>
-      <c r="B123" t="n">
-        <v>846</v>
-      </c>
-      <c r="C123" t="n">
-        <v>846</v>
-      </c>
-      <c r="D123" t="n">
-        <v>846</v>
-      </c>
-      <c r="E123" t="n">
-        <v>846</v>
-      </c>
-      <c r="F123" t="n">
-        <v>103.3134</v>
-      </c>
-      <c r="G123" t="n">
-        <v>851.7333333333333</v>
-      </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
-        <v>122</v>
-      </c>
-      <c r="B124" t="n">
-        <v>844</v>
-      </c>
-      <c r="C124" t="n">
-        <v>843</v>
-      </c>
-      <c r="D124" t="n">
-        <v>844</v>
-      </c>
-      <c r="E124" t="n">
-        <v>843</v>
-      </c>
-      <c r="F124" t="n">
-        <v>1470.2318</v>
-      </c>
-      <c r="G124" t="n">
-        <v>851.4166666666666</v>
-      </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
-        <v>123</v>
-      </c>
-      <c r="B125" t="n">
-        <v>843</v>
-      </c>
-      <c r="C125" t="n">
-        <v>843</v>
-      </c>
-      <c r="D125" t="n">
-        <v>843</v>
-      </c>
-      <c r="E125" t="n">
-        <v>843</v>
-      </c>
-      <c r="F125" t="n">
-        <v>36.89</v>
-      </c>
-      <c r="G125" t="n">
-        <v>851.1166666666667</v>
-      </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
-        <v>124</v>
-      </c>
-      <c r="B126" t="n">
-        <v>843</v>
-      </c>
-      <c r="C126" t="n">
-        <v>843</v>
-      </c>
-      <c r="D126" t="n">
-        <v>843</v>
-      </c>
-      <c r="E126" t="n">
-        <v>843</v>
-      </c>
-      <c r="F126" t="n">
-        <v>686.4924999999999</v>
-      </c>
-      <c r="G126" t="n">
-        <v>850.8166666666667</v>
-      </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
-        <v>125</v>
-      </c>
-      <c r="B127" t="n">
-        <v>843</v>
-      </c>
-      <c r="C127" t="n">
-        <v>841</v>
-      </c>
-      <c r="D127" t="n">
-        <v>843</v>
-      </c>
-      <c r="E127" t="n">
-        <v>841</v>
-      </c>
-      <c r="F127" t="n">
-        <v>76.43940000000001</v>
-      </c>
-      <c r="G127" t="n">
-        <v>850.5</v>
-      </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
-        <v>126</v>
-      </c>
-      <c r="B128" t="n">
-        <v>841</v>
-      </c>
-      <c r="C128" t="n">
-        <v>841</v>
-      </c>
-      <c r="D128" t="n">
-        <v>841</v>
-      </c>
-      <c r="E128" t="n">
-        <v>841</v>
-      </c>
-      <c r="F128" t="n">
-        <v>400</v>
-      </c>
-      <c r="G128" t="n">
-        <v>850.2333333333333</v>
-      </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
-        <v>127</v>
-      </c>
-      <c r="B129" t="n">
-        <v>841</v>
-      </c>
-      <c r="C129" t="n">
-        <v>841</v>
-      </c>
-      <c r="D129" t="n">
-        <v>841</v>
-      </c>
-      <c r="E129" t="n">
-        <v>841</v>
-      </c>
-      <c r="F129" t="n">
-        <v>43.5531</v>
-      </c>
-      <c r="G129" t="n">
-        <v>849.9666666666667</v>
-      </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
-        <v>128</v>
-      </c>
-      <c r="B130" t="n">
-        <v>840</v>
-      </c>
-      <c r="C130" t="n">
-        <v>840</v>
-      </c>
-      <c r="D130" t="n">
-        <v>840</v>
-      </c>
-      <c r="E130" t="n">
-        <v>839</v>
-      </c>
-      <c r="F130" t="n">
-        <v>704.5178</v>
-      </c>
-      <c r="G130" t="n">
-        <v>849.6</v>
-      </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
-        <v>129</v>
-      </c>
-      <c r="B131" t="n">
-        <v>839</v>
-      </c>
-      <c r="C131" t="n">
-        <v>840</v>
-      </c>
-      <c r="D131" t="n">
-        <v>840</v>
-      </c>
-      <c r="E131" t="n">
-        <v>839</v>
-      </c>
-      <c r="F131" t="n">
-        <v>2135.5001</v>
-      </c>
-      <c r="G131" t="n">
-        <v>849.3</v>
-      </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
-        <v>130</v>
-      </c>
-      <c r="B132" t="n">
-        <v>843</v>
-      </c>
-      <c r="C132" t="n">
-        <v>843</v>
-      </c>
-      <c r="D132" t="n">
-        <v>843</v>
-      </c>
-      <c r="E132" t="n">
-        <v>843</v>
-      </c>
-      <c r="F132" t="n">
-        <v>169.2908</v>
-      </c>
-      <c r="G132" t="n">
-        <v>849.0833333333334</v>
-      </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
-        <v>131</v>
-      </c>
-      <c r="B133" t="n">
-        <v>842</v>
-      </c>
-      <c r="C133" t="n">
-        <v>842</v>
-      </c>
-      <c r="D133" t="n">
-        <v>842</v>
-      </c>
-      <c r="E133" t="n">
-        <v>842</v>
-      </c>
-      <c r="F133" t="n">
-        <v>128.4198</v>
-      </c>
-      <c r="G133" t="n">
-        <v>848.9166666666666</v>
-      </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
-        <v>132</v>
-      </c>
-      <c r="B134" t="n">
-        <v>841</v>
-      </c>
-      <c r="C134" t="n">
-        <v>841</v>
-      </c>
-      <c r="D134" t="n">
-        <v>841</v>
-      </c>
-      <c r="E134" t="n">
-        <v>840</v>
-      </c>
-      <c r="F134" t="n">
-        <v>865.6896</v>
-      </c>
-      <c r="G134" t="n">
-        <v>848.7333333333333</v>
-      </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
-        <v>133</v>
-      </c>
-      <c r="B135" t="n">
-        <v>838</v>
-      </c>
-      <c r="C135" t="n">
-        <v>839</v>
-      </c>
-      <c r="D135" t="n">
-        <v>839</v>
-      </c>
-      <c r="E135" t="n">
-        <v>837</v>
-      </c>
-      <c r="F135" t="n">
-        <v>400.9759</v>
-      </c>
-      <c r="G135" t="n">
-        <v>848.5166666666667</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
-        <v>134</v>
-      </c>
-      <c r="B136" t="n">
-        <v>837</v>
-      </c>
-      <c r="C136" t="n">
-        <v>837</v>
-      </c>
-      <c r="D136" t="n">
-        <v>837</v>
-      </c>
-      <c r="E136" t="n">
-        <v>837</v>
-      </c>
-      <c r="F136" t="n">
-        <v>300.1512</v>
-      </c>
-      <c r="G136" t="n">
-        <v>848.2166666666667</v>
-      </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
-        <v>135</v>
-      </c>
-      <c r="B137" t="n">
-        <v>837</v>
-      </c>
-      <c r="C137" t="n">
-        <v>833</v>
-      </c>
-      <c r="D137" t="n">
-        <v>837</v>
-      </c>
-      <c r="E137" t="n">
-        <v>833</v>
-      </c>
-      <c r="F137" t="n">
-        <v>102.373</v>
-      </c>
-      <c r="G137" t="n">
-        <v>847.9333333333333</v>
-      </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
-        <v>136</v>
-      </c>
-      <c r="B138" t="n">
-        <v>833</v>
-      </c>
-      <c r="C138" t="n">
-        <v>833</v>
-      </c>
-      <c r="D138" t="n">
-        <v>833</v>
-      </c>
-      <c r="E138" t="n">
-        <v>833</v>
-      </c>
-      <c r="F138" t="n">
-        <v>33.07</v>
-      </c>
-      <c r="G138" t="n">
-        <v>847.55</v>
-      </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
-        <v>137</v>
-      </c>
-      <c r="B139" t="n">
-        <v>836</v>
-      </c>
-      <c r="C139" t="n">
-        <v>836</v>
-      </c>
-      <c r="D139" t="n">
-        <v>836</v>
-      </c>
-      <c r="E139" t="n">
-        <v>836</v>
-      </c>
-      <c r="F139" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="G139" t="n">
-        <v>847.2333333333333</v>
-      </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
-        <v>138</v>
-      </c>
-      <c r="B140" t="n">
-        <v>834</v>
-      </c>
-      <c r="C140" t="n">
-        <v>834</v>
-      </c>
-      <c r="D140" t="n">
-        <v>834</v>
-      </c>
-      <c r="E140" t="n">
-        <v>834</v>
-      </c>
-      <c r="F140" t="n">
-        <v>63.0026</v>
-      </c>
-      <c r="G140" t="n">
-        <v>846.8833333333333</v>
-      </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
-        <v>139</v>
-      </c>
-      <c r="B141" t="n">
-        <v>835</v>
-      </c>
-      <c r="C141" t="n">
-        <v>835</v>
-      </c>
-      <c r="D141" t="n">
-        <v>835</v>
-      </c>
-      <c r="E141" t="n">
-        <v>835</v>
-      </c>
-      <c r="F141" t="n">
-        <v>101.04</v>
-      </c>
-      <c r="G141" t="n">
-        <v>846.55</v>
-      </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
-        <v>140</v>
-      </c>
-      <c r="B142" t="n">
-        <v>833</v>
-      </c>
-      <c r="C142" t="n">
-        <v>833</v>
-      </c>
-      <c r="D142" t="n">
-        <v>833</v>
-      </c>
-      <c r="E142" t="n">
-        <v>833</v>
-      </c>
-      <c r="F142" t="n">
-        <v>600</v>
-      </c>
-      <c r="G142" t="n">
-        <v>846.1333333333333</v>
-      </c>
-      <c r="H142" t="n">
-        <v>0</v>
-      </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
-        <v>141</v>
-      </c>
-      <c r="B143" t="n">
-        <v>835</v>
-      </c>
-      <c r="C143" t="n">
-        <v>835</v>
-      </c>
-      <c r="D143" t="n">
-        <v>835</v>
-      </c>
-      <c r="E143" t="n">
-        <v>835</v>
-      </c>
-      <c r="F143" t="n">
-        <v>6.3612</v>
-      </c>
-      <c r="G143" t="n">
-        <v>845.7666666666667</v>
-      </c>
-      <c r="H143" t="n">
-        <v>0</v>
-      </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>834</v>
-      </c>
-      <c r="C144" t="n">
-        <v>834</v>
-      </c>
-      <c r="D144" t="n">
-        <v>834</v>
-      </c>
-      <c r="E144" t="n">
-        <v>834</v>
-      </c>
-      <c r="F144" t="n">
-        <v>1.8368</v>
-      </c>
-      <c r="G144" t="n">
-        <v>845.4166666666666</v>
-      </c>
-      <c r="H144" t="n">
-        <v>0</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>834</v>
-      </c>
-      <c r="C145" t="n">
-        <v>834</v>
-      </c>
-      <c r="D145" t="n">
-        <v>834</v>
-      </c>
-      <c r="E145" t="n">
-        <v>834</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.3434</v>
-      </c>
-      <c r="G145" t="n">
-        <v>845.1333333333333</v>
-      </c>
-      <c r="H145" t="n">
-        <v>0</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>834</v>
-      </c>
-      <c r="C146" t="n">
-        <v>833</v>
-      </c>
-      <c r="D146" t="n">
-        <v>834</v>
-      </c>
-      <c r="E146" t="n">
-        <v>833</v>
-      </c>
-      <c r="F146" t="n">
-        <v>63.022</v>
-      </c>
-      <c r="G146" t="n">
-        <v>844.7666666666667</v>
-      </c>
-      <c r="H146" t="n">
-        <v>0</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
-        <v>145</v>
-      </c>
-      <c r="B147" t="n">
-        <v>833</v>
-      </c>
-      <c r="C147" t="n">
-        <v>836</v>
-      </c>
-      <c r="D147" t="n">
-        <v>836</v>
-      </c>
-      <c r="E147" t="n">
-        <v>833</v>
-      </c>
-      <c r="F147" t="n">
-        <v>21.7108</v>
-      </c>
-      <c r="G147" t="n">
-        <v>844.5</v>
-      </c>
-      <c r="H147" t="n">
-        <v>0</v>
-      </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -5759,22 +5583,22 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="C148" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D148" t="n">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="E148" t="n">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="F148" t="n">
-        <v>52.712</v>
+        <v>21.7108</v>
       </c>
       <c r="G148" t="n">
-        <v>844.3</v>
+        <v>844.5</v>
       </c>
       <c r="H148" t="n">
         <v>0</v>
@@ -5783,7 +5607,9 @@
         <v>0</v>
       </c>
       <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="K148" t="n">
+        <v>835</v>
+      </c>
       <c r="L148" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5810,10 +5636,10 @@
         <v>838</v>
       </c>
       <c r="F149" t="n">
-        <v>111.05</v>
+        <v>52.712</v>
       </c>
       <c r="G149" t="n">
-        <v>844.05</v>
+        <v>844.3</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
@@ -5822,7 +5648,9 @@
         <v>0</v>
       </c>
       <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="K149" t="n">
+        <v>835</v>
+      </c>
       <c r="L149" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5849,10 +5677,10 @@
         <v>838</v>
       </c>
       <c r="F150" t="n">
-        <v>2.3159</v>
+        <v>111.05</v>
       </c>
       <c r="G150" t="n">
-        <v>843.8166666666667</v>
+        <v>844.05</v>
       </c>
       <c r="H150" t="n">
         <v>0</v>
@@ -5861,7 +5689,9 @@
         <v>0</v>
       </c>
       <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="K150" t="n">
+        <v>835</v>
+      </c>
       <c r="L150" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5888,10 +5718,10 @@
         <v>838</v>
       </c>
       <c r="F151" t="n">
-        <v>217.1941</v>
+        <v>2.3159</v>
       </c>
       <c r="G151" t="n">
-        <v>843.55</v>
+        <v>843.8166666666667</v>
       </c>
       <c r="H151" t="n">
         <v>0</v>
@@ -5900,7 +5730,9 @@
         <v>0</v>
       </c>
       <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="K151" t="n">
+        <v>835</v>
+      </c>
       <c r="L151" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5915,22 +5747,22 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="C152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="D152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E152" t="n">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="F152" t="n">
-        <v>3.1357</v>
+        <v>217.1941</v>
       </c>
       <c r="G152" t="n">
-        <v>843.3666666666667</v>
+        <v>843.55</v>
       </c>
       <c r="H152" t="n">
         <v>0</v>
@@ -5939,7 +5771,9 @@
         <v>0</v>
       </c>
       <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="K152" t="n">
+        <v>835</v>
+      </c>
       <c r="L152" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5966,10 +5800,10 @@
         <v>839</v>
       </c>
       <c r="F153" t="n">
-        <v>296.8643</v>
+        <v>3.1357</v>
       </c>
       <c r="G153" t="n">
-        <v>843.2666666666667</v>
+        <v>843.3666666666667</v>
       </c>
       <c r="H153" t="n">
         <v>0</v>
@@ -5978,7 +5812,9 @@
         <v>0</v>
       </c>
       <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="K153" t="n">
+        <v>835</v>
+      </c>
       <c r="L153" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -5993,22 +5829,22 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="C154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="E154" t="n">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="F154" t="n">
-        <v>348.5494</v>
+        <v>296.8643</v>
       </c>
       <c r="G154" t="n">
-        <v>843.2</v>
+        <v>843.2666666666667</v>
       </c>
       <c r="H154" t="n">
         <v>0</v>
@@ -6017,7 +5853,9 @@
         <v>0</v>
       </c>
       <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="K154" t="n">
+        <v>835</v>
+      </c>
       <c r="L154" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6032,22 +5870,22 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="C155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="E155" t="n">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="F155" t="n">
-        <v>20</v>
+        <v>348.5494</v>
       </c>
       <c r="G155" t="n">
-        <v>843.1166666666667</v>
+        <v>843.2</v>
       </c>
       <c r="H155" t="n">
         <v>0</v>
@@ -6056,7 +5894,9 @@
         <v>0</v>
       </c>
       <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="K155" t="n">
+        <v>835</v>
+      </c>
       <c r="L155" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6071,22 +5911,22 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="C156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="E156" t="n">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="F156" t="n">
-        <v>100.1833</v>
+        <v>20</v>
       </c>
       <c r="G156" t="n">
-        <v>843.0166666666667</v>
+        <v>843.1166666666667</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -6095,7 +5935,9 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>835</v>
+      </c>
       <c r="L156" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6113,19 +5955,19 @@
         <v>843</v>
       </c>
       <c r="C157" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="D157" t="n">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E157" t="n">
         <v>843</v>
       </c>
       <c r="F157" t="n">
-        <v>1736.357</v>
+        <v>100.1833</v>
       </c>
       <c r="G157" t="n">
-        <v>842.9333333333333</v>
+        <v>843.0166666666667</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -6134,7 +5976,9 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>835</v>
+      </c>
       <c r="L157" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6149,22 +5993,22 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="C158" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="D158" t="n">
-        <v>848</v>
+        <v>844</v>
       </c>
       <c r="E158" t="n">
-        <v>848</v>
+        <v>843</v>
       </c>
       <c r="F158" t="n">
-        <v>8.932700000000001</v>
+        <v>1736.357</v>
       </c>
       <c r="G158" t="n">
-        <v>842.8833333333333</v>
+        <v>842.9333333333333</v>
       </c>
       <c r="H158" t="n">
         <v>0</v>
@@ -6173,7 +6017,9 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>835</v>
+      </c>
       <c r="L158" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6200,10 +6046,10 @@
         <v>848</v>
       </c>
       <c r="F159" t="n">
-        <v>31.0673</v>
+        <v>8.932700000000001</v>
       </c>
       <c r="G159" t="n">
-        <v>842.85</v>
+        <v>842.8833333333333</v>
       </c>
       <c r="H159" t="n">
         <v>0</v>
@@ -6212,7 +6058,9 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>835</v>
+      </c>
       <c r="L159" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6230,19 +6078,19 @@
         <v>848</v>
       </c>
       <c r="C160" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="D160" t="n">
         <v>848</v>
       </c>
       <c r="E160" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="F160" t="n">
-        <v>90.0026</v>
+        <v>31.0673</v>
       </c>
       <c r="G160" t="n">
-        <v>842.8166666666667</v>
+        <v>842.85</v>
       </c>
       <c r="H160" t="n">
         <v>0</v>
@@ -6251,7 +6099,9 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>835</v>
+      </c>
       <c r="L160" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6266,22 +6116,22 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C161" t="n">
         <v>847</v>
       </c>
       <c r="D161" t="n">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="E161" t="n">
         <v>847</v>
       </c>
       <c r="F161" t="n">
-        <v>38.6765</v>
+        <v>90.0026</v>
       </c>
       <c r="G161" t="n">
-        <v>842.85</v>
+        <v>842.8166666666667</v>
       </c>
       <c r="H161" t="n">
         <v>0</v>
@@ -6290,7 +6140,9 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>835</v>
+      </c>
       <c r="L161" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6305,19 +6157,19 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="D162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E162" t="n">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="F162" t="n">
-        <v>247.7959</v>
+        <v>38.6765</v>
       </c>
       <c r="G162" t="n">
         <v>842.85</v>
@@ -6329,7 +6181,9 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>835</v>
+      </c>
       <c r="L162" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6344,22 +6198,22 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="C163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="E163" t="n">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="F163" t="n">
-        <v>779.1969</v>
+        <v>247.7959</v>
       </c>
       <c r="G163" t="n">
-        <v>842.8666666666667</v>
+        <v>842.85</v>
       </c>
       <c r="H163" t="n">
         <v>0</v>
@@ -6368,7 +6222,9 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>835</v>
+      </c>
       <c r="L163" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6383,22 +6239,22 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="C164" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="D164" t="n">
-        <v>853</v>
+        <v>846</v>
       </c>
       <c r="E164" t="n">
-        <v>852</v>
+        <v>846</v>
       </c>
       <c r="F164" t="n">
-        <v>352.0804220398593</v>
+        <v>779.1969</v>
       </c>
       <c r="G164" t="n">
-        <v>843</v>
+        <v>842.8666666666667</v>
       </c>
       <c r="H164" t="n">
         <v>0</v>
@@ -6407,7 +6263,9 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>835</v>
+      </c>
       <c r="L164" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6422,22 +6280,22 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="C165" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="D165" t="n">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="E165" t="n">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="F165" t="n">
-        <v>12</v>
+        <v>352.0804220398593</v>
       </c>
       <c r="G165" t="n">
-        <v>843.0333333333333</v>
+        <v>843</v>
       </c>
       <c r="H165" t="n">
         <v>0</v>
@@ -6446,7 +6304,9 @@
         <v>0</v>
       </c>
       <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>835</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6461,19 +6321,19 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="E166" t="n">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F166" t="n">
-        <v>537.7658</v>
+        <v>12</v>
       </c>
       <c r="G166" t="n">
         <v>843.0333333333333</v>
@@ -6485,7 +6345,9 @@
         <v>0</v>
       </c>
       <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>835</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6500,22 +6362,22 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="C167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="D167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="E167" t="n">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="F167" t="n">
-        <v>30.3227</v>
+        <v>537.7658</v>
       </c>
       <c r="G167" t="n">
-        <v>842.9833333333333</v>
+        <v>843.0333333333333</v>
       </c>
       <c r="H167" t="n">
         <v>0</v>
@@ -6524,7 +6386,9 @@
         <v>0</v>
       </c>
       <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>835</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6551,10 +6415,10 @@
         <v>848</v>
       </c>
       <c r="F168" t="n">
-        <v>5</v>
+        <v>30.3227</v>
       </c>
       <c r="G168" t="n">
-        <v>843.0333333333333</v>
+        <v>842.9833333333333</v>
       </c>
       <c r="H168" t="n">
         <v>0</v>
@@ -6563,7 +6427,9 @@
         <v>0</v>
       </c>
       <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>835</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6590,10 +6456,10 @@
         <v>848</v>
       </c>
       <c r="F169" t="n">
-        <v>41.6773</v>
+        <v>5</v>
       </c>
       <c r="G169" t="n">
-        <v>842.9833333333333</v>
+        <v>843.0333333333333</v>
       </c>
       <c r="H169" t="n">
         <v>0</v>
@@ -6602,7 +6468,9 @@
         <v>0</v>
       </c>
       <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>835</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6629,10 +6497,10 @@
         <v>848</v>
       </c>
       <c r="F170" t="n">
-        <v>215.55</v>
+        <v>41.6773</v>
       </c>
       <c r="G170" t="n">
-        <v>842.9166666666666</v>
+        <v>842.9833333333333</v>
       </c>
       <c r="H170" t="n">
         <v>0</v>
@@ -6641,7 +6509,9 @@
         <v>0</v>
       </c>
       <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>835</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6668,10 +6538,10 @@
         <v>848</v>
       </c>
       <c r="F171" t="n">
-        <v>40.06</v>
+        <v>215.55</v>
       </c>
       <c r="G171" t="n">
-        <v>842.8333333333334</v>
+        <v>842.9166666666666</v>
       </c>
       <c r="H171" t="n">
         <v>0</v>
@@ -6680,7 +6550,9 @@
         <v>0</v>
       </c>
       <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>835</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6707,10 +6579,10 @@
         <v>848</v>
       </c>
       <c r="F172" t="n">
-        <v>207.4375</v>
+        <v>40.06</v>
       </c>
       <c r="G172" t="n">
-        <v>842.75</v>
+        <v>842.8333333333334</v>
       </c>
       <c r="H172" t="n">
         <v>0</v>
@@ -6719,7 +6591,9 @@
         <v>0</v>
       </c>
       <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>835</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6734,22 +6608,22 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="C173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="D173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E173" t="n">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="F173" t="n">
-        <v>149.8057</v>
+        <v>207.4375</v>
       </c>
       <c r="G173" t="n">
-        <v>842.7833333333333</v>
+        <v>842.75</v>
       </c>
       <c r="H173" t="n">
         <v>0</v>
@@ -6758,7 +6632,9 @@
         <v>0</v>
       </c>
       <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>835</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6785,7 +6661,7 @@
         <v>851</v>
       </c>
       <c r="F174" t="n">
-        <v>82.5018</v>
+        <v>149.8057</v>
       </c>
       <c r="G174" t="n">
         <v>842.7833333333333</v>
@@ -6797,7 +6673,9 @@
         <v>0</v>
       </c>
       <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>835</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,22 +6690,22 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="C175" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="D175" t="n">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="E175" t="n">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F175" t="n">
-        <v>1115.2551</v>
+        <v>82.5018</v>
       </c>
       <c r="G175" t="n">
-        <v>842.8333333333334</v>
+        <v>842.7833333333333</v>
       </c>
       <c r="H175" t="n">
         <v>0</v>
@@ -6836,7 +6714,9 @@
         <v>0</v>
       </c>
       <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>835</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6851,22 +6731,22 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="C176" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="D176" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="E176" t="n">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F176" t="n">
-        <v>28.5896</v>
+        <v>1115.2551</v>
       </c>
       <c r="G176" t="n">
-        <v>842.9166666666666</v>
+        <v>842.8333333333334</v>
       </c>
       <c r="H176" t="n">
         <v>0</v>
@@ -6875,7 +6755,9 @@
         <v>0</v>
       </c>
       <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>835</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6902,10 +6784,10 @@
         <v>855</v>
       </c>
       <c r="F177" t="n">
-        <v>594.4678</v>
+        <v>28.5896</v>
       </c>
       <c r="G177" t="n">
-        <v>843.0333333333333</v>
+        <v>842.9166666666666</v>
       </c>
       <c r="H177" t="n">
         <v>0</v>
@@ -6914,7 +6796,9 @@
         <v>0</v>
       </c>
       <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>835</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6929,22 +6813,22 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="C178" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D178" t="n">
         <v>855</v>
       </c>
       <c r="E178" t="n">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="F178" t="n">
-        <v>721.054</v>
+        <v>594.4678</v>
       </c>
       <c r="G178" t="n">
-        <v>843.1166666666667</v>
+        <v>843.0333333333333</v>
       </c>
       <c r="H178" t="n">
         <v>0</v>
@@ -6953,7 +6837,9 @@
         <v>0</v>
       </c>
       <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>835</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6968,22 +6854,22 @@
         <v>177</v>
       </c>
       <c r="B179" t="n">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C179" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D179" t="n">
         <v>855</v>
       </c>
       <c r="E179" t="n">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="F179" t="n">
-        <v>101.0093</v>
+        <v>721.054</v>
       </c>
       <c r="G179" t="n">
-        <v>843.1833333333333</v>
+        <v>843.1166666666667</v>
       </c>
       <c r="H179" t="n">
         <v>0</v>
@@ -6992,7 +6878,9 @@
         <v>0</v>
       </c>
       <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>835</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7010,19 +6898,19 @@
         <v>855</v>
       </c>
       <c r="C180" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="D180" t="n">
         <v>855</v>
       </c>
       <c r="E180" t="n">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="F180" t="n">
-        <v>196.3218</v>
+        <v>101.0093</v>
       </c>
       <c r="G180" t="n">
-        <v>843.2666666666667</v>
+        <v>843.1833333333333</v>
       </c>
       <c r="H180" t="n">
         <v>0</v>
@@ -7031,7 +6919,9 @@
         <v>0</v>
       </c>
       <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>835</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7049,19 +6939,19 @@
         <v>855</v>
       </c>
       <c r="C181" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="D181" t="n">
         <v>855</v>
       </c>
       <c r="E181" t="n">
-        <v>855</v>
+        <v>851</v>
       </c>
       <c r="F181" t="n">
-        <v>25.5245</v>
+        <v>196.3218</v>
       </c>
       <c r="G181" t="n">
-        <v>843.4333333333333</v>
+        <v>843.2666666666667</v>
       </c>
       <c r="H181" t="n">
         <v>0</v>
@@ -7070,7 +6960,9 @@
         <v>0</v>
       </c>
       <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>835</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7097,10 +6989,10 @@
         <v>855</v>
       </c>
       <c r="F182" t="n">
-        <v>0.7331</v>
+        <v>25.5245</v>
       </c>
       <c r="G182" t="n">
-        <v>843.6166666666667</v>
+        <v>843.4333333333333</v>
       </c>
       <c r="H182" t="n">
         <v>0</v>
@@ -7109,7 +7001,9 @@
         <v>0</v>
       </c>
       <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>835</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7124,22 +7018,22 @@
         <v>181</v>
       </c>
       <c r="B183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="D183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="E183" t="n">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F183" t="n">
-        <v>100</v>
+        <v>0.7331</v>
       </c>
       <c r="G183" t="n">
-        <v>843.7833333333333</v>
+        <v>843.6166666666667</v>
       </c>
       <c r="H183" t="n">
         <v>0</v>
@@ -7148,7 +7042,9 @@
         <v>0</v>
       </c>
       <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>835</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7166,19 +7062,19 @@
         <v>856</v>
       </c>
       <c r="C184" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D184" t="n">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="E184" t="n">
         <v>856</v>
       </c>
       <c r="F184" t="n">
-        <v>5062.8573</v>
+        <v>100</v>
       </c>
       <c r="G184" t="n">
-        <v>844.0333333333333</v>
+        <v>843.7833333333333</v>
       </c>
       <c r="H184" t="n">
         <v>0</v>
@@ -7187,7 +7083,9 @@
         <v>0</v>
       </c>
       <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>835</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7202,22 +7100,22 @@
         <v>183</v>
       </c>
       <c r="B185" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C185" t="n">
         <v>858</v>
       </c>
       <c r="D185" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E185" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F185" t="n">
-        <v>125.5249</v>
+        <v>5062.8573</v>
       </c>
       <c r="G185" t="n">
-        <v>844.2833333333333</v>
+        <v>844.0333333333333</v>
       </c>
       <c r="H185" t="n">
         <v>0</v>
@@ -7226,7 +7124,9 @@
         <v>0</v>
       </c>
       <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="K185" t="n">
+        <v>835</v>
+      </c>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7241,22 +7141,22 @@
         <v>184</v>
       </c>
       <c r="B186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="D186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E186" t="n">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="F186" t="n">
-        <v>89.8366</v>
+        <v>125.5249</v>
       </c>
       <c r="G186" t="n">
-        <v>844.5166666666667</v>
+        <v>844.2833333333333</v>
       </c>
       <c r="H186" t="n">
         <v>0</v>
@@ -7265,7 +7165,9 @@
         <v>0</v>
       </c>
       <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>835</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7292,10 +7194,10 @@
         <v>857</v>
       </c>
       <c r="F187" t="n">
-        <v>2.1912</v>
+        <v>89.8366</v>
       </c>
       <c r="G187" t="n">
-        <v>844.7833333333333</v>
+        <v>844.5166666666667</v>
       </c>
       <c r="H187" t="n">
         <v>0</v>
@@ -7304,7 +7206,9 @@
         <v>0</v>
       </c>
       <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>835</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7322,19 +7226,19 @@
         <v>857</v>
       </c>
       <c r="C188" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="D188" t="n">
         <v>857</v>
       </c>
       <c r="E188" t="n">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="F188" t="n">
-        <v>1176.9107</v>
+        <v>2.1912</v>
       </c>
       <c r="G188" t="n">
-        <v>845</v>
+        <v>844.7833333333333</v>
       </c>
       <c r="H188" t="n">
         <v>0</v>
@@ -7343,7 +7247,9 @@
         <v>0</v>
       </c>
       <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>835</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7358,22 +7264,22 @@
         <v>187</v>
       </c>
       <c r="B189" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C189" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D189" t="n">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="E189" t="n">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="F189" t="n">
-        <v>456.7565</v>
+        <v>1176.9107</v>
       </c>
       <c r="G189" t="n">
-        <v>845.25</v>
+        <v>845</v>
       </c>
       <c r="H189" t="n">
         <v>0</v>
@@ -7382,7 +7288,9 @@
         <v>0</v>
       </c>
       <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>835</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7397,22 +7305,22 @@
         <v>188</v>
       </c>
       <c r="B190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="D190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="E190" t="n">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F190" t="n">
-        <v>635.0321</v>
+        <v>456.7565</v>
       </c>
       <c r="G190" t="n">
-        <v>845.5333333333333</v>
+        <v>845.25</v>
       </c>
       <c r="H190" t="n">
         <v>0</v>
@@ -7421,7 +7329,9 @@
         <v>0</v>
       </c>
       <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>835</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7436,22 +7346,22 @@
         <v>189</v>
       </c>
       <c r="B191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="D191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="E191" t="n">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="F191" t="n">
-        <v>119.1806</v>
+        <v>635.0321</v>
       </c>
       <c r="G191" t="n">
-        <v>845.8333333333334</v>
+        <v>845.5333333333333</v>
       </c>
       <c r="H191" t="n">
         <v>0</v>
@@ -7460,7 +7370,9 @@
         <v>0</v>
       </c>
       <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>835</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7487,10 +7399,10 @@
         <v>858</v>
       </c>
       <c r="F192" t="n">
-        <v>219.9393</v>
+        <v>119.1806</v>
       </c>
       <c r="G192" t="n">
-        <v>846.0833333333334</v>
+        <v>845.8333333333334</v>
       </c>
       <c r="H192" t="n">
         <v>0</v>
@@ -7499,7 +7411,9 @@
         <v>0</v>
       </c>
       <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>835</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7526,10 +7440,10 @@
         <v>858</v>
       </c>
       <c r="F193" t="n">
-        <v>37.0518</v>
+        <v>219.9393</v>
       </c>
       <c r="G193" t="n">
-        <v>846.35</v>
+        <v>846.0833333333334</v>
       </c>
       <c r="H193" t="n">
         <v>0</v>
@@ -7538,7 +7452,9 @@
         <v>0</v>
       </c>
       <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>835</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7553,22 +7469,22 @@
         <v>192</v>
       </c>
       <c r="B194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E194" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F194" t="n">
-        <v>46.554</v>
+        <v>37.0518</v>
       </c>
       <c r="G194" t="n">
-        <v>846.65</v>
+        <v>846.35</v>
       </c>
       <c r="H194" t="n">
         <v>0</v>
@@ -7577,7 +7493,9 @@
         <v>0</v>
       </c>
       <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>835</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7604,10 +7522,10 @@
         <v>859</v>
       </c>
       <c r="F195" t="n">
-        <v>6.5095</v>
+        <v>46.554</v>
       </c>
       <c r="G195" t="n">
-        <v>846.9833333333333</v>
+        <v>846.65</v>
       </c>
       <c r="H195" t="n">
         <v>0</v>
@@ -7616,7 +7534,9 @@
         <v>0</v>
       </c>
       <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>835</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7643,10 +7563,10 @@
         <v>859</v>
       </c>
       <c r="F196" t="n">
-        <v>2.7898</v>
+        <v>6.5095</v>
       </c>
       <c r="G196" t="n">
-        <v>847.35</v>
+        <v>846.9833333333333</v>
       </c>
       <c r="H196" t="n">
         <v>0</v>
@@ -7655,7 +7575,9 @@
         <v>0</v>
       </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>835</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7670,22 +7592,22 @@
         <v>195</v>
       </c>
       <c r="B197" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C197" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="D197" t="n">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="E197" t="n">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="F197" t="n">
-        <v>770.4573</v>
+        <v>2.7898</v>
       </c>
       <c r="G197" t="n">
-        <v>847.8166666666667</v>
+        <v>847.35</v>
       </c>
       <c r="H197" t="n">
         <v>0</v>
@@ -7694,7 +7616,9 @@
         <v>0</v>
       </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>835</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7712,19 +7636,19 @@
         <v>860</v>
       </c>
       <c r="C198" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D198" t="n">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E198" t="n">
         <v>860</v>
       </c>
       <c r="F198" t="n">
-        <v>231.0312</v>
+        <v>770.4573</v>
       </c>
       <c r="G198" t="n">
-        <v>848.2666666666667</v>
+        <v>847.8166666666667</v>
       </c>
       <c r="H198" t="n">
         <v>0</v>
@@ -7733,7 +7657,9 @@
         <v>0</v>
       </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>835</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7748,22 +7674,22 @@
         <v>197</v>
       </c>
       <c r="B199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="D199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="E199" t="n">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F199" t="n">
-        <v>1.9458</v>
+        <v>231.0312</v>
       </c>
       <c r="G199" t="n">
-        <v>848.65</v>
+        <v>848.2666666666667</v>
       </c>
       <c r="H199" t="n">
         <v>0</v>
@@ -7772,7 +7698,9 @@
         <v>0</v>
       </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>835</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,22 +7715,22 @@
         <v>198</v>
       </c>
       <c r="B200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="E200" t="n">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="F200" t="n">
-        <v>36.7224</v>
+        <v>1.9458</v>
       </c>
       <c r="G200" t="n">
-        <v>849.05</v>
+        <v>848.65</v>
       </c>
       <c r="H200" t="n">
         <v>0</v>
@@ -7811,7 +7739,9 @@
         <v>0</v>
       </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>835</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7826,22 +7756,22 @@
         <v>199</v>
       </c>
       <c r="B201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="D201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="E201" t="n">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="F201" t="n">
-        <v>47.2299</v>
+        <v>36.7224</v>
       </c>
       <c r="G201" t="n">
-        <v>849.45</v>
+        <v>849.05</v>
       </c>
       <c r="H201" t="n">
         <v>0</v>
@@ -7850,7 +7780,9 @@
         <v>0</v>
       </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>835</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7865,22 +7797,22 @@
         <v>200</v>
       </c>
       <c r="B202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="C202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="D202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="E202" t="n">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="F202" t="n">
-        <v>11.7706</v>
+        <v>47.2299</v>
       </c>
       <c r="G202" t="n">
-        <v>849.8333333333334</v>
+        <v>849.45</v>
       </c>
       <c r="H202" t="n">
         <v>0</v>
@@ -7889,7 +7821,9 @@
         <v>0</v>
       </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>835</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7904,22 +7838,22 @@
         <v>201</v>
       </c>
       <c r="B203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="C203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="D203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="E203" t="n">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F203" t="n">
-        <v>83.5998</v>
+        <v>11.7706</v>
       </c>
       <c r="G203" t="n">
-        <v>850.2166666666667</v>
+        <v>849.8333333333334</v>
       </c>
       <c r="H203" t="n">
         <v>0</v>
@@ -7928,7 +7862,9 @@
         <v>0</v>
       </c>
       <c r="J203" t="inlineStr"/>
-      <c r="K203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>835</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7955,10 +7891,10 @@
         <v>858</v>
       </c>
       <c r="F204" t="n">
-        <v>653.9586</v>
+        <v>83.5998</v>
       </c>
       <c r="G204" t="n">
-        <v>850.6166666666667</v>
+        <v>850.2166666666667</v>
       </c>
       <c r="H204" t="n">
         <v>0</v>
@@ -7967,7 +7903,9 @@
         <v>0</v>
       </c>
       <c r="J204" t="inlineStr"/>
-      <c r="K204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>835</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7994,10 +7932,10 @@
         <v>858</v>
       </c>
       <c r="F205" t="n">
-        <v>182.59</v>
+        <v>653.9586</v>
       </c>
       <c r="G205" t="n">
-        <v>851.0166666666667</v>
+        <v>850.6166666666667</v>
       </c>
       <c r="H205" t="n">
         <v>0</v>
@@ -8006,7 +7944,9 @@
         <v>0</v>
       </c>
       <c r="J205" t="inlineStr"/>
-      <c r="K205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>835</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8024,19 +7964,19 @@
         <v>858</v>
       </c>
       <c r="C206" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="D206" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="E206" t="n">
         <v>858</v>
       </c>
       <c r="F206" t="n">
-        <v>2376.5</v>
+        <v>182.59</v>
       </c>
       <c r="G206" t="n">
-        <v>851.4666666666667</v>
+        <v>851.0166666666667</v>
       </c>
       <c r="H206" t="n">
         <v>0</v>
@@ -8045,7 +7985,9 @@
         <v>0</v>
       </c>
       <c r="J206" t="inlineStr"/>
-      <c r="K206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>835</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8060,22 +8002,22 @@
         <v>205</v>
       </c>
       <c r="B207" t="n">
+        <v>858</v>
+      </c>
+      <c r="C207" t="n">
         <v>860</v>
       </c>
-      <c r="C207" t="n">
-        <v>874</v>
-      </c>
       <c r="D207" t="n">
-        <v>874</v>
+        <v>860</v>
       </c>
       <c r="E207" t="n">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F207" t="n">
-        <v>3914.2992</v>
+        <v>2376.5</v>
       </c>
       <c r="G207" t="n">
-        <v>852.1</v>
+        <v>851.4666666666667</v>
       </c>
       <c r="H207" t="n">
         <v>0</v>
@@ -8084,7 +8026,9 @@
         <v>0</v>
       </c>
       <c r="J207" t="inlineStr"/>
-      <c r="K207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>835</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8099,22 +8043,22 @@
         <v>206</v>
       </c>
       <c r="B208" t="n">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="C208" t="n">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="D208" t="n">
-        <v>911</v>
+        <v>874</v>
       </c>
       <c r="E208" t="n">
-        <v>883</v>
+        <v>860</v>
       </c>
       <c r="F208" t="n">
-        <v>1308.8069</v>
+        <v>3914.2992</v>
       </c>
       <c r="G208" t="n">
-        <v>853.3166666666667</v>
+        <v>852.1</v>
       </c>
       <c r="H208" t="n">
         <v>0</v>
@@ -8123,7 +8067,9 @@
         <v>0</v>
       </c>
       <c r="J208" t="inlineStr"/>
-      <c r="K208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>835</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8138,7 +8084,7 @@
         <v>207</v>
       </c>
       <c r="B209" t="n">
-        <v>906</v>
+        <v>883</v>
       </c>
       <c r="C209" t="n">
         <v>911</v>
@@ -8147,13 +8093,13 @@
         <v>911</v>
       </c>
       <c r="E209" t="n">
-        <v>898</v>
+        <v>883</v>
       </c>
       <c r="F209" t="n">
-        <v>3896.1539</v>
+        <v>1308.8069</v>
       </c>
       <c r="G209" t="n">
-        <v>854.5333333333333</v>
+        <v>853.3166666666667</v>
       </c>
       <c r="H209" t="n">
         <v>0</v>
@@ -8162,7 +8108,9 @@
         <v>0</v>
       </c>
       <c r="J209" t="inlineStr"/>
-      <c r="K209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>835</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8177,22 +8125,22 @@
         <v>208</v>
       </c>
       <c r="B210" t="n">
+        <v>906</v>
+      </c>
+      <c r="C210" t="n">
         <v>911</v>
       </c>
-      <c r="C210" t="n">
-        <v>910</v>
-      </c>
       <c r="D210" t="n">
-        <v>921</v>
+        <v>911</v>
       </c>
       <c r="E210" t="n">
-        <v>910</v>
+        <v>898</v>
       </c>
       <c r="F210" t="n">
-        <v>5837.0189</v>
+        <v>3896.1539</v>
       </c>
       <c r="G210" t="n">
-        <v>855.7333333333333</v>
+        <v>854.5333333333333</v>
       </c>
       <c r="H210" t="n">
         <v>0</v>
@@ -8201,7 +8149,9 @@
         <v>0</v>
       </c>
       <c r="J210" t="inlineStr"/>
-      <c r="K210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>835</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8216,22 +8166,22 @@
         <v>209</v>
       </c>
       <c r="B211" t="n">
-        <v>906</v>
+        <v>911</v>
       </c>
       <c r="C211" t="n">
-        <v>906</v>
+        <v>910</v>
       </c>
       <c r="D211" t="n">
+        <v>921</v>
+      </c>
+      <c r="E211" t="n">
         <v>910</v>
       </c>
-      <c r="E211" t="n">
-        <v>906</v>
-      </c>
       <c r="F211" t="n">
-        <v>534.0507</v>
+        <v>5837.0189</v>
       </c>
       <c r="G211" t="n">
-        <v>856.8666666666667</v>
+        <v>855.7333333333333</v>
       </c>
       <c r="H211" t="n">
         <v>0</v>
@@ -8240,41 +8190,45 @@
         <v>1</v>
       </c>
       <c r="J211" t="inlineStr"/>
-      <c r="K211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>835</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M211" t="inlineStr"/>
+      <c r="M211" t="n">
+        <v>1.084820359281437</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
         <v>210</v>
       </c>
       <c r="B212" t="n">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C212" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="D212" t="n">
-        <v>905</v>
+        <v>910</v>
       </c>
       <c r="E212" t="n">
-        <v>898</v>
+        <v>906</v>
       </c>
       <c r="F212" t="n">
-        <v>104.0064</v>
+        <v>534.0507</v>
       </c>
       <c r="G212" t="n">
-        <v>857.85</v>
+        <v>856.8666666666667</v>
       </c>
       <c r="H212" t="n">
         <v>0</v>
       </c>
       <c r="I212" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr"/>
@@ -8288,22 +8242,22 @@
         <v>211</v>
       </c>
       <c r="B213" t="n">
-        <v>899</v>
+        <v>905</v>
       </c>
       <c r="C213" t="n">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D213" t="n">
-        <v>900</v>
+        <v>905</v>
       </c>
       <c r="E213" t="n">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="F213" t="n">
-        <v>331.603</v>
+        <v>104.0064</v>
       </c>
       <c r="G213" t="n">
-        <v>858.8666666666667</v>
+        <v>857.85</v>
       </c>
       <c r="H213" t="n">
         <v>0</v>
@@ -8323,22 +8277,22 @@
         <v>212</v>
       </c>
       <c r="B214" t="n">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="C214" t="n">
-        <v>916</v>
+        <v>900</v>
       </c>
       <c r="D214" t="n">
-        <v>917</v>
+        <v>900</v>
       </c>
       <c r="E214" t="n">
-        <v>908</v>
+        <v>899</v>
       </c>
       <c r="F214" t="n">
-        <v>429.5035</v>
+        <v>331.603</v>
       </c>
       <c r="G214" t="n">
-        <v>860.1166666666667</v>
+        <v>858.8666666666667</v>
       </c>
       <c r="H214" t="n">
         <v>0</v>
@@ -8358,22 +8312,22 @@
         <v>213</v>
       </c>
       <c r="B215" t="n">
+        <v>908</v>
+      </c>
+      <c r="C215" t="n">
         <v>916</v>
-      </c>
-      <c r="C215" t="n">
-        <v>912</v>
       </c>
       <c r="D215" t="n">
         <v>917</v>
       </c>
       <c r="E215" t="n">
-        <v>912</v>
+        <v>908</v>
       </c>
       <c r="F215" t="n">
-        <v>1058.2229</v>
+        <v>429.5035</v>
       </c>
       <c r="G215" t="n">
-        <v>861.25</v>
+        <v>860.1166666666667</v>
       </c>
       <c r="H215" t="n">
         <v>0</v>
@@ -8393,22 +8347,22 @@
         <v>214</v>
       </c>
       <c r="B216" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="C216" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="D216" t="n">
-        <v>913</v>
+        <v>917</v>
       </c>
       <c r="E216" t="n">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="F216" t="n">
-        <v>509.9998</v>
+        <v>1058.2229</v>
       </c>
       <c r="G216" t="n">
-        <v>862.35</v>
+        <v>861.25</v>
       </c>
       <c r="H216" t="n">
         <v>0</v>
@@ -8428,22 +8382,22 @@
         <v>215</v>
       </c>
       <c r="B217" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C217" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D217" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E217" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F217" t="n">
-        <v>512.9772</v>
+        <v>509.9998</v>
       </c>
       <c r="G217" t="n">
-        <v>863.45</v>
+        <v>862.35</v>
       </c>
       <c r="H217" t="n">
         <v>0</v>
@@ -8463,22 +8417,22 @@
         <v>216</v>
       </c>
       <c r="B218" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="C218" t="n">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="D218" t="n">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="E218" t="n">
-        <v>901</v>
+        <v>910</v>
       </c>
       <c r="F218" t="n">
-        <v>264.4999</v>
+        <v>512.9772</v>
       </c>
       <c r="G218" t="n">
-        <v>864.3333333333334</v>
+        <v>863.45</v>
       </c>
       <c r="H218" t="n">
         <v>0</v>
@@ -8498,22 +8452,22 @@
         <v>217</v>
       </c>
       <c r="B219" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="C219" t="n">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="D219" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="E219" t="n">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="F219" t="n">
-        <v>2103.3553</v>
+        <v>264.4999</v>
       </c>
       <c r="G219" t="n">
-        <v>865.2</v>
+        <v>864.3333333333334</v>
       </c>
       <c r="H219" t="n">
         <v>0</v>
@@ -8533,22 +8487,22 @@
         <v>218</v>
       </c>
       <c r="B220" t="n">
-        <v>909</v>
+        <v>900</v>
       </c>
       <c r="C220" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="D220" t="n">
-        <v>910</v>
+        <v>900</v>
       </c>
       <c r="E220" t="n">
-        <v>909</v>
+        <v>899</v>
       </c>
       <c r="F220" t="n">
-        <v>852.4121</v>
+        <v>2103.3553</v>
       </c>
       <c r="G220" t="n">
-        <v>866.25</v>
+        <v>865.2</v>
       </c>
       <c r="H220" t="n">
         <v>0</v>
@@ -8571,19 +8525,19 @@
         <v>909</v>
       </c>
       <c r="C221" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="D221" t="n">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="E221" t="n">
         <v>909</v>
       </c>
       <c r="F221" t="n">
-        <v>215.6743</v>
+        <v>852.4121</v>
       </c>
       <c r="G221" t="n">
-        <v>867.3166666666667</v>
+        <v>866.25</v>
       </c>
       <c r="H221" t="n">
         <v>0</v>
@@ -8603,22 +8557,22 @@
         <v>220</v>
       </c>
       <c r="B222" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C222" t="n">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D222" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E222" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="F222" t="n">
-        <v>1356.7933</v>
+        <v>215.6743</v>
       </c>
       <c r="G222" t="n">
-        <v>868.35</v>
+        <v>867.3166666666667</v>
       </c>
       <c r="H222" t="n">
         <v>0</v>
@@ -8641,19 +8595,19 @@
         <v>910</v>
       </c>
       <c r="C223" t="n">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="D223" t="n">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="E223" t="n">
         <v>910</v>
       </c>
       <c r="F223" t="n">
-        <v>38.433</v>
+        <v>1356.7933</v>
       </c>
       <c r="G223" t="n">
-        <v>869.5</v>
+        <v>868.35</v>
       </c>
       <c r="H223" t="n">
         <v>0</v>
@@ -8673,22 +8627,22 @@
         <v>222</v>
       </c>
       <c r="B224" t="n">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="C224" t="n">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="D224" t="n">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="E224" t="n">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="F224" t="n">
-        <v>1608.4435</v>
+        <v>38.433</v>
       </c>
       <c r="G224" t="n">
-        <v>870.5666666666667</v>
+        <v>869.5</v>
       </c>
       <c r="H224" t="n">
         <v>0</v>
@@ -8708,22 +8662,22 @@
         <v>223</v>
       </c>
       <c r="B225" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C225" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D225" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E225" t="n">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="F225" t="n">
-        <v>4336.2177</v>
+        <v>1608.4435</v>
       </c>
       <c r="G225" t="n">
-        <v>871.6833333333333</v>
+        <v>870.5666666666667</v>
       </c>
       <c r="H225" t="n">
         <v>0</v>
@@ -8743,22 +8697,22 @@
         <v>224</v>
       </c>
       <c r="B226" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="C226" t="n">
         <v>918</v>
       </c>
       <c r="D226" t="n">
-        <v>922</v>
+        <v>918</v>
       </c>
       <c r="E226" t="n">
         <v>918</v>
       </c>
       <c r="F226" t="n">
-        <v>1297.65</v>
+        <v>4336.2177</v>
       </c>
       <c r="G226" t="n">
-        <v>872.8166666666667</v>
+        <v>871.6833333333333</v>
       </c>
       <c r="H226" t="n">
         <v>0</v>
@@ -8778,22 +8732,22 @@
         <v>225</v>
       </c>
       <c r="B227" t="n">
+        <v>922</v>
+      </c>
+      <c r="C227" t="n">
         <v>918</v>
       </c>
-      <c r="C227" t="n">
-        <v>914</v>
-      </c>
       <c r="D227" t="n">
+        <v>922</v>
+      </c>
+      <c r="E227" t="n">
         <v>918</v>
       </c>
-      <c r="E227" t="n">
-        <v>914</v>
-      </c>
       <c r="F227" t="n">
-        <v>1514.0809</v>
+        <v>1297.65</v>
       </c>
       <c r="G227" t="n">
-        <v>873.9166666666666</v>
+        <v>872.8166666666667</v>
       </c>
       <c r="H227" t="n">
         <v>0</v>
@@ -8813,22 +8767,22 @@
         <v>226</v>
       </c>
       <c r="B228" t="n">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="C228" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="D228" t="n">
-        <v>909</v>
+        <v>918</v>
       </c>
       <c r="E228" t="n">
-        <v>909</v>
+        <v>914</v>
       </c>
       <c r="F228" t="n">
-        <v>2.5577</v>
+        <v>1514.0809</v>
       </c>
       <c r="G228" t="n">
-        <v>874.9333333333333</v>
+        <v>873.9166666666666</v>
       </c>
       <c r="H228" t="n">
         <v>0</v>
@@ -8857,13 +8811,13 @@
         <v>909</v>
       </c>
       <c r="E229" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F229" t="n">
-        <v>280.1084</v>
+        <v>2.5577</v>
       </c>
       <c r="G229" t="n">
-        <v>875.95</v>
+        <v>874.9333333333333</v>
       </c>
       <c r="H229" t="n">
         <v>0</v>
@@ -8883,22 +8837,22 @@
         <v>228</v>
       </c>
       <c r="B230" t="n">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C230" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="D230" t="n">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="E230" t="n">
-        <v>910</v>
+        <v>907</v>
       </c>
       <c r="F230" t="n">
-        <v>124.5426</v>
+        <v>280.1084</v>
       </c>
       <c r="G230" t="n">
-        <v>877.0666666666667</v>
+        <v>875.95</v>
       </c>
       <c r="H230" t="n">
         <v>0</v>
@@ -8918,22 +8872,22 @@
         <v>229</v>
       </c>
       <c r="B231" t="n">
+        <v>910</v>
+      </c>
+      <c r="C231" t="n">
         <v>915</v>
       </c>
-      <c r="C231" t="n">
-        <v>916</v>
-      </c>
       <c r="D231" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E231" t="n">
-        <v>915</v>
+        <v>910</v>
       </c>
       <c r="F231" t="n">
-        <v>1000</v>
+        <v>124.5426</v>
       </c>
       <c r="G231" t="n">
-        <v>878.2</v>
+        <v>877.0666666666667</v>
       </c>
       <c r="H231" t="n">
         <v>0</v>
@@ -8953,22 +8907,22 @@
         <v>230</v>
       </c>
       <c r="B232" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="C232" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="D232" t="n">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="E232" t="n">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="F232" t="n">
-        <v>22.9802</v>
+        <v>1000</v>
       </c>
       <c r="G232" t="n">
-        <v>879.2833333333333</v>
+        <v>878.2</v>
       </c>
       <c r="H232" t="n">
         <v>0</v>
@@ -8988,22 +8942,22 @@
         <v>231</v>
       </c>
       <c r="B233" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="C233" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="D233" t="n">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="E233" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="F233" t="n">
-        <v>249.0372</v>
+        <v>22.9802</v>
       </c>
       <c r="G233" t="n">
-        <v>880.25</v>
+        <v>879.2833333333333</v>
       </c>
       <c r="H233" t="n">
         <v>0</v>
@@ -9023,22 +8977,22 @@
         <v>232</v>
       </c>
       <c r="B234" t="n">
+        <v>910</v>
+      </c>
+      <c r="C234" t="n">
         <v>909</v>
       </c>
-      <c r="C234" t="n">
-        <v>913</v>
-      </c>
       <c r="D234" t="n">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="E234" t="n">
         <v>909</v>
       </c>
       <c r="F234" t="n">
-        <v>529.8261</v>
+        <v>249.0372</v>
       </c>
       <c r="G234" t="n">
-        <v>881.2833333333333</v>
+        <v>880.25</v>
       </c>
       <c r="H234" t="n">
         <v>0</v>
@@ -9058,22 +9012,22 @@
         <v>233</v>
       </c>
       <c r="B235" t="n">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="C235" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="D235" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="E235" t="n">
-        <v>917</v>
+        <v>909</v>
       </c>
       <c r="F235" t="n">
-        <v>30</v>
+        <v>529.8261</v>
       </c>
       <c r="G235" t="n">
-        <v>882.3666666666667</v>
+        <v>881.2833333333333</v>
       </c>
       <c r="H235" t="n">
         <v>0</v>
@@ -9093,22 +9047,22 @@
         <v>234</v>
       </c>
       <c r="B236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="D236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="E236" t="n">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="F236" t="n">
-        <v>220</v>
+        <v>30</v>
       </c>
       <c r="G236" t="n">
-        <v>883.4166666666666</v>
+        <v>882.3666666666667</v>
       </c>
       <c r="H236" t="n">
         <v>0</v>
@@ -9128,22 +9082,22 @@
         <v>235</v>
       </c>
       <c r="B237" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="C237" t="n">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="D237" t="n">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="E237" t="n">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F237" t="n">
-        <v>643.9487</v>
+        <v>220</v>
       </c>
       <c r="G237" t="n">
-        <v>884.5833333333334</v>
+        <v>883.4166666666666</v>
       </c>
       <c r="H237" t="n">
         <v>0</v>
@@ -9163,22 +9117,22 @@
         <v>236</v>
       </c>
       <c r="B238" t="n">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C238" t="n">
-        <v>919</v>
+        <v>925</v>
       </c>
       <c r="D238" t="n">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="E238" t="n">
-        <v>919</v>
+        <v>921</v>
       </c>
       <c r="F238" t="n">
-        <v>4698.3714</v>
+        <v>643.9487</v>
       </c>
       <c r="G238" t="n">
-        <v>885.6833333333333</v>
+        <v>884.5833333333334</v>
       </c>
       <c r="H238" t="n">
         <v>0</v>
@@ -9198,22 +9152,22 @@
         <v>237</v>
       </c>
       <c r="B239" t="n">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="C239" t="n">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D239" t="n">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="E239" t="n">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="F239" t="n">
-        <v>894.1355</v>
+        <v>4698.3714</v>
       </c>
       <c r="G239" t="n">
-        <v>886.8</v>
+        <v>885.6833333333333</v>
       </c>
       <c r="H239" t="n">
         <v>0</v>
@@ -9236,19 +9190,19 @@
         <v>920</v>
       </c>
       <c r="C240" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="D240" t="n">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="E240" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F240" t="n">
-        <v>333.9608</v>
+        <v>894.1355</v>
       </c>
       <c r="G240" t="n">
-        <v>888</v>
+        <v>886.8</v>
       </c>
       <c r="H240" t="n">
         <v>0</v>
@@ -9268,22 +9222,22 @@
         <v>239</v>
       </c>
       <c r="B241" t="n">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="C241" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="D241" t="n">
-        <v>919</v>
+        <v>923</v>
       </c>
       <c r="E241" t="n">
         <v>919</v>
       </c>
       <c r="F241" t="n">
-        <v>833.3777</v>
+        <v>333.9608</v>
       </c>
       <c r="G241" t="n">
-        <v>889.0666666666667</v>
+        <v>888</v>
       </c>
       <c r="H241" t="n">
         <v>0</v>
@@ -9303,22 +9257,22 @@
         <v>240</v>
       </c>
       <c r="B242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="C242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="D242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="E242" t="n">
-        <v>914</v>
+        <v>919</v>
       </c>
       <c r="F242" t="n">
-        <v>380</v>
+        <v>833.3777</v>
       </c>
       <c r="G242" t="n">
-        <v>890.05</v>
+        <v>889.0666666666667</v>
       </c>
       <c r="H242" t="n">
         <v>0</v>
@@ -9338,22 +9292,22 @@
         <v>241</v>
       </c>
       <c r="B243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="D243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="E243" t="n">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="F243" t="n">
-        <v>4.9349</v>
+        <v>380</v>
       </c>
       <c r="G243" t="n">
-        <v>891.0333333333333</v>
+        <v>890.05</v>
       </c>
       <c r="H243" t="n">
         <v>0</v>
@@ -9373,22 +9327,22 @@
         <v>242</v>
       </c>
       <c r="B244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="D244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="E244" t="n">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="F244" t="n">
-        <v>3665.8457</v>
+        <v>4.9349</v>
       </c>
       <c r="G244" t="n">
-        <v>892</v>
+        <v>891.0333333333333</v>
       </c>
       <c r="H244" t="n">
         <v>0</v>
@@ -9408,22 +9362,22 @@
         <v>243</v>
       </c>
       <c r="B245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="D245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="E245" t="n">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="F245" t="n">
-        <v>21.5372</v>
+        <v>3665.8457</v>
       </c>
       <c r="G245" t="n">
-        <v>892.9833333333333</v>
+        <v>892</v>
       </c>
       <c r="H245" t="n">
         <v>0</v>
@@ -9443,22 +9397,22 @@
         <v>244</v>
       </c>
       <c r="B246" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C246" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="D246" t="n">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="E246" t="n">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="F246" t="n">
-        <v>4194.7218</v>
+        <v>21.5372</v>
       </c>
       <c r="G246" t="n">
-        <v>893.95</v>
+        <v>892.9833333333333</v>
       </c>
       <c r="H246" t="n">
         <v>0</v>
@@ -9478,22 +9432,22 @@
         <v>245</v>
       </c>
       <c r="B247" t="n">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="C247" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="D247" t="n">
-        <v>911</v>
+        <v>919</v>
       </c>
       <c r="E247" t="n">
-        <v>911</v>
+        <v>915</v>
       </c>
       <c r="F247" t="n">
-        <v>124.9</v>
+        <v>4194.7218</v>
       </c>
       <c r="G247" t="n">
-        <v>894.85</v>
+        <v>893.95</v>
       </c>
       <c r="H247" t="n">
         <v>0</v>
@@ -9513,22 +9467,22 @@
         <v>246</v>
       </c>
       <c r="B248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="C248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="D248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="E248" t="n">
-        <v>909</v>
+        <v>911</v>
       </c>
       <c r="F248" t="n">
-        <v>14.2117</v>
+        <v>124.9</v>
       </c>
       <c r="G248" t="n">
-        <v>895.7666666666667</v>
+        <v>894.85</v>
       </c>
       <c r="H248" t="n">
         <v>0</v>
@@ -9551,19 +9505,19 @@
         <v>909</v>
       </c>
       <c r="C249" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="D249" t="n">
         <v>909</v>
       </c>
       <c r="E249" t="n">
-        <v>907</v>
+        <v>909</v>
       </c>
       <c r="F249" t="n">
-        <v>1458.9248</v>
+        <v>14.2117</v>
       </c>
       <c r="G249" t="n">
-        <v>896.6166666666667</v>
+        <v>895.7666666666667</v>
       </c>
       <c r="H249" t="n">
         <v>0</v>
@@ -9583,22 +9537,22 @@
         <v>248</v>
       </c>
       <c r="B250" t="n">
+        <v>909</v>
+      </c>
+      <c r="C250" t="n">
         <v>907</v>
       </c>
-      <c r="C250" t="n">
-        <v>912</v>
-      </c>
       <c r="D250" t="n">
-        <v>913</v>
+        <v>909</v>
       </c>
       <c r="E250" t="n">
         <v>907</v>
       </c>
       <c r="F250" t="n">
-        <v>6167.1967</v>
+        <v>1458.9248</v>
       </c>
       <c r="G250" t="n">
-        <v>897.5333333333333</v>
+        <v>896.6166666666667</v>
       </c>
       <c r="H250" t="n">
         <v>0</v>
@@ -9618,22 +9572,22 @@
         <v>249</v>
       </c>
       <c r="B251" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="C251" t="n">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D251" t="n">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="E251" t="n">
-        <v>911</v>
+        <v>907</v>
       </c>
       <c r="F251" t="n">
-        <v>118</v>
+        <v>6167.1967</v>
       </c>
       <c r="G251" t="n">
-        <v>898.4166666666666</v>
+        <v>897.5333333333333</v>
       </c>
       <c r="H251" t="n">
         <v>0</v>
@@ -9656,19 +9610,19 @@
         <v>911</v>
       </c>
       <c r="C252" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="D252" t="n">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E252" t="n">
         <v>911</v>
       </c>
       <c r="F252" t="n">
-        <v>422.5</v>
+        <v>118</v>
       </c>
       <c r="G252" t="n">
-        <v>899.3166666666667</v>
+        <v>898.4166666666666</v>
       </c>
       <c r="H252" t="n">
         <v>0</v>
@@ -9700,10 +9654,10 @@
         <v>911</v>
       </c>
       <c r="F253" t="n">
-        <v>134.9371</v>
+        <v>422.5</v>
       </c>
       <c r="G253" t="n">
-        <v>900.2166666666667</v>
+        <v>899.3166666666667</v>
       </c>
       <c r="H253" t="n">
         <v>0</v>
@@ -9723,22 +9677,22 @@
         <v>252</v>
       </c>
       <c r="B254" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C254" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="D254" t="n">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="E254" t="n">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="F254" t="n">
-        <v>971.6893</v>
+        <v>134.9371</v>
       </c>
       <c r="G254" t="n">
-        <v>901.1166666666667</v>
+        <v>900.2166666666667</v>
       </c>
       <c r="H254" t="n">
         <v>0</v>
@@ -9758,22 +9712,22 @@
         <v>253</v>
       </c>
       <c r="B255" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="C255" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="D255" t="n">
-        <v>909</v>
+        <v>913</v>
       </c>
       <c r="E255" t="n">
-        <v>908</v>
+        <v>913</v>
       </c>
       <c r="F255" t="n">
-        <v>1097.25</v>
+        <v>971.6893</v>
       </c>
       <c r="G255" t="n">
-        <v>901.9333333333333</v>
+        <v>901.1166666666667</v>
       </c>
       <c r="H255" t="n">
         <v>0</v>
@@ -9788,6 +9742,41 @@
         <v>1</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>909</v>
+      </c>
+      <c r="C256" t="n">
+        <v>908</v>
+      </c>
+      <c r="D256" t="n">
+        <v>909</v>
+      </c>
+      <c r="E256" t="n">
+        <v>908</v>
+      </c>
+      <c r="F256" t="n">
+        <v>1097.25</v>
+      </c>
+      <c r="G256" t="n">
+        <v>901.9333333333333</v>
+      </c>
+      <c r="H256" t="n">
+        <v>0</v>
+      </c>
+      <c r="I256" t="n">
+        <v>0</v>
+      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="n">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M256"/>
+  <dimension ref="A1:N266"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -394,35 +394,40 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>CMO</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>MA60</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>low_check</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>high_check</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
@@ -448,18 +453,21 @@
         <v>3</v>
       </c>
       <c r="G2" t="n">
+        <v>859.3333333333334</v>
+      </c>
+      <c r="H2" t="n">
         <v>854.3666666666667</v>
       </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -483,18 +491,21 @@
         <v>698.25</v>
       </c>
       <c r="G3" t="n">
+        <v>858.5333333333333</v>
+      </c>
+      <c r="H3" t="n">
         <v>854.3166666666667</v>
       </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
       <c r="K3" t="inlineStr"/>
       <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
+      <c r="M3" t="inlineStr"/>
+      <c r="N3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -518,18 +529,21 @@
         <v>71.7522</v>
       </c>
       <c r="G4" t="n">
+        <v>857.8</v>
+      </c>
+      <c r="H4" t="n">
         <v>854.35</v>
       </c>
-      <c r="H4" t="n">
-        <v>0</v>
-      </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="inlineStr"/>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
       <c r="K4" t="inlineStr"/>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
+      <c r="M4" t="inlineStr"/>
+      <c r="N4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -553,18 +567,21 @@
         <v>1403.0223</v>
       </c>
       <c r="G5" t="n">
+        <v>856.9333333333333</v>
+      </c>
+      <c r="H5" t="n">
         <v>854.3666666666667</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
       <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -588,18 +605,21 @@
         <v>516.379</v>
       </c>
       <c r="G6" t="n">
+        <v>856.2</v>
+      </c>
+      <c r="H6" t="n">
         <v>854.3333333333334</v>
       </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
       <c r="K6" t="inlineStr"/>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -623,18 +643,21 @@
         <v>300</v>
       </c>
       <c r="G7" t="n">
+        <v>855.5333333333333</v>
+      </c>
+      <c r="H7" t="n">
         <v>854.3833333333333</v>
       </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
       <c r="K7" t="inlineStr"/>
       <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
+      <c r="M7" t="inlineStr"/>
+      <c r="N7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -658,18 +681,21 @@
         <v>13.8142</v>
       </c>
       <c r="G8" t="n">
+        <v>854.8666666666667</v>
+      </c>
+      <c r="H8" t="n">
         <v>854.3666666666667</v>
       </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="inlineStr"/>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -693,18 +719,21 @@
         <v>400</v>
       </c>
       <c r="G9" t="n">
+        <v>854.2</v>
+      </c>
+      <c r="H9" t="n">
         <v>854.35</v>
       </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="inlineStr"/>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
       <c r="K9" t="inlineStr"/>
       <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
+      <c r="M9" t="inlineStr"/>
+      <c r="N9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -728,18 +757,21 @@
         <v>239.17</v>
       </c>
       <c r="G10" t="n">
+        <v>853.4</v>
+      </c>
+      <c r="H10" t="n">
         <v>854.3333333333334</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="inlineStr"/>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
       <c r="K10" t="inlineStr"/>
       <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -763,18 +795,21 @@
         <v>18.1966</v>
       </c>
       <c r="G11" t="n">
+        <v>852.3333333333334</v>
+      </c>
+      <c r="H11" t="n">
         <v>854.3166666666667</v>
       </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
       <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
+      <c r="M11" t="inlineStr"/>
+      <c r="N11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -798,18 +833,21 @@
         <v>425.17</v>
       </c>
       <c r="G12" t="n">
+        <v>851.2</v>
+      </c>
+      <c r="H12" t="n">
         <v>854.2666666666667</v>
       </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
       <c r="K12" t="inlineStr"/>
       <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
+      <c r="M12" t="inlineStr"/>
+      <c r="N12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -833,18 +871,21 @@
         <v>127.1</v>
       </c>
       <c r="G13" t="n">
+        <v>850.5333333333333</v>
+      </c>
+      <c r="H13" t="n">
         <v>854.2166666666667</v>
       </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="inlineStr"/>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
+      <c r="M13" t="inlineStr"/>
+      <c r="N13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -868,18 +909,21 @@
         <v>86.1875</v>
       </c>
       <c r="G14" t="n">
+        <v>850.2666666666667</v>
+      </c>
+      <c r="H14" t="n">
         <v>854.1666666666666</v>
       </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -903,18 +947,21 @@
         <v>85.6623</v>
       </c>
       <c r="G15" t="n">
+        <v>850.1333333333333</v>
+      </c>
+      <c r="H15" t="n">
         <v>854.1166666666667</v>
       </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="inlineStr"/>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
+      <c r="M15" t="inlineStr"/>
+      <c r="N15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -938,18 +985,21 @@
         <v>39.0447</v>
       </c>
       <c r="G16" t="n">
+        <v>850.2</v>
+      </c>
+      <c r="H16" t="n">
         <v>854.1</v>
       </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="inlineStr"/>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
       <c r="K16" t="inlineStr"/>
       <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -973,18 +1023,21 @@
         <v>1.1802</v>
       </c>
       <c r="G17" t="n">
+        <v>850.2</v>
+      </c>
+      <c r="H17" t="n">
         <v>854.0833333333334</v>
       </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="inlineStr"/>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
       <c r="K17" t="inlineStr"/>
       <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
+      <c r="M17" t="inlineStr"/>
+      <c r="N17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1008,18 +1061,21 @@
         <v>168.6751</v>
       </c>
       <c r="G18" t="n">
+        <v>850.4</v>
+      </c>
+      <c r="H18" t="n">
         <v>854.0833333333334</v>
       </c>
-      <c r="H18" t="n">
-        <v>0</v>
-      </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="inlineStr"/>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
       <c r="K18" t="inlineStr"/>
       <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
+      <c r="M18" t="inlineStr"/>
+      <c r="N18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1043,18 +1099,21 @@
         <v>1.6714</v>
       </c>
       <c r="G19" t="n">
+        <v>850.6666666666666</v>
+      </c>
+      <c r="H19" t="n">
         <v>854.1</v>
       </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="inlineStr"/>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
       <c r="K19" t="inlineStr"/>
       <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1078,18 +1137,21 @@
         <v>1247</v>
       </c>
       <c r="G20" t="n">
+        <v>850.8666666666667</v>
+      </c>
+      <c r="H20" t="n">
         <v>854.0833333333334</v>
       </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="inlineStr"/>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
       <c r="K20" t="inlineStr"/>
       <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
+      <c r="M20" t="inlineStr"/>
+      <c r="N20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1113,18 +1175,21 @@
         <v>0.4319</v>
       </c>
       <c r="G21" t="n">
+        <v>851</v>
+      </c>
+      <c r="H21" t="n">
         <v>854.0666666666667</v>
       </c>
-      <c r="H21" t="n">
-        <v>0</v>
-      </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="inlineStr"/>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
       <c r="K21" t="inlineStr"/>
       <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
+      <c r="M21" t="inlineStr"/>
+      <c r="N21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1148,18 +1213,21 @@
         <v>409.4525</v>
       </c>
       <c r="G22" t="n">
+        <v>850.9333333333333</v>
+      </c>
+      <c r="H22" t="n">
         <v>854</v>
       </c>
-      <c r="H22" t="n">
-        <v>0</v>
-      </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
       <c r="K22" t="inlineStr"/>
       <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
+      <c r="M22" t="inlineStr"/>
+      <c r="N22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1183,18 +1251,21 @@
         <v>651.357</v>
       </c>
       <c r="G23" t="n">
+        <v>851</v>
+      </c>
+      <c r="H23" t="n">
         <v>853.9666666666667</v>
       </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
       <c r="K23" t="inlineStr"/>
       <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
+      <c r="M23" t="inlineStr"/>
+      <c r="N23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1218,18 +1289,21 @@
         <v>114.5249</v>
       </c>
       <c r="G24" t="n">
+        <v>850.8666666666667</v>
+      </c>
+      <c r="H24" t="n">
         <v>853.8833333333333</v>
       </c>
-      <c r="H24" t="n">
-        <v>0</v>
-      </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="inlineStr"/>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
       <c r="K24" t="inlineStr"/>
       <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
+      <c r="M24" t="inlineStr"/>
+      <c r="N24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1253,18 +1327,21 @@
         <v>123.54</v>
       </c>
       <c r="G25" t="n">
+        <v>850.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>853.8166666666667</v>
       </c>
-      <c r="H25" t="n">
-        <v>0</v>
-      </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
       <c r="K25" t="inlineStr"/>
       <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1288,18 +1365,21 @@
         <v>200</v>
       </c>
       <c r="G26" t="n">
+        <v>850.7333333333333</v>
+      </c>
+      <c r="H26" t="n">
         <v>853.75</v>
       </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
       <c r="K26" t="inlineStr"/>
       <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
+      <c r="M26" t="inlineStr"/>
+      <c r="N26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,18 +1403,21 @@
         <v>2000</v>
       </c>
       <c r="G27" t="n">
+        <v>850.4666666666667</v>
+      </c>
+      <c r="H27" t="n">
         <v>853.6333333333333</v>
       </c>
-      <c r="H27" t="n">
-        <v>0</v>
-      </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
       <c r="K27" t="inlineStr"/>
       <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1358,18 +1441,21 @@
         <v>218.6768</v>
       </c>
       <c r="G28" t="n">
+        <v>850.2</v>
+      </c>
+      <c r="H28" t="n">
         <v>853.5166666666667</v>
       </c>
-      <c r="H28" t="n">
-        <v>0</v>
-      </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="inlineStr"/>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
       <c r="K28" t="inlineStr"/>
       <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
+      <c r="M28" t="inlineStr"/>
+      <c r="N28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1393,18 +1479,21 @@
         <v>41.3448</v>
       </c>
       <c r="G29" t="n">
+        <v>850.1333333333333</v>
+      </c>
+      <c r="H29" t="n">
         <v>853.45</v>
       </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="inlineStr"/>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
+      <c r="M29" t="inlineStr"/>
+      <c r="N29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1428,18 +1517,21 @@
         <v>86.0414</v>
       </c>
       <c r="G30" t="n">
+        <v>850</v>
+      </c>
+      <c r="H30" t="n">
         <v>853.3666666666667</v>
       </c>
-      <c r="H30" t="n">
-        <v>0</v>
-      </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="inlineStr"/>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
+      <c r="M30" t="inlineStr"/>
+      <c r="N30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1463,18 +1555,21 @@
         <v>2.1393</v>
       </c>
       <c r="G31" t="n">
+        <v>849.7333333333333</v>
+      </c>
+      <c r="H31" t="n">
         <v>853.3</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
       <c r="K31" t="inlineStr"/>
       <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
+      <c r="M31" t="inlineStr"/>
+      <c r="N31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1498,18 +1593,21 @@
         <v>593.9132</v>
       </c>
       <c r="G32" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="H32" t="n">
         <v>853.2166666666667</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
       <c r="K32" t="inlineStr"/>
       <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
+      <c r="M32" t="inlineStr"/>
+      <c r="N32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1533,18 +1631,21 @@
         <v>280.0005</v>
       </c>
       <c r="G33" t="n">
+        <v>849.0666666666667</v>
+      </c>
+      <c r="H33" t="n">
         <v>853.15</v>
       </c>
-      <c r="H33" t="n">
-        <v>0</v>
-      </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
       <c r="K33" t="inlineStr"/>
       <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
+      <c r="M33" t="inlineStr"/>
+      <c r="N33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1568,18 +1669,21 @@
         <v>20.1463</v>
       </c>
       <c r="G34" t="n">
+        <v>848.6666666666666</v>
+      </c>
+      <c r="H34" t="n">
         <v>853.0833333333334</v>
       </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="inlineStr"/>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
       <c r="K34" t="inlineStr"/>
       <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
+      <c r="M34" t="inlineStr"/>
+      <c r="N34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1603,18 +1707,21 @@
         <v>11.4707</v>
       </c>
       <c r="G35" t="n">
+        <v>848.4666666666667</v>
+      </c>
+      <c r="H35" t="n">
         <v>853.0333333333333</v>
       </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="inlineStr"/>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
       <c r="K35" t="inlineStr"/>
       <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
+      <c r="M35" t="inlineStr"/>
+      <c r="N35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1638,18 +1745,21 @@
         <v>8.529299999999999</v>
       </c>
       <c r="G36" t="n">
+        <v>848.2666666666667</v>
+      </c>
+      <c r="H36" t="n">
         <v>852.9833333333333</v>
       </c>
-      <c r="H36" t="n">
-        <v>0</v>
-      </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
+      <c r="M36" t="inlineStr"/>
+      <c r="N36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1673,18 +1783,21 @@
         <v>33</v>
       </c>
       <c r="G37" t="n">
+        <v>848.2666666666667</v>
+      </c>
+      <c r="H37" t="n">
         <v>852.9333333333333</v>
       </c>
-      <c r="H37" t="n">
-        <v>0</v>
-      </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="inlineStr"/>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1708,18 +1821,21 @@
         <v>85.1784</v>
       </c>
       <c r="G38" t="n">
+        <v>848.2</v>
+      </c>
+      <c r="H38" t="n">
         <v>852.9</v>
       </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="inlineStr"/>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
+      <c r="M38" t="inlineStr"/>
+      <c r="N38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1743,18 +1859,21 @@
         <v>288</v>
       </c>
       <c r="G39" t="n">
+        <v>848.2666666666667</v>
+      </c>
+      <c r="H39" t="n">
         <v>852.85</v>
       </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
+      <c r="M39" t="inlineStr"/>
+      <c r="N39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1778,18 +1897,21 @@
         <v>0.1684</v>
       </c>
       <c r="G40" t="n">
+        <v>848.2666666666667</v>
+      </c>
+      <c r="H40" t="n">
         <v>852.8</v>
       </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
+      <c r="M40" t="inlineStr"/>
+      <c r="N40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1813,18 +1935,21 @@
         <v>199.9254</v>
       </c>
       <c r="G41" t="n">
+        <v>848.0666666666667</v>
+      </c>
+      <c r="H41" t="n">
         <v>852.7</v>
       </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
+      <c r="M41" t="inlineStr"/>
+      <c r="N41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1848,18 +1973,21 @@
         <v>168.4056</v>
       </c>
       <c r="G42" t="n">
+        <v>848.1333333333333</v>
+      </c>
+      <c r="H42" t="n">
         <v>852.6</v>
       </c>
-      <c r="H42" t="n">
-        <v>0</v>
-      </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
+      <c r="M42" t="inlineStr"/>
+      <c r="N42" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1883,18 +2011,21 @@
         <v>3</v>
       </c>
       <c r="G43" t="n">
+        <v>848.4666666666667</v>
+      </c>
+      <c r="H43" t="n">
         <v>852.55</v>
       </c>
-      <c r="H43" t="n">
-        <v>0</v>
-      </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
+      <c r="M43" t="inlineStr"/>
+      <c r="N43" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1918,18 +2049,21 @@
         <v>1.1841</v>
       </c>
       <c r="G44" t="n">
+        <v>848.5333333333333</v>
+      </c>
+      <c r="H44" t="n">
         <v>852.4333333333333</v>
       </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
       <c r="K44" t="inlineStr"/>
       <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
+      <c r="M44" t="inlineStr"/>
+      <c r="N44" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1953,18 +2087,21 @@
         <v>411.2726</v>
       </c>
       <c r="G45" t="n">
+        <v>848.7333333333333</v>
+      </c>
+      <c r="H45" t="n">
         <v>852.3333333333334</v>
       </c>
-      <c r="H45" t="n">
-        <v>0</v>
-      </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
+      <c r="M45" t="inlineStr"/>
+      <c r="N45" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1988,18 +2125,21 @@
         <v>5</v>
       </c>
       <c r="G46" t="n">
+        <v>849</v>
+      </c>
+      <c r="H46" t="n">
         <v>852.2166666666667</v>
       </c>
-      <c r="H46" t="n">
-        <v>0</v>
-      </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
+      <c r="M46" t="inlineStr"/>
+      <c r="N46" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2023,18 +2163,21 @@
         <v>20.1088</v>
       </c>
       <c r="G47" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="H47" t="n">
         <v>852.0833333333334</v>
       </c>
-      <c r="H47" t="n">
-        <v>0</v>
-      </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
+      <c r="M47" t="inlineStr"/>
+      <c r="N47" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2058,18 +2201,21 @@
         <v>1958.7344</v>
       </c>
       <c r="G48" t="n">
+        <v>849.9333333333333</v>
+      </c>
+      <c r="H48" t="n">
         <v>851.9833333333333</v>
       </c>
-      <c r="H48" t="n">
-        <v>0</v>
-      </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
+      <c r="M48" t="inlineStr"/>
+      <c r="N48" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2093,18 +2239,21 @@
         <v>100</v>
       </c>
       <c r="G49" t="n">
+        <v>850.7333333333333</v>
+      </c>
+      <c r="H49" t="n">
         <v>851.9666666666667</v>
       </c>
-      <c r="H49" t="n">
-        <v>0</v>
-      </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2128,18 +2277,21 @@
         <v>1166.8611</v>
       </c>
       <c r="G50" t="n">
+        <v>851.2666666666667</v>
+      </c>
+      <c r="H50" t="n">
         <v>851.8833333333333</v>
       </c>
-      <c r="H50" t="n">
-        <v>0</v>
-      </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
       <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
+      <c r="M50" t="inlineStr"/>
+      <c r="N50" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2163,18 +2315,21 @@
         <v>3.5</v>
       </c>
       <c r="G51" t="n">
+        <v>851.8666666666667</v>
+      </c>
+      <c r="H51" t="n">
         <v>851.8333333333334</v>
       </c>
-      <c r="H51" t="n">
-        <v>0</v>
-      </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
+      <c r="M51" t="inlineStr"/>
+      <c r="N51" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2198,18 +2353,21 @@
         <v>59.3317</v>
       </c>
       <c r="G52" t="n">
+        <v>852.5333333333333</v>
+      </c>
+      <c r="H52" t="n">
         <v>851.8166666666667</v>
       </c>
-      <c r="H52" t="n">
-        <v>0</v>
-      </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2233,18 +2391,21 @@
         <v>39.49302325581395</v>
       </c>
       <c r="G53" t="n">
+        <v>853.2</v>
+      </c>
+      <c r="H53" t="n">
         <v>851.8166666666667</v>
       </c>
-      <c r="H53" t="n">
-        <v>0</v>
-      </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
+      <c r="M53" t="inlineStr"/>
+      <c r="N53" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2268,18 +2429,21 @@
         <v>636.5223</v>
       </c>
       <c r="G54" t="n">
+        <v>853.9333333333333</v>
+      </c>
+      <c r="H54" t="n">
         <v>851.8166666666667</v>
       </c>
-      <c r="H54" t="n">
-        <v>0</v>
-      </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
       <c r="K54" t="inlineStr"/>
       <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2303,18 +2467,21 @@
         <v>19.4459</v>
       </c>
       <c r="G55" t="n">
+        <v>854.7333333333333</v>
+      </c>
+      <c r="H55" t="n">
         <v>851.8</v>
       </c>
-      <c r="H55" t="n">
-        <v>0</v>
-      </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
       <c r="K55" t="inlineStr"/>
       <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
+      <c r="M55" t="inlineStr"/>
+      <c r="N55" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2338,18 +2505,21 @@
         <v>3</v>
       </c>
       <c r="G56" t="n">
+        <v>855.7333333333333</v>
+      </c>
+      <c r="H56" t="n">
         <v>851.7166666666667</v>
       </c>
-      <c r="H56" t="n">
-        <v>0</v>
-      </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>0</v>
+      </c>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
+      <c r="M56" t="inlineStr"/>
+      <c r="N56" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2373,18 +2543,21 @@
         <v>595.1332</v>
       </c>
       <c r="G57" t="n">
+        <v>856.8</v>
+      </c>
+      <c r="H57" t="n">
         <v>851.65</v>
       </c>
-      <c r="H57" t="n">
-        <v>0</v>
-      </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
       <c r="K57" t="inlineStr"/>
       <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
+      <c r="M57" t="inlineStr"/>
+      <c r="N57" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2408,18 +2581,21 @@
         <v>601.5003</v>
       </c>
       <c r="G58" t="n">
+        <v>857.4666666666667</v>
+      </c>
+      <c r="H58" t="n">
         <v>851.6666666666666</v>
       </c>
-      <c r="H58" t="n">
-        <v>0</v>
-      </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>0</v>
+      </c>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
+      <c r="M58" t="inlineStr"/>
+      <c r="N58" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2443,18 +2619,21 @@
         <v>2209.3076</v>
       </c>
       <c r="G59" t="n">
+        <v>858.1333333333333</v>
+      </c>
+      <c r="H59" t="n">
         <v>851.7666666666667</v>
       </c>
-      <c r="H59" t="n">
-        <v>0</v>
-      </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
+      <c r="M59" t="inlineStr"/>
+      <c r="N59" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2478,18 +2657,21 @@
         <v>28.147</v>
       </c>
       <c r="G60" t="n">
+        <v>858.5333333333333</v>
+      </c>
+      <c r="H60" t="n">
         <v>851.85</v>
       </c>
-      <c r="H60" t="n">
-        <v>0</v>
-      </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
+      <c r="M60" t="inlineStr"/>
+      <c r="N60" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2513,18 +2695,21 @@
         <v>80.51260000000001</v>
       </c>
       <c r="G61" t="n">
+        <v>859.1333333333333</v>
+      </c>
+      <c r="H61" t="n">
         <v>852.0166666666667</v>
       </c>
-      <c r="H61" t="n">
-        <v>0</v>
-      </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
+      <c r="M61" t="inlineStr"/>
+      <c r="N61" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2548,18 +2733,21 @@
         <v>324.9</v>
       </c>
       <c r="G62" t="n">
+        <v>859.6666666666666</v>
+      </c>
+      <c r="H62" t="n">
         <v>852.1666666666666</v>
       </c>
-      <c r="H62" t="n">
-        <v>0</v>
-      </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>0</v>
+      </c>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
+      <c r="M62" t="inlineStr"/>
+      <c r="N62" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2583,18 +2771,21 @@
         <v>304.4068</v>
       </c>
       <c r="G63" t="n">
+        <v>860</v>
+      </c>
+      <c r="H63" t="n">
         <v>852.35</v>
       </c>
-      <c r="H63" t="n">
-        <v>0</v>
-      </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>0</v>
+      </c>
       <c r="K63" t="inlineStr"/>
       <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
+      <c r="M63" t="inlineStr"/>
+      <c r="N63" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2618,18 +2809,21 @@
         <v>68.34310000000001</v>
       </c>
       <c r="G64" t="n">
+        <v>860.0666666666667</v>
+      </c>
+      <c r="H64" t="n">
         <v>852.5333333333333</v>
       </c>
-      <c r="H64" t="n">
-        <v>0</v>
-      </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
+      <c r="M64" t="inlineStr"/>
+      <c r="N64" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2653,18 +2847,21 @@
         <v>2500</v>
       </c>
       <c r="G65" t="n">
+        <v>860.4</v>
+      </c>
+      <c r="H65" t="n">
         <v>852.75</v>
       </c>
-      <c r="H65" t="n">
-        <v>0</v>
-      </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2688,18 +2885,21 @@
         <v>3821.5587</v>
       </c>
       <c r="G66" t="n">
+        <v>860.6</v>
+      </c>
+      <c r="H66" t="n">
         <v>852.9333333333333</v>
       </c>
-      <c r="H66" t="n">
-        <v>0</v>
-      </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
+      <c r="M66" t="inlineStr"/>
+      <c r="N66" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2723,18 +2923,21 @@
         <v>38.989</v>
       </c>
       <c r="G67" t="n">
+        <v>860.7333333333333</v>
+      </c>
+      <c r="H67" t="n">
         <v>853.1166666666667</v>
       </c>
-      <c r="H67" t="n">
-        <v>0</v>
-      </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2758,18 +2961,21 @@
         <v>348.8372</v>
       </c>
       <c r="G68" t="n">
+        <v>860.7333333333333</v>
+      </c>
+      <c r="H68" t="n">
         <v>853.2833333333333</v>
       </c>
-      <c r="H68" t="n">
-        <v>0</v>
-      </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>0</v>
+      </c>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
+      <c r="M68" t="inlineStr"/>
+      <c r="N68" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2793,18 +2999,21 @@
         <v>331.0304</v>
       </c>
       <c r="G69" t="n">
+        <v>860.5333333333333</v>
+      </c>
+      <c r="H69" t="n">
         <v>853.4</v>
       </c>
-      <c r="H69" t="n">
-        <v>0</v>
-      </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
+      <c r="M69" t="inlineStr"/>
+      <c r="N69" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2828,18 +3037,21 @@
         <v>1.8029</v>
       </c>
       <c r="G70" t="n">
+        <v>860.2666666666667</v>
+      </c>
+      <c r="H70" t="n">
         <v>853.5166666666667</v>
       </c>
-      <c r="H70" t="n">
-        <v>0</v>
-      </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>0</v>
+      </c>
       <c r="K70" t="inlineStr"/>
       <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
+      <c r="M70" t="inlineStr"/>
+      <c r="N70" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2863,18 +3075,21 @@
         <v>41.4958</v>
       </c>
       <c r="G71" t="n">
+        <v>860.3333333333334</v>
+      </c>
+      <c r="H71" t="n">
         <v>853.7166666666667</v>
       </c>
-      <c r="H71" t="n">
-        <v>0</v>
-      </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>0</v>
+      </c>
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
+      <c r="M71" t="inlineStr"/>
+      <c r="N71" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2898,18 +3113,21 @@
         <v>59.7192</v>
       </c>
       <c r="G72" t="n">
+        <v>860</v>
+      </c>
+      <c r="H72" t="n">
         <v>853.85</v>
       </c>
-      <c r="H72" t="n">
-        <v>0</v>
-      </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
       <c r="K72" t="inlineStr"/>
       <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
+      <c r="M72" t="inlineStr"/>
+      <c r="N72" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2933,18 +3151,21 @@
         <v>32.9443</v>
       </c>
       <c r="G73" t="n">
+        <v>859.6666666666666</v>
+      </c>
+      <c r="H73" t="n">
         <v>853.95</v>
       </c>
-      <c r="H73" t="n">
-        <v>0</v>
-      </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>0</v>
+      </c>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
+      <c r="M73" t="inlineStr"/>
+      <c r="N73" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2968,18 +3189,21 @@
         <v>335.2661</v>
       </c>
       <c r="G74" t="n">
+        <v>859.1333333333333</v>
+      </c>
+      <c r="H74" t="n">
         <v>853.9833333333333</v>
       </c>
-      <c r="H74" t="n">
-        <v>0</v>
-      </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>0</v>
+      </c>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
+      <c r="M74" t="inlineStr"/>
+      <c r="N74" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3003,18 +3227,21 @@
         <v>44.9</v>
       </c>
       <c r="G75" t="n">
+        <v>858.8</v>
+      </c>
+      <c r="H75" t="n">
         <v>854.0166666666667</v>
       </c>
-      <c r="H75" t="n">
-        <v>0</v>
-      </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>0</v>
+      </c>
       <c r="K75" t="inlineStr"/>
       <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
+      <c r="M75" t="inlineStr"/>
+      <c r="N75" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3038,18 +3265,21 @@
         <v>224.9801</v>
       </c>
       <c r="G76" t="n">
+        <v>858.2</v>
+      </c>
+      <c r="H76" t="n">
         <v>854.0166666666667</v>
       </c>
-      <c r="H76" t="n">
-        <v>0</v>
-      </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
+      <c r="M76" t="inlineStr"/>
+      <c r="N76" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3073,18 +3303,21 @@
         <v>2</v>
       </c>
       <c r="G77" t="n">
+        <v>857.8</v>
+      </c>
+      <c r="H77" t="n">
         <v>854.0666666666667</v>
       </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>0</v>
+      </c>
       <c r="K77" t="inlineStr"/>
       <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
+      <c r="M77" t="inlineStr"/>
+      <c r="N77" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3108,18 +3341,21 @@
         <v>109.67</v>
       </c>
       <c r="G78" t="n">
+        <v>857.0666666666667</v>
+      </c>
+      <c r="H78" t="n">
         <v>854.0166666666667</v>
       </c>
-      <c r="H78" t="n">
-        <v>0</v>
-      </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
+      <c r="M78" t="inlineStr"/>
+      <c r="N78" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3143,18 +3379,21 @@
         <v>131.4252</v>
       </c>
       <c r="G79" t="n">
+        <v>856.7333333333333</v>
+      </c>
+      <c r="H79" t="n">
         <v>854.05</v>
       </c>
-      <c r="H79" t="n">
-        <v>0</v>
-      </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
+      <c r="M79" t="inlineStr"/>
+      <c r="N79" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3178,18 +3417,21 @@
         <v>41.8965</v>
       </c>
       <c r="G80" t="n">
+        <v>856.2666666666667</v>
+      </c>
+      <c r="H80" t="n">
         <v>854.1</v>
       </c>
-      <c r="H80" t="n">
-        <v>0</v>
-      </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
+      <c r="M80" t="inlineStr"/>
+      <c r="N80" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3213,18 +3455,21 @@
         <v>395.6313</v>
       </c>
       <c r="G81" t="n">
+        <v>855.8666666666667</v>
+      </c>
+      <c r="H81" t="n">
         <v>854.15</v>
       </c>
-      <c r="H81" t="n">
-        <v>0</v>
-      </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
+      <c r="M81" t="inlineStr"/>
+      <c r="N81" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3248,18 +3493,21 @@
         <v>182.2685</v>
       </c>
       <c r="G82" t="n">
+        <v>855.4666666666667</v>
+      </c>
+      <c r="H82" t="n">
         <v>854.25</v>
       </c>
-      <c r="H82" t="n">
-        <v>0</v>
-      </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
+      <c r="M82" t="inlineStr"/>
+      <c r="N82" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3283,18 +3531,21 @@
         <v>1085.7555</v>
       </c>
       <c r="G83" t="n">
+        <v>855.3333333333334</v>
+      </c>
+      <c r="H83" t="n">
         <v>854.3666666666667</v>
       </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>0</v>
+      </c>
       <c r="K83" t="inlineStr"/>
       <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
+      <c r="M83" t="inlineStr"/>
+      <c r="N83" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3318,18 +3569,21 @@
         <v>320.8635</v>
       </c>
       <c r="G84" t="n">
+        <v>855.3333333333334</v>
+      </c>
+      <c r="H84" t="n">
         <v>854.5166666666667</v>
       </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
       <c r="K84" t="inlineStr"/>
       <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
+      <c r="M84" t="inlineStr"/>
+      <c r="N84" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3353,18 +3607,21 @@
         <v>2.8081</v>
       </c>
       <c r="G85" t="n">
+        <v>855.2</v>
+      </c>
+      <c r="H85" t="n">
         <v>854.6166666666667</v>
       </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
       <c r="K85" t="inlineStr"/>
       <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
+      <c r="M85" t="inlineStr"/>
+      <c r="N85" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3388,18 +3645,21 @@
         <v>920.8492</v>
       </c>
       <c r="G86" t="n">
+        <v>854.4666666666667</v>
+      </c>
+      <c r="H86" t="n">
         <v>854.65</v>
       </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
       <c r="K86" t="inlineStr"/>
       <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
+      <c r="M86" t="inlineStr"/>
+      <c r="N86" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3423,18 +3683,21 @@
         <v>40</v>
       </c>
       <c r="G87" t="n">
+        <v>854.2666666666667</v>
+      </c>
+      <c r="H87" t="n">
         <v>854.8</v>
       </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>0</v>
+      </c>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
+      <c r="M87" t="inlineStr"/>
+      <c r="N87" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3458,18 +3721,21 @@
         <v>506.6748</v>
       </c>
       <c r="G88" t="n">
+        <v>854</v>
+      </c>
+      <c r="H88" t="n">
         <v>854.9</v>
       </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>0</v>
+      </c>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
+      <c r="M88" t="inlineStr"/>
+      <c r="N88" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3493,18 +3759,21 @@
         <v>451.4205</v>
       </c>
       <c r="G89" t="n">
+        <v>853.8666666666667</v>
+      </c>
+      <c r="H89" t="n">
         <v>854.9166666666666</v>
       </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
+      <c r="M89" t="inlineStr"/>
+      <c r="N89" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3528,18 +3797,21 @@
         <v>255.1</v>
       </c>
       <c r="G90" t="n">
+        <v>853.9333333333333</v>
+      </c>
+      <c r="H90" t="n">
         <v>855</v>
       </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
+      <c r="M90" t="inlineStr"/>
+      <c r="N90" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3563,18 +3835,21 @@
         <v>57.3018</v>
       </c>
       <c r="G91" t="n">
+        <v>853.9333333333333</v>
+      </c>
+      <c r="H91" t="n">
         <v>855.0666666666667</v>
       </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
       <c r="K91" t="inlineStr"/>
       <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
+      <c r="M91" t="inlineStr"/>
+      <c r="N91" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3598,18 +3873,21 @@
         <v>31</v>
       </c>
       <c r="G92" t="n">
+        <v>853.8666666666667</v>
+      </c>
+      <c r="H92" t="n">
         <v>855.1833333333333</v>
       </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
       <c r="K92" t="inlineStr"/>
       <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
+      <c r="M92" t="inlineStr"/>
+      <c r="N92" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3633,18 +3911,21 @@
         <v>664.8584</v>
       </c>
       <c r="G93" t="n">
+        <v>853.8666666666667</v>
+      </c>
+      <c r="H93" t="n">
         <v>855.2166666666667</v>
       </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
       <c r="K93" t="inlineStr"/>
       <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
+      <c r="M93" t="inlineStr"/>
+      <c r="N93" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3668,18 +3949,21 @@
         <v>3960.5528</v>
       </c>
       <c r="G94" t="n">
+        <v>853.1333333333333</v>
+      </c>
+      <c r="H94" t="n">
         <v>855.1666666666666</v>
       </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>0</v>
+      </c>
       <c r="K94" t="inlineStr"/>
       <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
+      <c r="M94" t="inlineStr"/>
+      <c r="N94" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3703,18 +3987,21 @@
         <v>114.8634</v>
       </c>
       <c r="G95" t="n">
+        <v>852.4666666666667</v>
+      </c>
+      <c r="H95" t="n">
         <v>855.1</v>
       </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>0</v>
+      </c>
       <c r="K95" t="inlineStr"/>
       <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
+      <c r="M95" t="inlineStr"/>
+      <c r="N95" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3738,18 +4025,21 @@
         <v>441.67</v>
       </c>
       <c r="G96" t="n">
+        <v>852.0666666666667</v>
+      </c>
+      <c r="H96" t="n">
         <v>855.1</v>
       </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>0</v>
+      </c>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
+      <c r="M96" t="inlineStr"/>
+      <c r="N96" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3773,18 +4063,21 @@
         <v>46.33</v>
       </c>
       <c r="G97" t="n">
+        <v>851.6666666666666</v>
+      </c>
+      <c r="H97" t="n">
         <v>855.1</v>
       </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
+      <c r="M97" t="inlineStr"/>
+      <c r="N97" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3808,18 +4101,21 @@
         <v>139.939</v>
       </c>
       <c r="G98" t="n">
+        <v>851.0666666666667</v>
+      </c>
+      <c r="H98" t="n">
         <v>855.0833333333334</v>
       </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>0</v>
+      </c>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
+      <c r="M98" t="inlineStr"/>
+      <c r="N98" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3843,18 +4139,21 @@
         <v>218.483</v>
       </c>
       <c r="G99" t="n">
+        <v>850.6666666666666</v>
+      </c>
+      <c r="H99" t="n">
         <v>855.1166666666667</v>
       </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>0</v>
+      </c>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
+      <c r="M99" t="inlineStr"/>
+      <c r="N99" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3878,18 +4177,21 @@
         <v>5.6846</v>
       </c>
       <c r="G100" t="n">
+        <v>850.3333333333334</v>
+      </c>
+      <c r="H100" t="n">
         <v>855.1333333333333</v>
       </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
+      <c r="M100" t="inlineStr"/>
+      <c r="N100" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3913,18 +4215,21 @@
         <v>113.1924</v>
       </c>
       <c r="G101" t="n">
+        <v>850.2</v>
+      </c>
+      <c r="H101" t="n">
         <v>855.1833333333333</v>
       </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
+      <c r="M101" t="inlineStr"/>
+      <c r="N101" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3948,18 +4253,21 @@
         <v>1018.1908</v>
       </c>
       <c r="G102" t="n">
+        <v>849.5333333333333</v>
+      </c>
+      <c r="H102" t="n">
         <v>855.15</v>
       </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
+      <c r="M102" t="inlineStr"/>
+      <c r="N102" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3983,18 +4291,21 @@
         <v>202.6</v>
       </c>
       <c r="G103" t="n">
+        <v>849.2666666666667</v>
+      </c>
+      <c r="H103" t="n">
         <v>855.1</v>
       </c>
-      <c r="H103" t="n">
-        <v>0</v>
-      </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
       <c r="K103" t="inlineStr"/>
       <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
+      <c r="M103" t="inlineStr"/>
+      <c r="N103" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4018,18 +4329,21 @@
         <v>101.1844</v>
       </c>
       <c r="G104" t="n">
+        <v>848.9333333333333</v>
+      </c>
+      <c r="H104" t="n">
         <v>855.0166666666667</v>
       </c>
-      <c r="H104" t="n">
-        <v>0</v>
-      </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
+      <c r="M104" t="inlineStr"/>
+      <c r="N104" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4053,18 +4367,21 @@
         <v>2000</v>
       </c>
       <c r="G105" t="n">
+        <v>848.4</v>
+      </c>
+      <c r="H105" t="n">
         <v>854.9166666666666</v>
       </c>
-      <c r="H105" t="n">
-        <v>0</v>
-      </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
       <c r="K105" t="inlineStr"/>
       <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
+      <c r="M105" t="inlineStr"/>
+      <c r="N105" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4088,18 +4405,21 @@
         <v>4.0076</v>
       </c>
       <c r="G106" t="n">
+        <v>848.2</v>
+      </c>
+      <c r="H106" t="n">
         <v>854.8666666666667</v>
       </c>
-      <c r="H106" t="n">
-        <v>0</v>
-      </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
+      <c r="M106" t="inlineStr"/>
+      <c r="N106" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4123,18 +4443,21 @@
         <v>3.0094</v>
       </c>
       <c r="G107" t="n">
+        <v>847.9333333333333</v>
+      </c>
+      <c r="H107" t="n">
         <v>854.8166666666667</v>
       </c>
-      <c r="H107" t="n">
-        <v>0</v>
-      </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
+      <c r="M107" t="inlineStr"/>
+      <c r="N107" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4158,18 +4481,21 @@
         <v>2</v>
       </c>
       <c r="G108" t="n">
+        <v>848</v>
+      </c>
+      <c r="H108" t="n">
         <v>854.7333333333333</v>
       </c>
-      <c r="H108" t="n">
-        <v>0</v>
-      </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>0</v>
+      </c>
       <c r="K108" t="inlineStr"/>
       <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
+      <c r="M108" t="inlineStr"/>
+      <c r="N108" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4193,18 +4519,21 @@
         <v>6.8147</v>
       </c>
       <c r="G109" t="n">
+        <v>848</v>
+      </c>
+      <c r="H109" t="n">
         <v>854.4833333333333</v>
       </c>
-      <c r="H109" t="n">
-        <v>0</v>
-      </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
+      <c r="M109" t="inlineStr"/>
+      <c r="N109" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4228,18 +4557,21 @@
         <v>365.7215</v>
       </c>
       <c r="G110" t="n">
+        <v>848.4</v>
+      </c>
+      <c r="H110" t="n">
         <v>854.3833333333333</v>
       </c>
-      <c r="H110" t="n">
-        <v>0</v>
-      </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
       <c r="K110" t="inlineStr"/>
       <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
+      <c r="M110" t="inlineStr"/>
+      <c r="N110" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4263,18 +4595,21 @@
         <v>77.7732</v>
       </c>
       <c r="G111" t="n">
+        <v>848.6</v>
+      </c>
+      <c r="H111" t="n">
         <v>854.2833333333333</v>
       </c>
-      <c r="H111" t="n">
-        <v>0</v>
-      </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>0</v>
+      </c>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
+      <c r="M111" t="inlineStr"/>
+      <c r="N111" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4298,18 +4633,21 @@
         <v>10</v>
       </c>
       <c r="G112" t="n">
+        <v>848.8666666666667</v>
+      </c>
+      <c r="H112" t="n">
         <v>854.1833333333333</v>
       </c>
-      <c r="H112" t="n">
-        <v>0</v>
-      </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
+      <c r="M112" t="inlineStr"/>
+      <c r="N112" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4333,18 +4671,21 @@
         <v>100</v>
       </c>
       <c r="G113" t="n">
+        <v>849.1333333333333</v>
+      </c>
+      <c r="H113" t="n">
         <v>854.0666666666667</v>
       </c>
-      <c r="H113" t="n">
-        <v>0</v>
-      </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>0</v>
+      </c>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
+      <c r="M113" t="inlineStr"/>
+      <c r="N113" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4368,18 +4709,21 @@
         <v>114.4673</v>
       </c>
       <c r="G114" t="n">
+        <v>849</v>
+      </c>
+      <c r="H114" t="n">
         <v>853.8833333333333</v>
       </c>
-      <c r="H114" t="n">
-        <v>0</v>
-      </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>0</v>
+      </c>
       <c r="K114" t="inlineStr"/>
       <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
+      <c r="M114" t="inlineStr"/>
+      <c r="N114" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4403,18 +4747,21 @@
         <v>3</v>
       </c>
       <c r="G115" t="n">
+        <v>849.0666666666667</v>
+      </c>
+      <c r="H115" t="n">
         <v>853.7166666666667</v>
       </c>
-      <c r="H115" t="n">
-        <v>0</v>
-      </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>0</v>
+      </c>
       <c r="K115" t="inlineStr"/>
       <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
+      <c r="M115" t="inlineStr"/>
+      <c r="N115" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4438,18 +4785,21 @@
         <v>4.4272</v>
       </c>
       <c r="G116" t="n">
+        <v>849.0666666666667</v>
+      </c>
+      <c r="H116" t="n">
         <v>853.5166666666667</v>
       </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
       <c r="K116" t="inlineStr"/>
       <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
+      <c r="M116" t="inlineStr"/>
+      <c r="N116" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4473,18 +4823,21 @@
         <v>24.6888</v>
       </c>
       <c r="G117" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="H117" t="n">
         <v>853.3</v>
       </c>
-      <c r="H117" t="n">
-        <v>0</v>
-      </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
       <c r="K117" t="inlineStr"/>
       <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
+      <c r="M117" t="inlineStr"/>
+      <c r="N117" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4508,18 +4861,21 @@
         <v>966.5</v>
       </c>
       <c r="G118" t="n">
+        <v>849.4</v>
+      </c>
+      <c r="H118" t="n">
         <v>853.0833333333334</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
+      <c r="M118" t="inlineStr"/>
+      <c r="N118" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4543,18 +4899,21 @@
         <v>241.4021</v>
       </c>
       <c r="G119" t="n">
+        <v>849.6</v>
+      </c>
+      <c r="H119" t="n">
         <v>852.8833333333333</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
       <c r="K119" t="inlineStr"/>
       <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
+      <c r="M119" t="inlineStr"/>
+      <c r="N119" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4578,18 +4937,21 @@
         <v>16.0266</v>
       </c>
       <c r="G120" t="n">
+        <v>850</v>
+      </c>
+      <c r="H120" t="n">
         <v>852.7833333333333</v>
       </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
+      <c r="M120" t="inlineStr"/>
+      <c r="N120" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4613,18 +4975,21 @@
         <v>257.3078</v>
       </c>
       <c r="G121" t="n">
+        <v>849.8</v>
+      </c>
+      <c r="H121" t="n">
         <v>852.5333333333333</v>
       </c>
-      <c r="H121" t="n">
-        <v>0</v>
-      </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
+      <c r="M121" t="inlineStr"/>
+      <c r="N121" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4648,18 +5013,21 @@
         <v>785.4837</v>
       </c>
       <c r="G122" t="n">
+        <v>849.4666666666667</v>
+      </c>
+      <c r="H122" t="n">
         <v>852.2666666666667</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
+      <c r="M122" t="inlineStr"/>
+      <c r="N122" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4683,18 +5051,21 @@
         <v>2317.6813</v>
       </c>
       <c r="G123" t="n">
+        <v>849</v>
+      </c>
+      <c r="H123" t="n">
         <v>851.9833333333333</v>
       </c>
-      <c r="H123" t="n">
-        <v>0</v>
-      </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
       <c r="K123" t="inlineStr"/>
       <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
+      <c r="M123" t="inlineStr"/>
+      <c r="N123" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4718,18 +5089,21 @@
         <v>103.3134</v>
       </c>
       <c r="G124" t="n">
+        <v>849.0666666666667</v>
+      </c>
+      <c r="H124" t="n">
         <v>851.7333333333333</v>
       </c>
-      <c r="H124" t="n">
-        <v>0</v>
-      </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>0</v>
+      </c>
       <c r="K124" t="inlineStr"/>
       <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
+      <c r="M124" t="inlineStr"/>
+      <c r="N124" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4753,18 +5127,21 @@
         <v>1470.2318</v>
       </c>
       <c r="G125" t="n">
+        <v>848.5333333333333</v>
+      </c>
+      <c r="H125" t="n">
         <v>851.4166666666666</v>
       </c>
-      <c r="H125" t="n">
-        <v>0</v>
-      </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>0</v>
+      </c>
       <c r="K125" t="inlineStr"/>
       <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
+      <c r="M125" t="inlineStr"/>
+      <c r="N125" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,18 +5165,21 @@
         <v>36.89</v>
       </c>
       <c r="G126" t="n">
+        <v>847.9333333333333</v>
+      </c>
+      <c r="H126" t="n">
         <v>851.1166666666667</v>
       </c>
-      <c r="H126" t="n">
-        <v>0</v>
-      </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>0</v>
+      </c>
       <c r="K126" t="inlineStr"/>
       <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
+      <c r="M126" t="inlineStr"/>
+      <c r="N126" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4823,18 +5203,21 @@
         <v>686.4924999999999</v>
       </c>
       <c r="G127" t="n">
+        <v>847.2666666666667</v>
+      </c>
+      <c r="H127" t="n">
         <v>850.8166666666667</v>
       </c>
-      <c r="H127" t="n">
-        <v>0</v>
-      </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>0</v>
+      </c>
       <c r="K127" t="inlineStr"/>
       <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
+      <c r="M127" t="inlineStr"/>
+      <c r="N127" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4858,18 +5241,21 @@
         <v>76.43940000000001</v>
       </c>
       <c r="G128" t="n">
+        <v>846.4666666666667</v>
+      </c>
+      <c r="H128" t="n">
         <v>850.5</v>
       </c>
-      <c r="H128" t="n">
-        <v>0</v>
-      </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>0</v>
+      </c>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
+      <c r="M128" t="inlineStr"/>
+      <c r="N128" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4893,18 +5279,21 @@
         <v>400</v>
       </c>
       <c r="G129" t="n">
+        <v>845.9333333333333</v>
+      </c>
+      <c r="H129" t="n">
         <v>850.2333333333333</v>
       </c>
-      <c r="H129" t="n">
-        <v>0</v>
-      </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>0</v>
+      </c>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
+      <c r="M129" t="inlineStr"/>
+      <c r="N129" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4928,18 +5317,21 @@
         <v>43.5531</v>
       </c>
       <c r="G130" t="n">
+        <v>845.2666666666667</v>
+      </c>
+      <c r="H130" t="n">
         <v>849.9666666666667</v>
       </c>
-      <c r="H130" t="n">
-        <v>0</v>
-      </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>0</v>
+      </c>
       <c r="K130" t="inlineStr"/>
       <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
+      <c r="M130" t="inlineStr"/>
+      <c r="N130" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4963,18 +5355,21 @@
         <v>704.5178</v>
       </c>
       <c r="G131" t="n">
+        <v>844.6666666666666</v>
+      </c>
+      <c r="H131" t="n">
         <v>849.6</v>
       </c>
-      <c r="H131" t="n">
-        <v>0</v>
-      </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>0</v>
+      </c>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
+      <c r="M131" t="inlineStr"/>
+      <c r="N131" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4998,18 +5393,21 @@
         <v>2135.5001</v>
       </c>
       <c r="G132" t="n">
+        <v>844</v>
+      </c>
+      <c r="H132" t="n">
         <v>849.3</v>
       </c>
-      <c r="H132" t="n">
-        <v>0</v>
-      </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>0</v>
+      </c>
       <c r="K132" t="inlineStr"/>
       <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
+      <c r="M132" t="inlineStr"/>
+      <c r="N132" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5033,18 +5431,21 @@
         <v>169.2908</v>
       </c>
       <c r="G133" t="n">
+        <v>843.6666666666666</v>
+      </c>
+      <c r="H133" t="n">
         <v>849.0833333333334</v>
       </c>
-      <c r="H133" t="n">
-        <v>0</v>
-      </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>0</v>
+      </c>
       <c r="K133" t="inlineStr"/>
       <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
+      <c r="M133" t="inlineStr"/>
+      <c r="N133" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5068,18 +5469,21 @@
         <v>128.4198</v>
       </c>
       <c r="G134" t="n">
+        <v>843.2666666666667</v>
+      </c>
+      <c r="H134" t="n">
         <v>848.9166666666666</v>
       </c>
-      <c r="H134" t="n">
-        <v>0</v>
-      </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>0</v>
+      </c>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
+      <c r="M134" t="inlineStr"/>
+      <c r="N134" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5103,18 +5507,21 @@
         <v>865.6896</v>
       </c>
       <c r="G135" t="n">
+        <v>842.6</v>
+      </c>
+      <c r="H135" t="n">
         <v>848.7333333333333</v>
       </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>0</v>
+      </c>
       <c r="K135" t="inlineStr"/>
       <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
+      <c r="M135" t="inlineStr"/>
+      <c r="N135" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5138,18 +5545,21 @@
         <v>400.9759</v>
       </c>
       <c r="G136" t="n">
+        <v>842.1333333333333</v>
+      </c>
+      <c r="H136" t="n">
         <v>848.5166666666667</v>
       </c>
-      <c r="H136" t="n">
-        <v>0</v>
-      </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>0</v>
+      </c>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
+      <c r="M136" t="inlineStr"/>
+      <c r="N136" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5173,18 +5583,21 @@
         <v>300.1512</v>
       </c>
       <c r="G137" t="n">
+        <v>841.6</v>
+      </c>
+      <c r="H137" t="n">
         <v>848.2166666666667</v>
       </c>
-      <c r="H137" t="n">
-        <v>0</v>
-      </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>0</v>
+      </c>
       <c r="K137" t="inlineStr"/>
       <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
+      <c r="M137" t="inlineStr"/>
+      <c r="N137" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5208,18 +5621,21 @@
         <v>102.373</v>
       </c>
       <c r="G138" t="n">
+        <v>840.8666666666667</v>
+      </c>
+      <c r="H138" t="n">
         <v>847.9333333333333</v>
       </c>
-      <c r="H138" t="n">
-        <v>0</v>
-      </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>0</v>
+      </c>
       <c r="K138" t="inlineStr"/>
       <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
+      <c r="M138" t="inlineStr"/>
+      <c r="N138" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5243,18 +5659,21 @@
         <v>33.07</v>
       </c>
       <c r="G139" t="n">
+        <v>840</v>
+      </c>
+      <c r="H139" t="n">
         <v>847.55</v>
       </c>
-      <c r="H139" t="n">
-        <v>0</v>
-      </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>0</v>
+      </c>
       <c r="K139" t="inlineStr"/>
       <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
+      <c r="M139" t="inlineStr"/>
+      <c r="N139" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5278,18 +5697,21 @@
         <v>33.3</v>
       </c>
       <c r="G140" t="n">
+        <v>839.5333333333333</v>
+      </c>
+      <c r="H140" t="n">
         <v>847.2333333333333</v>
       </c>
-      <c r="H140" t="n">
-        <v>0</v>
-      </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>0</v>
+      </c>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
+      <c r="M140" t="inlineStr"/>
+      <c r="N140" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5313,18 +5735,21 @@
         <v>63.0026</v>
       </c>
       <c r="G141" t="n">
+        <v>838.9333333333333</v>
+      </c>
+      <c r="H141" t="n">
         <v>846.8833333333333</v>
       </c>
-      <c r="H141" t="n">
-        <v>0</v>
-      </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
+      <c r="M141" t="inlineStr"/>
+      <c r="N141" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5348,22 +5773,21 @@
         <v>101.04</v>
       </c>
       <c r="G142" t="n">
+        <v>838.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>846.55</v>
       </c>
-      <c r="H142" t="n">
-        <v>1</v>
-      </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
       <c r="J142" t="n">
-        <v>834</v>
-      </c>
-      <c r="K142" t="n">
-        <v>834</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
+      <c r="M142" t="inlineStr"/>
+      <c r="N142" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5387,151 +5811,155 @@
         <v>600</v>
       </c>
       <c r="G143" t="n">
+        <v>837.8666666666667</v>
+      </c>
+      <c r="H143" t="n">
         <v>846.1333333333333</v>
       </c>
-      <c r="H143" t="n">
-        <v>1</v>
-      </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
       <c r="J143" t="n">
+        <v>0</v>
+      </c>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
+      <c r="M143" t="inlineStr"/>
+      <c r="N143" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="n">
         <v>835</v>
       </c>
-      <c r="K143" t="n">
+      <c r="C144" t="n">
+        <v>835</v>
+      </c>
+      <c r="D144" t="n">
+        <v>835</v>
+      </c>
+      <c r="E144" t="n">
+        <v>835</v>
+      </c>
+      <c r="F144" t="n">
+        <v>6.3612</v>
+      </c>
+      <c r="G144" t="n">
+        <v>837.4666666666667</v>
+      </c>
+      <c r="H144" t="n">
+        <v>845.7666666666667</v>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>0</v>
+      </c>
+      <c r="K144" t="n">
+        <v>833</v>
+      </c>
+      <c r="L144" t="n">
+        <v>833</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
+      <c r="N144" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="n">
         <v>834</v>
       </c>
-      <c r="L143" t="inlineStr">
+      <c r="C145" t="n">
+        <v>834</v>
+      </c>
+      <c r="D145" t="n">
+        <v>834</v>
+      </c>
+      <c r="E145" t="n">
+        <v>834</v>
+      </c>
+      <c r="F145" t="n">
+        <v>1.8368</v>
+      </c>
+      <c r="G145" t="n">
+        <v>837</v>
+      </c>
+      <c r="H145" t="n">
+        <v>845.4166666666666</v>
+      </c>
+      <c r="I145" t="n">
+        <v>1</v>
+      </c>
+      <c r="J145" t="n">
+        <v>0</v>
+      </c>
+      <c r="K145" t="n">
+        <v>835</v>
+      </c>
+      <c r="L145" t="n">
+        <v>833</v>
+      </c>
+      <c r="M145" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
-        <v>142</v>
-      </c>
-      <c r="B144" t="n">
-        <v>835</v>
-      </c>
-      <c r="C144" t="n">
-        <v>835</v>
-      </c>
-      <c r="D144" t="n">
-        <v>835</v>
-      </c>
-      <c r="E144" t="n">
-        <v>835</v>
-      </c>
-      <c r="F144" t="n">
-        <v>6.3612</v>
-      </c>
-      <c r="G144" t="n">
-        <v>845.7666666666667</v>
-      </c>
-      <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
-      <c r="J144" t="n">
+      <c r="N145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="n">
+        <v>834</v>
+      </c>
+      <c r="C146" t="n">
+        <v>834</v>
+      </c>
+      <c r="D146" t="n">
+        <v>834</v>
+      </c>
+      <c r="E146" t="n">
+        <v>834</v>
+      </c>
+      <c r="F146" t="n">
+        <v>1.3434</v>
+      </c>
+      <c r="G146" t="n">
+        <v>836.6</v>
+      </c>
+      <c r="H146" t="n">
+        <v>845.1333333333333</v>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>834</v>
+      </c>
+      <c r="L146" t="n">
         <v>833</v>
       </c>
-      <c r="K144" t="n">
-        <v>834</v>
-      </c>
-      <c r="L144" t="inlineStr">
+      <c r="M146" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
-        <v>143</v>
-      </c>
-      <c r="B145" t="n">
-        <v>834</v>
-      </c>
-      <c r="C145" t="n">
-        <v>834</v>
-      </c>
-      <c r="D145" t="n">
-        <v>834</v>
-      </c>
-      <c r="E145" t="n">
-        <v>834</v>
-      </c>
-      <c r="F145" t="n">
-        <v>1.8368</v>
-      </c>
-      <c r="G145" t="n">
-        <v>845.4166666666666</v>
-      </c>
-      <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
-      <c r="J145" t="n">
-        <v>835</v>
-      </c>
-      <c r="K145" t="n">
-        <v>835</v>
-      </c>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
-        <v>144</v>
-      </c>
-      <c r="B146" t="n">
-        <v>834</v>
-      </c>
-      <c r="C146" t="n">
-        <v>834</v>
-      </c>
-      <c r="D146" t="n">
-        <v>834</v>
-      </c>
-      <c r="E146" t="n">
-        <v>834</v>
-      </c>
-      <c r="F146" t="n">
-        <v>1.3434</v>
-      </c>
-      <c r="G146" t="n">
-        <v>845.1333333333333</v>
-      </c>
-      <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
-      <c r="J146" t="n">
-        <v>834</v>
-      </c>
-      <c r="K146" t="n">
-        <v>835</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="M146" t="n">
+      <c r="N146" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5555,26 +5983,29 @@
         <v>63.022</v>
       </c>
       <c r="G147" t="n">
+        <v>836.1333333333333</v>
+      </c>
+      <c r="H147" t="n">
         <v>844.7666666666667</v>
       </c>
-      <c r="H147" t="n">
-        <v>1</v>
-      </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
         <v>834</v>
       </c>
-      <c r="K147" t="n">
-        <v>835</v>
-      </c>
-      <c r="L147" t="inlineStr">
+      <c r="L147" t="n">
+        <v>833</v>
+      </c>
+      <c r="M147" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="M147" t="n">
+      <c r="N147" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5598,24 +6029,29 @@
         <v>21.7108</v>
       </c>
       <c r="G148" t="n">
+        <v>835.6666666666666</v>
+      </c>
+      <c r="H148" t="n">
         <v>844.5</v>
       </c>
-      <c r="H148" t="n">
-        <v>0</v>
-      </c>
       <c r="I148" t="n">
-        <v>0</v>
-      </c>
-      <c r="J148" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>0</v>
+      </c>
       <c r="K148" t="n">
-        <v>835</v>
-      </c>
-      <c r="L148" t="inlineStr">
+        <v>833</v>
+      </c>
+      <c r="L148" t="n">
+        <v>833</v>
+      </c>
+      <c r="M148" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M148" t="n">
+      <c r="N148" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5639,24 +6075,29 @@
         <v>52.712</v>
       </c>
       <c r="G149" t="n">
+        <v>835.4</v>
+      </c>
+      <c r="H149" t="n">
         <v>844.3</v>
       </c>
-      <c r="H149" t="n">
-        <v>0</v>
-      </c>
       <c r="I149" t="n">
-        <v>0</v>
-      </c>
-      <c r="J149" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
       <c r="K149" t="n">
-        <v>835</v>
-      </c>
-      <c r="L149" t="inlineStr">
+        <v>836</v>
+      </c>
+      <c r="L149" t="n">
+        <v>833</v>
+      </c>
+      <c r="M149" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M149" t="n">
+      <c r="N149" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5680,24 +6121,29 @@
         <v>111.05</v>
       </c>
       <c r="G150" t="n">
+        <v>835.2</v>
+      </c>
+      <c r="H150" t="n">
         <v>844.05</v>
       </c>
-      <c r="H150" t="n">
-        <v>0</v>
-      </c>
       <c r="I150" t="n">
-        <v>0</v>
-      </c>
-      <c r="J150" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0</v>
+      </c>
       <c r="K150" t="n">
-        <v>835</v>
-      </c>
-      <c r="L150" t="inlineStr">
+        <v>838</v>
+      </c>
+      <c r="L150" t="n">
+        <v>833</v>
+      </c>
+      <c r="M150" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M150" t="n">
+      <c r="N150" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5721,24 +6167,29 @@
         <v>2.3159</v>
       </c>
       <c r="G151" t="n">
+        <v>835.1333333333333</v>
+      </c>
+      <c r="H151" t="n">
         <v>843.8166666666667</v>
       </c>
-      <c r="H151" t="n">
-        <v>0</v>
-      </c>
       <c r="I151" t="n">
-        <v>0</v>
-      </c>
-      <c r="J151" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
       <c r="K151" t="n">
-        <v>835</v>
-      </c>
-      <c r="L151" t="inlineStr">
+        <v>838</v>
+      </c>
+      <c r="L151" t="n">
+        <v>833</v>
+      </c>
+      <c r="M151" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M151" t="n">
+      <c r="N151" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5762,24 +6213,29 @@
         <v>217.1941</v>
       </c>
       <c r="G152" t="n">
+        <v>835.2</v>
+      </c>
+      <c r="H152" t="n">
         <v>843.55</v>
       </c>
-      <c r="H152" t="n">
-        <v>0</v>
-      </c>
       <c r="I152" t="n">
-        <v>0</v>
-      </c>
-      <c r="J152" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
       <c r="K152" t="n">
-        <v>835</v>
-      </c>
-      <c r="L152" t="inlineStr">
+        <v>838</v>
+      </c>
+      <c r="L152" t="n">
+        <v>833</v>
+      </c>
+      <c r="M152" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M152" t="n">
+      <c r="N152" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5803,24 +6259,29 @@
         <v>3.1357</v>
       </c>
       <c r="G153" t="n">
+        <v>835.6</v>
+      </c>
+      <c r="H153" t="n">
         <v>843.3666666666667</v>
       </c>
-      <c r="H153" t="n">
-        <v>0</v>
-      </c>
       <c r="I153" t="n">
-        <v>0</v>
-      </c>
-      <c r="J153" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0</v>
+      </c>
       <c r="K153" t="n">
-        <v>835</v>
-      </c>
-      <c r="L153" t="inlineStr">
+        <v>838</v>
+      </c>
+      <c r="L153" t="n">
+        <v>833</v>
+      </c>
+      <c r="M153" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M153" t="n">
+      <c r="N153" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5844,24 +6305,29 @@
         <v>296.8643</v>
       </c>
       <c r="G154" t="n">
+        <v>836</v>
+      </c>
+      <c r="H154" t="n">
         <v>843.2666666666667</v>
       </c>
-      <c r="H154" t="n">
-        <v>0</v>
-      </c>
       <c r="I154" t="n">
-        <v>0</v>
-      </c>
-      <c r="J154" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
       <c r="K154" t="n">
-        <v>835</v>
-      </c>
-      <c r="L154" t="inlineStr">
+        <v>839</v>
+      </c>
+      <c r="L154" t="n">
+        <v>833</v>
+      </c>
+      <c r="M154" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M154" t="n">
+      <c r="N154" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5885,24 +6351,29 @@
         <v>348.5494</v>
       </c>
       <c r="G155" t="n">
+        <v>836.3333333333334</v>
+      </c>
+      <c r="H155" t="n">
         <v>843.2</v>
       </c>
-      <c r="H155" t="n">
-        <v>0</v>
-      </c>
       <c r="I155" t="n">
-        <v>0</v>
-      </c>
-      <c r="J155" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>0</v>
+      </c>
       <c r="K155" t="n">
-        <v>835</v>
-      </c>
-      <c r="L155" t="inlineStr">
+        <v>839</v>
+      </c>
+      <c r="L155" t="n">
+        <v>833</v>
+      </c>
+      <c r="M155" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M155" t="n">
+      <c r="N155" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5926,24 +6397,29 @@
         <v>20</v>
       </c>
       <c r="G156" t="n">
+        <v>837</v>
+      </c>
+      <c r="H156" t="n">
         <v>843.1166666666667</v>
       </c>
-      <c r="H156" t="n">
-        <v>0</v>
-      </c>
       <c r="I156" t="n">
-        <v>0</v>
-      </c>
-      <c r="J156" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
       <c r="K156" t="n">
-        <v>835</v>
-      </c>
-      <c r="L156" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="L156" t="n">
+        <v>833</v>
+      </c>
+      <c r="M156" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M156" t="n">
+      <c r="N156" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5967,24 +6443,29 @@
         <v>100.1833</v>
       </c>
       <c r="G157" t="n">
+        <v>837.5333333333333</v>
+      </c>
+      <c r="H157" t="n">
         <v>843.0166666666667</v>
       </c>
-      <c r="H157" t="n">
-        <v>0</v>
-      </c>
       <c r="I157" t="n">
-        <v>0</v>
-      </c>
-      <c r="J157" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
       <c r="K157" t="n">
-        <v>835</v>
-      </c>
-      <c r="L157" t="inlineStr">
+        <v>844</v>
+      </c>
+      <c r="L157" t="n">
+        <v>833</v>
+      </c>
+      <c r="M157" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M157" t="n">
+      <c r="N157" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6008,24 +6489,29 @@
         <v>1736.357</v>
       </c>
       <c r="G158" t="n">
+        <v>838.2666666666667</v>
+      </c>
+      <c r="H158" t="n">
         <v>842.9333333333333</v>
       </c>
-      <c r="H158" t="n">
-        <v>0</v>
-      </c>
       <c r="I158" t="n">
-        <v>0</v>
-      </c>
-      <c r="J158" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J158" t="n">
+        <v>0</v>
+      </c>
       <c r="K158" t="n">
-        <v>835</v>
-      </c>
-      <c r="L158" t="inlineStr">
+        <v>843</v>
+      </c>
+      <c r="L158" t="n">
+        <v>833</v>
+      </c>
+      <c r="M158" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M158" t="n">
+      <c r="N158" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6049,24 +6535,29 @@
         <v>8.932700000000001</v>
       </c>
       <c r="G159" t="n">
+        <v>839.1333333333333</v>
+      </c>
+      <c r="H159" t="n">
         <v>842.8833333333333</v>
       </c>
-      <c r="H159" t="n">
-        <v>0</v>
-      </c>
       <c r="I159" t="n">
-        <v>0</v>
-      </c>
-      <c r="J159" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J159" t="n">
+        <v>0</v>
+      </c>
       <c r="K159" t="n">
-        <v>835</v>
-      </c>
-      <c r="L159" t="inlineStr">
+        <v>844</v>
+      </c>
+      <c r="L159" t="n">
+        <v>833</v>
+      </c>
+      <c r="M159" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M159" t="n">
+      <c r="N159" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6090,24 +6581,29 @@
         <v>31.0673</v>
       </c>
       <c r="G160" t="n">
+        <v>840.0666666666667</v>
+      </c>
+      <c r="H160" t="n">
         <v>842.85</v>
       </c>
-      <c r="H160" t="n">
-        <v>0</v>
-      </c>
       <c r="I160" t="n">
-        <v>0</v>
-      </c>
-      <c r="J160" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J160" t="n">
+        <v>0</v>
+      </c>
       <c r="K160" t="n">
-        <v>835</v>
-      </c>
-      <c r="L160" t="inlineStr">
+        <v>848</v>
+      </c>
+      <c r="L160" t="n">
+        <v>833</v>
+      </c>
+      <c r="M160" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M160" t="n">
+      <c r="N160" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6131,24 +6627,29 @@
         <v>90.0026</v>
       </c>
       <c r="G161" t="n">
+        <v>840.9333333333333</v>
+      </c>
+      <c r="H161" t="n">
         <v>842.8166666666667</v>
       </c>
-      <c r="H161" t="n">
-        <v>0</v>
-      </c>
       <c r="I161" t="n">
-        <v>0</v>
-      </c>
-      <c r="J161" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J161" t="n">
+        <v>0</v>
+      </c>
       <c r="K161" t="n">
-        <v>835</v>
-      </c>
-      <c r="L161" t="inlineStr">
+        <v>848</v>
+      </c>
+      <c r="L161" t="n">
+        <v>833</v>
+      </c>
+      <c r="M161" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M161" t="n">
+      <c r="N161" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6172,24 +6673,29 @@
         <v>38.6765</v>
       </c>
       <c r="G162" t="n">
+        <v>841.8666666666667</v>
+      </c>
+      <c r="H162" t="n">
         <v>842.85</v>
       </c>
-      <c r="H162" t="n">
-        <v>0</v>
-      </c>
       <c r="I162" t="n">
-        <v>0</v>
-      </c>
-      <c r="J162" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J162" t="n">
+        <v>0</v>
+      </c>
       <c r="K162" t="n">
-        <v>835</v>
-      </c>
-      <c r="L162" t="inlineStr">
+        <v>847</v>
+      </c>
+      <c r="L162" t="n">
+        <v>833</v>
+      </c>
+      <c r="M162" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M162" t="n">
+      <c r="N162" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6213,24 +6719,29 @@
         <v>247.7959</v>
       </c>
       <c r="G163" t="n">
+        <v>842.6666666666666</v>
+      </c>
+      <c r="H163" t="n">
         <v>842.85</v>
       </c>
-      <c r="H163" t="n">
-        <v>0</v>
-      </c>
       <c r="I163" t="n">
-        <v>0</v>
-      </c>
-      <c r="J163" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J163" t="n">
+        <v>0</v>
+      </c>
       <c r="K163" t="n">
-        <v>835</v>
-      </c>
-      <c r="L163" t="inlineStr">
+        <v>847</v>
+      </c>
+      <c r="L163" t="n">
+        <v>833</v>
+      </c>
+      <c r="M163" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M163" t="n">
+      <c r="N163" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6254,24 +6765,29 @@
         <v>779.1969</v>
       </c>
       <c r="G164" t="n">
+        <v>843.2</v>
+      </c>
+      <c r="H164" t="n">
         <v>842.8666666666667</v>
       </c>
-      <c r="H164" t="n">
-        <v>0</v>
-      </c>
       <c r="I164" t="n">
-        <v>0</v>
-      </c>
-      <c r="J164" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J164" t="n">
+        <v>0</v>
+      </c>
       <c r="K164" t="n">
-        <v>835</v>
-      </c>
-      <c r="L164" t="inlineStr">
+        <v>848</v>
+      </c>
+      <c r="L164" t="n">
+        <v>833</v>
+      </c>
+      <c r="M164" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M164" t="n">
+      <c r="N164" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6295,24 +6811,29 @@
         <v>352.0804220398593</v>
       </c>
       <c r="G165" t="n">
+        <v>844.2</v>
+      </c>
+      <c r="H165" t="n">
         <v>843</v>
       </c>
-      <c r="H165" t="n">
-        <v>0</v>
-      </c>
       <c r="I165" t="n">
-        <v>0</v>
-      </c>
-      <c r="J165" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J165" t="n">
+        <v>0</v>
+      </c>
       <c r="K165" t="n">
-        <v>835</v>
-      </c>
-      <c r="L165" t="inlineStr">
+        <v>846</v>
+      </c>
+      <c r="L165" t="n">
+        <v>833</v>
+      </c>
+      <c r="M165" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M165" t="n">
+      <c r="N165" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6336,24 +6857,29 @@
         <v>12</v>
       </c>
       <c r="G166" t="n">
+        <v>845.0666666666667</v>
+      </c>
+      <c r="H166" t="n">
         <v>843.0333333333333</v>
       </c>
-      <c r="H166" t="n">
-        <v>0</v>
-      </c>
       <c r="I166" t="n">
-        <v>0</v>
-      </c>
-      <c r="J166" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
       <c r="K166" t="n">
-        <v>835</v>
-      </c>
-      <c r="L166" t="inlineStr">
+        <v>853</v>
+      </c>
+      <c r="L166" t="n">
+        <v>833</v>
+      </c>
+      <c r="M166" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M166" t="n">
+      <c r="N166" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6377,24 +6903,27 @@
         <v>537.7658</v>
       </c>
       <c r="G167" t="n">
+        <v>845.8666666666667</v>
+      </c>
+      <c r="H167" t="n">
         <v>843.0333333333333</v>
       </c>
-      <c r="H167" t="n">
-        <v>0</v>
-      </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="n">
-        <v>835</v>
-      </c>
-      <c r="L167" t="inlineStr">
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>833</v>
+      </c>
+      <c r="M167" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M167" t="n">
+      <c r="N167" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6418,24 +6947,27 @@
         <v>30.3227</v>
       </c>
       <c r="G168" t="n">
+        <v>846.4666666666667</v>
+      </c>
+      <c r="H168" t="n">
         <v>842.9833333333333</v>
       </c>
-      <c r="H168" t="n">
-        <v>0</v>
-      </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="n">
-        <v>835</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>833</v>
+      </c>
+      <c r="M168" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M168" t="n">
+      <c r="N168" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6459,24 +6991,27 @@
         <v>5</v>
       </c>
       <c r="G169" t="n">
+        <v>847.0666666666667</v>
+      </c>
+      <c r="H169" t="n">
         <v>843.0333333333333</v>
       </c>
-      <c r="H169" t="n">
-        <v>0</v>
-      </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="n">
-        <v>835</v>
-      </c>
-      <c r="L169" t="inlineStr">
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>833</v>
+      </c>
+      <c r="M169" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M169" t="n">
+      <c r="N169" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6500,24 +7035,27 @@
         <v>41.6773</v>
       </c>
       <c r="G170" t="n">
+        <v>847.5333333333333</v>
+      </c>
+      <c r="H170" t="n">
         <v>842.9833333333333</v>
       </c>
-      <c r="H170" t="n">
-        <v>0</v>
-      </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="n">
-        <v>835</v>
-      </c>
-      <c r="L170" t="inlineStr">
+      <c r="J170" t="n">
+        <v>0</v>
+      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>833</v>
+      </c>
+      <c r="M170" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M170" t="n">
+      <c r="N170" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6541,24 +7079,27 @@
         <v>215.55</v>
       </c>
       <c r="G171" t="n">
+        <v>847.8</v>
+      </c>
+      <c r="H171" t="n">
         <v>842.9166666666666</v>
       </c>
-      <c r="H171" t="n">
-        <v>0</v>
-      </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="n">
-        <v>835</v>
-      </c>
-      <c r="L171" t="inlineStr">
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>833</v>
+      </c>
+      <c r="M171" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M171" t="n">
+      <c r="N171" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6582,24 +7123,27 @@
         <v>40.06</v>
       </c>
       <c r="G172" t="n">
+        <v>848.1333333333333</v>
+      </c>
+      <c r="H172" t="n">
         <v>842.8333333333334</v>
       </c>
-      <c r="H172" t="n">
-        <v>0</v>
-      </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="n">
-        <v>835</v>
-      </c>
-      <c r="L172" t="inlineStr">
+      <c r="J172" t="n">
+        <v>0</v>
+      </c>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>833</v>
+      </c>
+      <c r="M172" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M172" t="n">
+      <c r="N172" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6623,24 +7167,27 @@
         <v>207.4375</v>
       </c>
       <c r="G173" t="n">
+        <v>848.4</v>
+      </c>
+      <c r="H173" t="n">
         <v>842.75</v>
       </c>
-      <c r="H173" t="n">
-        <v>0</v>
-      </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="n">
-        <v>835</v>
-      </c>
-      <c r="L173" t="inlineStr">
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>833</v>
+      </c>
+      <c r="M173" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M173" t="n">
+      <c r="N173" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6664,24 +7211,27 @@
         <v>149.8057</v>
       </c>
       <c r="G174" t="n">
+        <v>848.6</v>
+      </c>
+      <c r="H174" t="n">
         <v>842.7833333333333</v>
       </c>
-      <c r="H174" t="n">
-        <v>0</v>
-      </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="n">
-        <v>835</v>
-      </c>
-      <c r="L174" t="inlineStr">
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>833</v>
+      </c>
+      <c r="M174" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M174" t="n">
+      <c r="N174" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6705,24 +7255,27 @@
         <v>82.5018</v>
       </c>
       <c r="G175" t="n">
+        <v>848.8</v>
+      </c>
+      <c r="H175" t="n">
         <v>842.7833333333333</v>
       </c>
-      <c r="H175" t="n">
-        <v>0</v>
-      </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="n">
-        <v>835</v>
-      </c>
-      <c r="L175" t="inlineStr">
+      <c r="J175" t="n">
+        <v>0</v>
+      </c>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>833</v>
+      </c>
+      <c r="M175" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M175" t="n">
+      <c r="N175" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6746,24 +7299,27 @@
         <v>1115.2551</v>
       </c>
       <c r="G176" t="n">
+        <v>849.1333333333333</v>
+      </c>
+      <c r="H176" t="n">
         <v>842.8333333333334</v>
       </c>
-      <c r="H176" t="n">
-        <v>0</v>
-      </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="n">
-        <v>835</v>
-      </c>
-      <c r="L176" t="inlineStr">
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>833</v>
+      </c>
+      <c r="M176" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M176" t="n">
+      <c r="N176" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6787,24 +7343,27 @@
         <v>28.5896</v>
       </c>
       <c r="G177" t="n">
+        <v>849.6666666666666</v>
+      </c>
+      <c r="H177" t="n">
         <v>842.9166666666666</v>
       </c>
-      <c r="H177" t="n">
-        <v>0</v>
-      </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="n">
-        <v>835</v>
-      </c>
-      <c r="L177" t="inlineStr">
+      <c r="J177" t="n">
+        <v>0</v>
+      </c>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>833</v>
+      </c>
+      <c r="M177" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M177" t="n">
+      <c r="N177" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6828,24 +7387,27 @@
         <v>594.4678</v>
       </c>
       <c r="G178" t="n">
+        <v>850.1333333333333</v>
+      </c>
+      <c r="H178" t="n">
         <v>843.0333333333333</v>
       </c>
-      <c r="H178" t="n">
-        <v>0</v>
-      </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="n">
-        <v>835</v>
-      </c>
-      <c r="L178" t="inlineStr">
+      <c r="J178" t="n">
+        <v>0</v>
+      </c>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>833</v>
+      </c>
+      <c r="M178" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M178" t="n">
+      <c r="N178" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6869,24 +7431,27 @@
         <v>721.054</v>
       </c>
       <c r="G179" t="n">
+        <v>850.6</v>
+      </c>
+      <c r="H179" t="n">
         <v>843.1166666666667</v>
       </c>
-      <c r="H179" t="n">
-        <v>0</v>
-      </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="n">
-        <v>835</v>
-      </c>
-      <c r="L179" t="inlineStr">
+      <c r="J179" t="n">
+        <v>0</v>
+      </c>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>833</v>
+      </c>
+      <c r="M179" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M179" t="n">
+      <c r="N179" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6910,24 +7475,27 @@
         <v>101.0093</v>
       </c>
       <c r="G180" t="n">
+        <v>850.7333333333333</v>
+      </c>
+      <c r="H180" t="n">
         <v>843.1833333333333</v>
       </c>
-      <c r="H180" t="n">
-        <v>0</v>
-      </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="n">
-        <v>835</v>
-      </c>
-      <c r="L180" t="inlineStr">
+      <c r="J180" t="n">
+        <v>0</v>
+      </c>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>833</v>
+      </c>
+      <c r="M180" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M180" t="n">
+      <c r="N180" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6951,24 +7519,27 @@
         <v>196.3218</v>
       </c>
       <c r="G181" t="n">
+        <v>850.7333333333333</v>
+      </c>
+      <c r="H181" t="n">
         <v>843.2666666666667</v>
       </c>
-      <c r="H181" t="n">
-        <v>0</v>
-      </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="n">
-        <v>835</v>
-      </c>
-      <c r="L181" t="inlineStr">
+      <c r="J181" t="n">
+        <v>0</v>
+      </c>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>833</v>
+      </c>
+      <c r="M181" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M181" t="n">
+      <c r="N181" t="n">
         <v>1</v>
       </c>
     </row>
@@ -6992,24 +7563,27 @@
         <v>25.5245</v>
       </c>
       <c r="G182" t="n">
+        <v>851.0666666666667</v>
+      </c>
+      <c r="H182" t="n">
         <v>843.4333333333333</v>
       </c>
-      <c r="H182" t="n">
-        <v>0</v>
-      </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="n">
-        <v>835</v>
-      </c>
-      <c r="L182" t="inlineStr">
+      <c r="J182" t="n">
+        <v>0</v>
+      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>833</v>
+      </c>
+      <c r="M182" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M182" t="n">
+      <c r="N182" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7033,24 +7607,27 @@
         <v>0.7331</v>
       </c>
       <c r="G183" t="n">
+        <v>851.5333333333333</v>
+      </c>
+      <c r="H183" t="n">
         <v>843.6166666666667</v>
       </c>
-      <c r="H183" t="n">
-        <v>0</v>
-      </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="n">
-        <v>835</v>
-      </c>
-      <c r="L183" t="inlineStr">
+      <c r="J183" t="n">
+        <v>0</v>
+      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>833</v>
+      </c>
+      <c r="M183" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M183" t="n">
+      <c r="N183" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7074,24 +7651,27 @@
         <v>100</v>
       </c>
       <c r="G184" t="n">
+        <v>852.0666666666667</v>
+      </c>
+      <c r="H184" t="n">
         <v>843.7833333333333</v>
       </c>
-      <c r="H184" t="n">
-        <v>0</v>
-      </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="n">
-        <v>835</v>
-      </c>
-      <c r="L184" t="inlineStr">
+      <c r="J184" t="n">
+        <v>0</v>
+      </c>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>833</v>
+      </c>
+      <c r="M184" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M184" t="n">
+      <c r="N184" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7115,24 +7695,27 @@
         <v>5062.8573</v>
       </c>
       <c r="G185" t="n">
+        <v>852.7333333333333</v>
+      </c>
+      <c r="H185" t="n">
         <v>844.0333333333333</v>
       </c>
-      <c r="H185" t="n">
-        <v>0</v>
-      </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="n">
-        <v>835</v>
-      </c>
-      <c r="L185" t="inlineStr">
+      <c r="J185" t="n">
+        <v>0</v>
+      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>833</v>
+      </c>
+      <c r="M185" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M185" t="n">
+      <c r="N185" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7156,24 +7739,27 @@
         <v>125.5249</v>
       </c>
       <c r="G186" t="n">
+        <v>853.4</v>
+      </c>
+      <c r="H186" t="n">
         <v>844.2833333333333</v>
       </c>
-      <c r="H186" t="n">
-        <v>0</v>
-      </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="n">
-        <v>835</v>
-      </c>
-      <c r="L186" t="inlineStr">
+      <c r="J186" t="n">
+        <v>0</v>
+      </c>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>833</v>
+      </c>
+      <c r="M186" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M186" t="n">
+      <c r="N186" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7197,24 +7783,27 @@
         <v>89.8366</v>
       </c>
       <c r="G187" t="n">
+        <v>854</v>
+      </c>
+      <c r="H187" t="n">
         <v>844.5166666666667</v>
       </c>
-      <c r="H187" t="n">
-        <v>0</v>
-      </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="n">
-        <v>835</v>
-      </c>
-      <c r="L187" t="inlineStr">
+      <c r="J187" t="n">
+        <v>0</v>
+      </c>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>833</v>
+      </c>
+      <c r="M187" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M187" t="n">
+      <c r="N187" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7238,24 +7827,27 @@
         <v>2.1912</v>
       </c>
       <c r="G188" t="n">
+        <v>854.6</v>
+      </c>
+      <c r="H188" t="n">
         <v>844.7833333333333</v>
       </c>
-      <c r="H188" t="n">
-        <v>0</v>
-      </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="n">
-        <v>835</v>
-      </c>
-      <c r="L188" t="inlineStr">
+      <c r="J188" t="n">
+        <v>0</v>
+      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>833</v>
+      </c>
+      <c r="M188" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M188" t="n">
+      <c r="N188" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7279,24 +7871,27 @@
         <v>1176.9107</v>
       </c>
       <c r="G189" t="n">
+        <v>854.8</v>
+      </c>
+      <c r="H189" t="n">
         <v>845</v>
       </c>
-      <c r="H189" t="n">
-        <v>0</v>
-      </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="n">
-        <v>835</v>
-      </c>
-      <c r="L189" t="inlineStr">
+      <c r="J189" t="n">
+        <v>0</v>
+      </c>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>833</v>
+      </c>
+      <c r="M189" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M189" t="n">
+      <c r="N189" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7320,24 +7915,27 @@
         <v>456.7565</v>
       </c>
       <c r="G190" t="n">
+        <v>855.1333333333333</v>
+      </c>
+      <c r="H190" t="n">
         <v>845.25</v>
       </c>
-      <c r="H190" t="n">
-        <v>0</v>
-      </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="n">
-        <v>835</v>
-      </c>
-      <c r="L190" t="inlineStr">
+      <c r="J190" t="n">
+        <v>0</v>
+      </c>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>833</v>
+      </c>
+      <c r="M190" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M190" t="n">
+      <c r="N190" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7361,24 +7959,27 @@
         <v>635.0321</v>
       </c>
       <c r="G191" t="n">
+        <v>855.4666666666667</v>
+      </c>
+      <c r="H191" t="n">
         <v>845.5333333333333</v>
       </c>
-      <c r="H191" t="n">
-        <v>0</v>
-      </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="n">
-        <v>835</v>
-      </c>
-      <c r="L191" t="inlineStr">
+      <c r="J191" t="n">
+        <v>0</v>
+      </c>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>833</v>
+      </c>
+      <c r="M191" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M191" t="n">
+      <c r="N191" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7402,24 +8003,27 @@
         <v>119.1806</v>
       </c>
       <c r="G192" t="n">
+        <v>855.6666666666666</v>
+      </c>
+      <c r="H192" t="n">
         <v>845.8333333333334</v>
       </c>
-      <c r="H192" t="n">
-        <v>0</v>
-      </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="n">
-        <v>835</v>
-      </c>
-      <c r="L192" t="inlineStr">
+      <c r="J192" t="n">
+        <v>0</v>
+      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>833</v>
+      </c>
+      <c r="M192" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M192" t="n">
+      <c r="N192" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7443,24 +8047,27 @@
         <v>219.9393</v>
       </c>
       <c r="G193" t="n">
+        <v>855.8666666666667</v>
+      </c>
+      <c r="H193" t="n">
         <v>846.0833333333334</v>
       </c>
-      <c r="H193" t="n">
-        <v>0</v>
-      </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="n">
-        <v>835</v>
-      </c>
-      <c r="L193" t="inlineStr">
+      <c r="J193" t="n">
+        <v>0</v>
+      </c>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>833</v>
+      </c>
+      <c r="M193" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M193" t="n">
+      <c r="N193" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7484,24 +8091,27 @@
         <v>37.0518</v>
       </c>
       <c r="G194" t="n">
+        <v>856.2</v>
+      </c>
+      <c r="H194" t="n">
         <v>846.35</v>
       </c>
-      <c r="H194" t="n">
-        <v>0</v>
-      </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="n">
-        <v>835</v>
-      </c>
-      <c r="L194" t="inlineStr">
+      <c r="J194" t="n">
+        <v>0</v>
+      </c>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>833</v>
+      </c>
+      <c r="M194" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M194" t="n">
+      <c r="N194" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7525,24 +8135,27 @@
         <v>46.554</v>
       </c>
       <c r="G195" t="n">
+        <v>856.4666666666667</v>
+      </c>
+      <c r="H195" t="n">
         <v>846.65</v>
       </c>
-      <c r="H195" t="n">
-        <v>0</v>
-      </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="n">
-        <v>835</v>
-      </c>
-      <c r="L195" t="inlineStr">
+      <c r="J195" t="n">
+        <v>0</v>
+      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>833</v>
+      </c>
+      <c r="M195" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M195" t="n">
+      <c r="N195" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7566,24 +8179,27 @@
         <v>6.5095</v>
       </c>
       <c r="G196" t="n">
+        <v>857</v>
+      </c>
+      <c r="H196" t="n">
         <v>846.9833333333333</v>
       </c>
-      <c r="H196" t="n">
-        <v>0</v>
-      </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="n">
-        <v>835</v>
-      </c>
-      <c r="L196" t="inlineStr">
+      <c r="J196" t="n">
+        <v>0</v>
+      </c>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>833</v>
+      </c>
+      <c r="M196" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M196" t="n">
+      <c r="N196" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7607,24 +8223,27 @@
         <v>2.7898</v>
       </c>
       <c r="G197" t="n">
+        <v>857.2666666666667</v>
+      </c>
+      <c r="H197" t="n">
         <v>847.35</v>
       </c>
-      <c r="H197" t="n">
-        <v>0</v>
-      </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="n">
-        <v>835</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="J197" t="n">
+        <v>0</v>
+      </c>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>833</v>
+      </c>
+      <c r="M197" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M197" t="n">
+      <c r="N197" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7648,24 +8267,27 @@
         <v>770.4573</v>
       </c>
       <c r="G198" t="n">
+        <v>857.6666666666666</v>
+      </c>
+      <c r="H198" t="n">
         <v>847.8166666666667</v>
       </c>
-      <c r="H198" t="n">
-        <v>0</v>
-      </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="inlineStr"/>
-      <c r="K198" t="n">
-        <v>835</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="J198" t="n">
+        <v>0</v>
+      </c>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>833</v>
+      </c>
+      <c r="M198" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M198" t="n">
+      <c r="N198" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7689,24 +8311,27 @@
         <v>231.0312</v>
       </c>
       <c r="G199" t="n">
+        <v>857.9333333333333</v>
+      </c>
+      <c r="H199" t="n">
         <v>848.2666666666667</v>
       </c>
-      <c r="H199" t="n">
-        <v>0</v>
-      </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="inlineStr"/>
-      <c r="K199" t="n">
-        <v>835</v>
-      </c>
-      <c r="L199" t="inlineStr">
+      <c r="J199" t="n">
+        <v>0</v>
+      </c>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>833</v>
+      </c>
+      <c r="M199" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
+      <c r="N199" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7730,24 +8355,27 @@
         <v>1.9458</v>
       </c>
       <c r="G200" t="n">
+        <v>858</v>
+      </c>
+      <c r="H200" t="n">
         <v>848.65</v>
       </c>
-      <c r="H200" t="n">
-        <v>0</v>
-      </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="inlineStr"/>
-      <c r="K200" t="n">
-        <v>835</v>
-      </c>
-      <c r="L200" t="inlineStr">
+      <c r="J200" t="n">
+        <v>0</v>
+      </c>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>833</v>
+      </c>
+      <c r="M200" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
+      <c r="N200" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7771,24 +8399,27 @@
         <v>36.7224</v>
       </c>
       <c r="G201" t="n">
+        <v>858</v>
+      </c>
+      <c r="H201" t="n">
         <v>849.05</v>
       </c>
-      <c r="H201" t="n">
-        <v>0</v>
-      </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="inlineStr"/>
-      <c r="K201" t="n">
-        <v>835</v>
-      </c>
-      <c r="L201" t="inlineStr">
+      <c r="J201" t="n">
+        <v>0</v>
+      </c>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>833</v>
+      </c>
+      <c r="M201" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M201" t="n">
+      <c r="N201" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7812,24 +8443,27 @@
         <v>47.2299</v>
       </c>
       <c r="G202" t="n">
+        <v>858.1333333333333</v>
+      </c>
+      <c r="H202" t="n">
         <v>849.45</v>
       </c>
-      <c r="H202" t="n">
-        <v>0</v>
-      </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="inlineStr"/>
-      <c r="K202" t="n">
-        <v>835</v>
-      </c>
-      <c r="L202" t="inlineStr">
+      <c r="J202" t="n">
+        <v>0</v>
+      </c>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>833</v>
+      </c>
+      <c r="M202" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
+      <c r="N202" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7853,24 +8487,27 @@
         <v>11.7706</v>
       </c>
       <c r="G203" t="n">
+        <v>858.0666666666667</v>
+      </c>
+      <c r="H203" t="n">
         <v>849.8333333333334</v>
       </c>
-      <c r="H203" t="n">
-        <v>0</v>
-      </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="inlineStr"/>
-      <c r="K203" t="n">
-        <v>835</v>
-      </c>
-      <c r="L203" t="inlineStr">
+      <c r="J203" t="n">
+        <v>0</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>833</v>
+      </c>
+      <c r="M203" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
+      <c r="N203" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7894,24 +8531,27 @@
         <v>83.5998</v>
       </c>
       <c r="G204" t="n">
+        <v>858.3333333333334</v>
+      </c>
+      <c r="H204" t="n">
         <v>850.2166666666667</v>
       </c>
-      <c r="H204" t="n">
-        <v>0</v>
-      </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="inlineStr"/>
-      <c r="K204" t="n">
-        <v>835</v>
-      </c>
-      <c r="L204" t="inlineStr">
+      <c r="J204" t="n">
+        <v>0</v>
+      </c>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>833</v>
+      </c>
+      <c r="M204" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M204" t="n">
+      <c r="N204" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7935,24 +8575,27 @@
         <v>653.9586</v>
       </c>
       <c r="G205" t="n">
+        <v>858.4666666666667</v>
+      </c>
+      <c r="H205" t="n">
         <v>850.6166666666667</v>
       </c>
-      <c r="H205" t="n">
-        <v>0</v>
-      </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="inlineStr"/>
-      <c r="K205" t="n">
-        <v>835</v>
-      </c>
-      <c r="L205" t="inlineStr">
+      <c r="J205" t="n">
+        <v>0</v>
+      </c>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>833</v>
+      </c>
+      <c r="M205" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
+      <c r="N205" t="n">
         <v>1</v>
       </c>
     </row>
@@ -7976,24 +8619,27 @@
         <v>182.59</v>
       </c>
       <c r="G206" t="n">
+        <v>858.5333333333333</v>
+      </c>
+      <c r="H206" t="n">
         <v>851.0166666666667</v>
       </c>
-      <c r="H206" t="n">
-        <v>0</v>
-      </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="inlineStr"/>
-      <c r="K206" t="n">
-        <v>835</v>
-      </c>
-      <c r="L206" t="inlineStr">
+      <c r="J206" t="n">
+        <v>0</v>
+      </c>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>833</v>
+      </c>
+      <c r="M206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
+      <c r="N206" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8017,24 +8663,27 @@
         <v>2376.5</v>
       </c>
       <c r="G207" t="n">
+        <v>858.6666666666666</v>
+      </c>
+      <c r="H207" t="n">
         <v>851.4666666666667</v>
       </c>
-      <c r="H207" t="n">
-        <v>0</v>
-      </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="inlineStr"/>
-      <c r="K207" t="n">
-        <v>835</v>
-      </c>
-      <c r="L207" t="inlineStr">
+      <c r="J207" t="n">
+        <v>0</v>
+      </c>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>833</v>
+      </c>
+      <c r="M207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
+      <c r="N207" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8058,24 +8707,27 @@
         <v>3914.2992</v>
       </c>
       <c r="G208" t="n">
+        <v>859.7333333333333</v>
+      </c>
+      <c r="H208" t="n">
         <v>852.1</v>
       </c>
-      <c r="H208" t="n">
-        <v>0</v>
-      </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="inlineStr"/>
-      <c r="K208" t="n">
-        <v>835</v>
-      </c>
-      <c r="L208" t="inlineStr">
+      <c r="J208" t="n">
+        <v>0</v>
+      </c>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>833</v>
+      </c>
+      <c r="M208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
+      <c r="N208" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8099,24 +8751,27 @@
         <v>1308.8069</v>
       </c>
       <c r="G209" t="n">
+        <v>863.2666666666667</v>
+      </c>
+      <c r="H209" t="n">
         <v>853.3166666666667</v>
       </c>
-      <c r="H209" t="n">
-        <v>0</v>
-      </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="inlineStr"/>
-      <c r="K209" t="n">
-        <v>835</v>
-      </c>
-      <c r="L209" t="inlineStr">
+      <c r="J209" t="n">
+        <v>0</v>
+      </c>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>833</v>
+      </c>
+      <c r="M209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
+      <c r="N209" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8140,24 +8795,27 @@
         <v>3896.1539</v>
       </c>
       <c r="G210" t="n">
+        <v>866.7333333333333</v>
+      </c>
+      <c r="H210" t="n">
         <v>854.5333333333333</v>
       </c>
-      <c r="H210" t="n">
-        <v>0</v>
-      </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="inlineStr"/>
-      <c r="K210" t="n">
-        <v>835</v>
-      </c>
-      <c r="L210" t="inlineStr">
+      <c r="J210" t="n">
+        <v>0</v>
+      </c>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>833</v>
+      </c>
+      <c r="M210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
+      <c r="N210" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8181,550 +8839,688 @@
         <v>5837.0189</v>
       </c>
       <c r="G211" t="n">
+        <v>870.1333333333333</v>
+      </c>
+      <c r="H211" t="n">
         <v>855.7333333333333</v>
       </c>
-      <c r="H211" t="n">
-        <v>0</v>
-      </c>
       <c r="I211" t="n">
-        <v>1</v>
-      </c>
-      <c r="J211" t="inlineStr"/>
-      <c r="K211" t="n">
-        <v>835</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="J211" t="n">
+        <v>0</v>
+      </c>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>833</v>
+      </c>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N211" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>906</v>
+      </c>
+      <c r="C212" t="n">
+        <v>906</v>
+      </c>
+      <c r="D212" t="n">
+        <v>910</v>
+      </c>
+      <c r="E212" t="n">
+        <v>906</v>
+      </c>
+      <c r="F212" t="n">
+        <v>534.0507</v>
+      </c>
+      <c r="G212" t="n">
+        <v>873.2666666666667</v>
+      </c>
+      <c r="H212" t="n">
+        <v>856.8666666666667</v>
+      </c>
+      <c r="I212" t="n">
+        <v>0</v>
+      </c>
+      <c r="J212" t="n">
+        <v>0</v>
+      </c>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>833</v>
+      </c>
+      <c r="M212" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>905</v>
+      </c>
+      <c r="C213" t="n">
+        <v>898</v>
+      </c>
+      <c r="D213" t="n">
+        <v>905</v>
+      </c>
+      <c r="E213" t="n">
+        <v>898</v>
+      </c>
+      <c r="F213" t="n">
+        <v>104.0064</v>
+      </c>
+      <c r="G213" t="n">
+        <v>875.7333333333333</v>
+      </c>
+      <c r="H213" t="n">
+        <v>857.85</v>
+      </c>
+      <c r="I213" t="n">
+        <v>0</v>
+      </c>
+      <c r="J213" t="n">
+        <v>0</v>
+      </c>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>833</v>
+      </c>
+      <c r="M213" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N213" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>899</v>
+      </c>
+      <c r="C214" t="n">
+        <v>900</v>
+      </c>
+      <c r="D214" t="n">
+        <v>900</v>
+      </c>
+      <c r="E214" t="n">
+        <v>899</v>
+      </c>
+      <c r="F214" t="n">
+        <v>331.603</v>
+      </c>
+      <c r="G214" t="n">
+        <v>878.4</v>
+      </c>
+      <c r="H214" t="n">
+        <v>858.8666666666667</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0</v>
+      </c>
+      <c r="J214" t="n">
+        <v>0</v>
+      </c>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>833</v>
+      </c>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N214" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>908</v>
+      </c>
+      <c r="C215" t="n">
+        <v>916</v>
+      </c>
+      <c r="D215" t="n">
+        <v>917</v>
+      </c>
+      <c r="E215" t="n">
+        <v>908</v>
+      </c>
+      <c r="F215" t="n">
+        <v>429.5035</v>
+      </c>
+      <c r="G215" t="n">
+        <v>882.2</v>
+      </c>
+      <c r="H215" t="n">
+        <v>860.1166666666667</v>
+      </c>
+      <c r="I215" t="n">
+        <v>0</v>
+      </c>
+      <c r="J215" t="n">
+        <v>0</v>
+      </c>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>833</v>
+      </c>
+      <c r="M215" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N215" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>916</v>
+      </c>
+      <c r="C216" t="n">
+        <v>912</v>
+      </c>
+      <c r="D216" t="n">
+        <v>917</v>
+      </c>
+      <c r="E216" t="n">
+        <v>912</v>
+      </c>
+      <c r="F216" t="n">
+        <v>1058.2229</v>
+      </c>
+      <c r="G216" t="n">
+        <v>885.8</v>
+      </c>
+      <c r="H216" t="n">
+        <v>861.25</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0</v>
+      </c>
+      <c r="J216" t="n">
+        <v>0</v>
+      </c>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>833</v>
+      </c>
+      <c r="M216" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N216" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>913</v>
+      </c>
+      <c r="C217" t="n">
+        <v>909</v>
+      </c>
+      <c r="D217" t="n">
+        <v>913</v>
+      </c>
+      <c r="E217" t="n">
+        <v>909</v>
+      </c>
+      <c r="F217" t="n">
+        <v>509.9998</v>
+      </c>
+      <c r="G217" t="n">
+        <v>889.1333333333333</v>
+      </c>
+      <c r="H217" t="n">
+        <v>862.35</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0</v>
+      </c>
+      <c r="J217" t="n">
+        <v>0</v>
+      </c>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>833</v>
+      </c>
+      <c r="M217" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N217" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>910</v>
+      </c>
+      <c r="C218" t="n">
+        <v>910</v>
+      </c>
+      <c r="D218" t="n">
+        <v>910</v>
+      </c>
+      <c r="E218" t="n">
+        <v>910</v>
+      </c>
+      <c r="F218" t="n">
+        <v>512.9772</v>
+      </c>
+      <c r="G218" t="n">
+        <v>892.7333333333333</v>
+      </c>
+      <c r="H218" t="n">
+        <v>863.45</v>
+      </c>
+      <c r="I218" t="n">
+        <v>0</v>
+      </c>
+      <c r="J218" t="n">
+        <v>0</v>
+      </c>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>833</v>
+      </c>
+      <c r="M218" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>909</v>
+      </c>
+      <c r="C219" t="n">
+        <v>901</v>
+      </c>
+      <c r="D219" t="n">
+        <v>909</v>
+      </c>
+      <c r="E219" t="n">
+        <v>901</v>
+      </c>
+      <c r="F219" t="n">
+        <v>264.4999</v>
+      </c>
+      <c r="G219" t="n">
+        <v>895.6</v>
+      </c>
+      <c r="H219" t="n">
+        <v>864.3333333333334</v>
+      </c>
+      <c r="I219" t="n">
+        <v>0</v>
+      </c>
+      <c r="J219" t="n">
+        <v>0</v>
+      </c>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>833</v>
+      </c>
+      <c r="M219" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N219" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>900</v>
+      </c>
+      <c r="C220" t="n">
+        <v>900</v>
+      </c>
+      <c r="D220" t="n">
+        <v>900</v>
+      </c>
+      <c r="E220" t="n">
+        <v>899</v>
+      </c>
+      <c r="F220" t="n">
+        <v>2103.3553</v>
+      </c>
+      <c r="G220" t="n">
+        <v>898.4</v>
+      </c>
+      <c r="H220" t="n">
+        <v>865.2</v>
+      </c>
+      <c r="I220" t="n">
+        <v>0</v>
+      </c>
+      <c r="J220" t="n">
+        <v>0</v>
+      </c>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>833</v>
+      </c>
+      <c r="M220" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>909</v>
+      </c>
+      <c r="C221" t="n">
+        <v>910</v>
+      </c>
+      <c r="D221" t="n">
+        <v>910</v>
+      </c>
+      <c r="E221" t="n">
+        <v>909</v>
+      </c>
+      <c r="F221" t="n">
+        <v>852.4121</v>
+      </c>
+      <c r="G221" t="n">
+        <v>901.8666666666667</v>
+      </c>
+      <c r="H221" t="n">
+        <v>866.25</v>
+      </c>
+      <c r="I221" t="n">
+        <v>0</v>
+      </c>
+      <c r="J221" t="n">
+        <v>0</v>
+      </c>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>833</v>
+      </c>
+      <c r="M221" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N221" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>909</v>
+      </c>
+      <c r="C222" t="n">
+        <v>911</v>
+      </c>
+      <c r="D222" t="n">
+        <v>911</v>
+      </c>
+      <c r="E222" t="n">
+        <v>909</v>
+      </c>
+      <c r="F222" t="n">
+        <v>215.6743</v>
+      </c>
+      <c r="G222" t="n">
+        <v>905.2666666666667</v>
+      </c>
+      <c r="H222" t="n">
+        <v>867.3166666666667</v>
+      </c>
+      <c r="I222" t="n">
+        <v>0</v>
+      </c>
+      <c r="J222" t="n">
+        <v>0</v>
+      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>833</v>
+      </c>
+      <c r="M222" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N222" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>910</v>
+      </c>
+      <c r="C223" t="n">
+        <v>910</v>
+      </c>
+      <c r="D223" t="n">
+        <v>912</v>
+      </c>
+      <c r="E223" t="n">
+        <v>910</v>
+      </c>
+      <c r="F223" t="n">
+        <v>1356.7933</v>
+      </c>
+      <c r="G223" t="n">
+        <v>907.6666666666666</v>
+      </c>
+      <c r="H223" t="n">
+        <v>868.35</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0</v>
+      </c>
+      <c r="J223" t="n">
+        <v>0</v>
+      </c>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>833</v>
+      </c>
+      <c r="M223" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N223" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>910</v>
+      </c>
+      <c r="C224" t="n">
+        <v>915</v>
+      </c>
+      <c r="D224" t="n">
+        <v>915</v>
+      </c>
+      <c r="E224" t="n">
+        <v>910</v>
+      </c>
+      <c r="F224" t="n">
+        <v>38.433</v>
+      </c>
+      <c r="G224" t="n">
+        <v>907.9333333333333</v>
+      </c>
+      <c r="H224" t="n">
+        <v>869.5</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0</v>
+      </c>
+      <c r="J224" t="n">
+        <v>0</v>
+      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>833</v>
+      </c>
+      <c r="M224" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N224" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>916</v>
+      </c>
+      <c r="C225" t="n">
+        <v>917</v>
+      </c>
+      <c r="D225" t="n">
+        <v>917</v>
+      </c>
+      <c r="E225" t="n">
+        <v>916</v>
+      </c>
+      <c r="F225" t="n">
+        <v>1608.4435</v>
+      </c>
+      <c r="G225" t="n">
+        <v>908.3333333333334</v>
+      </c>
+      <c r="H225" t="n">
+        <v>870.5666666666667</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0</v>
+      </c>
+      <c r="J225" t="n">
+        <v>0</v>
+      </c>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>833</v>
+      </c>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="N225" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>918</v>
+      </c>
+      <c r="C226" t="n">
+        <v>918</v>
+      </c>
+      <c r="D226" t="n">
+        <v>918</v>
+      </c>
+      <c r="E226" t="n">
+        <v>918</v>
+      </c>
+      <c r="F226" t="n">
+        <v>4336.2177</v>
+      </c>
+      <c r="G226" t="n">
+        <v>908.8666666666667</v>
+      </c>
+      <c r="H226" t="n">
+        <v>871.6833333333333</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0</v>
+      </c>
+      <c r="J226" t="n">
+        <v>1</v>
+      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>833</v>
+      </c>
+      <c r="M226" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1.084820359281437</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>906</v>
-      </c>
-      <c r="C212" t="n">
-        <v>906</v>
-      </c>
-      <c r="D212" t="n">
-        <v>910</v>
-      </c>
-      <c r="E212" t="n">
-        <v>906</v>
-      </c>
-      <c r="F212" t="n">
-        <v>534.0507</v>
-      </c>
-      <c r="G212" t="n">
-        <v>856.8666666666667</v>
-      </c>
-      <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="n">
-        <v>1</v>
-      </c>
-      <c r="J212" t="inlineStr"/>
-      <c r="K212" t="inlineStr"/>
-      <c r="L212" t="inlineStr"/>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>905</v>
-      </c>
-      <c r="C213" t="n">
-        <v>898</v>
-      </c>
-      <c r="D213" t="n">
-        <v>905</v>
-      </c>
-      <c r="E213" t="n">
-        <v>898</v>
-      </c>
-      <c r="F213" t="n">
-        <v>104.0064</v>
-      </c>
-      <c r="G213" t="n">
-        <v>857.85</v>
-      </c>
-      <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
-      <c r="L213" t="inlineStr"/>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>899</v>
-      </c>
-      <c r="C214" t="n">
-        <v>900</v>
-      </c>
-      <c r="D214" t="n">
-        <v>900</v>
-      </c>
-      <c r="E214" t="n">
-        <v>899</v>
-      </c>
-      <c r="F214" t="n">
-        <v>331.603</v>
-      </c>
-      <c r="G214" t="n">
-        <v>858.8666666666667</v>
-      </c>
-      <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
-      <c r="L214" t="inlineStr"/>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>908</v>
-      </c>
-      <c r="C215" t="n">
-        <v>916</v>
-      </c>
-      <c r="D215" t="n">
-        <v>917</v>
-      </c>
-      <c r="E215" t="n">
-        <v>908</v>
-      </c>
-      <c r="F215" t="n">
-        <v>429.5035</v>
-      </c>
-      <c r="G215" t="n">
-        <v>860.1166666666667</v>
-      </c>
-      <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
-      <c r="L215" t="inlineStr"/>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>916</v>
-      </c>
-      <c r="C216" t="n">
-        <v>912</v>
-      </c>
-      <c r="D216" t="n">
-        <v>917</v>
-      </c>
-      <c r="E216" t="n">
-        <v>912</v>
-      </c>
-      <c r="F216" t="n">
-        <v>1058.2229</v>
-      </c>
-      <c r="G216" t="n">
-        <v>861.25</v>
-      </c>
-      <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
-      <c r="L216" t="inlineStr"/>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>913</v>
-      </c>
-      <c r="C217" t="n">
-        <v>909</v>
-      </c>
-      <c r="D217" t="n">
-        <v>913</v>
-      </c>
-      <c r="E217" t="n">
-        <v>909</v>
-      </c>
-      <c r="F217" t="n">
-        <v>509.9998</v>
-      </c>
-      <c r="G217" t="n">
-        <v>862.35</v>
-      </c>
-      <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
-      <c r="L217" t="inlineStr"/>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>910</v>
-      </c>
-      <c r="C218" t="n">
-        <v>910</v>
-      </c>
-      <c r="D218" t="n">
-        <v>910</v>
-      </c>
-      <c r="E218" t="n">
-        <v>910</v>
-      </c>
-      <c r="F218" t="n">
-        <v>512.9772</v>
-      </c>
-      <c r="G218" t="n">
-        <v>863.45</v>
-      </c>
-      <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
-      <c r="L218" t="inlineStr"/>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>909</v>
-      </c>
-      <c r="C219" t="n">
-        <v>901</v>
-      </c>
-      <c r="D219" t="n">
-        <v>909</v>
-      </c>
-      <c r="E219" t="n">
-        <v>901</v>
-      </c>
-      <c r="F219" t="n">
-        <v>264.4999</v>
-      </c>
-      <c r="G219" t="n">
-        <v>864.3333333333334</v>
-      </c>
-      <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
-      <c r="L219" t="inlineStr"/>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>900</v>
-      </c>
-      <c r="C220" t="n">
-        <v>900</v>
-      </c>
-      <c r="D220" t="n">
-        <v>900</v>
-      </c>
-      <c r="E220" t="n">
-        <v>899</v>
-      </c>
-      <c r="F220" t="n">
-        <v>2103.3553</v>
-      </c>
-      <c r="G220" t="n">
-        <v>865.2</v>
-      </c>
-      <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
-      <c r="L220" t="inlineStr"/>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>909</v>
-      </c>
-      <c r="C221" t="n">
-        <v>910</v>
-      </c>
-      <c r="D221" t="n">
-        <v>910</v>
-      </c>
-      <c r="E221" t="n">
-        <v>909</v>
-      </c>
-      <c r="F221" t="n">
-        <v>852.4121</v>
-      </c>
-      <c r="G221" t="n">
-        <v>866.25</v>
-      </c>
-      <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
-      <c r="L221" t="inlineStr"/>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>909</v>
-      </c>
-      <c r="C222" t="n">
-        <v>911</v>
-      </c>
-      <c r="D222" t="n">
-        <v>911</v>
-      </c>
-      <c r="E222" t="n">
-        <v>909</v>
-      </c>
-      <c r="F222" t="n">
-        <v>215.6743</v>
-      </c>
-      <c r="G222" t="n">
-        <v>867.3166666666667</v>
-      </c>
-      <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
-      <c r="L222" t="inlineStr"/>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>910</v>
-      </c>
-      <c r="C223" t="n">
-        <v>910</v>
-      </c>
-      <c r="D223" t="n">
-        <v>912</v>
-      </c>
-      <c r="E223" t="n">
-        <v>910</v>
-      </c>
-      <c r="F223" t="n">
-        <v>1356.7933</v>
-      </c>
-      <c r="G223" t="n">
-        <v>868.35</v>
-      </c>
-      <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
-      <c r="L223" t="inlineStr"/>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
-        <v>222</v>
-      </c>
-      <c r="B224" t="n">
-        <v>910</v>
-      </c>
-      <c r="C224" t="n">
-        <v>915</v>
-      </c>
-      <c r="D224" t="n">
-        <v>915</v>
-      </c>
-      <c r="E224" t="n">
-        <v>910</v>
-      </c>
-      <c r="F224" t="n">
-        <v>38.433</v>
-      </c>
-      <c r="G224" t="n">
-        <v>869.5</v>
-      </c>
-      <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
-      <c r="L224" t="inlineStr"/>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
-        <v>223</v>
-      </c>
-      <c r="B225" t="n">
-        <v>916</v>
-      </c>
-      <c r="C225" t="n">
-        <v>917</v>
-      </c>
-      <c r="D225" t="n">
-        <v>917</v>
-      </c>
-      <c r="E225" t="n">
-        <v>916</v>
-      </c>
-      <c r="F225" t="n">
-        <v>1608.4435</v>
-      </c>
-      <c r="G225" t="n">
-        <v>870.5666666666667</v>
-      </c>
-      <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
-      <c r="L225" t="inlineStr"/>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
-        <v>224</v>
-      </c>
-      <c r="B226" t="n">
-        <v>918</v>
-      </c>
-      <c r="C226" t="n">
-        <v>918</v>
-      </c>
-      <c r="D226" t="n">
-        <v>918</v>
-      </c>
-      <c r="E226" t="n">
-        <v>918</v>
-      </c>
-      <c r="F226" t="n">
-        <v>4336.2177</v>
-      </c>
-      <c r="G226" t="n">
-        <v>871.6833333333333</v>
-      </c>
-      <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
-      <c r="L226" t="inlineStr"/>
-      <c r="M226" t="n">
-        <v>1</v>
+      <c r="N226" t="n">
+        <v>1.097040816326531</v>
       </c>
     </row>
     <row r="227">
@@ -8747,18 +9543,21 @@
         <v>1297.65</v>
       </c>
       <c r="G227" t="n">
+        <v>909.6666666666666</v>
+      </c>
+      <c r="H227" t="n">
         <v>872.8166666666667</v>
       </c>
-      <c r="H227" t="n">
-        <v>0</v>
-      </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>1</v>
+      </c>
       <c r="K227" t="inlineStr"/>
       <c r="L227" t="inlineStr"/>
-      <c r="M227" t="n">
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8782,18 +9581,21 @@
         <v>1514.0809</v>
       </c>
       <c r="G228" t="n">
+        <v>910.7333333333333</v>
+      </c>
+      <c r="H228" t="n">
         <v>873.9166666666666</v>
       </c>
-      <c r="H228" t="n">
-        <v>0</v>
-      </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>1</v>
+      </c>
       <c r="K228" t="inlineStr"/>
       <c r="L228" t="inlineStr"/>
-      <c r="M228" t="n">
+      <c r="M228" t="inlineStr"/>
+      <c r="N228" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8817,18 +9619,21 @@
         <v>2.5577</v>
       </c>
       <c r="G229" t="n">
+        <v>911.3333333333334</v>
+      </c>
+      <c r="H229" t="n">
         <v>874.9333333333333</v>
       </c>
-      <c r="H229" t="n">
-        <v>0</v>
-      </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>1</v>
+      </c>
       <c r="K229" t="inlineStr"/>
       <c r="L229" t="inlineStr"/>
-      <c r="M229" t="n">
+      <c r="M229" t="inlineStr"/>
+      <c r="N229" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8852,18 +9657,21 @@
         <v>280.1084</v>
       </c>
       <c r="G230" t="n">
+        <v>910.8666666666667</v>
+      </c>
+      <c r="H230" t="n">
         <v>875.95</v>
       </c>
-      <c r="H230" t="n">
-        <v>0</v>
-      </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>1</v>
+      </c>
       <c r="K230" t="inlineStr"/>
       <c r="L230" t="inlineStr"/>
-      <c r="M230" t="n">
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8887,18 +9695,21 @@
         <v>124.5426</v>
       </c>
       <c r="G231" t="n">
+        <v>911.0666666666667</v>
+      </c>
+      <c r="H231" t="n">
         <v>877.0666666666667</v>
       </c>
-      <c r="H231" t="n">
-        <v>0</v>
-      </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="inlineStr"/>
+      <c r="J231" t="n">
+        <v>1</v>
+      </c>
       <c r="K231" t="inlineStr"/>
       <c r="L231" t="inlineStr"/>
-      <c r="M231" t="n">
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8922,18 +9733,21 @@
         <v>1000</v>
       </c>
       <c r="G232" t="n">
+        <v>911.5333333333333</v>
+      </c>
+      <c r="H232" t="n">
         <v>878.2</v>
       </c>
-      <c r="H232" t="n">
-        <v>0</v>
-      </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>1</v>
+      </c>
       <c r="K232" t="inlineStr"/>
       <c r="L232" t="inlineStr"/>
-      <c r="M232" t="n">
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8957,18 +9771,21 @@
         <v>22.9802</v>
       </c>
       <c r="G233" t="n">
+        <v>911.7333333333333</v>
+      </c>
+      <c r="H233" t="n">
         <v>879.2833333333333</v>
       </c>
-      <c r="H233" t="n">
-        <v>0</v>
-      </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="inlineStr"/>
+      <c r="J233" t="n">
+        <v>1</v>
+      </c>
       <c r="K233" t="inlineStr"/>
       <c r="L233" t="inlineStr"/>
-      <c r="M233" t="n">
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="n">
         <v>1</v>
       </c>
     </row>
@@ -8992,18 +9809,21 @@
         <v>249.0372</v>
       </c>
       <c r="G234" t="n">
+        <v>912.2666666666667</v>
+      </c>
+      <c r="H234" t="n">
         <v>880.25</v>
       </c>
-      <c r="H234" t="n">
-        <v>0</v>
-      </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="inlineStr"/>
+      <c r="J234" t="n">
+        <v>1</v>
+      </c>
       <c r="K234" t="inlineStr"/>
       <c r="L234" t="inlineStr"/>
-      <c r="M234" t="n">
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9027,18 +9847,21 @@
         <v>529.8261</v>
       </c>
       <c r="G235" t="n">
+        <v>913.1333333333333</v>
+      </c>
+      <c r="H235" t="n">
         <v>881.2833333333333</v>
       </c>
-      <c r="H235" t="n">
-        <v>0</v>
-      </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="inlineStr"/>
+      <c r="J235" t="n">
+        <v>1</v>
+      </c>
       <c r="K235" t="inlineStr"/>
       <c r="L235" t="inlineStr"/>
-      <c r="M235" t="n">
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9062,18 +9885,21 @@
         <v>30</v>
       </c>
       <c r="G236" t="n">
+        <v>913.6</v>
+      </c>
+      <c r="H236" t="n">
         <v>882.3666666666667</v>
       </c>
-      <c r="H236" t="n">
-        <v>0</v>
-      </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="inlineStr"/>
+      <c r="J236" t="n">
+        <v>1</v>
+      </c>
       <c r="K236" t="inlineStr"/>
       <c r="L236" t="inlineStr"/>
-      <c r="M236" t="n">
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9097,18 +9923,21 @@
         <v>220</v>
       </c>
       <c r="G237" t="n">
+        <v>914.0666666666667</v>
+      </c>
+      <c r="H237" t="n">
         <v>883.4166666666666</v>
       </c>
-      <c r="H237" t="n">
-        <v>0</v>
-      </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="inlineStr"/>
+      <c r="J237" t="n">
+        <v>1</v>
+      </c>
       <c r="K237" t="inlineStr"/>
       <c r="L237" t="inlineStr"/>
-      <c r="M237" t="n">
+      <c r="M237" t="inlineStr"/>
+      <c r="N237" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9132,18 +9961,21 @@
         <v>643.9487</v>
       </c>
       <c r="G238" t="n">
+        <v>915.0666666666667</v>
+      </c>
+      <c r="H238" t="n">
         <v>884.5833333333334</v>
       </c>
-      <c r="H238" t="n">
-        <v>0</v>
-      </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="inlineStr"/>
+      <c r="J238" t="n">
+        <v>1</v>
+      </c>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="inlineStr"/>
-      <c r="M238" t="n">
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9167,18 +9999,21 @@
         <v>4698.3714</v>
       </c>
       <c r="G239" t="n">
+        <v>915.3333333333334</v>
+      </c>
+      <c r="H239" t="n">
         <v>885.6833333333333</v>
       </c>
-      <c r="H239" t="n">
-        <v>0</v>
-      </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="inlineStr"/>
+      <c r="J239" t="n">
+        <v>1</v>
+      </c>
       <c r="K239" t="inlineStr"/>
       <c r="L239" t="inlineStr"/>
-      <c r="M239" t="n">
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9202,18 +10037,21 @@
         <v>894.1355</v>
       </c>
       <c r="G240" t="n">
+        <v>915.6666666666666</v>
+      </c>
+      <c r="H240" t="n">
         <v>886.8</v>
       </c>
-      <c r="H240" t="n">
-        <v>0</v>
-      </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="inlineStr"/>
+      <c r="J240" t="n">
+        <v>1</v>
+      </c>
       <c r="K240" t="inlineStr"/>
       <c r="L240" t="inlineStr"/>
-      <c r="M240" t="n">
+      <c r="M240" t="inlineStr"/>
+      <c r="N240" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9237,18 +10075,21 @@
         <v>333.9608</v>
       </c>
       <c r="G241" t="n">
+        <v>916</v>
+      </c>
+      <c r="H241" t="n">
         <v>888</v>
       </c>
-      <c r="H241" t="n">
-        <v>0</v>
-      </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="inlineStr"/>
+      <c r="J241" t="n">
+        <v>1</v>
+      </c>
       <c r="K241" t="inlineStr"/>
       <c r="L241" t="inlineStr"/>
-      <c r="M241" t="n">
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9272,18 +10113,21 @@
         <v>833.3777</v>
       </c>
       <c r="G242" t="n">
+        <v>916.0666666666667</v>
+      </c>
+      <c r="H242" t="n">
         <v>889.0666666666667</v>
       </c>
-      <c r="H242" t="n">
-        <v>0</v>
-      </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="inlineStr"/>
+      <c r="J242" t="n">
+        <v>1</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="inlineStr"/>
-      <c r="M242" t="n">
+      <c r="M242" t="inlineStr"/>
+      <c r="N242" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9307,18 +10151,21 @@
         <v>380</v>
       </c>
       <c r="G243" t="n">
+        <v>916.0666666666667</v>
+      </c>
+      <c r="H243" t="n">
         <v>890.05</v>
       </c>
-      <c r="H243" t="n">
-        <v>0</v>
-      </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>1</v>
+      </c>
       <c r="K243" t="inlineStr"/>
       <c r="L243" t="inlineStr"/>
-      <c r="M243" t="n">
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9342,18 +10189,21 @@
         <v>4.9349</v>
       </c>
       <c r="G244" t="n">
+        <v>916.4666666666667</v>
+      </c>
+      <c r="H244" t="n">
         <v>891.0333333333333</v>
       </c>
-      <c r="H244" t="n">
-        <v>0</v>
-      </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="inlineStr"/>
+      <c r="J244" t="n">
+        <v>1</v>
+      </c>
       <c r="K244" t="inlineStr"/>
       <c r="L244" t="inlineStr"/>
-      <c r="M244" t="n">
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9377,18 +10227,21 @@
         <v>3665.8457</v>
       </c>
       <c r="G245" t="n">
+        <v>916.9333333333333</v>
+      </c>
+      <c r="H245" t="n">
         <v>892</v>
       </c>
-      <c r="H245" t="n">
-        <v>0</v>
-      </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>1</v>
+      </c>
       <c r="K245" t="inlineStr"/>
       <c r="L245" t="inlineStr"/>
-      <c r="M245" t="n">
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9412,18 +10265,21 @@
         <v>21.5372</v>
       </c>
       <c r="G246" t="n">
+        <v>917.0666666666667</v>
+      </c>
+      <c r="H246" t="n">
         <v>892.9833333333333</v>
       </c>
-      <c r="H246" t="n">
-        <v>0</v>
-      </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="inlineStr"/>
+      <c r="J246" t="n">
+        <v>1</v>
+      </c>
       <c r="K246" t="inlineStr"/>
       <c r="L246" t="inlineStr"/>
-      <c r="M246" t="n">
+      <c r="M246" t="inlineStr"/>
+      <c r="N246" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9447,18 +10303,21 @@
         <v>4194.7218</v>
       </c>
       <c r="G247" t="n">
+        <v>917</v>
+      </c>
+      <c r="H247" t="n">
         <v>893.95</v>
       </c>
-      <c r="H247" t="n">
-        <v>0</v>
-      </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="inlineStr"/>
+      <c r="J247" t="n">
+        <v>1</v>
+      </c>
       <c r="K247" t="inlineStr"/>
       <c r="L247" t="inlineStr"/>
-      <c r="M247" t="n">
+      <c r="M247" t="inlineStr"/>
+      <c r="N247" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9482,18 +10341,21 @@
         <v>124.9</v>
       </c>
       <c r="G248" t="n">
+        <v>916.8666666666667</v>
+      </c>
+      <c r="H248" t="n">
         <v>894.85</v>
       </c>
-      <c r="H248" t="n">
-        <v>0</v>
-      </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="inlineStr"/>
+      <c r="J248" t="n">
+        <v>1</v>
+      </c>
       <c r="K248" t="inlineStr"/>
       <c r="L248" t="inlineStr"/>
-      <c r="M248" t="n">
+      <c r="M248" t="inlineStr"/>
+      <c r="N248" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9517,18 +10379,21 @@
         <v>14.2117</v>
       </c>
       <c r="G249" t="n">
+        <v>916.8666666666667</v>
+      </c>
+      <c r="H249" t="n">
         <v>895.7666666666667</v>
       </c>
-      <c r="H249" t="n">
-        <v>0</v>
-      </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="inlineStr"/>
+      <c r="J249" t="n">
+        <v>0</v>
+      </c>
       <c r="K249" t="inlineStr"/>
       <c r="L249" t="inlineStr"/>
-      <c r="M249" t="n">
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9552,18 +10417,21 @@
         <v>1458.9248</v>
       </c>
       <c r="G250" t="n">
+        <v>916.4666666666667</v>
+      </c>
+      <c r="H250" t="n">
         <v>896.6166666666667</v>
       </c>
-      <c r="H250" t="n">
-        <v>0</v>
-      </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="inlineStr"/>
+      <c r="J250" t="n">
+        <v>0</v>
+      </c>
       <c r="K250" t="inlineStr"/>
       <c r="L250" t="inlineStr"/>
-      <c r="M250" t="n">
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9587,18 +10455,21 @@
         <v>6167.1967</v>
       </c>
       <c r="G251" t="n">
+        <v>916.1333333333333</v>
+      </c>
+      <c r="H251" t="n">
         <v>897.5333333333333</v>
       </c>
-      <c r="H251" t="n">
-        <v>0</v>
-      </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>0</v>
+      </c>
       <c r="K251" t="inlineStr"/>
       <c r="L251" t="inlineStr"/>
-      <c r="M251" t="n">
+      <c r="M251" t="inlineStr"/>
+      <c r="N251" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9622,18 +10493,21 @@
         <v>118</v>
       </c>
       <c r="G252" t="n">
+        <v>915.6666666666666</v>
+      </c>
+      <c r="H252" t="n">
         <v>898.4166666666666</v>
       </c>
-      <c r="H252" t="n">
-        <v>0</v>
-      </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>0</v>
+      </c>
       <c r="K252" t="inlineStr"/>
       <c r="L252" t="inlineStr"/>
-      <c r="M252" t="n">
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9657,18 +10531,21 @@
         <v>422.5</v>
       </c>
       <c r="G253" t="n">
+        <v>914.8</v>
+      </c>
+      <c r="H253" t="n">
         <v>899.3166666666667</v>
       </c>
-      <c r="H253" t="n">
-        <v>0</v>
-      </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>0</v>
+      </c>
       <c r="K253" t="inlineStr"/>
       <c r="L253" t="inlineStr"/>
-      <c r="M253" t="n">
+      <c r="M253" t="inlineStr"/>
+      <c r="N253" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9692,18 +10569,21 @@
         <v>134.9371</v>
       </c>
       <c r="G254" t="n">
+        <v>914.3333333333334</v>
+      </c>
+      <c r="H254" t="n">
         <v>900.2166666666667</v>
       </c>
-      <c r="H254" t="n">
-        <v>0</v>
-      </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>0</v>
+      </c>
       <c r="K254" t="inlineStr"/>
       <c r="L254" t="inlineStr"/>
-      <c r="M254" t="n">
+      <c r="M254" t="inlineStr"/>
+      <c r="N254" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9727,18 +10607,21 @@
         <v>971.6893</v>
       </c>
       <c r="G255" t="n">
+        <v>913.7333333333333</v>
+      </c>
+      <c r="H255" t="n">
         <v>901.1166666666667</v>
       </c>
-      <c r="H255" t="n">
-        <v>0</v>
-      </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>0</v>
+      </c>
       <c r="K255" t="inlineStr"/>
       <c r="L255" t="inlineStr"/>
-      <c r="M255" t="n">
+      <c r="M255" t="inlineStr"/>
+      <c r="N255" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9762,18 +10645,401 @@
         <v>1097.25</v>
       </c>
       <c r="G256" t="n">
+        <v>912.7333333333333</v>
+      </c>
+      <c r="H256" t="n">
         <v>901.9333333333333</v>
       </c>
-      <c r="H256" t="n">
-        <v>0</v>
-      </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>0</v>
+      </c>
       <c r="K256" t="inlineStr"/>
       <c r="L256" t="inlineStr"/>
-      <c r="M256" t="n">
+      <c r="M256" t="inlineStr"/>
+      <c r="N256" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>907</v>
+      </c>
+      <c r="C257" t="n">
+        <v>907</v>
+      </c>
+      <c r="D257" t="n">
+        <v>907</v>
+      </c>
+      <c r="E257" t="n">
+        <v>907</v>
+      </c>
+      <c r="F257" t="n">
+        <v>334.3888</v>
+      </c>
+      <c r="G257" t="n">
+        <v>911.9333333333333</v>
+      </c>
+      <c r="H257" t="n">
+        <v>902.7333333333333</v>
+      </c>
+      <c r="I257" t="n">
+        <v>0</v>
+      </c>
+      <c r="J257" t="n">
+        <v>0</v>
+      </c>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr"/>
+      <c r="N257" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>912</v>
+      </c>
+      <c r="C258" t="n">
+        <v>912</v>
+      </c>
+      <c r="D258" t="n">
+        <v>912</v>
+      </c>
+      <c r="E258" t="n">
+        <v>912</v>
+      </c>
+      <c r="F258" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="G258" t="n">
+        <v>911.8</v>
+      </c>
+      <c r="H258" t="n">
+        <v>903.5833333333334</v>
+      </c>
+      <c r="I258" t="n">
+        <v>0</v>
+      </c>
+      <c r="J258" t="n">
+        <v>0</v>
+      </c>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr"/>
+      <c r="N258" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>911</v>
+      </c>
+      <c r="C259" t="n">
+        <v>913</v>
+      </c>
+      <c r="D259" t="n">
+        <v>913</v>
+      </c>
+      <c r="E259" t="n">
+        <v>908</v>
+      </c>
+      <c r="F259" t="n">
+        <v>705.6678000000001</v>
+      </c>
+      <c r="G259" t="n">
+        <v>911.6666666666666</v>
+      </c>
+      <c r="H259" t="n">
+        <v>904.4666666666667</v>
+      </c>
+      <c r="I259" t="n">
+        <v>0</v>
+      </c>
+      <c r="J259" t="n">
+        <v>0</v>
+      </c>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr"/>
+      <c r="N259" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>913</v>
+      </c>
+      <c r="C260" t="n">
+        <v>909</v>
+      </c>
+      <c r="D260" t="n">
+        <v>913</v>
+      </c>
+      <c r="E260" t="n">
+        <v>909</v>
+      </c>
+      <c r="F260" t="n">
+        <v>2.397</v>
+      </c>
+      <c r="G260" t="n">
+        <v>911.2</v>
+      </c>
+      <c r="H260" t="n">
+        <v>905.3</v>
+      </c>
+      <c r="I260" t="n">
+        <v>0</v>
+      </c>
+      <c r="J260" t="n">
+        <v>0</v>
+      </c>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>908</v>
+      </c>
+      <c r="C261" t="n">
+        <v>912</v>
+      </c>
+      <c r="D261" t="n">
+        <v>912</v>
+      </c>
+      <c r="E261" t="n">
+        <v>908</v>
+      </c>
+      <c r="F261" t="n">
+        <v>69.7492</v>
+      </c>
+      <c r="G261" t="n">
+        <v>910.8666666666667</v>
+      </c>
+      <c r="H261" t="n">
+        <v>906.2</v>
+      </c>
+      <c r="I261" t="n">
+        <v>0</v>
+      </c>
+      <c r="J261" t="n">
+        <v>0</v>
+      </c>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>912</v>
+      </c>
+      <c r="C262" t="n">
+        <v>913</v>
+      </c>
+      <c r="D262" t="n">
+        <v>913</v>
+      </c>
+      <c r="E262" t="n">
+        <v>912</v>
+      </c>
+      <c r="F262" t="n">
+        <v>173.9691</v>
+      </c>
+      <c r="G262" t="n">
+        <v>910.7333333333333</v>
+      </c>
+      <c r="H262" t="n">
+        <v>907.1</v>
+      </c>
+      <c r="I262" t="n">
+        <v>0</v>
+      </c>
+      <c r="J262" t="n">
+        <v>0</v>
+      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>913</v>
+      </c>
+      <c r="C263" t="n">
+        <v>913</v>
+      </c>
+      <c r="D263" t="n">
+        <v>913</v>
+      </c>
+      <c r="E263" t="n">
+        <v>913</v>
+      </c>
+      <c r="F263" t="n">
+        <v>703.4358999999999</v>
+      </c>
+      <c r="G263" t="n">
+        <v>910.8666666666667</v>
+      </c>
+      <c r="H263" t="n">
+        <v>908.05</v>
+      </c>
+      <c r="I263" t="n">
+        <v>0</v>
+      </c>
+      <c r="J263" t="n">
+        <v>0</v>
+      </c>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>912</v>
+      </c>
+      <c r="C264" t="n">
+        <v>912</v>
+      </c>
+      <c r="D264" t="n">
+        <v>912</v>
+      </c>
+      <c r="E264" t="n">
+        <v>912</v>
+      </c>
+      <c r="F264" t="n">
+        <v>395</v>
+      </c>
+      <c r="G264" t="n">
+        <v>911.0666666666667</v>
+      </c>
+      <c r="H264" t="n">
+        <v>908.95</v>
+      </c>
+      <c r="I264" t="n">
+        <v>0</v>
+      </c>
+      <c r="J264" t="n">
+        <v>0</v>
+      </c>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr"/>
+      <c r="N264" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>912</v>
+      </c>
+      <c r="C265" t="n">
+        <v>912</v>
+      </c>
+      <c r="D265" t="n">
+        <v>912</v>
+      </c>
+      <c r="E265" t="n">
+        <v>912</v>
+      </c>
+      <c r="F265" t="n">
+        <v>300</v>
+      </c>
+      <c r="G265" t="n">
+        <v>911.4</v>
+      </c>
+      <c r="H265" t="n">
+        <v>909.85</v>
+      </c>
+      <c r="I265" t="n">
+        <v>0</v>
+      </c>
+      <c r="J265" t="n">
+        <v>0</v>
+      </c>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>912</v>
+      </c>
+      <c r="C266" t="n">
+        <v>908</v>
+      </c>
+      <c r="D266" t="n">
+        <v>912</v>
+      </c>
+      <c r="E266" t="n">
+        <v>908</v>
+      </c>
+      <c r="F266" t="n">
+        <v>500.9002</v>
+      </c>
+      <c r="G266" t="n">
+        <v>911.1333333333333</v>
+      </c>
+      <c r="H266" t="n">
+        <v>910.6833333333333</v>
+      </c>
+      <c r="I266" t="n">
+        <v>0</v>
+      </c>
+      <c r="J266" t="n">
+        <v>0</v>
+      </c>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr"/>
+      <c r="N266" t="n">
         <v>1</v>
       </c>
     </row>

--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N324"/>
+  <dimension ref="A1:M324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,35 +399,30 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>low_check</t>
+          <t>trade_state</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>high_check</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>BuyPrice</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>bprelay</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Condition</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Profits</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Price_point</t>
         </is>
@@ -458,16 +453,13 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
-      <c r="I2" t="n">
-        <v>0</v>
-      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" t="inlineStr"/>
+      <c r="L2" t="n">
+        <v>1</v>
+      </c>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -494,16 +486,13 @@
       <c r="H3" t="n">
         <v>0</v>
       </c>
-      <c r="I3" t="n">
-        <v>0</v>
-      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="inlineStr"/>
-      <c r="L3" t="inlineStr"/>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="inlineStr"/>
+      <c r="L3" t="n">
+        <v>1</v>
+      </c>
+      <c r="M3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -530,16 +519,13 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="inlineStr"/>
-      <c r="L4" t="inlineStr"/>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="inlineStr"/>
+      <c r="L4" t="n">
+        <v>1</v>
+      </c>
+      <c r="M4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -566,16 +552,13 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
-      <c r="I5" t="n">
-        <v>0</v>
-      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="inlineStr"/>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="inlineStr"/>
+      <c r="L5" t="n">
+        <v>1</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -602,16 +585,13 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
-      <c r="I6" t="n">
-        <v>0</v>
-      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="inlineStr"/>
-      <c r="L6" t="inlineStr"/>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="L6" t="n">
+        <v>1</v>
+      </c>
+      <c r="M6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -638,16 +618,13 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
-      <c r="I7" t="n">
-        <v>0</v>
-      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="inlineStr"/>
-      <c r="L7" t="inlineStr"/>
-      <c r="M7" t="n">
-        <v>1</v>
-      </c>
-      <c r="N7" t="inlineStr"/>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -674,16 +651,13 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
-      <c r="I8" t="n">
-        <v>0</v>
-      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="inlineStr"/>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -710,16 +684,13 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="inlineStr"/>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -746,16 +717,13 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
+      <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="n">
-        <v>1</v>
-      </c>
-      <c r="N10" t="inlineStr"/>
+      <c r="L10" t="n">
+        <v>1</v>
+      </c>
+      <c r="M10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -782,16 +750,13 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="inlineStr"/>
+      <c r="L11" t="n">
+        <v>1</v>
+      </c>
+      <c r="M11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -818,16 +783,13 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
-      <c r="I12" t="n">
-        <v>0</v>
-      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="n">
-        <v>1</v>
-      </c>
-      <c r="N12" t="inlineStr"/>
+      <c r="L12" t="n">
+        <v>1</v>
+      </c>
+      <c r="M12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -854,16 +816,13 @@
       <c r="H13" t="n">
         <v>0</v>
       </c>
-      <c r="I13" t="n">
-        <v>0</v>
-      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
-      <c r="L13" t="inlineStr"/>
-      <c r="M13" t="n">
-        <v>1</v>
-      </c>
-      <c r="N13" t="inlineStr"/>
+      <c r="L13" t="n">
+        <v>1</v>
+      </c>
+      <c r="M13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -890,16 +849,13 @@
       <c r="H14" t="n">
         <v>0</v>
       </c>
-      <c r="I14" t="n">
-        <v>0</v>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="inlineStr"/>
+      <c r="L14" t="n">
+        <v>1</v>
+      </c>
+      <c r="M14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -926,16 +882,13 @@
       <c r="H15" t="n">
         <v>0</v>
       </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="inlineStr"/>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -962,16 +915,13 @@
       <c r="H16" t="n">
         <v>0</v>
       </c>
-      <c r="I16" t="n">
-        <v>0</v>
-      </c>
+      <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="inlineStr"/>
-      <c r="L16" t="inlineStr"/>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="inlineStr"/>
+      <c r="L16" t="n">
+        <v>1</v>
+      </c>
+      <c r="M16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -998,16 +948,13 @@
       <c r="H17" t="n">
         <v>0</v>
       </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
+      <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="inlineStr"/>
+      <c r="L17" t="n">
+        <v>1</v>
+      </c>
+      <c r="M17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1034,16 +981,13 @@
       <c r="H18" t="n">
         <v>0</v>
       </c>
-      <c r="I18" t="n">
-        <v>0</v>
-      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
-      <c r="M18" t="n">
-        <v>1</v>
-      </c>
-      <c r="N18" t="inlineStr"/>
+      <c r="L18" t="n">
+        <v>1</v>
+      </c>
+      <c r="M18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -1070,16 +1014,13 @@
       <c r="H19" t="n">
         <v>0</v>
       </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
+      <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="n">
-        <v>1</v>
-      </c>
-      <c r="N19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>1</v>
+      </c>
+      <c r="M19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1106,16 +1047,13 @@
       <c r="H20" t="n">
         <v>0</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="n">
-        <v>1</v>
-      </c>
-      <c r="N20" t="inlineStr"/>
+      <c r="L20" t="n">
+        <v>1</v>
+      </c>
+      <c r="M20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1142,16 +1080,13 @@
       <c r="H21" t="n">
         <v>0</v>
       </c>
-      <c r="I21" t="n">
-        <v>0</v>
-      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="n">
-        <v>1</v>
-      </c>
-      <c r="N21" t="inlineStr"/>
+      <c r="L21" t="n">
+        <v>1</v>
+      </c>
+      <c r="M21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1178,16 +1113,13 @@
       <c r="H22" t="n">
         <v>0</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="inlineStr"/>
-      <c r="L22" t="inlineStr"/>
-      <c r="M22" t="n">
-        <v>1</v>
-      </c>
-      <c r="N22" t="inlineStr"/>
+      <c r="L22" t="n">
+        <v>1</v>
+      </c>
+      <c r="M22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1214,16 +1146,13 @@
       <c r="H23" t="n">
         <v>0</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="inlineStr"/>
-      <c r="L23" t="inlineStr"/>
-      <c r="M23" t="n">
-        <v>1</v>
-      </c>
-      <c r="N23" t="inlineStr"/>
+      <c r="L23" t="n">
+        <v>1</v>
+      </c>
+      <c r="M23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1250,16 +1179,13 @@
       <c r="H24" t="n">
         <v>0</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="n">
-        <v>1</v>
-      </c>
-      <c r="N24" t="inlineStr"/>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1286,16 +1212,13 @@
       <c r="H25" t="n">
         <v>0</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="n">
-        <v>1</v>
-      </c>
-      <c r="N25" t="inlineStr"/>
+      <c r="L25" t="n">
+        <v>1</v>
+      </c>
+      <c r="M25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1322,16 +1245,13 @@
       <c r="H26" t="n">
         <v>0</v>
       </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="inlineStr"/>
-      <c r="L26" t="inlineStr"/>
-      <c r="M26" t="n">
-        <v>1</v>
-      </c>
-      <c r="N26" t="inlineStr"/>
+      <c r="L26" t="n">
+        <v>1</v>
+      </c>
+      <c r="M26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1358,16 +1278,13 @@
       <c r="H27" t="n">
         <v>0</v>
       </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
-      <c r="M27" t="n">
-        <v>1</v>
-      </c>
-      <c r="N27" t="inlineStr"/>
+      <c r="L27" t="n">
+        <v>1</v>
+      </c>
+      <c r="M27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1394,16 +1311,13 @@
       <c r="H28" t="n">
         <v>0</v>
       </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="n">
-        <v>1</v>
-      </c>
-      <c r="N28" t="inlineStr"/>
+      <c r="L28" t="n">
+        <v>1</v>
+      </c>
+      <c r="M28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1430,16 +1344,13 @@
       <c r="H29" t="n">
         <v>0</v>
       </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="n">
-        <v>1</v>
-      </c>
-      <c r="N29" t="inlineStr"/>
+      <c r="L29" t="n">
+        <v>1</v>
+      </c>
+      <c r="M29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -1466,16 +1377,13 @@
       <c r="H30" t="n">
         <v>0</v>
       </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="n">
-        <v>1</v>
-      </c>
-      <c r="N30" t="inlineStr"/>
+      <c r="L30" t="n">
+        <v>1</v>
+      </c>
+      <c r="M30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1502,16 +1410,13 @@
       <c r="H31" t="n">
         <v>0</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
+      <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="inlineStr"/>
-      <c r="L31" t="inlineStr"/>
-      <c r="M31" t="n">
-        <v>1</v>
-      </c>
-      <c r="N31" t="inlineStr"/>
+      <c r="L31" t="n">
+        <v>1</v>
+      </c>
+      <c r="M31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1538,16 +1443,13 @@
       <c r="H32" t="n">
         <v>0</v>
       </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
+      <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="inlineStr"/>
-      <c r="L32" t="inlineStr"/>
-      <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="inlineStr"/>
+      <c r="L32" t="n">
+        <v>1</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1574,16 +1476,13 @@
       <c r="H33" t="n">
         <v>0</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="inlineStr"/>
-      <c r="L33" t="inlineStr"/>
-      <c r="M33" t="n">
-        <v>1</v>
-      </c>
-      <c r="N33" t="inlineStr"/>
+      <c r="L33" t="n">
+        <v>1</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1610,16 +1509,13 @@
       <c r="H34" t="n">
         <v>0</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="inlineStr"/>
-      <c r="L34" t="inlineStr"/>
-      <c r="M34" t="n">
-        <v>1</v>
-      </c>
-      <c r="N34" t="inlineStr"/>
+      <c r="L34" t="n">
+        <v>1</v>
+      </c>
+      <c r="M34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1646,16 +1542,13 @@
       <c r="H35" t="n">
         <v>0</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
+      <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="inlineStr"/>
-      <c r="L35" t="inlineStr"/>
-      <c r="M35" t="n">
-        <v>1</v>
-      </c>
-      <c r="N35" t="inlineStr"/>
+      <c r="L35" t="n">
+        <v>1</v>
+      </c>
+      <c r="M35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1682,16 +1575,13 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
+      <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
-      <c r="L36" t="inlineStr"/>
-      <c r="M36" t="n">
-        <v>1</v>
-      </c>
-      <c r="N36" t="inlineStr"/>
+      <c r="L36" t="n">
+        <v>1</v>
+      </c>
+      <c r="M36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1718,16 +1608,13 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
+      <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="n">
-        <v>1</v>
-      </c>
-      <c r="N37" t="inlineStr"/>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1754,16 +1641,13 @@
       <c r="H38" t="n">
         <v>0</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
+      <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="n">
-        <v>1</v>
-      </c>
-      <c r="N38" t="inlineStr"/>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1790,16 +1674,13 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
+      <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
-      <c r="L39" t="inlineStr"/>
-      <c r="M39" t="n">
-        <v>1</v>
-      </c>
-      <c r="N39" t="inlineStr"/>
+      <c r="L39" t="n">
+        <v>1</v>
+      </c>
+      <c r="M39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1826,16 +1707,13 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
+      <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="n">
-        <v>1</v>
-      </c>
-      <c r="N40" t="inlineStr"/>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1862,16 +1740,13 @@
       <c r="H41" t="n">
         <v>0</v>
       </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
+      <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="n">
-        <v>1</v>
-      </c>
-      <c r="N41" t="inlineStr"/>
+      <c r="L41" t="n">
+        <v>1</v>
+      </c>
+      <c r="M41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1898,16 +1773,13 @@
       <c r="H42" t="n">
         <v>0</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
+      <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
-      <c r="L42" t="inlineStr"/>
-      <c r="M42" t="n">
-        <v>1</v>
-      </c>
-      <c r="N42" t="inlineStr"/>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1934,16 +1806,13 @@
       <c r="H43" t="n">
         <v>0</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
+      <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
-      <c r="L43" t="inlineStr"/>
-      <c r="M43" t="n">
-        <v>1</v>
-      </c>
-      <c r="N43" t="inlineStr"/>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1970,16 +1839,13 @@
       <c r="H44" t="n">
         <v>0</v>
       </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
+      <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="n">
-        <v>1</v>
-      </c>
-      <c r="N44" t="inlineStr"/>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -2006,16 +1872,13 @@
       <c r="H45" t="n">
         <v>0</v>
       </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
+      <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
-      <c r="L45" t="inlineStr"/>
-      <c r="M45" t="n">
-        <v>1</v>
-      </c>
-      <c r="N45" t="inlineStr"/>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -2042,16 +1905,13 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
-      <c r="I46" t="n">
-        <v>0</v>
-      </c>
+      <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
-      <c r="L46" t="inlineStr"/>
-      <c r="M46" t="n">
-        <v>1</v>
-      </c>
-      <c r="N46" t="inlineStr"/>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -2078,16 +1938,13 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
+      <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="n">
-        <v>1</v>
-      </c>
-      <c r="N47" t="inlineStr"/>
+      <c r="L47" t="n">
+        <v>1</v>
+      </c>
+      <c r="M47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -2114,16 +1971,13 @@
       <c r="H48" t="n">
         <v>0</v>
       </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
+      <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="n">
-        <v>1</v>
-      </c>
-      <c r="N48" t="inlineStr"/>
+      <c r="L48" t="n">
+        <v>1</v>
+      </c>
+      <c r="M48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -2150,16 +2004,13 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
+      <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
-      <c r="L49" t="inlineStr"/>
-      <c r="M49" t="n">
-        <v>1</v>
-      </c>
-      <c r="N49" t="inlineStr"/>
+      <c r="L49" t="n">
+        <v>1</v>
+      </c>
+      <c r="M49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -2186,16 +2037,13 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
-      <c r="I50" t="n">
-        <v>0</v>
-      </c>
+      <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="inlineStr"/>
-      <c r="L50" t="inlineStr"/>
-      <c r="M50" t="n">
-        <v>1</v>
-      </c>
-      <c r="N50" t="inlineStr"/>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -2222,16 +2070,13 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
+      <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
-      <c r="L51" t="inlineStr"/>
-      <c r="M51" t="n">
-        <v>1</v>
-      </c>
-      <c r="N51" t="inlineStr"/>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -2258,16 +2103,13 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
-      <c r="I52" t="n">
-        <v>0</v>
-      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
-      <c r="L52" t="inlineStr"/>
-      <c r="M52" t="n">
-        <v>1</v>
-      </c>
-      <c r="N52" t="inlineStr"/>
+      <c r="L52" t="n">
+        <v>1</v>
+      </c>
+      <c r="M52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -2294,16 +2136,13 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
-      <c r="I53" t="n">
-        <v>0</v>
-      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
-      <c r="L53" t="inlineStr"/>
-      <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="inlineStr"/>
+      <c r="L53" t="n">
+        <v>1</v>
+      </c>
+      <c r="M53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -2330,16 +2169,13 @@
       <c r="H54" t="n">
         <v>0</v>
       </c>
-      <c r="I54" t="n">
-        <v>0</v>
-      </c>
+      <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="inlineStr"/>
-      <c r="L54" t="inlineStr"/>
-      <c r="M54" t="n">
-        <v>1</v>
-      </c>
-      <c r="N54" t="inlineStr"/>
+      <c r="L54" t="n">
+        <v>1</v>
+      </c>
+      <c r="M54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -2366,16 +2202,13 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
-      <c r="I55" t="n">
-        <v>0</v>
-      </c>
+      <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="n">
-        <v>1</v>
-      </c>
-      <c r="N55" t="inlineStr"/>
+      <c r="L55" t="n">
+        <v>1</v>
+      </c>
+      <c r="M55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -2402,16 +2235,13 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
+      <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
-      <c r="L56" t="inlineStr"/>
-      <c r="M56" t="n">
-        <v>1</v>
-      </c>
-      <c r="N56" t="inlineStr"/>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2438,16 +2268,13 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
-      <c r="I57" t="n">
-        <v>0</v>
-      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="inlineStr"/>
-      <c r="L57" t="inlineStr"/>
-      <c r="M57" t="n">
-        <v>1</v>
-      </c>
-      <c r="N57" t="inlineStr"/>
+      <c r="L57" t="n">
+        <v>1</v>
+      </c>
+      <c r="M57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2474,16 +2301,13 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
+      <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
-      <c r="L58" t="inlineStr"/>
-      <c r="M58" t="n">
-        <v>1</v>
-      </c>
-      <c r="N58" t="inlineStr"/>
+      <c r="L58" t="n">
+        <v>1</v>
+      </c>
+      <c r="M58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2510,16 +2334,13 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
-      <c r="I59" t="n">
-        <v>0</v>
-      </c>
+      <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
-      <c r="L59" t="inlineStr"/>
-      <c r="M59" t="n">
-        <v>1</v>
-      </c>
-      <c r="N59" t="inlineStr"/>
+      <c r="L59" t="n">
+        <v>1</v>
+      </c>
+      <c r="M59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -2546,16 +2367,13 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
-      <c r="I60" t="n">
-        <v>0</v>
-      </c>
+      <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
-      <c r="L60" t="inlineStr"/>
-      <c r="M60" t="n">
-        <v>1</v>
-      </c>
-      <c r="N60" t="inlineStr"/>
+      <c r="L60" t="n">
+        <v>1</v>
+      </c>
+      <c r="M60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2582,16 +2400,13 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
-      <c r="I61" t="n">
-        <v>0</v>
-      </c>
+      <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
-      <c r="L61" t="inlineStr"/>
-      <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="inlineStr"/>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2618,16 +2433,13 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
-      <c r="L62" t="inlineStr"/>
-      <c r="M62" t="n">
-        <v>1</v>
-      </c>
-      <c r="N62" t="inlineStr"/>
+      <c r="L62" t="n">
+        <v>1</v>
+      </c>
+      <c r="M62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2654,16 +2466,13 @@
       <c r="H63" t="n">
         <v>0</v>
       </c>
-      <c r="I63" t="n">
-        <v>0</v>
-      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="n">
-        <v>1</v>
-      </c>
-      <c r="N63" t="inlineStr"/>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2690,16 +2499,13 @@
       <c r="H64" t="n">
         <v>0</v>
       </c>
-      <c r="I64" t="n">
-        <v>0</v>
-      </c>
+      <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
-      <c r="L64" t="inlineStr"/>
-      <c r="M64" t="n">
-        <v>1</v>
-      </c>
-      <c r="N64" t="inlineStr"/>
+      <c r="L64" t="n">
+        <v>1</v>
+      </c>
+      <c r="M64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2726,16 +2532,13 @@
       <c r="H65" t="n">
         <v>0</v>
       </c>
-      <c r="I65" t="n">
-        <v>0</v>
-      </c>
+      <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
-      <c r="L65" t="inlineStr"/>
-      <c r="M65" t="n">
-        <v>1</v>
-      </c>
-      <c r="N65" t="inlineStr"/>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2762,16 +2565,13 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
-      <c r="I66" t="n">
-        <v>0</v>
-      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
-      <c r="L66" t="inlineStr"/>
-      <c r="M66" t="n">
-        <v>1</v>
-      </c>
-      <c r="N66" t="inlineStr"/>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2798,16 +2598,13 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
-      <c r="I67" t="n">
-        <v>0</v>
-      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
-      <c r="L67" t="inlineStr"/>
-      <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="inlineStr"/>
+      <c r="L67" t="n">
+        <v>1</v>
+      </c>
+      <c r="M67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2834,16 +2631,13 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
-      <c r="I68" t="n">
-        <v>0</v>
-      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
-      <c r="L68" t="inlineStr"/>
-      <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="inlineStr"/>
+      <c r="L68" t="n">
+        <v>1</v>
+      </c>
+      <c r="M68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2870,16 +2664,13 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="inlineStr"/>
-      <c r="L69" t="inlineStr"/>
-      <c r="M69" t="n">
-        <v>1</v>
-      </c>
-      <c r="N69" t="inlineStr"/>
+      <c r="L69" t="n">
+        <v>1</v>
+      </c>
+      <c r="M69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2906,16 +2697,13 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
-      <c r="I70" t="n">
-        <v>0</v>
-      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
-      <c r="L70" t="inlineStr"/>
-      <c r="M70" t="n">
-        <v>1</v>
-      </c>
-      <c r="N70" t="inlineStr"/>
+      <c r="L70" t="n">
+        <v>1</v>
+      </c>
+      <c r="M70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2942,16 +2730,13 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
-      <c r="I71" t="n">
-        <v>0</v>
-      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="n">
-        <v>1</v>
-      </c>
-      <c r="N71" t="inlineStr"/>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2978,16 +2763,13 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="n">
-        <v>1</v>
-      </c>
-      <c r="N72" t="inlineStr"/>
+      <c r="L72" t="n">
+        <v>1</v>
+      </c>
+      <c r="M72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -3014,16 +2796,13 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
-      <c r="I73" t="n">
-        <v>0</v>
-      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="n">
-        <v>1</v>
-      </c>
-      <c r="N73" t="inlineStr"/>
+      <c r="L73" t="n">
+        <v>1</v>
+      </c>
+      <c r="M73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -3050,16 +2829,13 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
-      <c r="I74" t="n">
-        <v>0</v>
-      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="n">
-        <v>1</v>
-      </c>
-      <c r="N74" t="inlineStr"/>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3086,16 +2862,13 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="n">
-        <v>1</v>
-      </c>
-      <c r="N75" t="inlineStr"/>
+      <c r="L75" t="n">
+        <v>1</v>
+      </c>
+      <c r="M75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3122,16 +2895,13 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
-      <c r="I76" t="n">
-        <v>0</v>
-      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="n">
-        <v>1</v>
-      </c>
-      <c r="N76" t="inlineStr"/>
+      <c r="L76" t="n">
+        <v>1</v>
+      </c>
+      <c r="M76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -3158,16 +2928,13 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="n">
-        <v>1</v>
-      </c>
-      <c r="N77" t="inlineStr"/>
+      <c r="L77" t="n">
+        <v>1</v>
+      </c>
+      <c r="M77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -3194,16 +2961,13 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
-      <c r="I78" t="n">
-        <v>0</v>
-      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="n">
-        <v>1</v>
-      </c>
-      <c r="N78" t="inlineStr"/>
+      <c r="L78" t="n">
+        <v>1</v>
+      </c>
+      <c r="M78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -3230,16 +2994,13 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="n">
-        <v>1</v>
-      </c>
-      <c r="N79" t="inlineStr"/>
+      <c r="L79" t="n">
+        <v>1</v>
+      </c>
+      <c r="M79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -3266,16 +3027,13 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
-      <c r="I80" t="n">
-        <v>0</v>
-      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="n">
-        <v>1</v>
-      </c>
-      <c r="N80" t="inlineStr"/>
+      <c r="L80" t="n">
+        <v>1</v>
+      </c>
+      <c r="M80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -3302,16 +3060,13 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
-      <c r="I81" t="n">
-        <v>0</v>
-      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="n">
-        <v>1</v>
-      </c>
-      <c r="N81" t="inlineStr"/>
+      <c r="L81" t="n">
+        <v>1</v>
+      </c>
+      <c r="M81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -3338,16 +3093,13 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-      <c r="I82" t="n">
-        <v>0</v>
-      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="n">
-        <v>1</v>
-      </c>
-      <c r="N82" t="inlineStr"/>
+      <c r="L82" t="n">
+        <v>1</v>
+      </c>
+      <c r="M82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -3374,16 +3126,13 @@
       <c r="H83" t="n">
         <v>0</v>
       </c>
-      <c r="I83" t="n">
-        <v>0</v>
-      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="n">
-        <v>1</v>
-      </c>
-      <c r="N83" t="inlineStr"/>
+      <c r="L83" t="n">
+        <v>1</v>
+      </c>
+      <c r="M83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -3410,16 +3159,13 @@
       <c r="H84" t="n">
         <v>0</v>
       </c>
-      <c r="I84" t="n">
-        <v>0</v>
-      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="n">
-        <v>1</v>
-      </c>
-      <c r="N84" t="inlineStr"/>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -3446,16 +3192,13 @@
       <c r="H85" t="n">
         <v>0</v>
       </c>
-      <c r="I85" t="n">
-        <v>0</v>
-      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="n">
-        <v>1</v>
-      </c>
-      <c r="N85" t="inlineStr"/>
+      <c r="L85" t="n">
+        <v>1</v>
+      </c>
+      <c r="M85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -3482,16 +3225,13 @@
       <c r="H86" t="n">
         <v>0</v>
       </c>
-      <c r="I86" t="n">
-        <v>0</v>
-      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="n">
-        <v>1</v>
-      </c>
-      <c r="N86" t="inlineStr"/>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -3518,16 +3258,13 @@
       <c r="H87" t="n">
         <v>0</v>
       </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="n">
-        <v>1</v>
-      </c>
-      <c r="N87" t="inlineStr"/>
+      <c r="L87" t="n">
+        <v>1</v>
+      </c>
+      <c r="M87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -3554,16 +3291,13 @@
       <c r="H88" t="n">
         <v>0</v>
       </c>
-      <c r="I88" t="n">
-        <v>0</v>
-      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="n">
-        <v>1</v>
-      </c>
-      <c r="N88" t="inlineStr"/>
+      <c r="L88" t="n">
+        <v>1</v>
+      </c>
+      <c r="M88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -3590,16 +3324,13 @@
       <c r="H89" t="n">
         <v>0</v>
       </c>
-      <c r="I89" t="n">
-        <v>0</v>
-      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="n">
-        <v>1</v>
-      </c>
-      <c r="N89" t="inlineStr"/>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -3626,16 +3357,13 @@
       <c r="H90" t="n">
         <v>0</v>
       </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
-      <c r="L90" t="inlineStr"/>
-      <c r="M90" t="n">
-        <v>1</v>
-      </c>
-      <c r="N90" t="inlineStr"/>
+      <c r="L90" t="n">
+        <v>1</v>
+      </c>
+      <c r="M90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -3662,16 +3390,13 @@
       <c r="H91" t="n">
         <v>0</v>
       </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
-      <c r="L91" t="inlineStr"/>
-      <c r="M91" t="n">
-        <v>1</v>
-      </c>
-      <c r="N91" t="inlineStr"/>
+      <c r="L91" t="n">
+        <v>1</v>
+      </c>
+      <c r="M91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3698,16 +3423,13 @@
       <c r="H92" t="n">
         <v>0</v>
       </c>
-      <c r="I92" t="n">
-        <v>0</v>
-      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="inlineStr"/>
-      <c r="L92" t="inlineStr"/>
-      <c r="M92" t="n">
-        <v>1</v>
-      </c>
-      <c r="N92" t="inlineStr"/>
+      <c r="L92" t="n">
+        <v>1</v>
+      </c>
+      <c r="M92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3734,16 +3456,13 @@
       <c r="H93" t="n">
         <v>0</v>
       </c>
-      <c r="I93" t="n">
-        <v>0</v>
-      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="n">
-        <v>1</v>
-      </c>
-      <c r="N93" t="inlineStr"/>
+      <c r="L93" t="n">
+        <v>1</v>
+      </c>
+      <c r="M93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3770,16 +3489,13 @@
       <c r="H94" t="n">
         <v>0</v>
       </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="n">
-        <v>1</v>
-      </c>
-      <c r="N94" t="inlineStr"/>
+      <c r="L94" t="n">
+        <v>1</v>
+      </c>
+      <c r="M94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3806,16 +3522,13 @@
       <c r="H95" t="n">
         <v>0</v>
       </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="n">
-        <v>1</v>
-      </c>
-      <c r="N95" t="inlineStr"/>
+      <c r="L95" t="n">
+        <v>1</v>
+      </c>
+      <c r="M95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3842,16 +3555,13 @@
       <c r="H96" t="n">
         <v>0</v>
       </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
-      <c r="L96" t="inlineStr"/>
-      <c r="M96" t="n">
-        <v>1</v>
-      </c>
-      <c r="N96" t="inlineStr"/>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3878,16 +3588,13 @@
       <c r="H97" t="n">
         <v>0</v>
       </c>
-      <c r="I97" t="n">
-        <v>0</v>
-      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
-      <c r="L97" t="inlineStr"/>
-      <c r="M97" t="n">
-        <v>1</v>
-      </c>
-      <c r="N97" t="inlineStr"/>
+      <c r="L97" t="n">
+        <v>1</v>
+      </c>
+      <c r="M97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3914,16 +3621,13 @@
       <c r="H98" t="n">
         <v>0</v>
       </c>
-      <c r="I98" t="n">
-        <v>0</v>
-      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
-      <c r="L98" t="inlineStr"/>
-      <c r="M98" t="n">
-        <v>1</v>
-      </c>
-      <c r="N98" t="inlineStr"/>
+      <c r="L98" t="n">
+        <v>1</v>
+      </c>
+      <c r="M98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3950,16 +3654,13 @@
       <c r="H99" t="n">
         <v>0</v>
       </c>
-      <c r="I99" t="n">
-        <v>0</v>
-      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
-      <c r="L99" t="inlineStr"/>
-      <c r="M99" t="n">
-        <v>1</v>
-      </c>
-      <c r="N99" t="inlineStr"/>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3986,16 +3687,13 @@
       <c r="H100" t="n">
         <v>0</v>
       </c>
-      <c r="I100" t="n">
-        <v>0</v>
-      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
-      <c r="L100" t="inlineStr"/>
-      <c r="M100" t="n">
-        <v>1</v>
-      </c>
-      <c r="N100" t="inlineStr"/>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -4022,16 +3720,13 @@
       <c r="H101" t="n">
         <v>0</v>
       </c>
-      <c r="I101" t="n">
-        <v>0</v>
-      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
-      <c r="L101" t="inlineStr"/>
-      <c r="M101" t="n">
-        <v>1</v>
-      </c>
-      <c r="N101" t="inlineStr"/>
+      <c r="L101" t="n">
+        <v>1</v>
+      </c>
+      <c r="M101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
@@ -4058,16 +3753,13 @@
       <c r="H102" t="n">
         <v>0</v>
       </c>
-      <c r="I102" t="n">
-        <v>0</v>
-      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
-      <c r="L102" t="inlineStr"/>
-      <c r="M102" t="n">
-        <v>1</v>
-      </c>
-      <c r="N102" t="inlineStr"/>
+      <c r="L102" t="n">
+        <v>1</v>
+      </c>
+      <c r="M102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="1" t="n">
@@ -4094,16 +3786,13 @@
       <c r="H103" t="n">
         <v>0</v>
       </c>
-      <c r="I103" t="n">
-        <v>0</v>
-      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="inlineStr"/>
-      <c r="L103" t="inlineStr"/>
-      <c r="M103" t="n">
-        <v>1</v>
-      </c>
-      <c r="N103" t="inlineStr"/>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="1" t="n">
@@ -4130,16 +3819,13 @@
       <c r="H104" t="n">
         <v>0</v>
       </c>
-      <c r="I104" t="n">
-        <v>0</v>
-      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
-      <c r="L104" t="inlineStr"/>
-      <c r="M104" t="n">
-        <v>1</v>
-      </c>
-      <c r="N104" t="inlineStr"/>
+      <c r="L104" t="n">
+        <v>1</v>
+      </c>
+      <c r="M104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="1" t="n">
@@ -4166,16 +3852,13 @@
       <c r="H105" t="n">
         <v>0</v>
       </c>
-      <c r="I105" t="n">
-        <v>0</v>
-      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
-      <c r="M105" t="n">
-        <v>1</v>
-      </c>
-      <c r="N105" t="inlineStr"/>
+      <c r="L105" t="n">
+        <v>1</v>
+      </c>
+      <c r="M105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -4202,16 +3885,13 @@
       <c r="H106" t="n">
         <v>0</v>
       </c>
-      <c r="I106" t="n">
-        <v>0</v>
-      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
-      <c r="M106" t="n">
-        <v>1</v>
-      </c>
-      <c r="N106" t="inlineStr"/>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
@@ -4238,16 +3918,13 @@
       <c r="H107" t="n">
         <v>0</v>
       </c>
-      <c r="I107" t="n">
-        <v>0</v>
-      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
-      <c r="L107" t="inlineStr"/>
-      <c r="M107" t="n">
-        <v>1</v>
-      </c>
-      <c r="N107" t="inlineStr"/>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -4274,16 +3951,13 @@
       <c r="H108" t="n">
         <v>0</v>
       </c>
-      <c r="I108" t="n">
-        <v>0</v>
-      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="inlineStr"/>
-      <c r="L108" t="inlineStr"/>
-      <c r="M108" t="n">
-        <v>1</v>
-      </c>
-      <c r="N108" t="inlineStr"/>
+      <c r="L108" t="n">
+        <v>1</v>
+      </c>
+      <c r="M108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -4310,16 +3984,13 @@
       <c r="H109" t="n">
         <v>0</v>
       </c>
-      <c r="I109" t="n">
-        <v>0</v>
-      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
-      <c r="L109" t="inlineStr"/>
-      <c r="M109" t="n">
-        <v>1</v>
-      </c>
-      <c r="N109" t="inlineStr"/>
+      <c r="L109" t="n">
+        <v>1</v>
+      </c>
+      <c r="M109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
@@ -4346,16 +4017,13 @@
       <c r="H110" t="n">
         <v>0</v>
       </c>
-      <c r="I110" t="n">
-        <v>0</v>
-      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="inlineStr"/>
-      <c r="L110" t="inlineStr"/>
-      <c r="M110" t="n">
-        <v>1</v>
-      </c>
-      <c r="N110" t="inlineStr"/>
+      <c r="L110" t="n">
+        <v>1</v>
+      </c>
+      <c r="M110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
@@ -4382,16 +4050,13 @@
       <c r="H111" t="n">
         <v>0</v>
       </c>
-      <c r="I111" t="n">
-        <v>0</v>
-      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
-      <c r="L111" t="inlineStr"/>
-      <c r="M111" t="n">
-        <v>1</v>
-      </c>
-      <c r="N111" t="inlineStr"/>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -4418,16 +4083,13 @@
       <c r="H112" t="n">
         <v>0</v>
       </c>
-      <c r="I112" t="n">
-        <v>0</v>
-      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="n">
-        <v>1</v>
-      </c>
-      <c r="N112" t="inlineStr"/>
+      <c r="L112" t="n">
+        <v>1</v>
+      </c>
+      <c r="M112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
@@ -4454,16 +4116,13 @@
       <c r="H113" t="n">
         <v>0</v>
       </c>
-      <c r="I113" t="n">
-        <v>0</v>
-      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="n">
-        <v>1</v>
-      </c>
-      <c r="N113" t="inlineStr"/>
+      <c r="L113" t="n">
+        <v>1</v>
+      </c>
+      <c r="M113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
@@ -4490,16 +4149,13 @@
       <c r="H114" t="n">
         <v>0</v>
       </c>
-      <c r="I114" t="n">
-        <v>0</v>
-      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="n">
-        <v>1</v>
-      </c>
-      <c r="N114" t="inlineStr"/>
+      <c r="L114" t="n">
+        <v>1</v>
+      </c>
+      <c r="M114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
@@ -4526,16 +4182,13 @@
       <c r="H115" t="n">
         <v>0</v>
       </c>
-      <c r="I115" t="n">
-        <v>0</v>
-      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="inlineStr"/>
-      <c r="L115" t="inlineStr"/>
-      <c r="M115" t="n">
-        <v>1</v>
-      </c>
-      <c r="N115" t="inlineStr"/>
+      <c r="L115" t="n">
+        <v>1</v>
+      </c>
+      <c r="M115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
@@ -4562,16 +4215,13 @@
       <c r="H116" t="n">
         <v>0</v>
       </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="inlineStr"/>
-      <c r="L116" t="inlineStr"/>
-      <c r="M116" t="n">
-        <v>1</v>
-      </c>
-      <c r="N116" t="inlineStr"/>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
@@ -4598,16 +4248,13 @@
       <c r="H117" t="n">
         <v>0</v>
       </c>
-      <c r="I117" t="n">
-        <v>0</v>
-      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="inlineStr"/>
-      <c r="L117" t="inlineStr"/>
-      <c r="M117" t="n">
-        <v>1</v>
-      </c>
-      <c r="N117" t="inlineStr"/>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
@@ -4634,16 +4281,13 @@
       <c r="H118" t="n">
         <v>0</v>
       </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
-      <c r="L118" t="inlineStr"/>
-      <c r="M118" t="n">
-        <v>1</v>
-      </c>
-      <c r="N118" t="inlineStr"/>
+      <c r="L118" t="n">
+        <v>1</v>
+      </c>
+      <c r="M118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
@@ -4670,16 +4314,13 @@
       <c r="H119" t="n">
         <v>0</v>
       </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="inlineStr"/>
-      <c r="L119" t="inlineStr"/>
-      <c r="M119" t="n">
-        <v>1</v>
-      </c>
-      <c r="N119" t="inlineStr"/>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
@@ -4706,16 +4347,13 @@
       <c r="H120" t="n">
         <v>0</v>
       </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
-      <c r="L120" t="inlineStr"/>
-      <c r="M120" t="n">
-        <v>1</v>
-      </c>
-      <c r="N120" t="inlineStr"/>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
@@ -4742,16 +4380,13 @@
       <c r="H121" t="n">
         <v>0</v>
       </c>
-      <c r="I121" t="n">
-        <v>0</v>
-      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
-      <c r="L121" t="inlineStr"/>
-      <c r="M121" t="n">
-        <v>1</v>
-      </c>
-      <c r="N121" t="inlineStr"/>
+      <c r="L121" t="n">
+        <v>1</v>
+      </c>
+      <c r="M121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -4778,16 +4413,13 @@
       <c r="H122" t="n">
         <v>0</v>
       </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
-      <c r="L122" t="inlineStr"/>
-      <c r="M122" t="n">
-        <v>1</v>
-      </c>
-      <c r="N122" t="inlineStr"/>
+      <c r="L122" t="n">
+        <v>1</v>
+      </c>
+      <c r="M122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
@@ -4814,16 +4446,13 @@
       <c r="H123" t="n">
         <v>0</v>
       </c>
-      <c r="I123" t="n">
-        <v>0</v>
-      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="inlineStr"/>
-      <c r="L123" t="inlineStr"/>
-      <c r="M123" t="n">
-        <v>1</v>
-      </c>
-      <c r="N123" t="inlineStr"/>
+      <c r="L123" t="n">
+        <v>1</v>
+      </c>
+      <c r="M123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -4850,16 +4479,13 @@
       <c r="H124" t="n">
         <v>0</v>
       </c>
-      <c r="I124" t="n">
-        <v>0</v>
-      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="inlineStr"/>
-      <c r="L124" t="inlineStr"/>
-      <c r="M124" t="n">
-        <v>1</v>
-      </c>
-      <c r="N124" t="inlineStr"/>
+      <c r="L124" t="n">
+        <v>1</v>
+      </c>
+      <c r="M124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -4886,16 +4512,13 @@
       <c r="H125" t="n">
         <v>0</v>
       </c>
-      <c r="I125" t="n">
-        <v>0</v>
-      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="inlineStr"/>
-      <c r="L125" t="inlineStr"/>
-      <c r="M125" t="n">
-        <v>1</v>
-      </c>
-      <c r="N125" t="inlineStr"/>
+      <c r="L125" t="n">
+        <v>1</v>
+      </c>
+      <c r="M125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
@@ -4922,16 +4545,13 @@
       <c r="H126" t="n">
         <v>0</v>
       </c>
-      <c r="I126" t="n">
-        <v>0</v>
-      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="n">
-        <v>1</v>
-      </c>
-      <c r="N126" t="inlineStr"/>
+      <c r="L126" t="n">
+        <v>1</v>
+      </c>
+      <c r="M126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -4958,16 +4578,13 @@
       <c r="H127" t="n">
         <v>0</v>
       </c>
-      <c r="I127" t="n">
-        <v>0</v>
-      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="n">
-        <v>1</v>
-      </c>
-      <c r="N127" t="inlineStr"/>
+      <c r="L127" t="n">
+        <v>1</v>
+      </c>
+      <c r="M127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -4994,16 +4611,13 @@
       <c r="H128" t="n">
         <v>0</v>
       </c>
-      <c r="I128" t="n">
-        <v>0</v>
-      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
-      <c r="L128" t="inlineStr"/>
-      <c r="M128" t="n">
-        <v>1</v>
-      </c>
-      <c r="N128" t="inlineStr"/>
+      <c r="L128" t="n">
+        <v>1</v>
+      </c>
+      <c r="M128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
@@ -5030,16 +4644,13 @@
       <c r="H129" t="n">
         <v>0</v>
       </c>
-      <c r="I129" t="n">
-        <v>0</v>
-      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
-      <c r="L129" t="inlineStr"/>
-      <c r="M129" t="n">
-        <v>1</v>
-      </c>
-      <c r="N129" t="inlineStr"/>
+      <c r="L129" t="n">
+        <v>1</v>
+      </c>
+      <c r="M129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
@@ -5066,16 +4677,13 @@
       <c r="H130" t="n">
         <v>0</v>
       </c>
-      <c r="I130" t="n">
-        <v>0</v>
-      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="inlineStr"/>
-      <c r="L130" t="inlineStr"/>
-      <c r="M130" t="n">
-        <v>1</v>
-      </c>
-      <c r="N130" t="inlineStr"/>
+      <c r="L130" t="n">
+        <v>1</v>
+      </c>
+      <c r="M130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
@@ -5102,16 +4710,13 @@
       <c r="H131" t="n">
         <v>0</v>
       </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
-      <c r="L131" t="inlineStr"/>
-      <c r="M131" t="n">
-        <v>1</v>
-      </c>
-      <c r="N131" t="inlineStr"/>
+      <c r="L131" t="n">
+        <v>1</v>
+      </c>
+      <c r="M131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
@@ -5138,16 +4743,13 @@
       <c r="H132" t="n">
         <v>0</v>
       </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="inlineStr"/>
-      <c r="L132" t="inlineStr"/>
-      <c r="M132" t="n">
-        <v>1</v>
-      </c>
-      <c r="N132" t="inlineStr"/>
+      <c r="L132" t="n">
+        <v>1</v>
+      </c>
+      <c r="M132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -5174,16 +4776,13 @@
       <c r="H133" t="n">
         <v>0</v>
       </c>
-      <c r="I133" t="n">
-        <v>0</v>
-      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="n">
-        <v>1</v>
-      </c>
-      <c r="N133" t="inlineStr"/>
+      <c r="L133" t="n">
+        <v>1</v>
+      </c>
+      <c r="M133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -5210,16 +4809,13 @@
       <c r="H134" t="n">
         <v>0</v>
       </c>
-      <c r="I134" t="n">
-        <v>0</v>
-      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
-      <c r="L134" t="inlineStr"/>
-      <c r="M134" t="n">
-        <v>1</v>
-      </c>
-      <c r="N134" t="inlineStr"/>
+      <c r="L134" t="n">
+        <v>1</v>
+      </c>
+      <c r="M134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
@@ -5246,16 +4842,13 @@
       <c r="H135" t="n">
         <v>0</v>
       </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="inlineStr"/>
-      <c r="L135" t="inlineStr"/>
-      <c r="M135" t="n">
-        <v>1</v>
-      </c>
-      <c r="N135" t="inlineStr"/>
+      <c r="L135" t="n">
+        <v>1</v>
+      </c>
+      <c r="M135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
@@ -5282,16 +4875,13 @@
       <c r="H136" t="n">
         <v>0</v>
       </c>
-      <c r="I136" t="n">
-        <v>0</v>
-      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
-      <c r="L136" t="inlineStr"/>
-      <c r="M136" t="n">
-        <v>1</v>
-      </c>
-      <c r="N136" t="inlineStr"/>
+      <c r="L136" t="n">
+        <v>1</v>
+      </c>
+      <c r="M136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
@@ -5318,16 +4908,13 @@
       <c r="H137" t="n">
         <v>0</v>
       </c>
-      <c r="I137" t="n">
-        <v>0</v>
-      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="inlineStr"/>
-      <c r="L137" t="inlineStr"/>
-      <c r="M137" t="n">
-        <v>1</v>
-      </c>
-      <c r="N137" t="inlineStr"/>
+      <c r="L137" t="n">
+        <v>1</v>
+      </c>
+      <c r="M137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
@@ -5354,16 +4941,13 @@
       <c r="H138" t="n">
         <v>0</v>
       </c>
-      <c r="I138" t="n">
-        <v>0</v>
-      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="n">
-        <v>1</v>
-      </c>
-      <c r="N138" t="inlineStr"/>
+      <c r="L138" t="n">
+        <v>1</v>
+      </c>
+      <c r="M138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
@@ -5390,16 +4974,13 @@
       <c r="H139" t="n">
         <v>0</v>
       </c>
-      <c r="I139" t="n">
-        <v>0</v>
-      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="n">
-        <v>1</v>
-      </c>
-      <c r="N139" t="inlineStr"/>
+      <c r="L139" t="n">
+        <v>1</v>
+      </c>
+      <c r="M139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
@@ -5426,16 +5007,13 @@
       <c r="H140" t="n">
         <v>0</v>
       </c>
-      <c r="I140" t="n">
-        <v>0</v>
-      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
-      <c r="L140" t="inlineStr"/>
-      <c r="M140" t="n">
-        <v>1</v>
-      </c>
-      <c r="N140" t="inlineStr"/>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
@@ -5462,16 +5040,13 @@
       <c r="H141" t="n">
         <v>0</v>
       </c>
-      <c r="I141" t="n">
-        <v>0</v>
-      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
-      <c r="L141" t="inlineStr"/>
-      <c r="M141" t="n">
-        <v>1</v>
-      </c>
-      <c r="N141" t="inlineStr"/>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
@@ -5498,16 +5073,13 @@
       <c r="H142" t="n">
         <v>0</v>
       </c>
-      <c r="I142" t="n">
-        <v>0</v>
-      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
-      <c r="L142" t="inlineStr"/>
-      <c r="M142" t="n">
-        <v>1</v>
-      </c>
-      <c r="N142" t="inlineStr"/>
+      <c r="L142" t="n">
+        <v>1</v>
+      </c>
+      <c r="M142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
@@ -5534,16 +5106,13 @@
       <c r="H143" t="n">
         <v>0</v>
       </c>
-      <c r="I143" t="n">
-        <v>0</v>
-      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
-      <c r="L143" t="inlineStr"/>
-      <c r="M143" t="n">
-        <v>1</v>
-      </c>
-      <c r="N143" t="inlineStr"/>
+      <c r="L143" t="n">
+        <v>1</v>
+      </c>
+      <c r="M143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
@@ -5570,16 +5139,13 @@
       <c r="H144" t="n">
         <v>0</v>
       </c>
-      <c r="I144" t="n">
-        <v>0</v>
-      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="n">
-        <v>1</v>
-      </c>
-      <c r="N144" t="inlineStr"/>
+      <c r="L144" t="n">
+        <v>1</v>
+      </c>
+      <c r="M144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
@@ -5606,16 +5172,13 @@
       <c r="H145" t="n">
         <v>0</v>
       </c>
-      <c r="I145" t="n">
-        <v>0</v>
-      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="n">
-        <v>1</v>
-      </c>
-      <c r="N145" t="inlineStr"/>
+      <c r="L145" t="n">
+        <v>1</v>
+      </c>
+      <c r="M145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
@@ -5642,16 +5205,13 @@
       <c r="H146" t="n">
         <v>0</v>
       </c>
-      <c r="I146" t="n">
-        <v>0</v>
-      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="n">
-        <v>1</v>
-      </c>
-      <c r="N146" t="inlineStr"/>
+      <c r="L146" t="n">
+        <v>1</v>
+      </c>
+      <c r="M146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
@@ -5678,16 +5238,13 @@
       <c r="H147" t="n">
         <v>0</v>
       </c>
-      <c r="I147" t="n">
-        <v>0</v>
-      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
-      <c r="L147" t="inlineStr"/>
-      <c r="M147" t="n">
-        <v>1</v>
-      </c>
-      <c r="N147" t="inlineStr"/>
+      <c r="L147" t="n">
+        <v>1</v>
+      </c>
+      <c r="M147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
@@ -5714,16 +5271,13 @@
       <c r="H148" t="n">
         <v>0</v>
       </c>
-      <c r="I148" t="n">
-        <v>0</v>
-      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
-      <c r="L148" t="inlineStr"/>
-      <c r="M148" t="n">
-        <v>1</v>
-      </c>
-      <c r="N148" t="inlineStr"/>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
@@ -5750,16 +5304,13 @@
       <c r="H149" t="n">
         <v>0</v>
       </c>
-      <c r="I149" t="n">
-        <v>0</v>
-      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
-      <c r="L149" t="inlineStr"/>
-      <c r="M149" t="n">
-        <v>1</v>
-      </c>
-      <c r="N149" t="inlineStr"/>
+      <c r="L149" t="n">
+        <v>1</v>
+      </c>
+      <c r="M149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -5786,16 +5337,13 @@
       <c r="H150" t="n">
         <v>0</v>
       </c>
-      <c r="I150" t="n">
-        <v>0</v>
-      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
-      <c r="L150" t="inlineStr"/>
-      <c r="M150" t="n">
-        <v>1</v>
-      </c>
-      <c r="N150" t="inlineStr"/>
+      <c r="L150" t="n">
+        <v>1</v>
+      </c>
+      <c r="M150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
@@ -5822,16 +5370,13 @@
       <c r="H151" t="n">
         <v>0</v>
       </c>
-      <c r="I151" t="n">
-        <v>0</v>
-      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
-      <c r="L151" t="inlineStr"/>
-      <c r="M151" t="n">
-        <v>1</v>
-      </c>
-      <c r="N151" t="inlineStr"/>
+      <c r="L151" t="n">
+        <v>1</v>
+      </c>
+      <c r="M151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
@@ -5858,16 +5403,13 @@
       <c r="H152" t="n">
         <v>0</v>
       </c>
-      <c r="I152" t="n">
-        <v>0</v>
-      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
-      <c r="M152" t="n">
-        <v>1</v>
-      </c>
-      <c r="N152" t="inlineStr"/>
+      <c r="L152" t="n">
+        <v>1</v>
+      </c>
+      <c r="M152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
@@ -5894,16 +5436,13 @@
       <c r="H153" t="n">
         <v>0</v>
       </c>
-      <c r="I153" t="n">
-        <v>0</v>
-      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="n">
-        <v>1</v>
-      </c>
-      <c r="N153" t="inlineStr"/>
+      <c r="L153" t="n">
+        <v>1</v>
+      </c>
+      <c r="M153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
@@ -5930,16 +5469,13 @@
       <c r="H154" t="n">
         <v>0</v>
       </c>
-      <c r="I154" t="n">
-        <v>0</v>
-      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="n">
-        <v>1</v>
-      </c>
-      <c r="N154" t="inlineStr"/>
+      <c r="L154" t="n">
+        <v>1</v>
+      </c>
+      <c r="M154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
@@ -5966,16 +5502,13 @@
       <c r="H155" t="n">
         <v>0</v>
       </c>
-      <c r="I155" t="n">
-        <v>0</v>
-      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="n">
-        <v>1</v>
-      </c>
-      <c r="N155" t="inlineStr"/>
+      <c r="L155" t="n">
+        <v>1</v>
+      </c>
+      <c r="M155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -6002,16 +5535,13 @@
       <c r="H156" t="n">
         <v>0</v>
       </c>
-      <c r="I156" t="n">
-        <v>0</v>
-      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
-      <c r="M156" t="n">
-        <v>1</v>
-      </c>
-      <c r="N156" t="inlineStr"/>
+      <c r="L156" t="n">
+        <v>1</v>
+      </c>
+      <c r="M156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -6038,16 +5568,13 @@
       <c r="H157" t="n">
         <v>0</v>
       </c>
-      <c r="I157" t="n">
-        <v>0</v>
-      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
-      <c r="M157" t="n">
-        <v>1</v>
-      </c>
-      <c r="N157" t="inlineStr"/>
+      <c r="L157" t="n">
+        <v>1</v>
+      </c>
+      <c r="M157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
@@ -6074,16 +5601,13 @@
       <c r="H158" t="n">
         <v>0</v>
       </c>
-      <c r="I158" t="n">
-        <v>0</v>
-      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
-      <c r="M158" t="n">
-        <v>1</v>
-      </c>
-      <c r="N158" t="inlineStr"/>
+      <c r="L158" t="n">
+        <v>1</v>
+      </c>
+      <c r="M158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
@@ -6110,16 +5634,13 @@
       <c r="H159" t="n">
         <v>0</v>
       </c>
-      <c r="I159" t="n">
-        <v>0</v>
-      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
-      <c r="M159" t="n">
-        <v>1</v>
-      </c>
-      <c r="N159" t="inlineStr"/>
+      <c r="L159" t="n">
+        <v>1</v>
+      </c>
+      <c r="M159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
@@ -6146,16 +5667,13 @@
       <c r="H160" t="n">
         <v>0</v>
       </c>
-      <c r="I160" t="n">
-        <v>0</v>
-      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
-      <c r="M160" t="n">
-        <v>1</v>
-      </c>
-      <c r="N160" t="inlineStr"/>
+      <c r="L160" t="n">
+        <v>1</v>
+      </c>
+      <c r="M160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
@@ -6182,16 +5700,13 @@
       <c r="H161" t="n">
         <v>0</v>
       </c>
-      <c r="I161" t="n">
-        <v>0</v>
-      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
-      <c r="M161" t="n">
-        <v>1</v>
-      </c>
-      <c r="N161" t="inlineStr"/>
+      <c r="L161" t="n">
+        <v>1</v>
+      </c>
+      <c r="M161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
@@ -6218,16 +5733,13 @@
       <c r="H162" t="n">
         <v>0</v>
       </c>
-      <c r="I162" t="n">
-        <v>0</v>
-      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
-      <c r="M162" t="n">
-        <v>1</v>
-      </c>
-      <c r="N162" t="inlineStr"/>
+      <c r="L162" t="n">
+        <v>1</v>
+      </c>
+      <c r="M162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
@@ -6254,16 +5766,13 @@
       <c r="H163" t="n">
         <v>0</v>
       </c>
-      <c r="I163" t="n">
-        <v>0</v>
-      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
-      <c r="M163" t="n">
-        <v>1</v>
-      </c>
-      <c r="N163" t="inlineStr"/>
+      <c r="L163" t="n">
+        <v>1</v>
+      </c>
+      <c r="M163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
@@ -6290,16 +5799,13 @@
       <c r="H164" t="n">
         <v>0</v>
       </c>
-      <c r="I164" t="n">
-        <v>0</v>
-      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
-      <c r="M164" t="n">
-        <v>1</v>
-      </c>
-      <c r="N164" t="inlineStr"/>
+      <c r="L164" t="n">
+        <v>1</v>
+      </c>
+      <c r="M164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
@@ -6326,16 +5832,13 @@
       <c r="H165" t="n">
         <v>0</v>
       </c>
-      <c r="I165" t="n">
-        <v>0</v>
-      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
-      <c r="L165" t="inlineStr"/>
-      <c r="M165" t="n">
-        <v>1</v>
-      </c>
-      <c r="N165" t="inlineStr"/>
+      <c r="L165" t="n">
+        <v>1</v>
+      </c>
+      <c r="M165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
@@ -6362,16 +5865,13 @@
       <c r="H166" t="n">
         <v>0</v>
       </c>
-      <c r="I166" t="n">
-        <v>0</v>
-      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
-      <c r="L166" t="inlineStr"/>
-      <c r="M166" t="n">
-        <v>1</v>
-      </c>
-      <c r="N166" t="inlineStr"/>
+      <c r="L166" t="n">
+        <v>1</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
@@ -6398,16 +5898,13 @@
       <c r="H167" t="n">
         <v>0</v>
       </c>
-      <c r="I167" t="n">
-        <v>0</v>
-      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
-      <c r="L167" t="inlineStr"/>
-      <c r="M167" t="n">
-        <v>1</v>
-      </c>
-      <c r="N167" t="inlineStr"/>
+      <c r="L167" t="n">
+        <v>1</v>
+      </c>
+      <c r="M167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
@@ -6434,16 +5931,13 @@
       <c r="H168" t="n">
         <v>0</v>
       </c>
-      <c r="I168" t="n">
-        <v>0</v>
-      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
       <c r="K168" t="inlineStr"/>
-      <c r="L168" t="inlineStr"/>
-      <c r="M168" t="n">
-        <v>1</v>
-      </c>
-      <c r="N168" t="inlineStr"/>
+      <c r="L168" t="n">
+        <v>1</v>
+      </c>
+      <c r="M168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
@@ -6470,16 +5964,13 @@
       <c r="H169" t="n">
         <v>0</v>
       </c>
-      <c r="I169" t="n">
-        <v>0</v>
-      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
       <c r="K169" t="inlineStr"/>
-      <c r="L169" t="inlineStr"/>
-      <c r="M169" t="n">
-        <v>1</v>
-      </c>
-      <c r="N169" t="inlineStr"/>
+      <c r="L169" t="n">
+        <v>1</v>
+      </c>
+      <c r="M169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
@@ -6506,16 +5997,13 @@
       <c r="H170" t="n">
         <v>0</v>
       </c>
-      <c r="I170" t="n">
-        <v>0</v>
-      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
-      <c r="L170" t="inlineStr"/>
-      <c r="M170" t="n">
-        <v>1</v>
-      </c>
-      <c r="N170" t="inlineStr"/>
+      <c r="L170" t="n">
+        <v>1</v>
+      </c>
+      <c r="M170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -6542,16 +6030,13 @@
       <c r="H171" t="n">
         <v>0</v>
       </c>
-      <c r="I171" t="n">
-        <v>0</v>
-      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
-      <c r="L171" t="inlineStr"/>
-      <c r="M171" t="n">
-        <v>1</v>
-      </c>
-      <c r="N171" t="inlineStr"/>
+      <c r="L171" t="n">
+        <v>1</v>
+      </c>
+      <c r="M171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
@@ -6578,16 +6063,13 @@
       <c r="H172" t="n">
         <v>0</v>
       </c>
-      <c r="I172" t="n">
-        <v>0</v>
-      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
       <c r="K172" t="inlineStr"/>
-      <c r="L172" t="inlineStr"/>
-      <c r="M172" t="n">
-        <v>1</v>
-      </c>
-      <c r="N172" t="inlineStr"/>
+      <c r="L172" t="n">
+        <v>1</v>
+      </c>
+      <c r="M172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
@@ -6614,16 +6096,13 @@
       <c r="H173" t="n">
         <v>0</v>
       </c>
-      <c r="I173" t="n">
-        <v>0</v>
-      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
       <c r="K173" t="inlineStr"/>
-      <c r="L173" t="inlineStr"/>
-      <c r="M173" t="n">
-        <v>1</v>
-      </c>
-      <c r="N173" t="inlineStr"/>
+      <c r="L173" t="n">
+        <v>1</v>
+      </c>
+      <c r="M173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
@@ -6650,16 +6129,13 @@
       <c r="H174" t="n">
         <v>0</v>
       </c>
-      <c r="I174" t="n">
-        <v>0</v>
-      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
-      <c r="L174" t="inlineStr"/>
-      <c r="M174" t="n">
-        <v>1</v>
-      </c>
-      <c r="N174" t="inlineStr"/>
+      <c r="L174" t="n">
+        <v>1</v>
+      </c>
+      <c r="M174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -6686,16 +6162,13 @@
       <c r="H175" t="n">
         <v>0</v>
       </c>
-      <c r="I175" t="n">
-        <v>0</v>
-      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
       <c r="K175" t="inlineStr"/>
-      <c r="L175" t="inlineStr"/>
-      <c r="M175" t="n">
-        <v>1</v>
-      </c>
-      <c r="N175" t="inlineStr"/>
+      <c r="L175" t="n">
+        <v>1</v>
+      </c>
+      <c r="M175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
@@ -6722,16 +6195,13 @@
       <c r="H176" t="n">
         <v>0</v>
       </c>
-      <c r="I176" t="n">
-        <v>0</v>
-      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
       <c r="K176" t="inlineStr"/>
-      <c r="L176" t="inlineStr"/>
-      <c r="M176" t="n">
-        <v>1</v>
-      </c>
-      <c r="N176" t="inlineStr"/>
+      <c r="L176" t="n">
+        <v>1</v>
+      </c>
+      <c r="M176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
@@ -6758,16 +6228,13 @@
       <c r="H177" t="n">
         <v>0</v>
       </c>
-      <c r="I177" t="n">
-        <v>0</v>
-      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
       <c r="K177" t="inlineStr"/>
-      <c r="L177" t="inlineStr"/>
-      <c r="M177" t="n">
-        <v>1</v>
-      </c>
-      <c r="N177" t="inlineStr"/>
+      <c r="L177" t="n">
+        <v>1</v>
+      </c>
+      <c r="M177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
@@ -6794,16 +6261,13 @@
       <c r="H178" t="n">
         <v>0</v>
       </c>
-      <c r="I178" t="n">
-        <v>0</v>
-      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
       <c r="K178" t="inlineStr"/>
-      <c r="L178" t="inlineStr"/>
-      <c r="M178" t="n">
-        <v>1</v>
-      </c>
-      <c r="N178" t="inlineStr"/>
+      <c r="L178" t="n">
+        <v>1</v>
+      </c>
+      <c r="M178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
@@ -6830,16 +6294,13 @@
       <c r="H179" t="n">
         <v>0</v>
       </c>
-      <c r="I179" t="n">
-        <v>0</v>
-      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
       <c r="K179" t="inlineStr"/>
-      <c r="L179" t="inlineStr"/>
-      <c r="M179" t="n">
-        <v>1</v>
-      </c>
-      <c r="N179" t="inlineStr"/>
+      <c r="L179" t="n">
+        <v>1</v>
+      </c>
+      <c r="M179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
@@ -6866,16 +6327,13 @@
       <c r="H180" t="n">
         <v>0</v>
       </c>
-      <c r="I180" t="n">
-        <v>0</v>
-      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
       <c r="K180" t="inlineStr"/>
-      <c r="L180" t="inlineStr"/>
-      <c r="M180" t="n">
-        <v>1</v>
-      </c>
-      <c r="N180" t="inlineStr"/>
+      <c r="L180" t="n">
+        <v>1</v>
+      </c>
+      <c r="M180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
@@ -6902,16 +6360,13 @@
       <c r="H181" t="n">
         <v>0</v>
       </c>
-      <c r="I181" t="n">
-        <v>0</v>
-      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
       <c r="K181" t="inlineStr"/>
-      <c r="L181" t="inlineStr"/>
-      <c r="M181" t="n">
-        <v>1</v>
-      </c>
-      <c r="N181" t="inlineStr"/>
+      <c r="L181" t="n">
+        <v>1</v>
+      </c>
+      <c r="M181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
@@ -6938,16 +6393,13 @@
       <c r="H182" t="n">
         <v>0</v>
       </c>
-      <c r="I182" t="n">
-        <v>0</v>
-      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
       <c r="K182" t="inlineStr"/>
-      <c r="L182" t="inlineStr"/>
-      <c r="M182" t="n">
-        <v>1</v>
-      </c>
-      <c r="N182" t="inlineStr"/>
+      <c r="L182" t="n">
+        <v>1</v>
+      </c>
+      <c r="M182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -6974,16 +6426,13 @@
       <c r="H183" t="n">
         <v>0</v>
       </c>
-      <c r="I183" t="n">
-        <v>0</v>
-      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
       <c r="K183" t="inlineStr"/>
-      <c r="L183" t="inlineStr"/>
-      <c r="M183" t="n">
-        <v>1</v>
-      </c>
-      <c r="N183" t="inlineStr"/>
+      <c r="L183" t="n">
+        <v>1</v>
+      </c>
+      <c r="M183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -7010,16 +6459,13 @@
       <c r="H184" t="n">
         <v>0</v>
       </c>
-      <c r="I184" t="n">
-        <v>0</v>
-      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
       <c r="K184" t="inlineStr"/>
-      <c r="L184" t="inlineStr"/>
-      <c r="M184" t="n">
-        <v>1</v>
-      </c>
-      <c r="N184" t="inlineStr"/>
+      <c r="L184" t="n">
+        <v>1</v>
+      </c>
+      <c r="M184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
@@ -7046,16 +6492,13 @@
       <c r="H185" t="n">
         <v>0</v>
       </c>
-      <c r="I185" t="n">
-        <v>0</v>
-      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
       <c r="K185" t="inlineStr"/>
-      <c r="L185" t="inlineStr"/>
-      <c r="M185" t="n">
-        <v>1</v>
-      </c>
-      <c r="N185" t="inlineStr"/>
+      <c r="L185" t="n">
+        <v>1</v>
+      </c>
+      <c r="M185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -7082,16 +6525,13 @@
       <c r="H186" t="n">
         <v>0</v>
       </c>
-      <c r="I186" t="n">
-        <v>0</v>
-      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
       <c r="K186" t="inlineStr"/>
-      <c r="L186" t="inlineStr"/>
-      <c r="M186" t="n">
-        <v>1</v>
-      </c>
-      <c r="N186" t="inlineStr"/>
+      <c r="L186" t="n">
+        <v>1</v>
+      </c>
+      <c r="M186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
@@ -7118,16 +6558,13 @@
       <c r="H187" t="n">
         <v>0</v>
       </c>
-      <c r="I187" t="n">
-        <v>0</v>
-      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
       <c r="K187" t="inlineStr"/>
-      <c r="L187" t="inlineStr"/>
-      <c r="M187" t="n">
-        <v>1</v>
-      </c>
-      <c r="N187" t="inlineStr"/>
+      <c r="L187" t="n">
+        <v>1</v>
+      </c>
+      <c r="M187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
@@ -7152,18 +6589,19 @@
         <v>14947.62762325581</v>
       </c>
       <c r="H188" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I188" t="n">
-        <v>0</v>
-      </c>
-      <c r="J188" t="inlineStr"/>
+        <v>841</v>
+      </c>
+      <c r="J188" t="n">
+        <v>841</v>
+      </c>
       <c r="K188" t="inlineStr"/>
-      <c r="L188" t="inlineStr"/>
-      <c r="M188" t="n">
-        <v>1</v>
-      </c>
-      <c r="N188" t="inlineStr"/>
+      <c r="L188" t="n">
+        <v>1</v>
+      </c>
+      <c r="M188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -7188,18 +6626,23 @@
         <v>14243.10982325581</v>
       </c>
       <c r="H189" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I189" t="n">
-        <v>0</v>
-      </c>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
-      <c r="L189" t="inlineStr"/>
-      <c r="M189" t="n">
-        <v>1</v>
-      </c>
-      <c r="N189" t="inlineStr"/>
+        <v>841</v>
+      </c>
+      <c r="J189" t="n">
+        <v>841</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
@@ -7224,18 +6667,23 @@
         <v>14243.10982325581</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="n">
-        <v>0</v>
-      </c>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
-      <c r="L190" t="inlineStr"/>
-      <c r="M190" t="n">
-        <v>1</v>
-      </c>
-      <c r="N190" t="inlineStr"/>
+        <v>840</v>
+      </c>
+      <c r="J190" t="n">
+        <v>841</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
@@ -7260,18 +6708,23 @@
         <v>14412.40062325581</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="n">
-        <v>0</v>
-      </c>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
-      <c r="L191" t="inlineStr"/>
-      <c r="M191" t="n">
-        <v>1</v>
-      </c>
-      <c r="N191" t="inlineStr"/>
+        <v>840</v>
+      </c>
+      <c r="J191" t="n">
+        <v>841</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
@@ -7296,18 +6749,23 @@
         <v>14283.98082325581</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="n">
-        <v>0</v>
-      </c>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
-      <c r="L192" t="inlineStr"/>
-      <c r="M192" t="n">
-        <v>1</v>
-      </c>
-      <c r="N192" t="inlineStr"/>
+        <v>843</v>
+      </c>
+      <c r="J192" t="n">
+        <v>841</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -7332,18 +6790,23 @@
         <v>13418.29122325581</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="n">
-        <v>0</v>
-      </c>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
-      <c r="L193" t="inlineStr"/>
-      <c r="M193" t="n">
-        <v>1</v>
-      </c>
-      <c r="N193" t="inlineStr"/>
+        <v>842</v>
+      </c>
+      <c r="J193" t="n">
+        <v>841</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
@@ -7368,18 +6831,23 @@
         <v>13017.31532325581</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="n">
-        <v>0</v>
-      </c>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
-      <c r="L194" t="inlineStr"/>
-      <c r="M194" t="n">
-        <v>1</v>
-      </c>
-      <c r="N194" t="inlineStr"/>
+        <v>841</v>
+      </c>
+      <c r="J194" t="n">
+        <v>841</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
@@ -7404,18 +6872,23 @@
         <v>12717.16412325581</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="n">
-        <v>0</v>
-      </c>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
-      <c r="L195" t="inlineStr"/>
-      <c r="M195" t="n">
-        <v>1</v>
-      </c>
-      <c r="N195" t="inlineStr"/>
+        <v>839</v>
+      </c>
+      <c r="J195" t="n">
+        <v>841</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -7440,18 +6913,23 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="n">
-        <v>0</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
-      <c r="L196" t="inlineStr"/>
-      <c r="M196" t="n">
-        <v>1</v>
-      </c>
-      <c r="N196" t="inlineStr"/>
+        <v>837</v>
+      </c>
+      <c r="J196" t="n">
+        <v>841</v>
+      </c>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
@@ -7476,18 +6954,23 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="n">
-        <v>0</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
-      <c r="L197" t="inlineStr"/>
-      <c r="M197" t="n">
-        <v>1</v>
-      </c>
-      <c r="N197" t="inlineStr"/>
+        <v>833</v>
+      </c>
+      <c r="J197" t="n">
+        <v>841</v>
+      </c>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
@@ -7512,22 +6995,23 @@
         <v>12648.09112325581</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I198" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="J198" t="n">
-        <v>833</v>
-      </c>
-      <c r="K198" t="n">
-        <v>833</v>
-      </c>
-      <c r="L198" t="inlineStr"/>
-      <c r="M198" t="n">
-        <v>1</v>
-      </c>
-      <c r="N198" t="inlineStr"/>
+        <v>841</v>
+      </c>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
@@ -7552,26 +7036,23 @@
         <v>12585.08852325581</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I199" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="J199" t="n">
-        <v>836</v>
-      </c>
-      <c r="K199" t="n">
-        <v>833</v>
-      </c>
-      <c r="L199" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K199" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M199" t="n">
-        <v>1</v>
-      </c>
-      <c r="N199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
@@ -7596,26 +7077,23 @@
         <v>12686.12852325581</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I200" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="J200" t="n">
-        <v>834</v>
-      </c>
-      <c r="K200" t="n">
-        <v>833</v>
-      </c>
-      <c r="L200" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K200" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M200" t="n">
-        <v>1</v>
-      </c>
-      <c r="N200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
@@ -7640,22 +7118,23 @@
         <v>12086.12852325581</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I201" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="J201" t="n">
-        <v>835</v>
-      </c>
-      <c r="K201" t="n">
-        <v>835</v>
-      </c>
-      <c r="L201" t="inlineStr"/>
-      <c r="M201" t="n">
-        <v>1</v>
-      </c>
-      <c r="N201" t="inlineStr"/>
+        <v>841</v>
+      </c>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
@@ -7680,26 +7159,23 @@
         <v>12092.48972325581</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I202" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="J202" t="n">
-        <v>833</v>
-      </c>
-      <c r="K202" t="n">
-        <v>835</v>
-      </c>
-      <c r="L202" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K202" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M202" t="n">
-        <v>1</v>
-      </c>
-      <c r="N202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
@@ -7724,26 +7200,23 @@
         <v>12090.65292325581</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I203" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="J203" t="n">
-        <v>835</v>
-      </c>
-      <c r="K203" t="n">
-        <v>835</v>
-      </c>
-      <c r="L203" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K203" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M203" t="n">
-        <v>1</v>
-      </c>
-      <c r="N203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
@@ -7768,22 +7241,23 @@
         <v>12090.65292325581</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I204" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="J204" t="n">
-        <v>834</v>
-      </c>
-      <c r="K204" t="n">
-        <v>834</v>
-      </c>
-      <c r="L204" t="inlineStr"/>
-      <c r="M204" t="n">
-        <v>1</v>
-      </c>
-      <c r="N204" t="inlineStr"/>
+        <v>841</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
@@ -7808,26 +7282,23 @@
         <v>12027.63092325581</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I205" t="n">
-        <v>0</v>
+        <v>834</v>
       </c>
       <c r="J205" t="n">
-        <v>834</v>
-      </c>
-      <c r="K205" t="n">
-        <v>834</v>
-      </c>
-      <c r="L205" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="M205" t="n">
-        <v>1</v>
-      </c>
-      <c r="N205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>1</v>
+      </c>
+      <c r="M205" t="inlineStr"/>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
@@ -7852,26 +7323,23 @@
         <v>12049.34172325581</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I206" t="n">
-        <v>0</v>
+        <v>833</v>
       </c>
       <c r="J206" t="n">
-        <v>833</v>
-      </c>
-      <c r="K206" t="n">
-        <v>834</v>
-      </c>
-      <c r="L206" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M206" t="n">
-        <v>1</v>
-      </c>
-      <c r="N206" t="inlineStr"/>
+      <c r="L206" t="n">
+        <v>1</v>
+      </c>
+      <c r="M206" t="inlineStr"/>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
@@ -7896,26 +7364,23 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I207" t="n">
-        <v>0</v>
+        <v>836</v>
       </c>
       <c r="J207" t="n">
-        <v>836</v>
-      </c>
-      <c r="K207" t="n">
-        <v>834</v>
-      </c>
-      <c r="L207" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M207" t="n">
-        <v>1</v>
-      </c>
-      <c r="N207" t="inlineStr"/>
+      <c r="L207" t="n">
+        <v>1</v>
+      </c>
+      <c r="M207" t="inlineStr"/>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
@@ -7940,26 +7405,23 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I208" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="J208" t="n">
-        <v>838</v>
-      </c>
-      <c r="K208" t="n">
-        <v>834</v>
-      </c>
-      <c r="L208" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M208" t="n">
-        <v>1</v>
-      </c>
-      <c r="N208" t="inlineStr"/>
+      <c r="L208" t="n">
+        <v>1</v>
+      </c>
+      <c r="M208" t="inlineStr"/>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
@@ -7984,26 +7446,23 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I209" t="n">
-        <v>0</v>
+        <v>838</v>
       </c>
       <c r="J209" t="n">
-        <v>838</v>
-      </c>
-      <c r="K209" t="n">
-        <v>834</v>
-      </c>
-      <c r="L209" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M209" t="n">
-        <v>1</v>
-      </c>
-      <c r="N209" t="inlineStr"/>
+      <c r="L209" t="n">
+        <v>1</v>
+      </c>
+      <c r="M209" t="inlineStr"/>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
@@ -8028,26 +7487,21 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
-        <v>838</v>
-      </c>
-      <c r="K210" t="n">
-        <v>834</v>
-      </c>
-      <c r="L210" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M210" t="n">
-        <v>1</v>
-      </c>
-      <c r="N210" t="inlineStr"/>
+      <c r="L210" t="n">
+        <v>1</v>
+      </c>
+      <c r="M210" t="inlineStr"/>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
@@ -8072,26 +7526,21 @@
         <v>12105.18942325581</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
-        <v>838</v>
-      </c>
-      <c r="K211" t="n">
-        <v>834</v>
-      </c>
-      <c r="L211" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M211" t="n">
-        <v>1</v>
-      </c>
-      <c r="N211" t="inlineStr"/>
+      <c r="L211" t="n">
+        <v>1</v>
+      </c>
+      <c r="M211" t="inlineStr"/>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
@@ -8116,26 +7565,21 @@
         <v>12105.18942325581</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>0</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
-        <v>839</v>
-      </c>
-      <c r="K212" t="n">
-        <v>834</v>
-      </c>
-      <c r="L212" t="inlineStr">
+        <v>841</v>
+      </c>
+      <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M212" t="n">
-        <v>1</v>
-      </c>
-      <c r="N212" t="inlineStr"/>
+      <c r="L212" t="n">
+        <v>1</v>
+      </c>
+      <c r="M212" t="inlineStr"/>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
@@ -8162,22 +7606,19 @@
       <c r="H213" t="n">
         <v>0</v>
       </c>
-      <c r="I213" t="n">
-        <v>0</v>
-      </c>
-      <c r="J213" t="inlineStr"/>
-      <c r="K213" t="n">
-        <v>834</v>
-      </c>
-      <c r="L213" t="inlineStr">
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>841</v>
+      </c>
+      <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M213" t="n">
-        <v>1</v>
-      </c>
-      <c r="N213" t="inlineStr"/>
+      <c r="L213" t="n">
+        <v>1</v>
+      </c>
+      <c r="M213" t="inlineStr"/>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
@@ -8204,22 +7645,19 @@
       <c r="H214" t="n">
         <v>0</v>
       </c>
-      <c r="I214" t="n">
-        <v>0</v>
-      </c>
-      <c r="J214" t="inlineStr"/>
-      <c r="K214" t="n">
-        <v>834</v>
-      </c>
-      <c r="L214" t="inlineStr">
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>841</v>
+      </c>
+      <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M214" t="n">
-        <v>1</v>
-      </c>
-      <c r="N214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>1</v>
+      </c>
+      <c r="M214" t="inlineStr"/>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
@@ -8246,22 +7684,19 @@
       <c r="H215" t="n">
         <v>0</v>
       </c>
-      <c r="I215" t="n">
-        <v>0</v>
-      </c>
-      <c r="J215" t="inlineStr"/>
-      <c r="K215" t="n">
-        <v>834</v>
-      </c>
-      <c r="L215" t="inlineStr">
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>841</v>
+      </c>
+      <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M215" t="n">
-        <v>1</v>
-      </c>
-      <c r="N215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>1</v>
+      </c>
+      <c r="M215" t="inlineStr"/>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
@@ -8288,22 +7723,19 @@
       <c r="H216" t="n">
         <v>0</v>
       </c>
-      <c r="I216" t="n">
-        <v>0</v>
-      </c>
-      <c r="J216" t="inlineStr"/>
-      <c r="K216" t="n">
-        <v>834</v>
-      </c>
-      <c r="L216" t="inlineStr">
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>841</v>
+      </c>
+      <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M216" t="n">
-        <v>1</v>
-      </c>
-      <c r="N216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>1</v>
+      </c>
+      <c r="M216" t="inlineStr"/>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
@@ -8330,22 +7762,19 @@
       <c r="H217" t="n">
         <v>0</v>
       </c>
-      <c r="I217" t="n">
-        <v>0</v>
-      </c>
-      <c r="J217" t="inlineStr"/>
-      <c r="K217" t="n">
-        <v>834</v>
-      </c>
-      <c r="L217" t="inlineStr">
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>841</v>
+      </c>
+      <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M217" t="n">
-        <v>1</v>
-      </c>
-      <c r="N217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>1</v>
+      </c>
+      <c r="M217" t="inlineStr"/>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
@@ -8372,22 +7801,19 @@
       <c r="H218" t="n">
         <v>0</v>
       </c>
-      <c r="I218" t="n">
-        <v>0</v>
-      </c>
-      <c r="J218" t="inlineStr"/>
-      <c r="K218" t="n">
-        <v>834</v>
-      </c>
-      <c r="L218" t="inlineStr">
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>841</v>
+      </c>
+      <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M218" t="n">
-        <v>1</v>
-      </c>
-      <c r="N218" t="inlineStr"/>
+      <c r="L218" t="n">
+        <v>1</v>
+      </c>
+      <c r="M218" t="inlineStr"/>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
@@ -8414,22 +7840,19 @@
       <c r="H219" t="n">
         <v>0</v>
       </c>
-      <c r="I219" t="n">
-        <v>0</v>
-      </c>
-      <c r="J219" t="inlineStr"/>
-      <c r="K219" t="n">
-        <v>834</v>
-      </c>
-      <c r="L219" t="inlineStr">
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="n">
+        <v>841</v>
+      </c>
+      <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M219" t="n">
-        <v>1</v>
-      </c>
-      <c r="N219" t="inlineStr"/>
+      <c r="L219" t="n">
+        <v>1</v>
+      </c>
+      <c r="M219" t="inlineStr"/>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
@@ -8456,22 +7879,19 @@
       <c r="H220" t="n">
         <v>0</v>
       </c>
-      <c r="I220" t="n">
-        <v>0</v>
-      </c>
-      <c r="J220" t="inlineStr"/>
-      <c r="K220" t="n">
-        <v>834</v>
-      </c>
-      <c r="L220" t="inlineStr">
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="n">
+        <v>841</v>
+      </c>
+      <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M220" t="n">
-        <v>1</v>
-      </c>
-      <c r="N220" t="inlineStr"/>
+      <c r="L220" t="n">
+        <v>1</v>
+      </c>
+      <c r="M220" t="inlineStr"/>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
@@ -8498,22 +7918,19 @@
       <c r="H221" t="n">
         <v>0</v>
       </c>
-      <c r="I221" t="n">
-        <v>0</v>
-      </c>
-      <c r="J221" t="inlineStr"/>
-      <c r="K221" t="n">
-        <v>834</v>
-      </c>
-      <c r="L221" t="inlineStr">
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="n">
+        <v>841</v>
+      </c>
+      <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M221" t="n">
-        <v>1</v>
-      </c>
-      <c r="N221" t="inlineStr"/>
+      <c r="L221" t="n">
+        <v>1</v>
+      </c>
+      <c r="M221" t="inlineStr"/>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
@@ -8540,22 +7957,19 @@
       <c r="H222" t="n">
         <v>0</v>
       </c>
-      <c r="I222" t="n">
-        <v>0</v>
-      </c>
-      <c r="J222" t="inlineStr"/>
-      <c r="K222" t="n">
-        <v>834</v>
-      </c>
-      <c r="L222" t="inlineStr">
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="n">
+        <v>841</v>
+      </c>
+      <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M222" t="n">
-        <v>1</v>
-      </c>
-      <c r="N222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>1</v>
+      </c>
+      <c r="M222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -8582,22 +7996,19 @@
       <c r="H223" t="n">
         <v>0</v>
       </c>
-      <c r="I223" t="n">
-        <v>0</v>
-      </c>
-      <c r="J223" t="inlineStr"/>
-      <c r="K223" t="n">
-        <v>834</v>
-      </c>
-      <c r="L223" t="inlineStr">
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="n">
+        <v>841</v>
+      </c>
+      <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M223" t="n">
-        <v>1</v>
-      </c>
-      <c r="N223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>1</v>
+      </c>
+      <c r="M223" t="inlineStr"/>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
@@ -8624,22 +8035,19 @@
       <c r="H224" t="n">
         <v>0</v>
       </c>
-      <c r="I224" t="n">
-        <v>0</v>
-      </c>
-      <c r="J224" t="inlineStr"/>
-      <c r="K224" t="n">
-        <v>834</v>
-      </c>
-      <c r="L224" t="inlineStr">
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="n">
+        <v>841</v>
+      </c>
+      <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M224" t="n">
-        <v>1</v>
-      </c>
-      <c r="N224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>1</v>
+      </c>
+      <c r="M224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -8666,22 +8074,19 @@
       <c r="H225" t="n">
         <v>0</v>
       </c>
-      <c r="I225" t="n">
-        <v>0</v>
-      </c>
-      <c r="J225" t="inlineStr"/>
-      <c r="K225" t="n">
-        <v>834</v>
-      </c>
-      <c r="L225" t="inlineStr">
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="n">
+        <v>841</v>
+      </c>
+      <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M225" t="n">
-        <v>1</v>
-      </c>
-      <c r="N225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>1</v>
+      </c>
+      <c r="M225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
@@ -8708,22 +8113,19 @@
       <c r="H226" t="n">
         <v>0</v>
       </c>
-      <c r="I226" t="n">
-        <v>0</v>
-      </c>
-      <c r="J226" t="inlineStr"/>
-      <c r="K226" t="n">
-        <v>834</v>
-      </c>
-      <c r="L226" t="inlineStr">
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="n">
+        <v>841</v>
+      </c>
+      <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M226" t="n">
-        <v>1</v>
-      </c>
-      <c r="N226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>1</v>
+      </c>
+      <c r="M226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -8750,22 +8152,19 @@
       <c r="H227" t="n">
         <v>0</v>
       </c>
-      <c r="I227" t="n">
-        <v>0</v>
-      </c>
-      <c r="J227" t="inlineStr"/>
-      <c r="K227" t="n">
-        <v>834</v>
-      </c>
-      <c r="L227" t="inlineStr">
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="n">
+        <v>841</v>
+      </c>
+      <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M227" t="n">
-        <v>1</v>
-      </c>
-      <c r="N227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>1</v>
+      </c>
+      <c r="M227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -8792,22 +8191,19 @@
       <c r="H228" t="n">
         <v>0</v>
       </c>
-      <c r="I228" t="n">
-        <v>0</v>
-      </c>
-      <c r="J228" t="inlineStr"/>
-      <c r="K228" t="n">
-        <v>834</v>
-      </c>
-      <c r="L228" t="inlineStr">
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="n">
+        <v>841</v>
+      </c>
+      <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M228" t="n">
-        <v>1</v>
-      </c>
-      <c r="N228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>1</v>
+      </c>
+      <c r="M228" t="inlineStr"/>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
@@ -8834,22 +8230,19 @@
       <c r="H229" t="n">
         <v>0</v>
       </c>
-      <c r="I229" t="n">
-        <v>0</v>
-      </c>
-      <c r="J229" t="inlineStr"/>
-      <c r="K229" t="n">
-        <v>834</v>
-      </c>
-      <c r="L229" t="inlineStr">
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="n">
+        <v>841</v>
+      </c>
+      <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M229" t="n">
-        <v>1</v>
-      </c>
-      <c r="N229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>1</v>
+      </c>
+      <c r="M229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
@@ -8876,22 +8269,19 @@
       <c r="H230" t="n">
         <v>0</v>
       </c>
-      <c r="I230" t="n">
-        <v>0</v>
-      </c>
-      <c r="J230" t="inlineStr"/>
-      <c r="K230" t="n">
-        <v>834</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="n">
+        <v>841</v>
+      </c>
+      <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M230" t="n">
-        <v>1</v>
-      </c>
-      <c r="N230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>1</v>
+      </c>
+      <c r="M230" t="inlineStr"/>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
@@ -8916,24 +8306,23 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I231" t="n">
-        <v>0</v>
-      </c>
-      <c r="J231" t="inlineStr"/>
-      <c r="K231" t="n">
-        <v>834</v>
-      </c>
-      <c r="L231" t="inlineStr">
+        <v>848</v>
+      </c>
+      <c r="J231" t="n">
+        <v>841</v>
+      </c>
+      <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M231" t="n">
-        <v>1</v>
-      </c>
-      <c r="N231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>1</v>
+      </c>
+      <c r="M231" t="inlineStr"/>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
@@ -8960,22 +8349,19 @@
       <c r="H232" t="n">
         <v>0</v>
       </c>
-      <c r="I232" t="n">
-        <v>0</v>
-      </c>
-      <c r="J232" t="inlineStr"/>
-      <c r="K232" t="n">
-        <v>834</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="n">
+        <v>841</v>
+      </c>
+      <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M232" t="n">
-        <v>1</v>
-      </c>
-      <c r="N232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>1</v>
+      </c>
+      <c r="M232" t="inlineStr"/>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
@@ -9000,24 +8386,23 @@
         <v>13419.23924529567</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I233" t="n">
-        <v>0</v>
-      </c>
-      <c r="J233" t="inlineStr"/>
-      <c r="K233" t="n">
-        <v>834</v>
-      </c>
-      <c r="L233" t="inlineStr">
+        <v>851</v>
+      </c>
+      <c r="J233" t="n">
+        <v>841</v>
+      </c>
+      <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M233" t="n">
-        <v>1</v>
-      </c>
-      <c r="N233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>1</v>
+      </c>
+      <c r="M233" t="inlineStr"/>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
@@ -9042,24 +8427,23 @@
         <v>14534.49434529567</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I234" t="n">
-        <v>0</v>
-      </c>
-      <c r="J234" t="inlineStr"/>
-      <c r="K234" t="n">
-        <v>834</v>
-      </c>
-      <c r="L234" t="inlineStr">
+        <v>851</v>
+      </c>
+      <c r="J234" t="n">
+        <v>841</v>
+      </c>
+      <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M234" t="n">
-        <v>1</v>
-      </c>
-      <c r="N234" t="inlineStr"/>
+      <c r="L234" t="n">
+        <v>1</v>
+      </c>
+      <c r="M234" t="inlineStr"/>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
@@ -9084,24 +8468,23 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I235" t="n">
-        <v>0</v>
-      </c>
-      <c r="J235" t="inlineStr"/>
-      <c r="K235" t="n">
-        <v>834</v>
-      </c>
-      <c r="L235" t="inlineStr">
+        <v>852</v>
+      </c>
+      <c r="J235" t="n">
+        <v>841</v>
+      </c>
+      <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M235" t="n">
-        <v>1</v>
-      </c>
-      <c r="N235" t="inlineStr"/>
+      <c r="L235" t="n">
+        <v>1</v>
+      </c>
+      <c r="M235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
@@ -9126,24 +8509,23 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I236" t="n">
-        <v>0</v>
-      </c>
-      <c r="J236" t="inlineStr"/>
-      <c r="K236" t="n">
-        <v>834</v>
-      </c>
-      <c r="L236" t="inlineStr">
+        <v>855</v>
+      </c>
+      <c r="J236" t="n">
+        <v>841</v>
+      </c>
+      <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M236" t="n">
-        <v>1</v>
-      </c>
-      <c r="N236" t="inlineStr"/>
+      <c r="L236" t="n">
+        <v>1</v>
+      </c>
+      <c r="M236" t="inlineStr"/>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
@@ -9168,24 +8550,23 @@
         <v>13842.02994529567</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="n">
-        <v>0</v>
-      </c>
-      <c r="J237" t="inlineStr"/>
-      <c r="K237" t="n">
-        <v>834</v>
-      </c>
-      <c r="L237" t="inlineStr">
+        <v>855</v>
+      </c>
+      <c r="J237" t="n">
+        <v>841</v>
+      </c>
+      <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M237" t="n">
-        <v>1</v>
-      </c>
-      <c r="N237" t="inlineStr"/>
+      <c r="L237" t="n">
+        <v>1</v>
+      </c>
+      <c r="M237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -9210,24 +8591,23 @@
         <v>13943.03924529567</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="n">
-        <v>0</v>
-      </c>
-      <c r="J238" t="inlineStr"/>
-      <c r="K238" t="n">
-        <v>834</v>
-      </c>
-      <c r="L238" t="inlineStr">
+        <v>853</v>
+      </c>
+      <c r="J238" t="n">
+        <v>841</v>
+      </c>
+      <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M238" t="n">
-        <v>1</v>
-      </c>
-      <c r="N238" t="inlineStr"/>
+      <c r="L238" t="n">
+        <v>1</v>
+      </c>
+      <c r="M238" t="inlineStr"/>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
@@ -9252,24 +8632,23 @@
         <v>13746.71744529567</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="n">
-        <v>0</v>
-      </c>
-      <c r="J239" t="inlineStr"/>
-      <c r="K239" t="n">
-        <v>834</v>
-      </c>
-      <c r="L239" t="inlineStr">
+        <v>855</v>
+      </c>
+      <c r="J239" t="n">
+        <v>841</v>
+      </c>
+      <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M239" t="n">
-        <v>1</v>
-      </c>
-      <c r="N239" t="inlineStr"/>
+      <c r="L239" t="n">
+        <v>1</v>
+      </c>
+      <c r="M239" t="inlineStr"/>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
@@ -9294,24 +8673,23 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="n">
-        <v>0</v>
-      </c>
-      <c r="J240" t="inlineStr"/>
-      <c r="K240" t="n">
-        <v>834</v>
-      </c>
-      <c r="L240" t="inlineStr">
+        <v>851</v>
+      </c>
+      <c r="J240" t="n">
+        <v>841</v>
+      </c>
+      <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M240" t="n">
-        <v>1</v>
-      </c>
-      <c r="N240" t="inlineStr"/>
+      <c r="L240" t="n">
+        <v>1</v>
+      </c>
+      <c r="M240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
@@ -9336,24 +8714,23 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="n">
-        <v>0</v>
-      </c>
-      <c r="J241" t="inlineStr"/>
-      <c r="K241" t="n">
-        <v>834</v>
-      </c>
-      <c r="L241" t="inlineStr">
+        <v>855</v>
+      </c>
+      <c r="J241" t="n">
+        <v>841</v>
+      </c>
+      <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M241" t="n">
-        <v>1</v>
-      </c>
-      <c r="N241" t="inlineStr"/>
+      <c r="L241" t="n">
+        <v>1</v>
+      </c>
+      <c r="M241" t="inlineStr"/>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
@@ -9378,24 +8755,23 @@
         <v>13872.24194529567</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="n">
-        <v>0</v>
-      </c>
-      <c r="J242" t="inlineStr"/>
-      <c r="K242" t="n">
-        <v>834</v>
-      </c>
-      <c r="L242" t="inlineStr">
+        <v>855</v>
+      </c>
+      <c r="J242" t="n">
+        <v>841</v>
+      </c>
+      <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M242" t="n">
-        <v>1</v>
-      </c>
-      <c r="N242" t="inlineStr"/>
+      <c r="L242" t="n">
+        <v>1</v>
+      </c>
+      <c r="M242" t="inlineStr"/>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
@@ -9420,24 +8796,23 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="n">
-        <v>0</v>
-      </c>
-      <c r="J243" t="inlineStr"/>
-      <c r="K243" t="n">
-        <v>834</v>
-      </c>
-      <c r="L243" t="inlineStr">
+        <v>856</v>
+      </c>
+      <c r="J243" t="n">
+        <v>841</v>
+      </c>
+      <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M243" t="n">
-        <v>1</v>
-      </c>
-      <c r="N243" t="inlineStr"/>
+      <c r="L243" t="n">
+        <v>1</v>
+      </c>
+      <c r="M243" t="inlineStr"/>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
@@ -9462,24 +8837,23 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="n">
-        <v>0</v>
-      </c>
-      <c r="J244" t="inlineStr"/>
-      <c r="K244" t="n">
-        <v>834</v>
-      </c>
-      <c r="L244" t="inlineStr">
+        <v>858</v>
+      </c>
+      <c r="J244" t="n">
+        <v>841</v>
+      </c>
+      <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M244" t="n">
-        <v>1</v>
-      </c>
-      <c r="N244" t="inlineStr"/>
+      <c r="L244" t="n">
+        <v>1</v>
+      </c>
+      <c r="M244" t="inlineStr"/>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
@@ -9504,24 +8878,23 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I245" t="n">
-        <v>0</v>
-      </c>
-      <c r="J245" t="inlineStr"/>
-      <c r="K245" t="n">
-        <v>834</v>
-      </c>
-      <c r="L245" t="inlineStr">
+        <v>858</v>
+      </c>
+      <c r="J245" t="n">
+        <v>841</v>
+      </c>
+      <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M245" t="n">
-        <v>1</v>
-      </c>
-      <c r="N245" t="inlineStr"/>
+      <c r="L245" t="n">
+        <v>1</v>
+      </c>
+      <c r="M245" t="inlineStr"/>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
@@ -9546,24 +8919,23 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="n">
-        <v>0</v>
-      </c>
-      <c r="J246" t="inlineStr"/>
-      <c r="K246" t="n">
-        <v>834</v>
-      </c>
-      <c r="L246" t="inlineStr">
+        <v>857</v>
+      </c>
+      <c r="J246" t="n">
+        <v>841</v>
+      </c>
+      <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M246" t="n">
-        <v>1</v>
-      </c>
-      <c r="N246" t="inlineStr"/>
+      <c r="L246" t="n">
+        <v>1</v>
+      </c>
+      <c r="M246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
@@ -9588,24 +8960,23 @@
         <v>17668.35194529567</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
-      </c>
-      <c r="J247" t="inlineStr"/>
-      <c r="K247" t="n">
-        <v>834</v>
-      </c>
-      <c r="L247" t="inlineStr">
+        <v>857</v>
+      </c>
+      <c r="J247" t="n">
+        <v>841</v>
+      </c>
+      <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M247" t="n">
-        <v>1</v>
-      </c>
-      <c r="N247" t="inlineStr"/>
+      <c r="L247" t="n">
+        <v>1</v>
+      </c>
+      <c r="M247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -9630,24 +9001,23 @@
         <v>18125.10844529567</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="n">
-        <v>0</v>
-      </c>
-      <c r="J248" t="inlineStr"/>
-      <c r="K248" t="n">
-        <v>834</v>
-      </c>
-      <c r="L248" t="inlineStr">
+        <v>854</v>
+      </c>
+      <c r="J248" t="n">
+        <v>841</v>
+      </c>
+      <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M248" t="n">
-        <v>1</v>
-      </c>
-      <c r="N248" t="inlineStr"/>
+      <c r="L248" t="n">
+        <v>1</v>
+      </c>
+      <c r="M248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -9672,24 +9042,23 @@
         <v>18760.14054529567</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="n">
-        <v>0</v>
-      </c>
-      <c r="J249" t="inlineStr"/>
-      <c r="K249" t="n">
-        <v>834</v>
-      </c>
-      <c r="L249" t="inlineStr">
+        <v>856</v>
+      </c>
+      <c r="J249" t="n">
+        <v>841</v>
+      </c>
+      <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M249" t="n">
-        <v>1</v>
-      </c>
-      <c r="N249" t="inlineStr"/>
+      <c r="L249" t="n">
+        <v>1</v>
+      </c>
+      <c r="M249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
@@ -9714,24 +9083,23 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="n">
-        <v>0</v>
-      </c>
-      <c r="J250" t="inlineStr"/>
-      <c r="K250" t="n">
-        <v>834</v>
-      </c>
-      <c r="L250" t="inlineStr">
+        <v>857</v>
+      </c>
+      <c r="J250" t="n">
+        <v>841</v>
+      </c>
+      <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M250" t="n">
-        <v>1</v>
-      </c>
-      <c r="N250" t="inlineStr"/>
+      <c r="L250" t="n">
+        <v>1</v>
+      </c>
+      <c r="M250" t="inlineStr"/>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
@@ -9756,24 +9124,23 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I251" t="n">
-        <v>0</v>
-      </c>
-      <c r="J251" t="inlineStr"/>
-      <c r="K251" t="n">
-        <v>834</v>
-      </c>
-      <c r="L251" t="inlineStr">
+        <v>858</v>
+      </c>
+      <c r="J251" t="n">
+        <v>841</v>
+      </c>
+      <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M251" t="n">
-        <v>1</v>
-      </c>
-      <c r="N251" t="inlineStr"/>
+      <c r="L251" t="n">
+        <v>1</v>
+      </c>
+      <c r="M251" t="inlineStr"/>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
@@ -9798,24 +9165,23 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I252" t="n">
-        <v>0</v>
-      </c>
-      <c r="J252" t="inlineStr"/>
-      <c r="K252" t="n">
-        <v>834</v>
-      </c>
-      <c r="L252" t="inlineStr">
+        <v>858</v>
+      </c>
+      <c r="J252" t="n">
+        <v>841</v>
+      </c>
+      <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M252" t="n">
-        <v>1</v>
-      </c>
-      <c r="N252" t="inlineStr"/>
+      <c r="L252" t="n">
+        <v>1</v>
+      </c>
+      <c r="M252" t="inlineStr"/>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
@@ -9840,24 +9206,23 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I253" t="n">
-        <v>0</v>
-      </c>
-      <c r="J253" t="inlineStr"/>
-      <c r="K253" t="n">
-        <v>834</v>
-      </c>
-      <c r="L253" t="inlineStr">
+        <v>858</v>
+      </c>
+      <c r="J253" t="n">
+        <v>841</v>
+      </c>
+      <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M253" t="n">
-        <v>1</v>
-      </c>
-      <c r="N253" t="inlineStr"/>
+      <c r="L253" t="n">
+        <v>1</v>
+      </c>
+      <c r="M253" t="inlineStr"/>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
@@ -9882,24 +9247,23 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I254" t="n">
-        <v>0</v>
-      </c>
-      <c r="J254" t="inlineStr"/>
-      <c r="K254" t="n">
-        <v>834</v>
-      </c>
-      <c r="L254" t="inlineStr">
+        <v>859</v>
+      </c>
+      <c r="J254" t="n">
+        <v>841</v>
+      </c>
+      <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M254" t="n">
-        <v>1</v>
-      </c>
-      <c r="N254" t="inlineStr"/>
+      <c r="L254" t="n">
+        <v>1</v>
+      </c>
+      <c r="M254" t="inlineStr"/>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
@@ -9924,24 +9288,23 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I255" t="n">
-        <v>0</v>
-      </c>
-      <c r="J255" t="inlineStr"/>
-      <c r="K255" t="n">
-        <v>834</v>
-      </c>
-      <c r="L255" t="inlineStr">
+        <v>859</v>
+      </c>
+      <c r="J255" t="n">
+        <v>841</v>
+      </c>
+      <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M255" t="n">
-        <v>1</v>
-      </c>
-      <c r="N255" t="inlineStr"/>
+      <c r="L255" t="n">
+        <v>1</v>
+      </c>
+      <c r="M255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -9966,24 +9329,23 @@
         <v>19696.33244529567</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="n">
-        <v>0</v>
-      </c>
-      <c r="J256" t="inlineStr"/>
-      <c r="K256" t="n">
-        <v>834</v>
-      </c>
-      <c r="L256" t="inlineStr">
+        <v>859</v>
+      </c>
+      <c r="J256" t="n">
+        <v>841</v>
+      </c>
+      <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M256" t="n">
-        <v>1</v>
-      </c>
-      <c r="N256" t="inlineStr"/>
+      <c r="L256" t="n">
+        <v>1</v>
+      </c>
+      <c r="M256" t="inlineStr"/>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
@@ -10010,22 +9372,19 @@
       <c r="H257" t="n">
         <v>0</v>
       </c>
-      <c r="I257" t="n">
-        <v>0</v>
-      </c>
-      <c r="J257" t="inlineStr"/>
-      <c r="K257" t="n">
-        <v>834</v>
-      </c>
-      <c r="L257" t="inlineStr">
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>841</v>
+      </c>
+      <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M257" t="n">
-        <v>1</v>
-      </c>
-      <c r="N257" t="inlineStr"/>
+      <c r="L257" t="n">
+        <v>1</v>
+      </c>
+      <c r="M257" t="inlineStr"/>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
@@ -10050,24 +9409,23 @@
         <v>19463.35544529567</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="n">
-        <v>0</v>
-      </c>
-      <c r="J258" t="inlineStr"/>
-      <c r="K258" t="n">
-        <v>834</v>
-      </c>
-      <c r="L258" t="inlineStr">
+        <v>860</v>
+      </c>
+      <c r="J258" t="n">
+        <v>841</v>
+      </c>
+      <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M258" t="n">
-        <v>1</v>
-      </c>
-      <c r="N258" t="inlineStr"/>
+      <c r="L258" t="n">
+        <v>1</v>
+      </c>
+      <c r="M258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
@@ -10092,24 +9450,23 @@
         <v>19426.63304529567</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="n">
-        <v>0</v>
-      </c>
-      <c r="J259" t="inlineStr"/>
-      <c r="K259" t="n">
-        <v>834</v>
-      </c>
-      <c r="L259" t="inlineStr">
+        <v>859</v>
+      </c>
+      <c r="J259" t="n">
+        <v>841</v>
+      </c>
+      <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M259" t="n">
-        <v>1</v>
-      </c>
-      <c r="N259" t="inlineStr"/>
+      <c r="L259" t="n">
+        <v>1</v>
+      </c>
+      <c r="M259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
@@ -10134,24 +9491,23 @@
         <v>19473.86294529567</v>
       </c>
       <c r="H260" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I260" t="n">
-        <v>0</v>
-      </c>
-      <c r="J260" t="inlineStr"/>
-      <c r="K260" t="n">
-        <v>834</v>
-      </c>
-      <c r="L260" t="inlineStr">
+        <v>858</v>
+      </c>
+      <c r="J260" t="n">
+        <v>841</v>
+      </c>
+      <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M260" t="n">
-        <v>1</v>
-      </c>
-      <c r="N260" t="inlineStr"/>
+      <c r="L260" t="n">
+        <v>1</v>
+      </c>
+      <c r="M260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
@@ -10178,22 +9534,19 @@
       <c r="H261" t="n">
         <v>0</v>
       </c>
-      <c r="I261" t="n">
-        <v>0</v>
-      </c>
-      <c r="J261" t="inlineStr"/>
-      <c r="K261" t="n">
-        <v>834</v>
-      </c>
-      <c r="L261" t="inlineStr">
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>841</v>
+      </c>
+      <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M261" t="n">
-        <v>1</v>
-      </c>
-      <c r="N261" t="inlineStr"/>
+      <c r="L261" t="n">
+        <v>1</v>
+      </c>
+      <c r="M261" t="inlineStr"/>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
@@ -10220,22 +9573,19 @@
       <c r="H262" t="n">
         <v>0</v>
       </c>
-      <c r="I262" t="n">
-        <v>0</v>
-      </c>
-      <c r="J262" t="inlineStr"/>
-      <c r="K262" t="n">
-        <v>834</v>
-      </c>
-      <c r="L262" t="inlineStr">
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>841</v>
+      </c>
+      <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M262" t="n">
-        <v>1</v>
-      </c>
-      <c r="N262" t="inlineStr"/>
+      <c r="L262" t="n">
+        <v>1</v>
+      </c>
+      <c r="M262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -10262,22 +9612,19 @@
       <c r="H263" t="n">
         <v>0</v>
       </c>
-      <c r="I263" t="n">
-        <v>0</v>
-      </c>
-      <c r="J263" t="inlineStr"/>
-      <c r="K263" t="n">
-        <v>834</v>
-      </c>
-      <c r="L263" t="inlineStr">
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>841</v>
+      </c>
+      <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M263" t="n">
-        <v>1</v>
-      </c>
-      <c r="N263" t="inlineStr"/>
+      <c r="L263" t="n">
+        <v>1</v>
+      </c>
+      <c r="M263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
@@ -10304,22 +9651,19 @@
       <c r="H264" t="n">
         <v>0</v>
       </c>
-      <c r="I264" t="n">
-        <v>0</v>
-      </c>
-      <c r="J264" t="inlineStr"/>
-      <c r="K264" t="n">
-        <v>834</v>
-      </c>
-      <c r="L264" t="inlineStr">
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>841</v>
+      </c>
+      <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M264" t="n">
-        <v>1</v>
-      </c>
-      <c r="N264" t="inlineStr"/>
+      <c r="L264" t="n">
+        <v>1</v>
+      </c>
+      <c r="M264" t="inlineStr"/>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
@@ -10346,22 +9690,19 @@
       <c r="H265" t="n">
         <v>0</v>
       </c>
-      <c r="I265" t="n">
-        <v>0</v>
-      </c>
-      <c r="J265" t="inlineStr"/>
-      <c r="K265" t="n">
-        <v>834</v>
-      </c>
-      <c r="L265" t="inlineStr">
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>841</v>
+      </c>
+      <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M265" t="n">
-        <v>1</v>
-      </c>
-      <c r="N265" t="inlineStr"/>
+      <c r="L265" t="n">
+        <v>1</v>
+      </c>
+      <c r="M265" t="inlineStr"/>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
@@ -10388,22 +9729,19 @@
       <c r="H266" t="n">
         <v>0</v>
       </c>
-      <c r="I266" t="n">
-        <v>0</v>
-      </c>
-      <c r="J266" t="inlineStr"/>
-      <c r="K266" t="n">
-        <v>834</v>
-      </c>
-      <c r="L266" t="inlineStr">
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>841</v>
+      </c>
+      <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M266" t="n">
-        <v>1</v>
-      </c>
-      <c r="N266" t="inlineStr"/>
+      <c r="L266" t="n">
+        <v>1</v>
+      </c>
+      <c r="M266" t="inlineStr"/>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
@@ -10430,22 +9768,19 @@
       <c r="H267" t="n">
         <v>0</v>
       </c>
-      <c r="I267" t="n">
-        <v>0</v>
-      </c>
-      <c r="J267" t="inlineStr"/>
-      <c r="K267" t="n">
-        <v>834</v>
-      </c>
-      <c r="L267" t="inlineStr">
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>841</v>
+      </c>
+      <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M267" t="n">
-        <v>1</v>
-      </c>
-      <c r="N267" t="inlineStr"/>
+      <c r="L267" t="n">
+        <v>1</v>
+      </c>
+      <c r="M267" t="inlineStr"/>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
@@ -10472,22 +9807,19 @@
       <c r="H268" t="n">
         <v>0</v>
       </c>
-      <c r="I268" t="n">
-        <v>0</v>
-      </c>
-      <c r="J268" t="inlineStr"/>
-      <c r="K268" t="n">
-        <v>834</v>
-      </c>
-      <c r="L268" t="inlineStr">
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>841</v>
+      </c>
+      <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M268" t="n">
-        <v>1</v>
-      </c>
-      <c r="N268" t="inlineStr"/>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
+      <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
@@ -10514,22 +9846,19 @@
       <c r="H269" t="n">
         <v>0</v>
       </c>
-      <c r="I269" t="n">
-        <v>0</v>
-      </c>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="n">
-        <v>834</v>
-      </c>
-      <c r="L269" t="inlineStr">
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>841</v>
+      </c>
+      <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M269" t="n">
-        <v>1</v>
-      </c>
-      <c r="N269" t="inlineStr"/>
+      <c r="L269" t="n">
+        <v>1</v>
+      </c>
+      <c r="M269" t="inlineStr"/>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
@@ -10556,22 +9885,19 @@
       <c r="H270" t="n">
         <v>0</v>
       </c>
-      <c r="I270" t="n">
-        <v>0</v>
-      </c>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="n">
-        <v>834</v>
-      </c>
-      <c r="L270" t="inlineStr">
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>841</v>
+      </c>
+      <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M270" t="n">
-        <v>1</v>
-      </c>
-      <c r="N270" t="inlineStr"/>
+      <c r="L270" t="n">
+        <v>1</v>
+      </c>
+      <c r="M270" t="inlineStr"/>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
@@ -10598,22 +9924,19 @@
       <c r="H271" t="n">
         <v>0</v>
       </c>
-      <c r="I271" t="n">
-        <v>0</v>
-      </c>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="n">
-        <v>834</v>
-      </c>
-      <c r="L271" t="inlineStr">
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>841</v>
+      </c>
+      <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M271" t="n">
-        <v>1</v>
-      </c>
-      <c r="N271" t="inlineStr"/>
+      <c r="L271" t="n">
+        <v>1</v>
+      </c>
+      <c r="M271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -10640,22 +9963,19 @@
       <c r="H272" t="n">
         <v>0</v>
       </c>
-      <c r="I272" t="n">
-        <v>0</v>
-      </c>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="n">
-        <v>834</v>
-      </c>
-      <c r="L272" t="inlineStr">
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>841</v>
+      </c>
+      <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M272" t="n">
-        <v>1</v>
-      </c>
-      <c r="N272" t="inlineStr"/>
+      <c r="L272" t="n">
+        <v>1</v>
+      </c>
+      <c r="M272" t="inlineStr"/>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
@@ -10682,22 +10002,19 @@
       <c r="H273" t="n">
         <v>0</v>
       </c>
-      <c r="I273" t="n">
-        <v>0</v>
-      </c>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="n">
-        <v>834</v>
-      </c>
-      <c r="L273" t="inlineStr">
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>841</v>
+      </c>
+      <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M273" t="n">
-        <v>1</v>
-      </c>
-      <c r="N273" t="inlineStr"/>
+      <c r="L273" t="n">
+        <v>1</v>
+      </c>
+      <c r="M273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
@@ -10724,22 +10041,19 @@
       <c r="H274" t="n">
         <v>0</v>
       </c>
-      <c r="I274" t="n">
-        <v>0</v>
-      </c>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="n">
-        <v>834</v>
-      </c>
-      <c r="L274" t="inlineStr">
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>841</v>
+      </c>
+      <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
         </is>
       </c>
-      <c r="M274" t="n">
-        <v>1</v>
-      </c>
-      <c r="N274" t="inlineStr"/>
+      <c r="L274" t="n">
+        <v>1</v>
+      </c>
+      <c r="M274" t="inlineStr"/>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
@@ -10766,132 +10080,138 @@
       <c r="H275" t="n">
         <v>0</v>
       </c>
-      <c r="I275" t="n">
-        <v>1</v>
-      </c>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="n">
-        <v>834</v>
-      </c>
-      <c r="L275" t="inlineStr">
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>841</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L275" t="n">
+        <v>1</v>
+      </c>
+      <c r="M275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>910</v>
+      </c>
+      <c r="C276" t="n">
+        <v>910</v>
+      </c>
+      <c r="D276" t="n">
+        <v>910</v>
+      </c>
+      <c r="E276" t="n">
+        <v>910</v>
+      </c>
+      <c r="F276" t="n">
+        <v>512.9772</v>
+      </c>
+      <c r="G276" t="n">
+        <v>20376.08324529567</v>
+      </c>
+      <c r="H276" t="n">
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>841</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L276" t="n">
+        <v>1</v>
+      </c>
+      <c r="M276" t="inlineStr"/>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>909</v>
+      </c>
+      <c r="C277" t="n">
+        <v>901</v>
+      </c>
+      <c r="D277" t="n">
+        <v>909</v>
+      </c>
+      <c r="E277" t="n">
+        <v>901</v>
+      </c>
+      <c r="F277" t="n">
+        <v>264.4999</v>
+      </c>
+      <c r="G277" t="n">
+        <v>20111.58334529567</v>
+      </c>
+      <c r="H277" t="n">
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>841</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L277" t="n">
+        <v>1</v>
+      </c>
+      <c r="M277" t="inlineStr"/>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>900</v>
+      </c>
+      <c r="C278" t="n">
+        <v>900</v>
+      </c>
+      <c r="D278" t="n">
+        <v>900</v>
+      </c>
+      <c r="E278" t="n">
+        <v>899</v>
+      </c>
+      <c r="F278" t="n">
+        <v>2103.3553</v>
+      </c>
+      <c r="G278" t="n">
+        <v>18008.22804529567</v>
+      </c>
+      <c r="H278" t="n">
+        <v>3</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>841</v>
+      </c>
+      <c r="K278" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M275" t="n">
-        <v>1.084928057553957</v>
-      </c>
-      <c r="N275" t="n">
-        <v>1.040816326530612</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
-        <v>274</v>
-      </c>
-      <c r="B276" t="n">
-        <v>910</v>
-      </c>
-      <c r="C276" t="n">
-        <v>910</v>
-      </c>
-      <c r="D276" t="n">
-        <v>910</v>
-      </c>
-      <c r="E276" t="n">
-        <v>910</v>
-      </c>
-      <c r="F276" t="n">
-        <v>512.9772</v>
-      </c>
-      <c r="G276" t="n">
-        <v>20376.08324529567</v>
-      </c>
-      <c r="H276" t="n">
-        <v>0</v>
-      </c>
-      <c r="I276" t="n">
-        <v>1</v>
-      </c>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
-      <c r="L276" t="inlineStr"/>
-      <c r="M276" t="n">
-        <v>1</v>
-      </c>
-      <c r="N276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
-        <v>275</v>
-      </c>
-      <c r="B277" t="n">
-        <v>909</v>
-      </c>
-      <c r="C277" t="n">
-        <v>901</v>
-      </c>
-      <c r="D277" t="n">
-        <v>909</v>
-      </c>
-      <c r="E277" t="n">
-        <v>901</v>
-      </c>
-      <c r="F277" t="n">
-        <v>264.4999</v>
-      </c>
-      <c r="G277" t="n">
-        <v>20111.58334529567</v>
-      </c>
-      <c r="H277" t="n">
-        <v>0</v>
-      </c>
-      <c r="I277" t="n">
-        <v>1</v>
-      </c>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
-      <c r="L277" t="inlineStr"/>
-      <c r="M277" t="n">
-        <v>1</v>
-      </c>
-      <c r="N277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
-        <v>276</v>
-      </c>
-      <c r="B278" t="n">
-        <v>900</v>
-      </c>
-      <c r="C278" t="n">
-        <v>900</v>
-      </c>
-      <c r="D278" t="n">
-        <v>900</v>
-      </c>
-      <c r="E278" t="n">
-        <v>899</v>
-      </c>
-      <c r="F278" t="n">
-        <v>2103.3553</v>
-      </c>
-      <c r="G278" t="n">
-        <v>18008.22804529567</v>
-      </c>
-      <c r="H278" t="n">
-        <v>0</v>
-      </c>
-      <c r="I278" t="n">
-        <v>1</v>
-      </c>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
-      <c r="L278" t="inlineStr"/>
+      <c r="L278" t="n">
+        <v>1.065154577883472</v>
+      </c>
       <c r="M278" t="n">
-        <v>1</v>
-      </c>
-      <c r="N278" t="inlineStr"/>
+        <v>1.030915576694411</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
@@ -10918,16 +10238,13 @@
       <c r="H279" t="n">
         <v>0</v>
       </c>
-      <c r="I279" t="n">
-        <v>0</v>
-      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
       <c r="K279" t="inlineStr"/>
-      <c r="L279" t="inlineStr"/>
-      <c r="M279" t="n">
-        <v>1</v>
-      </c>
-      <c r="N279" t="inlineStr"/>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10952,18 +10269,15 @@
         <v>19076.31444529567</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
-      </c>
-      <c r="I280" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
-      <c r="L280" t="inlineStr"/>
-      <c r="M280" t="n">
-        <v>1</v>
-      </c>
-      <c r="N280" t="inlineStr"/>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
@@ -10990,16 +10304,13 @@
       <c r="H281" t="n">
         <v>0</v>
       </c>
-      <c r="I281" t="n">
-        <v>0</v>
-      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
-      <c r="L281" t="inlineStr"/>
-      <c r="M281" t="n">
-        <v>1</v>
-      </c>
-      <c r="N281" t="inlineStr"/>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
@@ -11026,16 +10337,13 @@
       <c r="H282" t="n">
         <v>0</v>
       </c>
-      <c r="I282" t="n">
-        <v>0</v>
-      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
-      <c r="L282" t="inlineStr"/>
-      <c r="M282" t="n">
-        <v>1</v>
-      </c>
-      <c r="N282" t="inlineStr"/>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
@@ -11062,16 +10370,13 @@
       <c r="H283" t="n">
         <v>0</v>
       </c>
-      <c r="I283" t="n">
-        <v>0</v>
-      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
-      <c r="L283" t="inlineStr"/>
-      <c r="M283" t="n">
-        <v>1</v>
-      </c>
-      <c r="N283" t="inlineStr"/>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
@@ -11096,18 +10401,15 @@
         <v>23702.61534529568</v>
       </c>
       <c r="H284" t="n">
-        <v>0</v>
-      </c>
-      <c r="I284" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
-      <c r="L284" t="inlineStr"/>
-      <c r="M284" t="n">
-        <v>1</v>
-      </c>
-      <c r="N284" t="inlineStr"/>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
@@ -11132,18 +10434,15 @@
         <v>23702.61534529568</v>
       </c>
       <c r="H285" t="n">
-        <v>0</v>
-      </c>
-      <c r="I285" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
-      <c r="L285" t="inlineStr"/>
-      <c r="M285" t="n">
-        <v>1</v>
-      </c>
-      <c r="N285" t="inlineStr"/>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
@@ -11168,18 +10467,15 @@
         <v>22188.53444529567</v>
       </c>
       <c r="H286" t="n">
-        <v>0</v>
-      </c>
-      <c r="I286" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
-      <c r="L286" t="inlineStr"/>
-      <c r="M286" t="n">
-        <v>1</v>
-      </c>
-      <c r="N286" t="inlineStr"/>
+      <c r="L286" t="n">
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -11204,18 +10500,15 @@
         <v>22185.97674529567</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
-      </c>
-      <c r="I287" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
-      <c r="L287" t="inlineStr"/>
-      <c r="M287" t="n">
-        <v>1</v>
-      </c>
-      <c r="N287" t="inlineStr"/>
+      <c r="L287" t="n">
+        <v>1</v>
+      </c>
+      <c r="M287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -11240,18 +10533,15 @@
         <v>22185.97674529567</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
-      </c>
-      <c r="I288" t="n">
-        <v>0</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
-      <c r="L288" t="inlineStr"/>
-      <c r="M288" t="n">
-        <v>1</v>
-      </c>
-      <c r="N288" t="inlineStr"/>
+      <c r="L288" t="n">
+        <v>1</v>
+      </c>
+      <c r="M288" t="inlineStr"/>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
@@ -11278,16 +10568,13 @@
       <c r="H289" t="n">
         <v>0</v>
       </c>
-      <c r="I289" t="n">
-        <v>0</v>
-      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
       <c r="K289" t="inlineStr"/>
-      <c r="L289" t="inlineStr"/>
-      <c r="M289" t="n">
-        <v>1</v>
-      </c>
-      <c r="N289" t="inlineStr"/>
+      <c r="L289" t="n">
+        <v>1</v>
+      </c>
+      <c r="M289" t="inlineStr"/>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
@@ -11314,16 +10601,13 @@
       <c r="H290" t="n">
         <v>0</v>
       </c>
-      <c r="I290" t="n">
-        <v>0</v>
-      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
-      <c r="L290" t="inlineStr"/>
-      <c r="M290" t="n">
-        <v>1</v>
-      </c>
-      <c r="N290" t="inlineStr"/>
+      <c r="L290" t="n">
+        <v>1</v>
+      </c>
+      <c r="M290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -11350,16 +10634,13 @@
       <c r="H291" t="n">
         <v>0</v>
       </c>
-      <c r="I291" t="n">
-        <v>0</v>
-      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
       <c r="K291" t="inlineStr"/>
-      <c r="L291" t="inlineStr"/>
-      <c r="M291" t="n">
-        <v>1</v>
-      </c>
-      <c r="N291" t="inlineStr"/>
+      <c r="L291" t="n">
+        <v>1</v>
+      </c>
+      <c r="M291" t="inlineStr"/>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
@@ -11386,16 +10667,13 @@
       <c r="H292" t="n">
         <v>0</v>
       </c>
-      <c r="I292" t="n">
-        <v>1</v>
-      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
-      <c r="L292" t="inlineStr"/>
-      <c r="M292" t="n">
-        <v>1</v>
-      </c>
-      <c r="N292" t="inlineStr"/>
+      <c r="L292" t="n">
+        <v>1</v>
+      </c>
+      <c r="M292" t="inlineStr"/>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
@@ -11422,16 +10700,13 @@
       <c r="H293" t="n">
         <v>0</v>
       </c>
-      <c r="I293" t="n">
-        <v>0</v>
-      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
-      <c r="L293" t="inlineStr"/>
-      <c r="M293" t="n">
-        <v>1</v>
-      </c>
-      <c r="N293" t="inlineStr"/>
+      <c r="L293" t="n">
+        <v>1</v>
+      </c>
+      <c r="M293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -11458,16 +10733,13 @@
       <c r="H294" t="n">
         <v>0</v>
       </c>
-      <c r="I294" t="n">
-        <v>0</v>
-      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
       <c r="K294" t="inlineStr"/>
-      <c r="L294" t="inlineStr"/>
-      <c r="M294" t="n">
-        <v>1</v>
-      </c>
-      <c r="N294" t="inlineStr"/>
+      <c r="L294" t="n">
+        <v>1</v>
+      </c>
+      <c r="M294" t="inlineStr"/>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
@@ -11494,16 +10766,13 @@
       <c r="H295" t="n">
         <v>0</v>
       </c>
-      <c r="I295" t="n">
-        <v>0</v>
-      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
       <c r="K295" t="inlineStr"/>
-      <c r="L295" t="inlineStr"/>
-      <c r="M295" t="n">
-        <v>1</v>
-      </c>
-      <c r="N295" t="inlineStr"/>
+      <c r="L295" t="n">
+        <v>1</v>
+      </c>
+      <c r="M295" t="inlineStr"/>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -11528,18 +10797,15 @@
         <v>24462.27674529567</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
-      </c>
-      <c r="I296" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
       <c r="K296" t="inlineStr"/>
-      <c r="L296" t="inlineStr"/>
-      <c r="M296" t="n">
-        <v>1</v>
-      </c>
-      <c r="N296" t="inlineStr"/>
+      <c r="L296" t="n">
+        <v>1</v>
+      </c>
+      <c r="M296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -11566,16 +10832,13 @@
       <c r="H297" t="n">
         <v>0</v>
       </c>
-      <c r="I297" t="n">
-        <v>0</v>
-      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
       <c r="K297" t="inlineStr"/>
-      <c r="L297" t="inlineStr"/>
-      <c r="M297" t="n">
-        <v>1</v>
-      </c>
-      <c r="N297" t="inlineStr"/>
+      <c r="L297" t="n">
+        <v>1</v>
+      </c>
+      <c r="M297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
@@ -11602,16 +10865,13 @@
       <c r="H298" t="n">
         <v>0</v>
       </c>
-      <c r="I298" t="n">
-        <v>0</v>
-      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
       <c r="K298" t="inlineStr"/>
-      <c r="L298" t="inlineStr"/>
-      <c r="M298" t="n">
-        <v>1</v>
-      </c>
-      <c r="N298" t="inlineStr"/>
+      <c r="L298" t="n">
+        <v>1</v>
+      </c>
+      <c r="M298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -11638,16 +10898,13 @@
       <c r="H299" t="n">
         <v>0</v>
       </c>
-      <c r="I299" t="n">
-        <v>0</v>
-      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>
-      <c r="L299" t="inlineStr"/>
-      <c r="M299" t="n">
-        <v>1</v>
-      </c>
-      <c r="N299" t="inlineStr"/>
+      <c r="L299" t="n">
+        <v>1</v>
+      </c>
+      <c r="M299" t="inlineStr"/>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
@@ -11674,16 +10931,13 @@
       <c r="H300" t="n">
         <v>0</v>
       </c>
-      <c r="I300" t="n">
-        <v>1</v>
-      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
       <c r="K300" t="inlineStr"/>
-      <c r="L300" t="inlineStr"/>
-      <c r="M300" t="n">
-        <v>1</v>
-      </c>
-      <c r="N300" t="inlineStr"/>
+      <c r="L300" t="n">
+        <v>1</v>
+      </c>
+      <c r="M300" t="inlineStr"/>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
@@ -11710,16 +10964,13 @@
       <c r="H301" t="n">
         <v>0</v>
       </c>
-      <c r="I301" t="n">
-        <v>1</v>
-      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
       <c r="K301" t="inlineStr"/>
-      <c r="L301" t="inlineStr"/>
-      <c r="M301" t="n">
-        <v>1</v>
-      </c>
-      <c r="N301" t="inlineStr"/>
+      <c r="L301" t="n">
+        <v>1</v>
+      </c>
+      <c r="M301" t="inlineStr"/>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
@@ -11746,16 +10997,13 @@
       <c r="H302" t="n">
         <v>0</v>
       </c>
-      <c r="I302" t="n">
-        <v>1</v>
-      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
       <c r="K302" t="inlineStr"/>
-      <c r="L302" t="inlineStr"/>
-      <c r="M302" t="n">
-        <v>1</v>
-      </c>
-      <c r="N302" t="inlineStr"/>
+      <c r="L302" t="n">
+        <v>1</v>
+      </c>
+      <c r="M302" t="inlineStr"/>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
@@ -11782,16 +11030,13 @@
       <c r="H303" t="n">
         <v>0</v>
       </c>
-      <c r="I303" t="n">
-        <v>1</v>
-      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
       <c r="K303" t="inlineStr"/>
-      <c r="L303" t="inlineStr"/>
-      <c r="M303" t="n">
-        <v>1</v>
-      </c>
-      <c r="N303" t="inlineStr"/>
+      <c r="L303" t="n">
+        <v>1</v>
+      </c>
+      <c r="M303" t="inlineStr"/>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
@@ -11818,16 +11063,13 @@
       <c r="H304" t="n">
         <v>0</v>
       </c>
-      <c r="I304" t="n">
-        <v>1</v>
-      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
       <c r="K304" t="inlineStr"/>
-      <c r="L304" t="inlineStr"/>
-      <c r="M304" t="n">
-        <v>1</v>
-      </c>
-      <c r="N304" t="inlineStr"/>
+      <c r="L304" t="n">
+        <v>1</v>
+      </c>
+      <c r="M304" t="inlineStr"/>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
@@ -11854,16 +11096,13 @@
       <c r="H305" t="n">
         <v>0</v>
       </c>
-      <c r="I305" t="n">
-        <v>1</v>
-      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
       <c r="K305" t="inlineStr"/>
-      <c r="L305" t="inlineStr"/>
-      <c r="M305" t="n">
-        <v>1</v>
-      </c>
-      <c r="N305" t="inlineStr"/>
+      <c r="L305" t="n">
+        <v>1</v>
+      </c>
+      <c r="M305" t="inlineStr"/>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
@@ -11890,16 +11129,13 @@
       <c r="H306" t="n">
         <v>0</v>
       </c>
-      <c r="I306" t="n">
-        <v>1</v>
-      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
       <c r="K306" t="inlineStr"/>
-      <c r="L306" t="inlineStr"/>
-      <c r="M306" t="n">
-        <v>1</v>
-      </c>
-      <c r="N306" t="inlineStr"/>
+      <c r="L306" t="n">
+        <v>1</v>
+      </c>
+      <c r="M306" t="inlineStr"/>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
@@ -11926,16 +11162,13 @@
       <c r="H307" t="n">
         <v>0</v>
       </c>
-      <c r="I307" t="n">
-        <v>1</v>
-      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
       <c r="K307" t="inlineStr"/>
-      <c r="L307" t="inlineStr"/>
-      <c r="M307" t="n">
-        <v>1</v>
-      </c>
-      <c r="N307" t="inlineStr"/>
+      <c r="L307" t="n">
+        <v>1</v>
+      </c>
+      <c r="M307" t="inlineStr"/>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
@@ -11960,18 +11193,15 @@
         <v>17678.18344529567</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
-      </c>
-      <c r="I308" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
       <c r="K308" t="inlineStr"/>
-      <c r="L308" t="inlineStr"/>
-      <c r="M308" t="n">
-        <v>1</v>
-      </c>
-      <c r="N308" t="inlineStr"/>
+      <c r="L308" t="n">
+        <v>1</v>
+      </c>
+      <c r="M308" t="inlineStr"/>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
@@ -11996,18 +11226,15 @@
         <v>23845.38014529567</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
-      </c>
-      <c r="I309" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
       <c r="K309" t="inlineStr"/>
-      <c r="L309" t="inlineStr"/>
-      <c r="M309" t="n">
-        <v>1</v>
-      </c>
-      <c r="N309" t="inlineStr"/>
+      <c r="L309" t="n">
+        <v>1</v>
+      </c>
+      <c r="M309" t="inlineStr"/>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
@@ -12032,18 +11259,15 @@
         <v>23727.38014529567</v>
       </c>
       <c r="H310" t="n">
-        <v>0</v>
-      </c>
-      <c r="I310" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
       <c r="K310" t="inlineStr"/>
-      <c r="L310" t="inlineStr"/>
-      <c r="M310" t="n">
-        <v>1</v>
-      </c>
-      <c r="N310" t="inlineStr"/>
+      <c r="L310" t="n">
+        <v>1</v>
+      </c>
+      <c r="M310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -12070,16 +11294,13 @@
       <c r="H311" t="n">
         <v>0</v>
       </c>
-      <c r="I311" t="n">
-        <v>1</v>
-      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="inlineStr"/>
       <c r="K311" t="inlineStr"/>
-      <c r="L311" t="inlineStr"/>
-      <c r="M311" t="n">
-        <v>1</v>
-      </c>
-      <c r="N311" t="inlineStr"/>
+      <c r="L311" t="n">
+        <v>1</v>
+      </c>
+      <c r="M311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
@@ -12104,18 +11325,15 @@
         <v>24149.88014529567</v>
       </c>
       <c r="H312" t="n">
-        <v>0</v>
-      </c>
-      <c r="I312" t="n">
-        <v>1</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
       <c r="K312" t="inlineStr"/>
-      <c r="L312" t="inlineStr"/>
-      <c r="M312" t="n">
-        <v>1</v>
-      </c>
-      <c r="N312" t="inlineStr"/>
+      <c r="L312" t="n">
+        <v>1</v>
+      </c>
+      <c r="M312" t="inlineStr"/>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
@@ -12140,18 +11358,15 @@
         <v>25121.56944529567</v>
       </c>
       <c r="H313" t="n">
-        <v>0</v>
-      </c>
-      <c r="I313" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
       <c r="K313" t="inlineStr"/>
-      <c r="L313" t="inlineStr"/>
-      <c r="M313" t="n">
-        <v>1</v>
-      </c>
-      <c r="N313" t="inlineStr"/>
+      <c r="L313" t="n">
+        <v>1</v>
+      </c>
+      <c r="M313" t="inlineStr"/>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
@@ -12178,16 +11393,13 @@
       <c r="H314" t="n">
         <v>0</v>
       </c>
-      <c r="I314" t="n">
-        <v>0</v>
-      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="inlineStr"/>
       <c r="K314" t="inlineStr"/>
-      <c r="L314" t="inlineStr"/>
-      <c r="M314" t="n">
-        <v>1</v>
-      </c>
-      <c r="N314" t="inlineStr"/>
+      <c r="L314" t="n">
+        <v>1</v>
+      </c>
+      <c r="M314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
@@ -12214,16 +11426,13 @@
       <c r="H315" t="n">
         <v>0</v>
       </c>
-      <c r="I315" t="n">
-        <v>0</v>
-      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="inlineStr"/>
       <c r="K315" t="inlineStr"/>
-      <c r="L315" t="inlineStr"/>
-      <c r="M315" t="n">
-        <v>1</v>
-      </c>
-      <c r="N315" t="inlineStr"/>
+      <c r="L315" t="n">
+        <v>1</v>
+      </c>
+      <c r="M315" t="inlineStr"/>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
@@ -12250,16 +11459,13 @@
       <c r="H316" t="n">
         <v>0</v>
       </c>
-      <c r="I316" t="n">
-        <v>0</v>
-      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="inlineStr"/>
       <c r="K316" t="inlineStr"/>
-      <c r="L316" t="inlineStr"/>
-      <c r="M316" t="n">
-        <v>1</v>
-      </c>
-      <c r="N316" t="inlineStr"/>
+      <c r="L316" t="n">
+        <v>1</v>
+      </c>
+      <c r="M316" t="inlineStr"/>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
@@ -12284,18 +11490,15 @@
         <v>24416.49844529567</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
-      </c>
-      <c r="I317" t="n">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
       <c r="K317" t="inlineStr"/>
-      <c r="L317" t="inlineStr"/>
-      <c r="M317" t="n">
-        <v>1</v>
-      </c>
-      <c r="N317" t="inlineStr"/>
+      <c r="L317" t="n">
+        <v>1</v>
+      </c>
+      <c r="M317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -12322,16 +11525,13 @@
       <c r="H318" t="n">
         <v>0</v>
       </c>
-      <c r="I318" t="n">
-        <v>0</v>
-      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
       <c r="K318" t="inlineStr"/>
-      <c r="L318" t="inlineStr"/>
-      <c r="M318" t="n">
-        <v>1</v>
-      </c>
-      <c r="N318" t="inlineStr"/>
+      <c r="L318" t="n">
+        <v>1</v>
+      </c>
+      <c r="M318" t="inlineStr"/>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
@@ -12358,16 +11558,13 @@
       <c r="H319" t="n">
         <v>0</v>
       </c>
-      <c r="I319" t="n">
-        <v>0</v>
-      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
       <c r="K319" t="inlineStr"/>
-      <c r="L319" t="inlineStr"/>
-      <c r="M319" t="n">
-        <v>1</v>
-      </c>
-      <c r="N319" t="inlineStr"/>
+      <c r="L319" t="n">
+        <v>1</v>
+      </c>
+      <c r="M319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -12394,16 +11591,13 @@
       <c r="H320" t="n">
         <v>0</v>
       </c>
-      <c r="I320" t="n">
-        <v>0</v>
-      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
       <c r="K320" t="inlineStr"/>
-      <c r="L320" t="inlineStr"/>
-      <c r="M320" t="n">
-        <v>1</v>
-      </c>
-      <c r="N320" t="inlineStr"/>
+      <c r="L320" t="n">
+        <v>1</v>
+      </c>
+      <c r="M320" t="inlineStr"/>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
@@ -12430,16 +11624,13 @@
       <c r="H321" t="n">
         <v>0</v>
       </c>
-      <c r="I321" t="n">
-        <v>0</v>
-      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
       <c r="K321" t="inlineStr"/>
-      <c r="L321" t="inlineStr"/>
-      <c r="M321" t="n">
-        <v>1</v>
-      </c>
-      <c r="N321" t="inlineStr"/>
+      <c r="L321" t="n">
+        <v>1</v>
+      </c>
+      <c r="M321" t="inlineStr"/>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
@@ -12466,16 +11657,13 @@
       <c r="H322" t="n">
         <v>0</v>
       </c>
-      <c r="I322" t="n">
-        <v>0</v>
-      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
       <c r="K322" t="inlineStr"/>
-      <c r="L322" t="inlineStr"/>
-      <c r="M322" t="n">
-        <v>1</v>
-      </c>
-      <c r="N322" t="inlineStr"/>
+      <c r="L322" t="n">
+        <v>1</v>
+      </c>
+      <c r="M322" t="inlineStr"/>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
@@ -12502,16 +11690,13 @@
       <c r="H323" t="n">
         <v>0</v>
       </c>
-      <c r="I323" t="n">
-        <v>0</v>
-      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
       <c r="K323" t="inlineStr"/>
-      <c r="L323" t="inlineStr"/>
-      <c r="M323" t="n">
-        <v>1</v>
-      </c>
-      <c r="N323" t="inlineStr"/>
+      <c r="L323" t="n">
+        <v>1</v>
+      </c>
+      <c r="M323" t="inlineStr"/>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
@@ -12538,18 +11723,15 @@
       <c r="H324" t="n">
         <v>0</v>
       </c>
-      <c r="I324" t="n">
-        <v>0</v>
-      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
       <c r="K324" t="inlineStr"/>
-      <c r="L324" t="inlineStr"/>
-      <c r="M324" t="n">
-        <v>1</v>
-      </c>
-      <c r="N324" t="inlineStr"/>
+      <c r="L324" t="n">
+        <v>1</v>
+      </c>
+      <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6589,14 +6589,10 @@
         <v>14947.62762325581</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
-      </c>
-      <c r="I188" t="n">
-        <v>841</v>
-      </c>
-      <c r="J188" t="n">
-        <v>841</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
       <c r="K188" t="inlineStr"/>
       <c r="L188" t="n">
         <v>1</v>
@@ -6626,675 +6622,559 @@
         <v>14243.10982325581</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
-      </c>
-      <c r="I189" t="n">
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1</v>
+      </c>
+      <c r="M189" t="inlineStr"/>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>839</v>
+      </c>
+      <c r="C190" t="n">
+        <v>840</v>
+      </c>
+      <c r="D190" t="n">
+        <v>840</v>
+      </c>
+      <c r="E190" t="n">
+        <v>839</v>
+      </c>
+      <c r="F190" t="n">
+        <v>2135.5001</v>
+      </c>
+      <c r="G190" t="n">
+        <v>14243.10982325581</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>1</v>
+      </c>
+      <c r="M190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>843</v>
+      </c>
+      <c r="C191" t="n">
+        <v>843</v>
+      </c>
+      <c r="D191" t="n">
+        <v>843</v>
+      </c>
+      <c r="E191" t="n">
+        <v>843</v>
+      </c>
+      <c r="F191" t="n">
+        <v>169.2908</v>
+      </c>
+      <c r="G191" t="n">
+        <v>14412.40062325581</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>1</v>
+      </c>
+      <c r="M191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>842</v>
+      </c>
+      <c r="C192" t="n">
+        <v>842</v>
+      </c>
+      <c r="D192" t="n">
+        <v>842</v>
+      </c>
+      <c r="E192" t="n">
+        <v>842</v>
+      </c>
+      <c r="F192" t="n">
+        <v>128.4198</v>
+      </c>
+      <c r="G192" t="n">
+        <v>14283.98082325581</v>
+      </c>
+      <c r="H192" t="n">
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="n">
+        <v>1</v>
+      </c>
+      <c r="M192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
         <v>841</v>
       </c>
-      <c r="J189" t="n">
+      <c r="C193" t="n">
         <v>841</v>
       </c>
-      <c r="K189" t="inlineStr">
+      <c r="D193" t="n">
+        <v>841</v>
+      </c>
+      <c r="E193" t="n">
+        <v>840</v>
+      </c>
+      <c r="F193" t="n">
+        <v>865.6896</v>
+      </c>
+      <c r="G193" t="n">
+        <v>13418.29122325581</v>
+      </c>
+      <c r="H193" t="n">
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="n">
+        <v>1</v>
+      </c>
+      <c r="M193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>838</v>
+      </c>
+      <c r="C194" t="n">
+        <v>839</v>
+      </c>
+      <c r="D194" t="n">
+        <v>839</v>
+      </c>
+      <c r="E194" t="n">
+        <v>837</v>
+      </c>
+      <c r="F194" t="n">
+        <v>400.9759</v>
+      </c>
+      <c r="G194" t="n">
+        <v>13017.31532325581</v>
+      </c>
+      <c r="H194" t="n">
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="n">
+        <v>1</v>
+      </c>
+      <c r="M194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>837</v>
+      </c>
+      <c r="C195" t="n">
+        <v>837</v>
+      </c>
+      <c r="D195" t="n">
+        <v>837</v>
+      </c>
+      <c r="E195" t="n">
+        <v>837</v>
+      </c>
+      <c r="F195" t="n">
+        <v>300.1512</v>
+      </c>
+      <c r="G195" t="n">
+        <v>12717.16412325581</v>
+      </c>
+      <c r="H195" t="n">
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="n">
+        <v>1</v>
+      </c>
+      <c r="M195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>837</v>
+      </c>
+      <c r="C196" t="n">
+        <v>833</v>
+      </c>
+      <c r="D196" t="n">
+        <v>837</v>
+      </c>
+      <c r="E196" t="n">
+        <v>833</v>
+      </c>
+      <c r="F196" t="n">
+        <v>102.373</v>
+      </c>
+      <c r="G196" t="n">
+        <v>12614.79112325581</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>1</v>
+      </c>
+      <c r="M196" t="inlineStr"/>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>833</v>
+      </c>
+      <c r="C197" t="n">
+        <v>833</v>
+      </c>
+      <c r="D197" t="n">
+        <v>833</v>
+      </c>
+      <c r="E197" t="n">
+        <v>833</v>
+      </c>
+      <c r="F197" t="n">
+        <v>33.07</v>
+      </c>
+      <c r="G197" t="n">
+        <v>12614.79112325581</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>1</v>
+      </c>
+      <c r="M197" t="inlineStr"/>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>836</v>
+      </c>
+      <c r="C198" t="n">
+        <v>836</v>
+      </c>
+      <c r="D198" t="n">
+        <v>836</v>
+      </c>
+      <c r="E198" t="n">
+        <v>836</v>
+      </c>
+      <c r="F198" t="n">
+        <v>33.3</v>
+      </c>
+      <c r="G198" t="n">
+        <v>12648.09112325581</v>
+      </c>
+      <c r="H198" t="n">
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>1</v>
+      </c>
+      <c r="M198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>834</v>
+      </c>
+      <c r="C199" t="n">
+        <v>834</v>
+      </c>
+      <c r="D199" t="n">
+        <v>834</v>
+      </c>
+      <c r="E199" t="n">
+        <v>834</v>
+      </c>
+      <c r="F199" t="n">
+        <v>63.0026</v>
+      </c>
+      <c r="G199" t="n">
+        <v>12585.08852325581</v>
+      </c>
+      <c r="H199" t="n">
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>1</v>
+      </c>
+      <c r="M199" t="inlineStr"/>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>835</v>
+      </c>
+      <c r="C200" t="n">
+        <v>835</v>
+      </c>
+      <c r="D200" t="n">
+        <v>835</v>
+      </c>
+      <c r="E200" t="n">
+        <v>835</v>
+      </c>
+      <c r="F200" t="n">
+        <v>101.04</v>
+      </c>
+      <c r="G200" t="n">
+        <v>12686.12852325581</v>
+      </c>
+      <c r="H200" t="n">
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>1</v>
+      </c>
+      <c r="M200" t="inlineStr"/>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>833</v>
+      </c>
+      <c r="C201" t="n">
+        <v>833</v>
+      </c>
+      <c r="D201" t="n">
+        <v>833</v>
+      </c>
+      <c r="E201" t="n">
+        <v>833</v>
+      </c>
+      <c r="F201" t="n">
+        <v>600</v>
+      </c>
+      <c r="G201" t="n">
+        <v>12086.12852325581</v>
+      </c>
+      <c r="H201" t="n">
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>1</v>
+      </c>
+      <c r="M201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>835</v>
+      </c>
+      <c r="C202" t="n">
+        <v>835</v>
+      </c>
+      <c r="D202" t="n">
+        <v>835</v>
+      </c>
+      <c r="E202" t="n">
+        <v>835</v>
+      </c>
+      <c r="F202" t="n">
+        <v>6.3612</v>
+      </c>
+      <c r="G202" t="n">
+        <v>12092.48972325581</v>
+      </c>
+      <c r="H202" t="n">
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1</v>
+      </c>
+      <c r="M202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>834</v>
+      </c>
+      <c r="C203" t="n">
+        <v>834</v>
+      </c>
+      <c r="D203" t="n">
+        <v>834</v>
+      </c>
+      <c r="E203" t="n">
+        <v>834</v>
+      </c>
+      <c r="F203" t="n">
+        <v>1.8368</v>
+      </c>
+      <c r="G203" t="n">
+        <v>12090.65292325581</v>
+      </c>
+      <c r="H203" t="n">
+        <v>1</v>
+      </c>
+      <c r="I203" t="n">
+        <v>835</v>
+      </c>
+      <c r="J203" t="n">
+        <v>835</v>
+      </c>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1</v>
+      </c>
+      <c r="M203" t="inlineStr"/>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>834</v>
+      </c>
+      <c r="C204" t="n">
+        <v>834</v>
+      </c>
+      <c r="D204" t="n">
+        <v>834</v>
+      </c>
+      <c r="E204" t="n">
+        <v>834</v>
+      </c>
+      <c r="F204" t="n">
+        <v>1.3434</v>
+      </c>
+      <c r="G204" t="n">
+        <v>12090.65292325581</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1</v>
+      </c>
+      <c r="I204" t="n">
+        <v>834</v>
+      </c>
+      <c r="J204" t="n">
+        <v>835</v>
+      </c>
+      <c r="K204" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L204" t="n">
+        <v>1</v>
+      </c>
+      <c r="M204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>834</v>
+      </c>
+      <c r="C205" t="n">
+        <v>833</v>
+      </c>
+      <c r="D205" t="n">
+        <v>834</v>
+      </c>
+      <c r="E205" t="n">
+        <v>833</v>
+      </c>
+      <c r="F205" t="n">
+        <v>63.022</v>
+      </c>
+      <c r="G205" t="n">
+        <v>12027.63092325581</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1</v>
+      </c>
+      <c r="I205" t="n">
+        <v>834</v>
+      </c>
+      <c r="J205" t="n">
+        <v>835</v>
+      </c>
+      <c r="K205" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L189" t="n">
-        <v>1</v>
-      </c>
-      <c r="M189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>839</v>
-      </c>
-      <c r="C190" t="n">
-        <v>840</v>
-      </c>
-      <c r="D190" t="n">
-        <v>840</v>
-      </c>
-      <c r="E190" t="n">
-        <v>839</v>
-      </c>
-      <c r="F190" t="n">
-        <v>2135.5001</v>
-      </c>
-      <c r="G190" t="n">
-        <v>14243.10982325581</v>
-      </c>
-      <c r="H190" t="n">
-        <v>2</v>
-      </c>
-      <c r="I190" t="n">
-        <v>840</v>
-      </c>
-      <c r="J190" t="n">
-        <v>841</v>
-      </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L190" t="n">
-        <v>1</v>
-      </c>
-      <c r="M190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>843</v>
-      </c>
-      <c r="C191" t="n">
-        <v>843</v>
-      </c>
-      <c r="D191" t="n">
-        <v>843</v>
-      </c>
-      <c r="E191" t="n">
-        <v>843</v>
-      </c>
-      <c r="F191" t="n">
-        <v>169.2908</v>
-      </c>
-      <c r="G191" t="n">
-        <v>14412.40062325581</v>
-      </c>
-      <c r="H191" t="n">
-        <v>2</v>
-      </c>
-      <c r="I191" t="n">
-        <v>840</v>
-      </c>
-      <c r="J191" t="n">
-        <v>841</v>
-      </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L191" t="n">
-        <v>1</v>
-      </c>
-      <c r="M191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>842</v>
-      </c>
-      <c r="C192" t="n">
-        <v>842</v>
-      </c>
-      <c r="D192" t="n">
-        <v>842</v>
-      </c>
-      <c r="E192" t="n">
-        <v>842</v>
-      </c>
-      <c r="F192" t="n">
-        <v>128.4198</v>
-      </c>
-      <c r="G192" t="n">
-        <v>14283.98082325581</v>
-      </c>
-      <c r="H192" t="n">
-        <v>2</v>
-      </c>
-      <c r="I192" t="n">
-        <v>843</v>
-      </c>
-      <c r="J192" t="n">
-        <v>841</v>
-      </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L192" t="n">
-        <v>1</v>
-      </c>
-      <c r="M192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>841</v>
-      </c>
-      <c r="C193" t="n">
-        <v>841</v>
-      </c>
-      <c r="D193" t="n">
-        <v>841</v>
-      </c>
-      <c r="E193" t="n">
-        <v>840</v>
-      </c>
-      <c r="F193" t="n">
-        <v>865.6896</v>
-      </c>
-      <c r="G193" t="n">
-        <v>13418.29122325581</v>
-      </c>
-      <c r="H193" t="n">
-        <v>2</v>
-      </c>
-      <c r="I193" t="n">
-        <v>842</v>
-      </c>
-      <c r="J193" t="n">
-        <v>841</v>
-      </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L193" t="n">
-        <v>1</v>
-      </c>
-      <c r="M193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>838</v>
-      </c>
-      <c r="C194" t="n">
-        <v>839</v>
-      </c>
-      <c r="D194" t="n">
-        <v>839</v>
-      </c>
-      <c r="E194" t="n">
-        <v>837</v>
-      </c>
-      <c r="F194" t="n">
-        <v>400.9759</v>
-      </c>
-      <c r="G194" t="n">
-        <v>13017.31532325581</v>
-      </c>
-      <c r="H194" t="n">
-        <v>2</v>
-      </c>
-      <c r="I194" t="n">
-        <v>841</v>
-      </c>
-      <c r="J194" t="n">
-        <v>841</v>
-      </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L194" t="n">
-        <v>1</v>
-      </c>
-      <c r="M194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>837</v>
-      </c>
-      <c r="C195" t="n">
-        <v>837</v>
-      </c>
-      <c r="D195" t="n">
-        <v>837</v>
-      </c>
-      <c r="E195" t="n">
-        <v>837</v>
-      </c>
-      <c r="F195" t="n">
-        <v>300.1512</v>
-      </c>
-      <c r="G195" t="n">
-        <v>12717.16412325581</v>
-      </c>
-      <c r="H195" t="n">
-        <v>2</v>
-      </c>
-      <c r="I195" t="n">
-        <v>839</v>
-      </c>
-      <c r="J195" t="n">
-        <v>841</v>
-      </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L195" t="n">
-        <v>1</v>
-      </c>
-      <c r="M195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>837</v>
-      </c>
-      <c r="C196" t="n">
-        <v>833</v>
-      </c>
-      <c r="D196" t="n">
-        <v>837</v>
-      </c>
-      <c r="E196" t="n">
-        <v>833</v>
-      </c>
-      <c r="F196" t="n">
-        <v>102.373</v>
-      </c>
-      <c r="G196" t="n">
-        <v>12614.79112325581</v>
-      </c>
-      <c r="H196" t="n">
-        <v>2</v>
-      </c>
-      <c r="I196" t="n">
-        <v>837</v>
-      </c>
-      <c r="J196" t="n">
-        <v>841</v>
-      </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L196" t="n">
-        <v>1</v>
-      </c>
-      <c r="M196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>833</v>
-      </c>
-      <c r="C197" t="n">
-        <v>833</v>
-      </c>
-      <c r="D197" t="n">
-        <v>833</v>
-      </c>
-      <c r="E197" t="n">
-        <v>833</v>
-      </c>
-      <c r="F197" t="n">
-        <v>33.07</v>
-      </c>
-      <c r="G197" t="n">
-        <v>12614.79112325581</v>
-      </c>
-      <c r="H197" t="n">
-        <v>2</v>
-      </c>
-      <c r="I197" t="n">
-        <v>833</v>
-      </c>
-      <c r="J197" t="n">
-        <v>841</v>
-      </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L197" t="n">
-        <v>1</v>
-      </c>
-      <c r="M197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>836</v>
-      </c>
-      <c r="C198" t="n">
-        <v>836</v>
-      </c>
-      <c r="D198" t="n">
-        <v>836</v>
-      </c>
-      <c r="E198" t="n">
-        <v>836</v>
-      </c>
-      <c r="F198" t="n">
-        <v>33.3</v>
-      </c>
-      <c r="G198" t="n">
-        <v>12648.09112325581</v>
-      </c>
-      <c r="H198" t="n">
-        <v>2</v>
-      </c>
-      <c r="I198" t="n">
-        <v>833</v>
-      </c>
-      <c r="J198" t="n">
-        <v>841</v>
-      </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L198" t="n">
-        <v>1</v>
-      </c>
-      <c r="M198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>834</v>
-      </c>
-      <c r="C199" t="n">
-        <v>834</v>
-      </c>
-      <c r="D199" t="n">
-        <v>834</v>
-      </c>
-      <c r="E199" t="n">
-        <v>834</v>
-      </c>
-      <c r="F199" t="n">
-        <v>63.0026</v>
-      </c>
-      <c r="G199" t="n">
-        <v>12585.08852325581</v>
-      </c>
-      <c r="H199" t="n">
-        <v>2</v>
-      </c>
-      <c r="I199" t="n">
-        <v>836</v>
-      </c>
-      <c r="J199" t="n">
-        <v>841</v>
-      </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L199" t="n">
-        <v>1</v>
-      </c>
-      <c r="M199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>835</v>
-      </c>
-      <c r="C200" t="n">
-        <v>835</v>
-      </c>
-      <c r="D200" t="n">
-        <v>835</v>
-      </c>
-      <c r="E200" t="n">
-        <v>835</v>
-      </c>
-      <c r="F200" t="n">
-        <v>101.04</v>
-      </c>
-      <c r="G200" t="n">
-        <v>12686.12852325581</v>
-      </c>
-      <c r="H200" t="n">
-        <v>2</v>
-      </c>
-      <c r="I200" t="n">
-        <v>834</v>
-      </c>
-      <c r="J200" t="n">
-        <v>841</v>
-      </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L200" t="n">
-        <v>1</v>
-      </c>
-      <c r="M200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>833</v>
-      </c>
-      <c r="C201" t="n">
-        <v>833</v>
-      </c>
-      <c r="D201" t="n">
-        <v>833</v>
-      </c>
-      <c r="E201" t="n">
-        <v>833</v>
-      </c>
-      <c r="F201" t="n">
-        <v>600</v>
-      </c>
-      <c r="G201" t="n">
-        <v>12086.12852325581</v>
-      </c>
-      <c r="H201" t="n">
-        <v>2</v>
-      </c>
-      <c r="I201" t="n">
-        <v>835</v>
-      </c>
-      <c r="J201" t="n">
-        <v>841</v>
-      </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L201" t="n">
-        <v>1</v>
-      </c>
-      <c r="M201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>835</v>
-      </c>
-      <c r="C202" t="n">
-        <v>835</v>
-      </c>
-      <c r="D202" t="n">
-        <v>835</v>
-      </c>
-      <c r="E202" t="n">
-        <v>835</v>
-      </c>
-      <c r="F202" t="n">
-        <v>6.3612</v>
-      </c>
-      <c r="G202" t="n">
-        <v>12092.48972325581</v>
-      </c>
-      <c r="H202" t="n">
-        <v>2</v>
-      </c>
-      <c r="I202" t="n">
-        <v>833</v>
-      </c>
-      <c r="J202" t="n">
-        <v>841</v>
-      </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L202" t="n">
-        <v>1</v>
-      </c>
-      <c r="M202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>834</v>
-      </c>
-      <c r="C203" t="n">
-        <v>834</v>
-      </c>
-      <c r="D203" t="n">
-        <v>834</v>
-      </c>
-      <c r="E203" t="n">
-        <v>834</v>
-      </c>
-      <c r="F203" t="n">
-        <v>1.8368</v>
-      </c>
-      <c r="G203" t="n">
-        <v>12090.65292325581</v>
-      </c>
-      <c r="H203" t="n">
-        <v>2</v>
-      </c>
-      <c r="I203" t="n">
-        <v>835</v>
-      </c>
-      <c r="J203" t="n">
-        <v>841</v>
-      </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L203" t="n">
-        <v>1</v>
-      </c>
-      <c r="M203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>834</v>
-      </c>
-      <c r="C204" t="n">
-        <v>834</v>
-      </c>
-      <c r="D204" t="n">
-        <v>834</v>
-      </c>
-      <c r="E204" t="n">
-        <v>834</v>
-      </c>
-      <c r="F204" t="n">
-        <v>1.3434</v>
-      </c>
-      <c r="G204" t="n">
-        <v>12090.65292325581</v>
-      </c>
-      <c r="H204" t="n">
-        <v>2</v>
-      </c>
-      <c r="I204" t="n">
-        <v>834</v>
-      </c>
-      <c r="J204" t="n">
-        <v>841</v>
-      </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L204" t="n">
-        <v>1</v>
-      </c>
-      <c r="M204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>834</v>
-      </c>
-      <c r="C205" t="n">
-        <v>833</v>
-      </c>
-      <c r="D205" t="n">
-        <v>834</v>
-      </c>
-      <c r="E205" t="n">
-        <v>833</v>
-      </c>
-      <c r="F205" t="n">
-        <v>63.022</v>
-      </c>
-      <c r="G205" t="n">
-        <v>12027.63092325581</v>
-      </c>
-      <c r="H205" t="n">
-        <v>2</v>
-      </c>
-      <c r="I205" t="n">
-        <v>834</v>
-      </c>
-      <c r="J205" t="n">
-        <v>841</v>
-      </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L205" t="n">
         <v>1</v>
       </c>
@@ -7323,13 +7203,13 @@
         <v>12049.34172325581</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>833</v>
       </c>
       <c r="J206" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K206" t="inlineStr">
         <is>
@@ -7364,13 +7244,13 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>836</v>
       </c>
       <c r="J207" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K207" t="inlineStr">
         <is>
@@ -7405,13 +7285,13 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>838</v>
       </c>
       <c r="J208" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K208" t="inlineStr">
         <is>
@@ -7446,13 +7326,13 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>838</v>
       </c>
       <c r="J209" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K209" t="inlineStr">
         <is>
@@ -7487,11 +7367,13 @@
         <v>12102.05372325581</v>
       </c>
       <c r="H210" t="n">
-        <v>0</v>
-      </c>
-      <c r="I210" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I210" t="n">
+        <v>838</v>
+      </c>
       <c r="J210" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K210" t="inlineStr">
         <is>
@@ -7526,11 +7408,13 @@
         <v>12105.18942325581</v>
       </c>
       <c r="H211" t="n">
-        <v>0</v>
-      </c>
-      <c r="I211" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I211" t="n">
+        <v>838</v>
+      </c>
       <c r="J211" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K211" t="inlineStr">
         <is>
@@ -7565,11 +7449,13 @@
         <v>12105.18942325581</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
-      </c>
-      <c r="I212" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I212" t="n">
+        <v>839</v>
+      </c>
       <c r="J212" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K212" t="inlineStr">
         <is>
@@ -7604,11 +7490,13 @@
         <v>12453.73882325581</v>
       </c>
       <c r="H213" t="n">
-        <v>0</v>
-      </c>
-      <c r="I213" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I213" t="n">
+        <v>839</v>
+      </c>
       <c r="J213" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K213" t="inlineStr">
         <is>
@@ -7643,11 +7531,13 @@
         <v>12473.73882325581</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
-      </c>
-      <c r="I214" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I214" t="n">
+        <v>841</v>
+      </c>
       <c r="J214" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K214" t="inlineStr">
         <is>
@@ -7682,11 +7572,13 @@
         <v>12373.55552325581</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
-      </c>
-      <c r="I215" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I215" t="n">
+        <v>844</v>
+      </c>
       <c r="J215" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K215" t="inlineStr">
         <is>
@@ -7721,11 +7613,13 @@
         <v>14109.91252325581</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
-      </c>
-      <c r="I216" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I216" t="n">
+        <v>843</v>
+      </c>
       <c r="J216" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K216" t="inlineStr">
         <is>
@@ -7760,11 +7654,13 @@
         <v>14118.84522325581</v>
       </c>
       <c r="H217" t="n">
-        <v>0</v>
-      </c>
-      <c r="I217" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I217" t="n">
+        <v>844</v>
+      </c>
       <c r="J217" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K217" t="inlineStr">
         <is>
@@ -7803,7 +7699,7 @@
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K218" t="inlineStr">
         <is>
@@ -7842,7 +7738,7 @@
       </c>
       <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K219" t="inlineStr">
         <is>
@@ -7881,7 +7777,7 @@
       </c>
       <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K220" t="inlineStr">
         <is>
@@ -7920,7 +7816,7 @@
       </c>
       <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K221" t="inlineStr">
         <is>
@@ -7959,7 +7855,7 @@
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K222" t="inlineStr">
         <is>
@@ -7998,7 +7894,7 @@
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K223" t="inlineStr">
         <is>
@@ -8037,7 +7933,7 @@
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K224" t="inlineStr">
         <is>
@@ -8076,7 +7972,7 @@
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K225" t="inlineStr">
         <is>
@@ -8115,7 +8011,7 @@
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K226" t="inlineStr">
         <is>
@@ -8154,7 +8050,7 @@
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K227" t="inlineStr">
         <is>
@@ -8193,7 +8089,7 @@
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K228" t="inlineStr">
         <is>
@@ -8232,7 +8128,7 @@
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K229" t="inlineStr">
         <is>
@@ -8267,11 +8163,13 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>848</v>
+      </c>
       <c r="J230" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K230" t="inlineStr">
         <is>
@@ -8306,13 +8204,13 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>848</v>
       </c>
       <c r="J231" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K231" t="inlineStr">
         <is>
@@ -8351,7 +8249,7 @@
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K232" t="inlineStr">
         <is>
@@ -8386,13 +8284,11 @@
         <v>13419.23924529567</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
-      </c>
-      <c r="I233" t="n">
-        <v>851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K233" t="inlineStr">
         <is>
@@ -8427,13 +8323,11 @@
         <v>14534.49434529567</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
-      </c>
-      <c r="I234" t="n">
-        <v>851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K234" t="inlineStr">
         <is>
@@ -8468,13 +8362,11 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
-      </c>
-      <c r="I235" t="n">
-        <v>852</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K235" t="inlineStr">
         <is>
@@ -8509,13 +8401,11 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
-      </c>
-      <c r="I236" t="n">
-        <v>855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K236" t="inlineStr">
         <is>
@@ -8550,13 +8440,11 @@
         <v>13842.02994529567</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
-      </c>
-      <c r="I237" t="n">
-        <v>855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K237" t="inlineStr">
         <is>
@@ -8591,13 +8479,11 @@
         <v>13943.03924529567</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>853</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K238" t="inlineStr">
         <is>
@@ -8632,13 +8518,11 @@
         <v>13746.71744529567</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K239" t="inlineStr">
         <is>
@@ -8673,13 +8557,11 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
-      </c>
-      <c r="I240" t="n">
-        <v>851</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K240" t="inlineStr">
         <is>
@@ -8714,13 +8596,11 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
-      </c>
-      <c r="I241" t="n">
-        <v>855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K241" t="inlineStr">
         <is>
@@ -8755,13 +8635,11 @@
         <v>13872.24194529567</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
-      </c>
-      <c r="I242" t="n">
-        <v>855</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K242" t="inlineStr">
         <is>
@@ -8796,13 +8674,11 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
-      </c>
-      <c r="I243" t="n">
-        <v>856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K243" t="inlineStr">
         <is>
@@ -8837,13 +8713,11 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
-      </c>
-      <c r="I244" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K244" t="inlineStr">
         <is>
@@ -8878,13 +8752,11 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
-      </c>
-      <c r="I245" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K245" t="inlineStr">
         <is>
@@ -8919,13 +8791,11 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
-      </c>
-      <c r="I246" t="n">
-        <v>857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K246" t="inlineStr">
         <is>
@@ -8960,13 +8830,11 @@
         <v>17668.35194529567</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
-      </c>
-      <c r="I247" t="n">
-        <v>857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K247" t="inlineStr">
         <is>
@@ -9001,13 +8869,11 @@
         <v>18125.10844529567</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
-      </c>
-      <c r="I248" t="n">
-        <v>854</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K248" t="inlineStr">
         <is>
@@ -9042,13 +8908,11 @@
         <v>18760.14054529567</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
-      </c>
-      <c r="I249" t="n">
-        <v>856</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K249" t="inlineStr">
         <is>
@@ -9083,13 +8947,11 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
-      </c>
-      <c r="I250" t="n">
-        <v>857</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K250" t="inlineStr">
         <is>
@@ -9124,13 +8986,11 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
-      </c>
-      <c r="I251" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K251" t="inlineStr">
         <is>
@@ -9165,13 +9025,11 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
-      </c>
-      <c r="I252" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K252" t="inlineStr">
         <is>
@@ -9206,13 +9064,11 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
-      </c>
-      <c r="I253" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K253" t="inlineStr">
         <is>
@@ -9247,13 +9103,11 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
-      </c>
-      <c r="I254" t="n">
-        <v>859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K254" t="inlineStr">
         <is>
@@ -9288,13 +9142,11 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
-      </c>
-      <c r="I255" t="n">
-        <v>859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K255" t="inlineStr">
         <is>
@@ -9329,13 +9181,11 @@
         <v>19696.33244529567</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
-      </c>
-      <c r="I256" t="n">
-        <v>859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K256" t="inlineStr">
         <is>
@@ -9374,7 +9224,7 @@
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K257" t="inlineStr">
         <is>
@@ -9409,13 +9259,11 @@
         <v>19463.35544529567</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
-      </c>
-      <c r="I258" t="n">
-        <v>860</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K258" t="inlineStr">
         <is>
@@ -9450,13 +9298,11 @@
         <v>19426.63304529567</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
-      </c>
-      <c r="I259" t="n">
-        <v>859</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K259" t="inlineStr">
         <is>
@@ -9491,13 +9337,11 @@
         <v>19473.86294529567</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
-      </c>
-      <c r="I260" t="n">
-        <v>858</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K260" t="inlineStr">
         <is>
@@ -9536,7 +9380,7 @@
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K261" t="inlineStr">
         <is>
@@ -9575,7 +9419,7 @@
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K262" t="inlineStr">
         <is>
@@ -9614,7 +9458,7 @@
       </c>
       <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K263" t="inlineStr">
         <is>
@@ -9653,7 +9497,7 @@
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K264" t="inlineStr">
         <is>
@@ -9692,7 +9536,7 @@
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K265" t="inlineStr">
         <is>
@@ -9731,7 +9575,7 @@
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K266" t="inlineStr">
         <is>
@@ -9770,7 +9614,7 @@
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K267" t="inlineStr">
         <is>
@@ -9809,7 +9653,7 @@
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K268" t="inlineStr">
         <is>
@@ -9848,7 +9692,7 @@
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K269" t="inlineStr">
         <is>
@@ -9887,7 +9731,7 @@
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K270" t="inlineStr">
         <is>
@@ -9926,7 +9770,7 @@
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K271" t="inlineStr">
         <is>
@@ -9965,7 +9809,7 @@
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K272" t="inlineStr">
         <is>
@@ -10004,7 +9848,7 @@
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K273" t="inlineStr">
         <is>
@@ -10043,7 +9887,7 @@
       </c>
       <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K274" t="inlineStr">
         <is>
@@ -10082,7 +9926,7 @@
       </c>
       <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K275" t="inlineStr">
         <is>
@@ -10121,7 +9965,7 @@
       </c>
       <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K276" t="inlineStr">
         <is>
@@ -10160,7 +10004,7 @@
       </c>
       <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K277" t="inlineStr">
         <is>
@@ -10195,287 +10039,335 @@
         <v>18008.22804529567</v>
       </c>
       <c r="H278" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
-        <v>841</v>
+        <v>835</v>
       </c>
       <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L278" t="n">
+        <v>1</v>
+      </c>
+      <c r="M278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>909</v>
+      </c>
+      <c r="C279" t="n">
+        <v>910</v>
+      </c>
+      <c r="D279" t="n">
+        <v>910</v>
+      </c>
+      <c r="E279" t="n">
+        <v>909</v>
+      </c>
+      <c r="F279" t="n">
+        <v>852.4121</v>
+      </c>
+      <c r="G279" t="n">
+        <v>18860.64014529567</v>
+      </c>
+      <c r="H279" t="n">
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>835</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L279" t="n">
+        <v>1</v>
+      </c>
+      <c r="M279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>909</v>
+      </c>
+      <c r="C280" t="n">
+        <v>911</v>
+      </c>
+      <c r="D280" t="n">
+        <v>911</v>
+      </c>
+      <c r="E280" t="n">
+        <v>909</v>
+      </c>
+      <c r="F280" t="n">
+        <v>215.6743</v>
+      </c>
+      <c r="G280" t="n">
+        <v>19076.31444529567</v>
+      </c>
+      <c r="H280" t="n">
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>835</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L280" t="n">
+        <v>1</v>
+      </c>
+      <c r="M280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>910</v>
+      </c>
+      <c r="C281" t="n">
+        <v>910</v>
+      </c>
+      <c r="D281" t="n">
+        <v>912</v>
+      </c>
+      <c r="E281" t="n">
+        <v>910</v>
+      </c>
+      <c r="F281" t="n">
+        <v>1356.7933</v>
+      </c>
+      <c r="G281" t="n">
+        <v>17719.52114529567</v>
+      </c>
+      <c r="H281" t="n">
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>835</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L281" t="n">
+        <v>1</v>
+      </c>
+      <c r="M281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>910</v>
+      </c>
+      <c r="C282" t="n">
+        <v>915</v>
+      </c>
+      <c r="D282" t="n">
+        <v>915</v>
+      </c>
+      <c r="E282" t="n">
+        <v>910</v>
+      </c>
+      <c r="F282" t="n">
+        <v>38.433</v>
+      </c>
+      <c r="G282" t="n">
+        <v>17757.95414529567</v>
+      </c>
+      <c r="H282" t="n">
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>835</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L282" t="n">
+        <v>1</v>
+      </c>
+      <c r="M282" t="inlineStr"/>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>916</v>
+      </c>
+      <c r="C283" t="n">
+        <v>917</v>
+      </c>
+      <c r="D283" t="n">
+        <v>917</v>
+      </c>
+      <c r="E283" t="n">
+        <v>916</v>
+      </c>
+      <c r="F283" t="n">
+        <v>1608.4435</v>
+      </c>
+      <c r="G283" t="n">
+        <v>19366.39764529567</v>
+      </c>
+      <c r="H283" t="n">
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>835</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L283" t="n">
+        <v>1</v>
+      </c>
+      <c r="M283" t="inlineStr"/>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>918</v>
+      </c>
+      <c r="C284" t="n">
+        <v>918</v>
+      </c>
+      <c r="D284" t="n">
+        <v>918</v>
+      </c>
+      <c r="E284" t="n">
+        <v>918</v>
+      </c>
+      <c r="F284" t="n">
+        <v>4336.2177</v>
+      </c>
+      <c r="G284" t="n">
+        <v>23702.61534529568</v>
+      </c>
+      <c r="H284" t="n">
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>835</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L284" t="n">
+        <v>1</v>
+      </c>
+      <c r="M284" t="inlineStr"/>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>922</v>
+      </c>
+      <c r="C285" t="n">
+        <v>918</v>
+      </c>
+      <c r="D285" t="n">
+        <v>922</v>
+      </c>
+      <c r="E285" t="n">
+        <v>918</v>
+      </c>
+      <c r="F285" t="n">
+        <v>1297.65</v>
+      </c>
+      <c r="G285" t="n">
+        <v>23702.61534529568</v>
+      </c>
+      <c r="H285" t="n">
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>835</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L285" t="n">
+        <v>1</v>
+      </c>
+      <c r="M285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>918</v>
+      </c>
+      <c r="C286" t="n">
+        <v>914</v>
+      </c>
+      <c r="D286" t="n">
+        <v>918</v>
+      </c>
+      <c r="E286" t="n">
+        <v>914</v>
+      </c>
+      <c r="F286" t="n">
+        <v>1514.0809</v>
+      </c>
+      <c r="G286" t="n">
+        <v>22188.53444529567</v>
+      </c>
+      <c r="H286" t="n">
+        <v>2</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>835</v>
+      </c>
+      <c r="K286" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L278" t="n">
-        <v>1.065154577883472</v>
-      </c>
-      <c r="M278" t="n">
-        <v>1.030915576694411</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
-        <v>277</v>
-      </c>
-      <c r="B279" t="n">
-        <v>909</v>
-      </c>
-      <c r="C279" t="n">
-        <v>910</v>
-      </c>
-      <c r="D279" t="n">
-        <v>910</v>
-      </c>
-      <c r="E279" t="n">
-        <v>909</v>
-      </c>
-      <c r="F279" t="n">
-        <v>852.4121</v>
-      </c>
-      <c r="G279" t="n">
-        <v>18860.64014529567</v>
-      </c>
-      <c r="H279" t="n">
-        <v>0</v>
-      </c>
-      <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
-      <c r="L279" t="n">
-        <v>1</v>
-      </c>
-      <c r="M279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
-        <v>278</v>
-      </c>
-      <c r="B280" t="n">
-        <v>909</v>
-      </c>
-      <c r="C280" t="n">
-        <v>911</v>
-      </c>
-      <c r="D280" t="n">
-        <v>911</v>
-      </c>
-      <c r="E280" t="n">
-        <v>909</v>
-      </c>
-      <c r="F280" t="n">
-        <v>215.6743</v>
-      </c>
-      <c r="G280" t="n">
-        <v>19076.31444529567</v>
-      </c>
-      <c r="H280" t="n">
-        <v>3</v>
-      </c>
-      <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
-      <c r="L280" t="n">
-        <v>1</v>
-      </c>
-      <c r="M280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
-        <v>279</v>
-      </c>
-      <c r="B281" t="n">
-        <v>910</v>
-      </c>
-      <c r="C281" t="n">
-        <v>910</v>
-      </c>
-      <c r="D281" t="n">
-        <v>912</v>
-      </c>
-      <c r="E281" t="n">
-        <v>910</v>
-      </c>
-      <c r="F281" t="n">
-        <v>1356.7933</v>
-      </c>
-      <c r="G281" t="n">
-        <v>17719.52114529567</v>
-      </c>
-      <c r="H281" t="n">
-        <v>0</v>
-      </c>
-      <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
-      <c r="L281" t="n">
-        <v>1</v>
-      </c>
-      <c r="M281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
-        <v>280</v>
-      </c>
-      <c r="B282" t="n">
-        <v>910</v>
-      </c>
-      <c r="C282" t="n">
-        <v>915</v>
-      </c>
-      <c r="D282" t="n">
-        <v>915</v>
-      </c>
-      <c r="E282" t="n">
-        <v>910</v>
-      </c>
-      <c r="F282" t="n">
-        <v>38.433</v>
-      </c>
-      <c r="G282" t="n">
-        <v>17757.95414529567</v>
-      </c>
-      <c r="H282" t="n">
-        <v>0</v>
-      </c>
-      <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
-      <c r="L282" t="n">
-        <v>1</v>
-      </c>
-      <c r="M282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
-        <v>281</v>
-      </c>
-      <c r="B283" t="n">
-        <v>916</v>
-      </c>
-      <c r="C283" t="n">
-        <v>917</v>
-      </c>
-      <c r="D283" t="n">
-        <v>917</v>
-      </c>
-      <c r="E283" t="n">
-        <v>916</v>
-      </c>
-      <c r="F283" t="n">
-        <v>1608.4435</v>
-      </c>
-      <c r="G283" t="n">
-        <v>19366.39764529567</v>
-      </c>
-      <c r="H283" t="n">
-        <v>0</v>
-      </c>
-      <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
-      <c r="L283" t="n">
-        <v>1</v>
-      </c>
-      <c r="M283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
-        <v>282</v>
-      </c>
-      <c r="B284" t="n">
-        <v>918</v>
-      </c>
-      <c r="C284" t="n">
-        <v>918</v>
-      </c>
-      <c r="D284" t="n">
-        <v>918</v>
-      </c>
-      <c r="E284" t="n">
-        <v>918</v>
-      </c>
-      <c r="F284" t="n">
-        <v>4336.2177</v>
-      </c>
-      <c r="G284" t="n">
-        <v>23702.61534529568</v>
-      </c>
-      <c r="H284" t="n">
-        <v>3</v>
-      </c>
-      <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
-      <c r="L284" t="n">
-        <v>1</v>
-      </c>
-      <c r="M284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
-        <v>283</v>
-      </c>
-      <c r="B285" t="n">
-        <v>922</v>
-      </c>
-      <c r="C285" t="n">
-        <v>918</v>
-      </c>
-      <c r="D285" t="n">
-        <v>922</v>
-      </c>
-      <c r="E285" t="n">
-        <v>918</v>
-      </c>
-      <c r="F285" t="n">
-        <v>1297.65</v>
-      </c>
-      <c r="G285" t="n">
-        <v>23702.61534529568</v>
-      </c>
-      <c r="H285" t="n">
-        <v>3</v>
-      </c>
-      <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
-      <c r="L285" t="n">
-        <v>1</v>
-      </c>
-      <c r="M285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
-        <v>284</v>
-      </c>
-      <c r="B286" t="n">
-        <v>918</v>
-      </c>
-      <c r="C286" t="n">
-        <v>914</v>
-      </c>
-      <c r="D286" t="n">
-        <v>918</v>
-      </c>
-      <c r="E286" t="n">
-        <v>914</v>
-      </c>
-      <c r="F286" t="n">
-        <v>1514.0809</v>
-      </c>
-      <c r="G286" t="n">
-        <v>22188.53444529567</v>
-      </c>
-      <c r="H286" t="n">
-        <v>3</v>
-      </c>
-      <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
-        <v>1</v>
-      </c>
-      <c r="M286" t="inlineStr"/>
+        <v>1.089610778443114</v>
+      </c>
+      <c r="M286" t="n">
+        <v>1.040816326530612</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10500,7 +10392,7 @@
         <v>22185.97674529567</v>
       </c>
       <c r="H287" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10533,7 +10425,7 @@
         <v>22185.97674529567</v>
       </c>
       <c r="H288" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10566,7 +10458,7 @@
         <v>22310.51934529567</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10599,7 +10491,7 @@
         <v>23310.51934529567</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10632,7 +10524,7 @@
         <v>23287.53914529567</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10665,7 +10557,7 @@
         <v>23038.50194529567</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10698,7 +10590,7 @@
         <v>23568.32804529567</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10731,7 +10623,7 @@
         <v>23598.32804529567</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10764,7 +10656,7 @@
         <v>23818.32804529567</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10797,7 +10689,7 @@
         <v>24462.27674529567</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11193,7 +11085,7 @@
         <v>17678.18344529567</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -11226,7 +11118,7 @@
         <v>23845.38014529567</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11259,7 +11151,7 @@
         <v>23727.38014529567</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
       <c r="J310" t="inlineStr"/>
@@ -11325,7 +11217,7 @@
         <v>24149.88014529567</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
       <c r="J312" t="inlineStr"/>
@@ -11358,7 +11250,7 @@
         <v>25121.56944529567</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
       <c r="J313" t="inlineStr"/>
@@ -11490,7 +11382,7 @@
         <v>24416.49844529567</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -11556,7 +11448,7 @@
         <v>24483.85064529566</v>
       </c>
       <c r="H319" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11622,7 +11514,7 @@
         <v>24657.81974529566</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11732,6 +11624,6 @@
       <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -6853,11 +6853,17 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
-      </c>
-      <c r="I196" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I196" t="n">
+        <v>837</v>
+      </c>
       <c r="J196" t="inlineStr"/>
-      <c r="K196" t="inlineStr"/>
+      <c r="K196" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L196" t="n">
         <v>1</v>
       </c>
@@ -6886,11 +6892,17 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
-      </c>
-      <c r="I197" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I197" t="n">
+        <v>833</v>
+      </c>
       <c r="J197" t="inlineStr"/>
-      <c r="K197" t="inlineStr"/>
+      <c r="K197" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L197" t="n">
         <v>1</v>
       </c>
@@ -6919,11 +6931,17 @@
         <v>12648.09112325581</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
-      </c>
-      <c r="I198" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I198" t="n">
+        <v>833</v>
+      </c>
       <c r="J198" t="inlineStr"/>
-      <c r="K198" t="inlineStr"/>
+      <c r="K198" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L198" t="n">
         <v>1</v>
       </c>
@@ -6952,11 +6970,17 @@
         <v>12585.08852325581</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
-      </c>
-      <c r="I199" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I199" t="n">
+        <v>836</v>
+      </c>
       <c r="J199" t="inlineStr"/>
-      <c r="K199" t="inlineStr"/>
+      <c r="K199" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L199" t="n">
         <v>1</v>
       </c>
@@ -6985,11 +7009,17 @@
         <v>12686.12852325581</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
-      </c>
-      <c r="I200" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I200" t="n">
+        <v>834</v>
+      </c>
       <c r="J200" t="inlineStr"/>
-      <c r="K200" t="inlineStr"/>
+      <c r="K200" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L200" t="n">
         <v>1</v>
       </c>
@@ -7018,11 +7048,17 @@
         <v>12086.12852325581</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
-      </c>
-      <c r="I201" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I201" t="n">
+        <v>835</v>
+      </c>
       <c r="J201" t="inlineStr"/>
-      <c r="K201" t="inlineStr"/>
+      <c r="K201" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L201" t="n">
         <v>1</v>
       </c>
@@ -7051,11 +7087,17 @@
         <v>12092.48972325581</v>
       </c>
       <c r="H202" t="n">
-        <v>0</v>
-      </c>
-      <c r="I202" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I202" t="n">
+        <v>833</v>
+      </c>
       <c r="J202" t="inlineStr"/>
-      <c r="K202" t="inlineStr"/>
+      <c r="K202" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L202" t="n">
         <v>1</v>
       </c>
@@ -7089,10 +7131,12 @@
       <c r="I203" t="n">
         <v>835</v>
       </c>
-      <c r="J203" t="n">
-        <v>835</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L203" t="n">
         <v>1</v>
       </c>
@@ -7126,12 +7170,10 @@
       <c r="I204" t="n">
         <v>834</v>
       </c>
-      <c r="J204" t="n">
-        <v>835</v>
-      </c>
+      <c r="J204" t="inlineStr"/>
       <c r="K204" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L204" t="n">
@@ -7167,12 +7209,10 @@
       <c r="I205" t="n">
         <v>834</v>
       </c>
-      <c r="J205" t="n">
-        <v>835</v>
-      </c>
+      <c r="J205" t="inlineStr"/>
       <c r="K205" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L205" t="n">
@@ -7208,9 +7248,7 @@
       <c r="I206" t="n">
         <v>833</v>
       </c>
-      <c r="J206" t="n">
-        <v>835</v>
-      </c>
+      <c r="J206" t="inlineStr"/>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7249,9 +7287,7 @@
       <c r="I207" t="n">
         <v>836</v>
       </c>
-      <c r="J207" t="n">
-        <v>835</v>
-      </c>
+      <c r="J207" t="inlineStr"/>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7290,9 +7326,7 @@
       <c r="I208" t="n">
         <v>838</v>
       </c>
-      <c r="J208" t="n">
-        <v>835</v>
-      </c>
+      <c r="J208" t="inlineStr"/>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7331,9 +7365,7 @@
       <c r="I209" t="n">
         <v>838</v>
       </c>
-      <c r="J209" t="n">
-        <v>835</v>
-      </c>
+      <c r="J209" t="inlineStr"/>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7372,9 +7404,7 @@
       <c r="I210" t="n">
         <v>838</v>
       </c>
-      <c r="J210" t="n">
-        <v>835</v>
-      </c>
+      <c r="J210" t="inlineStr"/>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7413,9 +7443,7 @@
       <c r="I211" t="n">
         <v>838</v>
       </c>
-      <c r="J211" t="n">
-        <v>835</v>
-      </c>
+      <c r="J211" t="inlineStr"/>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7454,9 +7482,7 @@
       <c r="I212" t="n">
         <v>839</v>
       </c>
-      <c r="J212" t="n">
-        <v>835</v>
-      </c>
+      <c r="J212" t="inlineStr"/>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7495,9 +7521,7 @@
       <c r="I213" t="n">
         <v>839</v>
       </c>
-      <c r="J213" t="n">
-        <v>835</v>
-      </c>
+      <c r="J213" t="inlineStr"/>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7536,9 +7560,7 @@
       <c r="I214" t="n">
         <v>841</v>
       </c>
-      <c r="J214" t="n">
-        <v>835</v>
-      </c>
+      <c r="J214" t="inlineStr"/>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7577,9 +7599,7 @@
       <c r="I215" t="n">
         <v>844</v>
       </c>
-      <c r="J215" t="n">
-        <v>835</v>
-      </c>
+      <c r="J215" t="inlineStr"/>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7618,9 +7638,7 @@
       <c r="I216" t="n">
         <v>843</v>
       </c>
-      <c r="J216" t="n">
-        <v>835</v>
-      </c>
+      <c r="J216" t="inlineStr"/>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7659,9 +7677,7 @@
       <c r="I217" t="n">
         <v>844</v>
       </c>
-      <c r="J217" t="n">
-        <v>835</v>
-      </c>
+      <c r="J217" t="inlineStr"/>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7695,12 +7711,12 @@
         <v>14118.84522325581</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
-      </c>
-      <c r="I218" t="inlineStr"/>
-      <c r="J218" t="n">
-        <v>835</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I218" t="n">
+        <v>848</v>
+      </c>
+      <c r="J218" t="inlineStr"/>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7737,9 +7753,7 @@
         <v>0</v>
       </c>
       <c r="I219" t="inlineStr"/>
-      <c r="J219" t="n">
-        <v>835</v>
-      </c>
+      <c r="J219" t="inlineStr"/>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7776,9 +7790,7 @@
         <v>0</v>
       </c>
       <c r="I220" t="inlineStr"/>
-      <c r="J220" t="n">
-        <v>835</v>
-      </c>
+      <c r="J220" t="inlineStr"/>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7815,9 +7827,7 @@
         <v>0</v>
       </c>
       <c r="I221" t="inlineStr"/>
-      <c r="J221" t="n">
-        <v>835</v>
-      </c>
+      <c r="J221" t="inlineStr"/>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7854,9 +7864,7 @@
         <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
-      <c r="J222" t="n">
-        <v>835</v>
-      </c>
+      <c r="J222" t="inlineStr"/>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7893,9 +7901,7 @@
         <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
-      <c r="J223" t="n">
-        <v>835</v>
-      </c>
+      <c r="J223" t="inlineStr"/>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7932,9 +7938,7 @@
         <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
-      <c r="J224" t="n">
-        <v>835</v>
-      </c>
+      <c r="J224" t="inlineStr"/>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7971,9 +7975,7 @@
         <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
-      <c r="J225" t="n">
-        <v>835</v>
-      </c>
+      <c r="J225" t="inlineStr"/>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8010,9 +8012,7 @@
         <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
-      <c r="J226" t="n">
-        <v>835</v>
-      </c>
+      <c r="J226" t="inlineStr"/>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8049,9 +8049,7 @@
         <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
-      <c r="J227" t="n">
-        <v>835</v>
-      </c>
+      <c r="J227" t="inlineStr"/>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8088,9 +8086,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
-      <c r="J228" t="n">
-        <v>835</v>
-      </c>
+      <c r="J228" t="inlineStr"/>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8127,9 +8123,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
-      <c r="J229" t="n">
-        <v>835</v>
-      </c>
+      <c r="J229" t="inlineStr"/>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8163,14 +8157,10 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>848</v>
-      </c>
-      <c r="J230" t="n">
-        <v>835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8204,14 +8194,10 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>848</v>
-      </c>
-      <c r="J231" t="n">
-        <v>835</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8248,9 +8234,7 @@
         <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
-      <c r="J232" t="n">
-        <v>835</v>
-      </c>
+      <c r="J232" t="inlineStr"/>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8287,9 +8271,7 @@
         <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
-      <c r="J233" t="n">
-        <v>835</v>
-      </c>
+      <c r="J233" t="inlineStr"/>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8326,9 +8308,7 @@
         <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
-      <c r="J234" t="n">
-        <v>835</v>
-      </c>
+      <c r="J234" t="inlineStr"/>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8365,9 +8345,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
-      <c r="J235" t="n">
-        <v>835</v>
-      </c>
+      <c r="J235" t="inlineStr"/>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8404,9 +8382,7 @@
         <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
-      <c r="J236" t="n">
-        <v>835</v>
-      </c>
+      <c r="J236" t="inlineStr"/>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8443,9 +8419,7 @@
         <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
-      <c r="J237" t="n">
-        <v>835</v>
-      </c>
+      <c r="J237" t="inlineStr"/>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8482,9 +8456,7 @@
         <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
-      <c r="J238" t="n">
-        <v>835</v>
-      </c>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8521,9 +8493,7 @@
         <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
-      <c r="J239" t="n">
-        <v>835</v>
-      </c>
+      <c r="J239" t="inlineStr"/>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8560,9 +8530,7 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>835</v>
-      </c>
+      <c r="J240" t="inlineStr"/>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8599,9 +8567,7 @@
         <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
-      <c r="J241" t="n">
-        <v>835</v>
-      </c>
+      <c r="J241" t="inlineStr"/>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,9 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
-      <c r="J242" t="n">
-        <v>835</v>
-      </c>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8677,9 +8641,7 @@
         <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
-      <c r="J243" t="n">
-        <v>835</v>
-      </c>
+      <c r="J243" t="inlineStr"/>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8716,9 +8678,7 @@
         <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
-      <c r="J244" t="n">
-        <v>835</v>
-      </c>
+      <c r="J244" t="inlineStr"/>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8755,9 +8715,7 @@
         <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
-      <c r="J245" t="n">
-        <v>835</v>
-      </c>
+      <c r="J245" t="inlineStr"/>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8794,9 +8752,7 @@
         <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
-      <c r="J246" t="n">
-        <v>835</v>
-      </c>
+      <c r="J246" t="inlineStr"/>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8833,9 +8789,7 @@
         <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
-      <c r="J247" t="n">
-        <v>835</v>
-      </c>
+      <c r="J247" t="inlineStr"/>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8872,9 +8826,7 @@
         <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
-      <c r="J248" t="n">
-        <v>835</v>
-      </c>
+      <c r="J248" t="inlineStr"/>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8911,9 +8863,7 @@
         <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
-      <c r="J249" t="n">
-        <v>835</v>
-      </c>
+      <c r="J249" t="inlineStr"/>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8950,9 +8900,7 @@
         <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
-      <c r="J250" t="n">
-        <v>835</v>
-      </c>
+      <c r="J250" t="inlineStr"/>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8989,9 +8937,7 @@
         <v>0</v>
       </c>
       <c r="I251" t="inlineStr"/>
-      <c r="J251" t="n">
-        <v>835</v>
-      </c>
+      <c r="J251" t="inlineStr"/>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9028,9 +8974,7 @@
         <v>0</v>
       </c>
       <c r="I252" t="inlineStr"/>
-      <c r="J252" t="n">
-        <v>835</v>
-      </c>
+      <c r="J252" t="inlineStr"/>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9067,9 +9011,7 @@
         <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
-      <c r="J253" t="n">
-        <v>835</v>
-      </c>
+      <c r="J253" t="inlineStr"/>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9106,9 +9048,7 @@
         <v>0</v>
       </c>
       <c r="I254" t="inlineStr"/>
-      <c r="J254" t="n">
-        <v>835</v>
-      </c>
+      <c r="J254" t="inlineStr"/>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9145,9 +9085,7 @@
         <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
-      <c r="J255" t="n">
-        <v>835</v>
-      </c>
+      <c r="J255" t="inlineStr"/>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9184,9 +9122,7 @@
         <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
-      <c r="J256" t="n">
-        <v>835</v>
-      </c>
+      <c r="J256" t="inlineStr"/>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9223,9 +9159,7 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="n">
-        <v>835</v>
-      </c>
+      <c r="J257" t="inlineStr"/>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9262,9 +9196,7 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="n">
-        <v>835</v>
-      </c>
+      <c r="J258" t="inlineStr"/>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9301,9 +9233,7 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="n">
-        <v>835</v>
-      </c>
+      <c r="J259" t="inlineStr"/>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9340,9 +9270,7 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="n">
-        <v>835</v>
-      </c>
+      <c r="J260" t="inlineStr"/>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9379,9 +9307,7 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="n">
-        <v>835</v>
-      </c>
+      <c r="J261" t="inlineStr"/>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,9 +9344,7 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="n">
-        <v>835</v>
-      </c>
+      <c r="J262" t="inlineStr"/>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9457,9 +9381,7 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="n">
-        <v>835</v>
-      </c>
+      <c r="J263" t="inlineStr"/>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9496,9 +9418,7 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="n">
-        <v>835</v>
-      </c>
+      <c r="J264" t="inlineStr"/>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9535,9 +9455,7 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="n">
-        <v>835</v>
-      </c>
+      <c r="J265" t="inlineStr"/>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9574,9 +9492,7 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="n">
-        <v>835</v>
-      </c>
+      <c r="J266" t="inlineStr"/>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9613,9 +9529,7 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="n">
-        <v>835</v>
-      </c>
+      <c r="J267" t="inlineStr"/>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9649,20 +9563,16 @@
         <v>27145.29824529567</v>
       </c>
       <c r="H268" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="n">
-        <v>835</v>
-      </c>
+      <c r="J268" t="inlineStr"/>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L268" t="n">
-        <v>1</v>
-      </c>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -9688,17 +9598,11 @@
         <v>21308.27934529567</v>
       </c>
       <c r="H269" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="n">
-        <v>835</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9727,17 +9631,11 @@
         <v>20774.22864529567</v>
       </c>
       <c r="H270" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="n">
-        <v>835</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9766,17 +9664,11 @@
         <v>20670.22224529567</v>
       </c>
       <c r="H271" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="n">
-        <v>835</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9805,17 +9697,11 @@
         <v>21001.82524529567</v>
       </c>
       <c r="H272" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="n">
-        <v>835</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9844,17 +9730,11 @@
         <v>21431.32874529567</v>
       </c>
       <c r="H273" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="n">
-        <v>835</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9883,17 +9763,11 @@
         <v>20373.10584529567</v>
       </c>
       <c r="H274" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="n">
-        <v>835</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9922,17 +9796,11 @@
         <v>19863.10604529567</v>
       </c>
       <c r="H275" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="n">
-        <v>835</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9961,17 +9829,11 @@
         <v>20376.08324529567</v>
       </c>
       <c r="H276" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="n">
-        <v>835</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -10000,17 +9862,11 @@
         <v>20111.58334529567</v>
       </c>
       <c r="H277" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="n">
-        <v>835</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -10039,17 +9895,11 @@
         <v>18008.22804529567</v>
       </c>
       <c r="H278" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="n">
-        <v>835</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -10078,17 +9928,11 @@
         <v>18860.64014529567</v>
       </c>
       <c r="H279" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="n">
-        <v>835</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -10117,17 +9961,11 @@
         <v>19076.31444529567</v>
       </c>
       <c r="H280" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>835</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -10159,14 +9997,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>835</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10198,14 +10030,8 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="n">
-        <v>835</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10237,14 +10063,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>835</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10276,14 +10096,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>835</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10315,14 +10129,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>835</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10351,23 +10159,15 @@
         <v>22188.53444529567</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>835</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
-        <v>1.089610778443114</v>
-      </c>
-      <c r="M286" t="n">
-        <v>1.040816326530612</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M286" t="inlineStr"/>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
@@ -10392,7 +10192,7 @@
         <v>22185.97674529567</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -10425,7 +10225,7 @@
         <v>22185.97674529567</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -10458,7 +10258,7 @@
         <v>22310.51934529567</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -10491,7 +10291,7 @@
         <v>23310.51934529567</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -10524,7 +10324,7 @@
         <v>23287.53914529567</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10557,7 +10357,7 @@
         <v>23038.50194529567</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10590,7 +10390,7 @@
         <v>23568.32804529567</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10623,7 +10423,7 @@
         <v>23598.32804529567</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10656,7 +10456,7 @@
         <v>23818.32804529567</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10689,7 +10489,7 @@
         <v>24462.27674529567</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -11448,7 +11248,7 @@
         <v>24483.85064529566</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
       <c r="J319" t="inlineStr"/>
@@ -11514,7 +11314,7 @@
         <v>24657.81974529566</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11624,6 +11424,6 @@
       <c r="M324" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-24 BackTest OMG.xlsx
+++ b/BackTest/2019-10-24 BackTest OMG.xlsx
@@ -1375,10 +1375,14 @@
         <v>-228906.6446</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
-      </c>
-      <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
+        <v>852</v>
+      </c>
+      <c r="J30" t="n">
+        <v>852</v>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="n">
         <v>1</v>
@@ -1411,8 +1415,14 @@
         <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
-      <c r="J31" t="inlineStr"/>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>852</v>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L31" t="n">
         <v>1</v>
       </c>
@@ -1444,8 +1454,14 @@
         <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
-      <c r="J32" t="inlineStr"/>
-      <c r="K32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>852</v>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L32" t="n">
         <v>1</v>
       </c>
@@ -1606,10 +1622,14 @@
         <v>-228906.6446</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
-      </c>
-      <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I37" t="n">
+        <v>852</v>
+      </c>
+      <c r="J37" t="n">
+        <v>852</v>
+      </c>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="n">
         <v>1</v>
@@ -1639,11 +1659,19 @@
         <v>-228906.6446</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
-      <c r="K38" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
+        <v>852</v>
+      </c>
+      <c r="J38" t="n">
+        <v>852</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L38" t="n">
         <v>1</v>
       </c>
@@ -1675,8 +1703,14 @@
         <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
-      <c r="J39" t="inlineStr"/>
-      <c r="K39" t="inlineStr"/>
+      <c r="J39" t="n">
+        <v>852</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L39" t="n">
         <v>1</v>
       </c>
@@ -1708,8 +1742,14 @@
         <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="J40" t="inlineStr"/>
-      <c r="K40" t="inlineStr"/>
+      <c r="J40" t="n">
+        <v>852</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L40" t="n">
         <v>1</v>
       </c>
@@ -1741,8 +1781,14 @@
         <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="n">
+        <v>852</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L41" t="n">
         <v>1</v>
       </c>
@@ -1774,8 +1820,14 @@
         <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
-      <c r="J42" t="inlineStr"/>
-      <c r="K42" t="inlineStr"/>
+      <c r="J42" t="n">
+        <v>852</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L42" t="n">
         <v>1</v>
       </c>
@@ -1807,8 +1859,14 @@
         <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr"/>
-      <c r="K43" t="inlineStr"/>
+      <c r="J43" t="n">
+        <v>852</v>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L43" t="n">
         <v>1</v>
       </c>
@@ -1840,8 +1898,14 @@
         <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
-      <c r="J44" t="inlineStr"/>
-      <c r="K44" t="inlineStr"/>
+      <c r="J44" t="n">
+        <v>852</v>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L44" t="n">
         <v>1</v>
       </c>
@@ -1873,8 +1937,14 @@
         <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
-      <c r="J45" t="inlineStr"/>
-      <c r="K45" t="inlineStr"/>
+      <c r="J45" t="n">
+        <v>852</v>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L45" t="n">
         <v>1</v>
       </c>
@@ -1906,8 +1976,14 @@
         <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
-      <c r="J46" t="inlineStr"/>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="n">
+        <v>852</v>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L46" t="n">
         <v>1</v>
       </c>
@@ -1939,8 +2015,14 @@
         <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
-      <c r="J47" t="inlineStr"/>
-      <c r="K47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>852</v>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L47" t="n">
         <v>1</v>
       </c>
@@ -1972,8 +2054,14 @@
         <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
-      <c r="J48" t="inlineStr"/>
-      <c r="K48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>852</v>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L48" t="n">
         <v>1</v>
       </c>
@@ -2005,8 +2093,14 @@
         <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
-      <c r="K49" t="inlineStr"/>
+      <c r="J49" t="n">
+        <v>852</v>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L49" t="n">
         <v>1</v>
       </c>
@@ -2038,8 +2132,14 @@
         <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
-      <c r="J50" t="inlineStr"/>
-      <c r="K50" t="inlineStr"/>
+      <c r="J50" t="n">
+        <v>852</v>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L50" t="n">
         <v>1</v>
       </c>
@@ -2071,8 +2171,14 @@
         <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
-      <c r="J51" t="inlineStr"/>
-      <c r="K51" t="inlineStr"/>
+      <c r="J51" t="n">
+        <v>852</v>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L51" t="n">
         <v>1</v>
       </c>
@@ -2104,8 +2210,14 @@
         <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
-      <c r="J52" t="inlineStr"/>
-      <c r="K52" t="inlineStr"/>
+      <c r="J52" t="n">
+        <v>852</v>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L52" t="n">
         <v>1</v>
       </c>
@@ -2137,8 +2249,14 @@
         <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
-      <c r="J53" t="inlineStr"/>
-      <c r="K53" t="inlineStr"/>
+      <c r="J53" t="n">
+        <v>852</v>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L53" t="n">
         <v>1</v>
       </c>
@@ -2170,8 +2288,14 @@
         <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>852</v>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L54" t="n">
         <v>1</v>
       </c>
@@ -2203,8 +2327,14 @@
         <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
-      <c r="J55" t="inlineStr"/>
-      <c r="K55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>852</v>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L55" t="n">
         <v>1</v>
       </c>
@@ -2236,8 +2366,14 @@
         <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
-      <c r="J56" t="inlineStr"/>
-      <c r="K56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>852</v>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L56" t="n">
         <v>1</v>
       </c>
@@ -2269,8 +2405,14 @@
         <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
-      <c r="J57" t="inlineStr"/>
-      <c r="K57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>852</v>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L57" t="n">
         <v>1</v>
       </c>
@@ -2302,8 +2444,14 @@
         <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
-      <c r="J58" t="inlineStr"/>
-      <c r="K58" t="inlineStr"/>
+      <c r="J58" t="n">
+        <v>852</v>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L58" t="n">
         <v>1</v>
       </c>
@@ -2335,8 +2483,14 @@
         <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
-      <c r="J59" t="inlineStr"/>
-      <c r="K59" t="inlineStr"/>
+      <c r="J59" t="n">
+        <v>852</v>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L59" t="n">
         <v>1</v>
       </c>
@@ -2368,8 +2522,14 @@
         <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
-      <c r="J60" t="inlineStr"/>
-      <c r="K60" t="inlineStr"/>
+      <c r="J60" t="n">
+        <v>852</v>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L60" t="n">
         <v>1</v>
       </c>
@@ -2401,8 +2561,14 @@
         <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
-      <c r="J61" t="inlineStr"/>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="n">
+        <v>852</v>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L61" t="n">
         <v>1</v>
       </c>
@@ -2434,8 +2600,14 @@
         <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
-      <c r="J62" t="inlineStr"/>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="n">
+        <v>852</v>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L62" t="n">
         <v>1</v>
       </c>
@@ -2467,8 +2639,14 @@
         <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
-      <c r="J63" t="inlineStr"/>
-      <c r="K63" t="inlineStr"/>
+      <c r="J63" t="n">
+        <v>852</v>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L63" t="n">
         <v>1</v>
       </c>
@@ -2500,8 +2678,14 @@
         <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
-      <c r="J64" t="inlineStr"/>
-      <c r="K64" t="inlineStr"/>
+      <c r="J64" t="n">
+        <v>852</v>
+      </c>
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L64" t="n">
         <v>1</v>
       </c>
@@ -2533,8 +2717,14 @@
         <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
-      <c r="J65" t="inlineStr"/>
-      <c r="K65" t="inlineStr"/>
+      <c r="J65" t="n">
+        <v>852</v>
+      </c>
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L65" t="n">
         <v>1</v>
       </c>
@@ -2566,8 +2756,14 @@
         <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
-      <c r="J66" t="inlineStr"/>
-      <c r="K66" t="inlineStr"/>
+      <c r="J66" t="n">
+        <v>852</v>
+      </c>
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L66" t="n">
         <v>1</v>
       </c>
@@ -2599,8 +2795,14 @@
         <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
-      <c r="J67" t="inlineStr"/>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="n">
+        <v>852</v>
+      </c>
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L67" t="n">
         <v>1</v>
       </c>
@@ -2632,8 +2834,14 @@
         <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
-      <c r="J68" t="inlineStr"/>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="n">
+        <v>852</v>
+      </c>
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L68" t="n">
         <v>1</v>
       </c>
@@ -2665,8 +2873,14 @@
         <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
-      <c r="J69" t="inlineStr"/>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="n">
+        <v>852</v>
+      </c>
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L69" t="n">
         <v>1</v>
       </c>
@@ -2698,8 +2912,14 @@
         <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
-      <c r="J70" t="inlineStr"/>
-      <c r="K70" t="inlineStr"/>
+      <c r="J70" t="n">
+        <v>852</v>
+      </c>
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L70" t="n">
         <v>1</v>
       </c>
@@ -2731,8 +2951,14 @@
         <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
+      <c r="J71" t="n">
+        <v>852</v>
+      </c>
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L71" t="n">
         <v>1</v>
       </c>
@@ -2764,8 +2990,14 @@
         <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="n">
+        <v>852</v>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L72" t="n">
         <v>1</v>
       </c>
@@ -2797,8 +3029,14 @@
         <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
+      <c r="J73" t="n">
+        <v>852</v>
+      </c>
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L73" t="n">
         <v>1</v>
       </c>
@@ -2830,8 +3068,14 @@
         <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="n">
+        <v>852</v>
+      </c>
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L74" t="n">
         <v>1</v>
       </c>
@@ -2863,8 +3107,14 @@
         <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>852</v>
+      </c>
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L75" t="n">
         <v>1</v>
       </c>
@@ -2896,8 +3146,14 @@
         <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
+      <c r="J76" t="n">
+        <v>852</v>
+      </c>
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L76" t="n">
         <v>1</v>
       </c>
@@ -2929,8 +3185,14 @@
         <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
+      <c r="J77" t="n">
+        <v>852</v>
+      </c>
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L77" t="n">
         <v>1</v>
       </c>
@@ -2962,8 +3224,14 @@
         <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
+      <c r="J78" t="n">
+        <v>852</v>
+      </c>
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L78" t="n">
         <v>1</v>
       </c>
@@ -2995,8 +3263,14 @@
         <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="n">
+        <v>852</v>
+      </c>
+      <c r="K79" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L79" t="n">
         <v>1</v>
       </c>
@@ -3028,8 +3302,14 @@
         <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
+      <c r="J80" t="n">
+        <v>852</v>
+      </c>
+      <c r="K80" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L80" t="n">
         <v>1</v>
       </c>
@@ -3061,8 +3341,14 @@
         <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
+      <c r="J81" t="n">
+        <v>852</v>
+      </c>
+      <c r="K81" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L81" t="n">
         <v>1</v>
       </c>
@@ -3094,8 +3380,14 @@
         <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
+      <c r="J82" t="n">
+        <v>852</v>
+      </c>
+      <c r="K82" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L82" t="n">
         <v>1</v>
       </c>
@@ -3127,8 +3419,14 @@
         <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="n">
+        <v>852</v>
+      </c>
+      <c r="K83" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L83" t="n">
         <v>1</v>
       </c>
@@ -3160,8 +3458,14 @@
         <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
+      <c r="J84" t="n">
+        <v>852</v>
+      </c>
+      <c r="K84" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L84" t="n">
         <v>1</v>
       </c>
@@ -3193,8 +3497,14 @@
         <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
+      <c r="J85" t="n">
+        <v>852</v>
+      </c>
+      <c r="K85" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L85" t="n">
         <v>1</v>
       </c>
@@ -3226,8 +3536,14 @@
         <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
+      <c r="J86" t="n">
+        <v>852</v>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L86" t="n">
         <v>1</v>
       </c>
@@ -3259,8 +3575,14 @@
         <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
+      <c r="J87" t="n">
+        <v>852</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L87" t="n">
         <v>1</v>
       </c>
@@ -3292,8 +3614,14 @@
         <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="n">
+        <v>852</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L88" t="n">
         <v>1</v>
       </c>
@@ -3325,8 +3653,14 @@
         <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
+      <c r="J89" t="n">
+        <v>852</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L89" t="n">
         <v>1</v>
       </c>
@@ -3358,8 +3692,14 @@
         <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
-      <c r="J90" t="inlineStr"/>
-      <c r="K90" t="inlineStr"/>
+      <c r="J90" t="n">
+        <v>852</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L90" t="n">
         <v>1</v>
       </c>
@@ -3391,8 +3731,14 @@
         <v>0</v>
       </c>
       <c r="I91" t="inlineStr"/>
-      <c r="J91" t="inlineStr"/>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="n">
+        <v>852</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L91" t="n">
         <v>1</v>
       </c>
@@ -3424,8 +3770,14 @@
         <v>0</v>
       </c>
       <c r="I92" t="inlineStr"/>
-      <c r="J92" t="inlineStr"/>
-      <c r="K92" t="inlineStr"/>
+      <c r="J92" t="n">
+        <v>852</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L92" t="n">
         <v>1</v>
       </c>
@@ -3457,8 +3809,14 @@
         <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
-      <c r="J93" t="inlineStr"/>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="n">
+        <v>852</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L93" t="n">
         <v>1</v>
       </c>
@@ -3490,8 +3848,14 @@
         <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
-      <c r="J94" t="inlineStr"/>
-      <c r="K94" t="inlineStr"/>
+      <c r="J94" t="n">
+        <v>852</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L94" t="n">
         <v>1</v>
       </c>
@@ -3523,8 +3887,14 @@
         <v>0</v>
       </c>
       <c r="I95" t="inlineStr"/>
-      <c r="J95" t="inlineStr"/>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="n">
+        <v>852</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L95" t="n">
         <v>1</v>
       </c>
@@ -3556,8 +3926,14 @@
         <v>0</v>
       </c>
       <c r="I96" t="inlineStr"/>
-      <c r="J96" t="inlineStr"/>
-      <c r="K96" t="inlineStr"/>
+      <c r="J96" t="n">
+        <v>852</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L96" t="n">
         <v>1</v>
       </c>
@@ -3589,8 +3965,14 @@
         <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
-      <c r="J97" t="inlineStr"/>
-      <c r="K97" t="inlineStr"/>
+      <c r="J97" t="n">
+        <v>852</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L97" t="n">
         <v>1</v>
       </c>
@@ -3622,8 +4004,14 @@
         <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
-      <c r="J98" t="inlineStr"/>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="n">
+        <v>852</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L98" t="n">
         <v>1</v>
       </c>
@@ -3655,8 +4043,14 @@
         <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
-      <c r="J99" t="inlineStr"/>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="n">
+        <v>852</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L99" t="n">
         <v>1</v>
       </c>
@@ -3688,8 +4082,14 @@
         <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
-      <c r="J100" t="inlineStr"/>
-      <c r="K100" t="inlineStr"/>
+      <c r="J100" t="n">
+        <v>852</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L100" t="n">
         <v>1</v>
       </c>
@@ -3721,8 +4121,14 @@
         <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
-      <c r="J101" t="inlineStr"/>
-      <c r="K101" t="inlineStr"/>
+      <c r="J101" t="n">
+        <v>852</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L101" t="n">
         <v>1</v>
       </c>
@@ -3754,8 +4160,14 @@
         <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
-      <c r="J102" t="inlineStr"/>
-      <c r="K102" t="inlineStr"/>
+      <c r="J102" t="n">
+        <v>852</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L102" t="n">
         <v>1</v>
       </c>
@@ -3787,8 +4199,14 @@
         <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
-      <c r="J103" t="inlineStr"/>
-      <c r="K103" t="inlineStr"/>
+      <c r="J103" t="n">
+        <v>852</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L103" t="n">
         <v>1</v>
       </c>
@@ -3820,8 +4238,14 @@
         <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
-      <c r="J104" t="inlineStr"/>
-      <c r="K104" t="inlineStr"/>
+      <c r="J104" t="n">
+        <v>852</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L104" t="n">
         <v>1</v>
       </c>
@@ -3853,8 +4277,14 @@
         <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
+      <c r="J105" t="n">
+        <v>852</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L105" t="n">
         <v>1</v>
       </c>
@@ -3886,8 +4316,14 @@
         <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="n">
+        <v>852</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L106" t="n">
         <v>1</v>
       </c>
@@ -3919,8 +4355,14 @@
         <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
-      <c r="J107" t="inlineStr"/>
-      <c r="K107" t="inlineStr"/>
+      <c r="J107" t="n">
+        <v>852</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L107" t="n">
         <v>1</v>
       </c>
@@ -3952,8 +4394,14 @@
         <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
-      <c r="J108" t="inlineStr"/>
-      <c r="K108" t="inlineStr"/>
+      <c r="J108" t="n">
+        <v>852</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L108" t="n">
         <v>1</v>
       </c>
@@ -3985,8 +4433,14 @@
         <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
-      <c r="J109" t="inlineStr"/>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="n">
+        <v>852</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L109" t="n">
         <v>1</v>
       </c>
@@ -4018,8 +4472,14 @@
         <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
-      <c r="J110" t="inlineStr"/>
-      <c r="K110" t="inlineStr"/>
+      <c r="J110" t="n">
+        <v>852</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L110" t="n">
         <v>1</v>
       </c>
@@ -4051,8 +4511,14 @@
         <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
-      <c r="J111" t="inlineStr"/>
-      <c r="K111" t="inlineStr"/>
+      <c r="J111" t="n">
+        <v>852</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L111" t="n">
         <v>1</v>
       </c>
@@ -4084,8 +4550,14 @@
         <v>0</v>
       </c>
       <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
+      <c r="J112" t="n">
+        <v>852</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L112" t="n">
         <v>1</v>
       </c>
@@ -4117,8 +4589,14 @@
         <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
+      <c r="J113" t="n">
+        <v>852</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L113" t="n">
         <v>1</v>
       </c>
@@ -4150,8 +4628,14 @@
         <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
+      <c r="J114" t="n">
+        <v>852</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L114" t="n">
         <v>1</v>
       </c>
@@ -4183,8 +4667,14 @@
         <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
-      <c r="J115" t="inlineStr"/>
-      <c r="K115" t="inlineStr"/>
+      <c r="J115" t="n">
+        <v>852</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L115" t="n">
         <v>1</v>
       </c>
@@ -4216,8 +4706,14 @@
         <v>0</v>
       </c>
       <c r="I116" t="inlineStr"/>
-      <c r="J116" t="inlineStr"/>
-      <c r="K116" t="inlineStr"/>
+      <c r="J116" t="n">
+        <v>852</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L116" t="n">
         <v>1</v>
       </c>
@@ -4249,8 +4745,14 @@
         <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
-      <c r="J117" t="inlineStr"/>
-      <c r="K117" t="inlineStr"/>
+      <c r="J117" t="n">
+        <v>852</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L117" t="n">
         <v>1</v>
       </c>
@@ -4282,8 +4784,14 @@
         <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
-      <c r="J118" t="inlineStr"/>
-      <c r="K118" t="inlineStr"/>
+      <c r="J118" t="n">
+        <v>852</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L118" t="n">
         <v>1</v>
       </c>
@@ -4315,8 +4823,14 @@
         <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
-      <c r="J119" t="inlineStr"/>
-      <c r="K119" t="inlineStr"/>
+      <c r="J119" t="n">
+        <v>852</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L119" t="n">
         <v>1</v>
       </c>
@@ -4348,8 +4862,14 @@
         <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
-      <c r="J120" t="inlineStr"/>
-      <c r="K120" t="inlineStr"/>
+      <c r="J120" t="n">
+        <v>852</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L120" t="n">
         <v>1</v>
       </c>
@@ -4381,8 +4901,14 @@
         <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
-      <c r="J121" t="inlineStr"/>
-      <c r="K121" t="inlineStr"/>
+      <c r="J121" t="n">
+        <v>852</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L121" t="n">
         <v>1</v>
       </c>
@@ -4414,8 +4940,14 @@
         <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
-      <c r="J122" t="inlineStr"/>
-      <c r="K122" t="inlineStr"/>
+      <c r="J122" t="n">
+        <v>852</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L122" t="n">
         <v>1</v>
       </c>
@@ -4447,8 +4979,14 @@
         <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
-      <c r="J123" t="inlineStr"/>
-      <c r="K123" t="inlineStr"/>
+      <c r="J123" t="n">
+        <v>852</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L123" t="n">
         <v>1</v>
       </c>
@@ -4480,8 +5018,14 @@
         <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
-      <c r="J124" t="inlineStr"/>
-      <c r="K124" t="inlineStr"/>
+      <c r="J124" t="n">
+        <v>852</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L124" t="n">
         <v>1</v>
       </c>
@@ -4513,8 +5057,14 @@
         <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
-      <c r="J125" t="inlineStr"/>
-      <c r="K125" t="inlineStr"/>
+      <c r="J125" t="n">
+        <v>852</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L125" t="n">
         <v>1</v>
       </c>
@@ -4546,8 +5096,14 @@
         <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
-      <c r="J126" t="inlineStr"/>
-      <c r="K126" t="inlineStr"/>
+      <c r="J126" t="n">
+        <v>852</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L126" t="n">
         <v>1</v>
       </c>
@@ -4579,8 +5135,14 @@
         <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
-      <c r="J127" t="inlineStr"/>
-      <c r="K127" t="inlineStr"/>
+      <c r="J127" t="n">
+        <v>852</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L127" t="n">
         <v>1</v>
       </c>
@@ -4612,8 +5174,14 @@
         <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
-      <c r="J128" t="inlineStr"/>
-      <c r="K128" t="inlineStr"/>
+      <c r="J128" t="n">
+        <v>852</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L128" t="n">
         <v>1</v>
       </c>
@@ -4645,8 +5213,14 @@
         <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
-      <c r="J129" t="inlineStr"/>
-      <c r="K129" t="inlineStr"/>
+      <c r="J129" t="n">
+        <v>852</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L129" t="n">
         <v>1</v>
       </c>
@@ -4678,8 +5252,14 @@
         <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
-      <c r="J130" t="inlineStr"/>
-      <c r="K130" t="inlineStr"/>
+      <c r="J130" t="n">
+        <v>852</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L130" t="n">
         <v>1</v>
       </c>
@@ -4711,8 +5291,14 @@
         <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
-      <c r="J131" t="inlineStr"/>
-      <c r="K131" t="inlineStr"/>
+      <c r="J131" t="n">
+        <v>852</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L131" t="n">
         <v>1</v>
       </c>
@@ -4744,8 +5330,14 @@
         <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
-      <c r="J132" t="inlineStr"/>
-      <c r="K132" t="inlineStr"/>
+      <c r="J132" t="n">
+        <v>852</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L132" t="n">
         <v>1</v>
       </c>
@@ -4777,8 +5369,14 @@
         <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
-      <c r="J133" t="inlineStr"/>
-      <c r="K133" t="inlineStr"/>
+      <c r="J133" t="n">
+        <v>852</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L133" t="n">
         <v>1</v>
       </c>
@@ -4810,8 +5408,14 @@
         <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
-      <c r="J134" t="inlineStr"/>
-      <c r="K134" t="inlineStr"/>
+      <c r="J134" t="n">
+        <v>852</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L134" t="n">
         <v>1</v>
       </c>
@@ -4843,8 +5447,14 @@
         <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
-      <c r="J135" t="inlineStr"/>
-      <c r="K135" t="inlineStr"/>
+      <c r="J135" t="n">
+        <v>852</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L135" t="n">
         <v>1</v>
       </c>
@@ -4876,8 +5486,14 @@
         <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
-      <c r="J136" t="inlineStr"/>
-      <c r="K136" t="inlineStr"/>
+      <c r="J136" t="n">
+        <v>852</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L136" t="n">
         <v>1</v>
       </c>
@@ -4909,8 +5525,14 @@
         <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
-      <c r="J137" t="inlineStr"/>
-      <c r="K137" t="inlineStr"/>
+      <c r="J137" t="n">
+        <v>852</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L137" t="n">
         <v>1</v>
       </c>
@@ -4942,8 +5564,14 @@
         <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
-      <c r="J138" t="inlineStr"/>
-      <c r="K138" t="inlineStr"/>
+      <c r="J138" t="n">
+        <v>852</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L138" t="n">
         <v>1</v>
       </c>
@@ -4975,8 +5603,14 @@
         <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
-      <c r="J139" t="inlineStr"/>
-      <c r="K139" t="inlineStr"/>
+      <c r="J139" t="n">
+        <v>852</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L139" t="n">
         <v>1</v>
       </c>
@@ -5008,8 +5642,14 @@
         <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
-      <c r="J140" t="inlineStr"/>
-      <c r="K140" t="inlineStr"/>
+      <c r="J140" t="n">
+        <v>852</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L140" t="n">
         <v>1</v>
       </c>
@@ -5041,8 +5681,14 @@
         <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
-      <c r="J141" t="inlineStr"/>
-      <c r="K141" t="inlineStr"/>
+      <c r="J141" t="n">
+        <v>852</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L141" t="n">
         <v>1</v>
       </c>
@@ -5074,8 +5720,14 @@
         <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
-      <c r="J142" t="inlineStr"/>
-      <c r="K142" t="inlineStr"/>
+      <c r="J142" t="n">
+        <v>852</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L142" t="n">
         <v>1</v>
       </c>
@@ -5107,8 +5759,14 @@
         <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
-      <c r="J143" t="inlineStr"/>
-      <c r="K143" t="inlineStr"/>
+      <c r="J143" t="n">
+        <v>852</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L143" t="n">
         <v>1</v>
       </c>
@@ -5140,8 +5798,14 @@
         <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
-      <c r="J144" t="inlineStr"/>
-      <c r="K144" t="inlineStr"/>
+      <c r="J144" t="n">
+        <v>852</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L144" t="n">
         <v>1</v>
       </c>
@@ -5173,8 +5837,14 @@
         <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
-      <c r="J145" t="inlineStr"/>
-      <c r="K145" t="inlineStr"/>
+      <c r="J145" t="n">
+        <v>852</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L145" t="n">
         <v>1</v>
       </c>
@@ -5206,8 +5876,14 @@
         <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
+      <c r="J146" t="n">
+        <v>852</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L146" t="n">
         <v>1</v>
       </c>
@@ -5239,8 +5915,14 @@
         <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
-      <c r="J147" t="inlineStr"/>
-      <c r="K147" t="inlineStr"/>
+      <c r="J147" t="n">
+        <v>852</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L147" t="n">
         <v>1</v>
       </c>
@@ -5272,8 +5954,14 @@
         <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
-      <c r="J148" t="inlineStr"/>
-      <c r="K148" t="inlineStr"/>
+      <c r="J148" t="n">
+        <v>852</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L148" t="n">
         <v>1</v>
       </c>
@@ -5305,8 +5993,14 @@
         <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
-      <c r="J149" t="inlineStr"/>
-      <c r="K149" t="inlineStr"/>
+      <c r="J149" t="n">
+        <v>852</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L149" t="n">
         <v>1</v>
       </c>
@@ -5338,8 +6032,14 @@
         <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
-      <c r="J150" t="inlineStr"/>
-      <c r="K150" t="inlineStr"/>
+      <c r="J150" t="n">
+        <v>852</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L150" t="n">
         <v>1</v>
       </c>
@@ -5371,8 +6071,14 @@
         <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>852</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L151" t="n">
         <v>1</v>
       </c>
@@ -5404,8 +6110,14 @@
         <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>852</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L152" t="n">
         <v>1</v>
       </c>
@@ -5437,8 +6149,14 @@
         <v>0</v>
       </c>
       <c r="I153" t="inlineStr"/>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>852</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L153" t="n">
         <v>1</v>
       </c>
@@ -5470,8 +6188,14 @@
         <v>0</v>
       </c>
       <c r="I154" t="inlineStr"/>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>852</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L154" t="n">
         <v>1</v>
       </c>
@@ -5503,8 +6227,14 @@
         <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>852</v>
+      </c>
+      <c r="K155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L155" t="n">
         <v>1</v>
       </c>
@@ -5536,8 +6266,14 @@
         <v>0</v>
       </c>
       <c r="I156" t="inlineStr"/>
-      <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
+      <c r="J156" t="n">
+        <v>852</v>
+      </c>
+      <c r="K156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L156" t="n">
         <v>1</v>
       </c>
@@ -5569,8 +6305,14 @@
         <v>0</v>
       </c>
       <c r="I157" t="inlineStr"/>
-      <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
+      <c r="J157" t="n">
+        <v>852</v>
+      </c>
+      <c r="K157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L157" t="n">
         <v>1</v>
       </c>
@@ -5602,8 +6344,14 @@
         <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
-      <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
+      <c r="J158" t="n">
+        <v>852</v>
+      </c>
+      <c r="K158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L158" t="n">
         <v>1</v>
       </c>
@@ -5635,8 +6383,14 @@
         <v>0</v>
       </c>
       <c r="I159" t="inlineStr"/>
-      <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
+      <c r="J159" t="n">
+        <v>852</v>
+      </c>
+      <c r="K159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L159" t="n">
         <v>1</v>
       </c>
@@ -5668,8 +6422,14 @@
         <v>0</v>
       </c>
       <c r="I160" t="inlineStr"/>
-      <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
+      <c r="J160" t="n">
+        <v>852</v>
+      </c>
+      <c r="K160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L160" t="n">
         <v>1</v>
       </c>
@@ -5701,8 +6461,14 @@
         <v>0</v>
       </c>
       <c r="I161" t="inlineStr"/>
-      <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
+      <c r="J161" t="n">
+        <v>852</v>
+      </c>
+      <c r="K161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L161" t="n">
         <v>1</v>
       </c>
@@ -5734,8 +6500,14 @@
         <v>0</v>
       </c>
       <c r="I162" t="inlineStr"/>
-      <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
+      <c r="J162" t="n">
+        <v>852</v>
+      </c>
+      <c r="K162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L162" t="n">
         <v>1</v>
       </c>
@@ -5767,8 +6539,14 @@
         <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
-      <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
+      <c r="J163" t="n">
+        <v>852</v>
+      </c>
+      <c r="K163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L163" t="n">
         <v>1</v>
       </c>
@@ -5800,8 +6578,14 @@
         <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
-      <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
+      <c r="J164" t="n">
+        <v>852</v>
+      </c>
+      <c r="K164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L164" t="n">
         <v>1</v>
       </c>
@@ -5833,8 +6617,14 @@
         <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
-      <c r="J165" t="inlineStr"/>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="n">
+        <v>852</v>
+      </c>
+      <c r="K165" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L165" t="n">
         <v>1</v>
       </c>
@@ -5866,8 +6656,14 @@
         <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
-      <c r="J166" t="inlineStr"/>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="n">
+        <v>852</v>
+      </c>
+      <c r="K166" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L166" t="n">
         <v>1</v>
       </c>
@@ -5899,8 +6695,14 @@
         <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
-      <c r="J167" t="inlineStr"/>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="n">
+        <v>852</v>
+      </c>
+      <c r="K167" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L167" t="n">
         <v>1</v>
       </c>
@@ -5932,8 +6734,14 @@
         <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
-      <c r="J168" t="inlineStr"/>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="n">
+        <v>852</v>
+      </c>
+      <c r="K168" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L168" t="n">
         <v>1</v>
       </c>
@@ -5965,8 +6773,14 @@
         <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
-      <c r="J169" t="inlineStr"/>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="n">
+        <v>852</v>
+      </c>
+      <c r="K169" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L169" t="n">
         <v>1</v>
       </c>
@@ -5998,8 +6812,14 @@
         <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
-      <c r="J170" t="inlineStr"/>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="n">
+        <v>852</v>
+      </c>
+      <c r="K170" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L170" t="n">
         <v>1</v>
       </c>
@@ -6031,8 +6851,14 @@
         <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
-      <c r="J171" t="inlineStr"/>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="n">
+        <v>852</v>
+      </c>
+      <c r="K171" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L171" t="n">
         <v>1</v>
       </c>
@@ -6064,8 +6890,14 @@
         <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
-      <c r="J172" t="inlineStr"/>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="n">
+        <v>852</v>
+      </c>
+      <c r="K172" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L172" t="n">
         <v>1</v>
       </c>
@@ -6097,8 +6929,14 @@
         <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
-      <c r="J173" t="inlineStr"/>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="n">
+        <v>852</v>
+      </c>
+      <c r="K173" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L173" t="n">
         <v>1</v>
       </c>
@@ -6130,8 +6968,14 @@
         <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
-      <c r="J174" t="inlineStr"/>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="n">
+        <v>852</v>
+      </c>
+      <c r="K174" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L174" t="n">
         <v>1</v>
       </c>
@@ -6163,8 +7007,14 @@
         <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
-      <c r="J175" t="inlineStr"/>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="n">
+        <v>852</v>
+      </c>
+      <c r="K175" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L175" t="n">
         <v>1</v>
       </c>
@@ -6196,8 +7046,14 @@
         <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
-      <c r="J176" t="inlineStr"/>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="n">
+        <v>852</v>
+      </c>
+      <c r="K176" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L176" t="n">
         <v>1</v>
       </c>
@@ -6229,8 +7085,14 @@
         <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
-      <c r="J177" t="inlineStr"/>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="n">
+        <v>852</v>
+      </c>
+      <c r="K177" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L177" t="n">
         <v>1</v>
       </c>
@@ -6262,8 +7124,14 @@
         <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
-      <c r="J178" t="inlineStr"/>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="n">
+        <v>852</v>
+      </c>
+      <c r="K178" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L178" t="n">
         <v>1</v>
       </c>
@@ -6295,8 +7163,14 @@
         <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
-      <c r="J179" t="inlineStr"/>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="n">
+        <v>852</v>
+      </c>
+      <c r="K179" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L179" t="n">
         <v>1</v>
       </c>
@@ -6328,8 +7202,14 @@
         <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
-      <c r="J180" t="inlineStr"/>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="n">
+        <v>852</v>
+      </c>
+      <c r="K180" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L180" t="n">
         <v>1</v>
       </c>
@@ -6361,8 +7241,14 @@
         <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
-      <c r="J181" t="inlineStr"/>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="n">
+        <v>852</v>
+      </c>
+      <c r="K181" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L181" t="n">
         <v>1</v>
       </c>
@@ -6394,8 +7280,14 @@
         <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
-      <c r="J182" t="inlineStr"/>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="n">
+        <v>852</v>
+      </c>
+      <c r="K182" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L182" t="n">
         <v>1</v>
       </c>
@@ -6427,8 +7319,14 @@
         <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
-      <c r="J183" t="inlineStr"/>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="n">
+        <v>852</v>
+      </c>
+      <c r="K183" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L183" t="n">
         <v>1</v>
       </c>
@@ -6460,8 +7358,14 @@
         <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
-      <c r="J184" t="inlineStr"/>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="n">
+        <v>852</v>
+      </c>
+      <c r="K184" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L184" t="n">
         <v>1</v>
       </c>
@@ -6493,8 +7397,14 @@
         <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
-      <c r="J185" t="inlineStr"/>
-      <c r="K185" t="inlineStr"/>
+      <c r="J185" t="n">
+        <v>852</v>
+      </c>
+      <c r="K185" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L185" t="n">
         <v>1</v>
       </c>
@@ -6526,8 +7436,14 @@
         <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
-      <c r="J186" t="inlineStr"/>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="n">
+        <v>852</v>
+      </c>
+      <c r="K186" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L186" t="n">
         <v>1</v>
       </c>
@@ -6559,8 +7475,14 @@
         <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
-      <c r="J187" t="inlineStr"/>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="n">
+        <v>852</v>
+      </c>
+      <c r="K187" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L187" t="n">
         <v>1</v>
       </c>
@@ -6592,8 +7514,14 @@
         <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
-      <c r="J188" t="inlineStr"/>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="n">
+        <v>852</v>
+      </c>
+      <c r="K188" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L188" t="n">
         <v>1</v>
       </c>
@@ -6625,8 +7553,14 @@
         <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
-      <c r="J189" t="inlineStr"/>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="n">
+        <v>852</v>
+      </c>
+      <c r="K189" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L189" t="n">
         <v>1</v>
       </c>
@@ -6658,8 +7592,14 @@
         <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
-      <c r="J190" t="inlineStr"/>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="n">
+        <v>852</v>
+      </c>
+      <c r="K190" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L190" t="n">
         <v>1</v>
       </c>
@@ -6691,8 +7631,14 @@
         <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
-      <c r="J191" t="inlineStr"/>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="n">
+        <v>852</v>
+      </c>
+      <c r="K191" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L191" t="n">
         <v>1</v>
       </c>
@@ -6724,8 +7670,14 @@
         <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
-      <c r="J192" t="inlineStr"/>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="n">
+        <v>852</v>
+      </c>
+      <c r="K192" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L192" t="n">
         <v>1</v>
       </c>
@@ -6757,8 +7709,14 @@
         <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
-      <c r="J193" t="inlineStr"/>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="n">
+        <v>852</v>
+      </c>
+      <c r="K193" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L193" t="n">
         <v>1</v>
       </c>
@@ -6790,8 +7748,14 @@
         <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
-      <c r="J194" t="inlineStr"/>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="n">
+        <v>852</v>
+      </c>
+      <c r="K194" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L194" t="n">
         <v>1</v>
       </c>
@@ -6823,8 +7787,14 @@
         <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
-      <c r="J195" t="inlineStr"/>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="n">
+        <v>852</v>
+      </c>
+      <c r="K195" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L195" t="n">
         <v>1</v>
       </c>
@@ -6853,15 +7823,15 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>837</v>
-      </c>
-      <c r="J196" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="n">
+        <v>852</v>
+      </c>
       <c r="K196" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L196" t="n">
@@ -6892,12 +7862,12 @@
         <v>12614.79112325581</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>833</v>
-      </c>
-      <c r="J197" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="n">
+        <v>852</v>
+      </c>
       <c r="K197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6931,12 +7901,12 @@
         <v>12648.09112325581</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>833</v>
-      </c>
-      <c r="J198" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="n">
+        <v>852</v>
+      </c>
       <c r="K198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6970,12 +7940,12 @@
         <v>12585.08852325581</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>836</v>
-      </c>
-      <c r="J199" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="n">
+        <v>852</v>
+      </c>
       <c r="K199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7009,12 +7979,12 @@
         <v>12686.12852325581</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>834</v>
-      </c>
-      <c r="J200" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="n">
+        <v>852</v>
+      </c>
       <c r="K200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7048,12 +8018,12 @@
         <v>12086.12852325581</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>835</v>
-      </c>
-      <c r="J201" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="n">
+        <v>852</v>
+      </c>
       <c r="K201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7092,7 +8062,9 @@
       <c r="I202" t="n">
         <v>833</v>
       </c>
-      <c r="J202" t="inlineStr"/>
+      <c r="J202" t="n">
+        <v>852</v>
+      </c>
       <c r="K202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7131,7 +8103,9 @@
       <c r="I203" t="n">
         <v>835</v>
       </c>
-      <c r="J203" t="inlineStr"/>
+      <c r="J203" t="n">
+        <v>852</v>
+      </c>
       <c r="K203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7170,7 +8144,9 @@
       <c r="I204" t="n">
         <v>834</v>
       </c>
-      <c r="J204" t="inlineStr"/>
+      <c r="J204" t="n">
+        <v>852</v>
+      </c>
       <c r="K204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7209,7 +8185,9 @@
       <c r="I205" t="n">
         <v>834</v>
       </c>
-      <c r="J205" t="inlineStr"/>
+      <c r="J205" t="n">
+        <v>852</v>
+      </c>
       <c r="K205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7248,7 +8226,9 @@
       <c r="I206" t="n">
         <v>833</v>
       </c>
-      <c r="J206" t="inlineStr"/>
+      <c r="J206" t="n">
+        <v>852</v>
+      </c>
       <c r="K206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7287,7 +8267,9 @@
       <c r="I207" t="n">
         <v>836</v>
       </c>
-      <c r="J207" t="inlineStr"/>
+      <c r="J207" t="n">
+        <v>852</v>
+      </c>
       <c r="K207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7326,7 +8308,9 @@
       <c r="I208" t="n">
         <v>838</v>
       </c>
-      <c r="J208" t="inlineStr"/>
+      <c r="J208" t="n">
+        <v>852</v>
+      </c>
       <c r="K208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7365,7 +8349,9 @@
       <c r="I209" t="n">
         <v>838</v>
       </c>
-      <c r="J209" t="inlineStr"/>
+      <c r="J209" t="n">
+        <v>852</v>
+      </c>
       <c r="K209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7404,7 +8390,9 @@
       <c r="I210" t="n">
         <v>838</v>
       </c>
-      <c r="J210" t="inlineStr"/>
+      <c r="J210" t="n">
+        <v>852</v>
+      </c>
       <c r="K210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7443,7 +8431,9 @@
       <c r="I211" t="n">
         <v>838</v>
       </c>
-      <c r="J211" t="inlineStr"/>
+      <c r="J211" t="n">
+        <v>852</v>
+      </c>
       <c r="K211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7482,7 +8472,9 @@
       <c r="I212" t="n">
         <v>839</v>
       </c>
-      <c r="J212" t="inlineStr"/>
+      <c r="J212" t="n">
+        <v>852</v>
+      </c>
       <c r="K212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7521,7 +8513,9 @@
       <c r="I213" t="n">
         <v>839</v>
       </c>
-      <c r="J213" t="inlineStr"/>
+      <c r="J213" t="n">
+        <v>852</v>
+      </c>
       <c r="K213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7560,7 +8554,9 @@
       <c r="I214" t="n">
         <v>841</v>
       </c>
-      <c r="J214" t="inlineStr"/>
+      <c r="J214" t="n">
+        <v>852</v>
+      </c>
       <c r="K214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7599,7 +8595,9 @@
       <c r="I215" t="n">
         <v>844</v>
       </c>
-      <c r="J215" t="inlineStr"/>
+      <c r="J215" t="n">
+        <v>852</v>
+      </c>
       <c r="K215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7638,7 +8636,9 @@
       <c r="I216" t="n">
         <v>843</v>
       </c>
-      <c r="J216" t="inlineStr"/>
+      <c r="J216" t="n">
+        <v>852</v>
+      </c>
       <c r="K216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7677,7 +8677,9 @@
       <c r="I217" t="n">
         <v>844</v>
       </c>
-      <c r="J217" t="inlineStr"/>
+      <c r="J217" t="n">
+        <v>852</v>
+      </c>
       <c r="K217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7716,7 +8718,9 @@
       <c r="I218" t="n">
         <v>848</v>
       </c>
-      <c r="J218" t="inlineStr"/>
+      <c r="J218" t="n">
+        <v>852</v>
+      </c>
       <c r="K218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7750,10 +8754,14 @@
         <v>14028.84262325581</v>
       </c>
       <c r="H219" t="n">
-        <v>0</v>
-      </c>
-      <c r="I219" t="inlineStr"/>
-      <c r="J219" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I219" t="n">
+        <v>848</v>
+      </c>
+      <c r="J219" t="n">
+        <v>852</v>
+      </c>
       <c r="K219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7787,10 +8795,14 @@
         <v>14028.84262325581</v>
       </c>
       <c r="H220" t="n">
-        <v>0</v>
-      </c>
-      <c r="I220" t="inlineStr"/>
-      <c r="J220" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I220" t="n">
+        <v>847</v>
+      </c>
+      <c r="J220" t="n">
+        <v>852</v>
+      </c>
       <c r="K220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7824,10 +8836,14 @@
         <v>14276.63852325581</v>
       </c>
       <c r="H221" t="n">
-        <v>0</v>
-      </c>
-      <c r="I221" t="inlineStr"/>
-      <c r="J221" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I221" t="n">
+        <v>847</v>
+      </c>
+      <c r="J221" t="n">
+        <v>852</v>
+      </c>
       <c r="K221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7861,10 +8877,14 @@
         <v>13497.44162325581</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
-      </c>
-      <c r="I222" t="inlineStr"/>
-      <c r="J222" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I222" t="n">
+        <v>848</v>
+      </c>
+      <c r="J222" t="n">
+        <v>852</v>
+      </c>
       <c r="K222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7898,10 +8918,14 @@
         <v>13849.52204529567</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
-      </c>
-      <c r="I223" t="inlineStr"/>
-      <c r="J223" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I223" t="n">
+        <v>846</v>
+      </c>
+      <c r="J223" t="n">
+        <v>852</v>
+      </c>
       <c r="K223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7935,10 +8959,14 @@
         <v>13837.52204529567</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
-      </c>
-      <c r="I224" t="inlineStr"/>
-      <c r="J224" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I224" t="n">
+        <v>853</v>
+      </c>
+      <c r="J224" t="n">
+        <v>852</v>
+      </c>
       <c r="K224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7972,10 +9000,14 @@
         <v>13299.75624529567</v>
       </c>
       <c r="H225" t="n">
-        <v>0</v>
-      </c>
-      <c r="I225" t="inlineStr"/>
-      <c r="J225" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I225" t="n">
+        <v>851</v>
+      </c>
+      <c r="J225" t="n">
+        <v>852</v>
+      </c>
       <c r="K225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8009,10 +9041,14 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
-      </c>
-      <c r="I226" t="inlineStr"/>
-      <c r="J226" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I226" t="n">
+        <v>850</v>
+      </c>
+      <c r="J226" t="n">
+        <v>852</v>
+      </c>
       <c r="K226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8046,10 +9082,14 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H227" t="n">
-        <v>0</v>
-      </c>
-      <c r="I227" t="inlineStr"/>
-      <c r="J227" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I227" t="n">
+        <v>848</v>
+      </c>
+      <c r="J227" t="n">
+        <v>852</v>
+      </c>
       <c r="K227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,10 +9123,14 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
-      </c>
-      <c r="I228" t="inlineStr"/>
-      <c r="J228" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I228" t="n">
+        <v>848</v>
+      </c>
+      <c r="J228" t="n">
+        <v>852</v>
+      </c>
       <c r="K228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8120,10 +9164,14 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H229" t="n">
-        <v>0</v>
-      </c>
-      <c r="I229" t="inlineStr"/>
-      <c r="J229" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I229" t="n">
+        <v>848</v>
+      </c>
+      <c r="J229" t="n">
+        <v>852</v>
+      </c>
       <c r="K229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8157,10 +9205,14 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H230" t="n">
-        <v>0</v>
-      </c>
-      <c r="I230" t="inlineStr"/>
-      <c r="J230" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I230" t="n">
+        <v>848</v>
+      </c>
+      <c r="J230" t="n">
+        <v>852</v>
+      </c>
       <c r="K230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8194,10 +9246,14 @@
         <v>13269.43354529567</v>
       </c>
       <c r="H231" t="n">
-        <v>0</v>
-      </c>
-      <c r="I231" t="inlineStr"/>
-      <c r="J231" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I231" t="n">
+        <v>848</v>
+      </c>
+      <c r="J231" t="n">
+        <v>852</v>
+      </c>
       <c r="K231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8231,10 +9287,14 @@
         <v>13419.23924529567</v>
       </c>
       <c r="H232" t="n">
-        <v>0</v>
-      </c>
-      <c r="I232" t="inlineStr"/>
-      <c r="J232" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I232" t="n">
+        <v>848</v>
+      </c>
+      <c r="J232" t="n">
+        <v>852</v>
+      </c>
       <c r="K232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8268,10 +9328,14 @@
         <v>13419.23924529567</v>
       </c>
       <c r="H233" t="n">
-        <v>0</v>
-      </c>
-      <c r="I233" t="inlineStr"/>
-      <c r="J233" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I233" t="n">
+        <v>851</v>
+      </c>
+      <c r="J233" t="n">
+        <v>852</v>
+      </c>
       <c r="K233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8305,10 +9369,14 @@
         <v>14534.49434529567</v>
       </c>
       <c r="H234" t="n">
-        <v>0</v>
-      </c>
-      <c r="I234" t="inlineStr"/>
-      <c r="J234" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I234" t="n">
+        <v>851</v>
+      </c>
+      <c r="J234" t="n">
+        <v>852</v>
+      </c>
       <c r="K234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8342,10 +9410,14 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H235" t="n">
-        <v>0</v>
-      </c>
-      <c r="I235" t="inlineStr"/>
-      <c r="J235" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I235" t="n">
+        <v>852</v>
+      </c>
+      <c r="J235" t="n">
+        <v>852</v>
+      </c>
       <c r="K235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8379,10 +9451,14 @@
         <v>14563.08394529567</v>
       </c>
       <c r="H236" t="n">
-        <v>0</v>
-      </c>
-      <c r="I236" t="inlineStr"/>
-      <c r="J236" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I236" t="n">
+        <v>855</v>
+      </c>
+      <c r="J236" t="n">
+        <v>852</v>
+      </c>
       <c r="K236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8416,10 +9492,14 @@
         <v>13842.02994529567</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
-      </c>
-      <c r="I237" t="inlineStr"/>
-      <c r="J237" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I237" t="n">
+        <v>855</v>
+      </c>
+      <c r="J237" t="n">
+        <v>852</v>
+      </c>
       <c r="K237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8453,10 +9533,14 @@
         <v>13943.03924529567</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
-      </c>
-      <c r="I238" t="inlineStr"/>
-      <c r="J238" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I238" t="n">
+        <v>853</v>
+      </c>
+      <c r="J238" t="n">
+        <v>852</v>
+      </c>
       <c r="K238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8490,10 +9574,14 @@
         <v>13746.71744529567</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
-      </c>
-      <c r="I239" t="inlineStr"/>
-      <c r="J239" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I239" t="n">
+        <v>855</v>
+      </c>
+      <c r="J239" t="n">
+        <v>852</v>
+      </c>
       <c r="K239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8527,10 +9615,14 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
-      </c>
-      <c r="I240" t="inlineStr"/>
-      <c r="J240" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I240" t="n">
+        <v>851</v>
+      </c>
+      <c r="J240" t="n">
+        <v>852</v>
+      </c>
       <c r="K240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8564,10 +9656,14 @@
         <v>13772.24194529567</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
-      </c>
-      <c r="I241" t="inlineStr"/>
-      <c r="J241" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I241" t="n">
+        <v>855</v>
+      </c>
+      <c r="J241" t="n">
+        <v>852</v>
+      </c>
       <c r="K241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8601,10 +9697,14 @@
         <v>13872.24194529567</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>855</v>
+      </c>
+      <c r="J242" t="n">
+        <v>852</v>
+      </c>
       <c r="K242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8638,10 +9738,14 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
-      </c>
-      <c r="I243" t="inlineStr"/>
-      <c r="J243" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I243" t="n">
+        <v>856</v>
+      </c>
+      <c r="J243" t="n">
+        <v>852</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8675,10 +9779,14 @@
         <v>18935.09924529567</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>858</v>
+      </c>
+      <c r="J244" t="n">
+        <v>852</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8712,10 +9820,14 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H245" t="n">
-        <v>0</v>
-      </c>
-      <c r="I245" t="inlineStr"/>
-      <c r="J245" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I245" t="n">
+        <v>858</v>
+      </c>
+      <c r="J245" t="n">
+        <v>852</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8749,10 +9861,14 @@
         <v>18845.26264529567</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>857</v>
+      </c>
+      <c r="J246" t="n">
+        <v>852</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8786,10 +9902,14 @@
         <v>17668.35194529567</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>857</v>
+      </c>
+      <c r="J247" t="n">
+        <v>852</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8823,10 +9943,14 @@
         <v>18125.10844529567</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>854</v>
+      </c>
+      <c r="J248" t="n">
+        <v>852</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8860,10 +9984,14 @@
         <v>18760.14054529567</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>856</v>
+      </c>
+      <c r="J249" t="n">
+        <v>852</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8897,10 +10025,14 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>857</v>
+      </c>
+      <c r="J250" t="n">
+        <v>852</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8934,10 +10066,14 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H251" t="n">
-        <v>0</v>
-      </c>
-      <c r="I251" t="inlineStr"/>
-      <c r="J251" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I251" t="n">
+        <v>858</v>
+      </c>
+      <c r="J251" t="n">
+        <v>852</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8971,10 +10107,14 @@
         <v>18879.32114529567</v>
       </c>
       <c r="H252" t="n">
-        <v>0</v>
-      </c>
-      <c r="I252" t="inlineStr"/>
-      <c r="J252" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I252" t="n">
+        <v>858</v>
+      </c>
+      <c r="J252" t="n">
+        <v>852</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9008,10 +10148,14 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H253" t="n">
-        <v>0</v>
-      </c>
-      <c r="I253" t="inlineStr"/>
-      <c r="J253" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I253" t="n">
+        <v>858</v>
+      </c>
+      <c r="J253" t="n">
+        <v>852</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9045,10 +10189,14 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H254" t="n">
-        <v>0</v>
-      </c>
-      <c r="I254" t="inlineStr"/>
-      <c r="J254" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I254" t="n">
+        <v>859</v>
+      </c>
+      <c r="J254" t="n">
+        <v>852</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9082,10 +10230,14 @@
         <v>18925.87514529567</v>
       </c>
       <c r="H255" t="n">
-        <v>0</v>
-      </c>
-      <c r="I255" t="inlineStr"/>
-      <c r="J255" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I255" t="n">
+        <v>859</v>
+      </c>
+      <c r="J255" t="n">
+        <v>852</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9119,10 +10271,14 @@
         <v>19696.33244529567</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
-      </c>
-      <c r="I256" t="inlineStr"/>
-      <c r="J256" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I256" t="n">
+        <v>859</v>
+      </c>
+      <c r="J256" t="n">
+        <v>852</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9159,7 +10315,9 @@
         <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>852</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9196,7 +10354,9 @@
         <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>852</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9233,7 +10393,9 @@
         <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>852</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9270,7 +10432,9 @@
         <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>852</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9307,7 +10471,9 @@
         <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>852</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9344,7 +10510,9 @@
         <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>852</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,7 +10549,9 @@
         <v>0</v>
       </c>
       <c r="I263" t="inlineStr"/>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>852</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9418,7 +10588,9 @@
         <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>852</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9455,7 +10627,9 @@
         <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+      <c r="J265" t="n">
+        <v>852</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9492,7 +10666,9 @@
         <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+      <c r="J266" t="n">
+        <v>852</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9529,7 +10705,9 @@
         <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>852</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9563,16 +10741,20 @@
         <v>27145.29824529567</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>852</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L268" t="inlineStr"/>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L268" t="n">
+        <v>1</v>
+      </c>
       <c r="M268" t="inlineStr"/>
     </row>
     <row r="269">
@@ -9598,11 +10780,17 @@
         <v>21308.27934529567</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
-      <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>852</v>
+      </c>
+      <c r="K269" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9631,11 +10819,17 @@
         <v>20774.22864529567</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
-      <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>852</v>
+      </c>
+      <c r="K270" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9664,11 +10858,17 @@
         <v>20670.22224529567</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
-      <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>852</v>
+      </c>
+      <c r="K271" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9697,11 +10897,17 @@
         <v>21001.82524529567</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
-      <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>852</v>
+      </c>
+      <c r="K272" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9730,11 +10936,17 @@
         <v>21431.32874529567</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
-      <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>852</v>
+      </c>
+      <c r="K273" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9763,11 +10975,17 @@
         <v>20373.10584529567</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I274" t="inlineStr"/>
-      <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>852</v>
+      </c>
+      <c r="K274" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9796,11 +11014,17 @@
         <v>19863.10604529567</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I275" t="inlineStr"/>
-      <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>852</v>
+      </c>
+      <c r="K275" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9829,11 +11053,17 @@
         <v>20376.08324529567</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I276" t="inlineStr"/>
-      <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>852</v>
+      </c>
+      <c r="K276" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9862,11 +11092,17 @@
         <v>20111.58334529567</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I277" t="inlineStr"/>
-      <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>852</v>
+      </c>
+      <c r="K277" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9895,11 +11131,17 @@
         <v>18008.22804529567</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I278" t="inlineStr"/>
-      <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>852</v>
+      </c>
+      <c r="K278" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9928,11 +11170,17 @@
         <v>18860.64014529567</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
-      <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>852</v>
+      </c>
+      <c r="K279" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9961,11 +11209,17 @@
         <v>19076.31444529567</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="inlineStr"/>
-      <c r="K280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>852</v>
+      </c>
+      <c r="K280" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9997,8 +11251,14 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="inlineStr"/>
-      <c r="K281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>852</v>
+      </c>
+      <c r="K281" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10030,8 +11290,14 @@
         <v>0</v>
       </c>
       <c r="I282" t="inlineStr"/>
-      <c r="J282" t="inlineStr"/>
-      <c r="K282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>852</v>
+      </c>
+      <c r="K282" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10063,8 +11329,14 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="inlineStr"/>
-      <c r="K283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>852</v>
+      </c>
+      <c r="K283" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10096,8 +11368,14 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
-      <c r="K284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>852</v>
+      </c>
+      <c r="K284" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10129,8 +11407,14 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
-      <c r="K285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>852</v>
+      </c>
+      <c r="K285" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10162,8 +11446,14 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
-      <c r="K286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>852</v>
+      </c>
+      <c r="K286" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10195,8 +11485,14 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
-      <c r="K287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>852</v>
+      </c>
+      <c r="K287" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10228,8 +11524,14 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
-      <c r="K288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>852</v>
+      </c>
+      <c r="K288" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10261,8 +11563,14 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
-      <c r="K289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>852</v>
+      </c>
+      <c r="K289" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10294,8 +11602,14 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
-      <c r="K290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>852</v>
+      </c>
+      <c r="K290" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10327,8 +11641,14 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
-      <c r="K291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>852</v>
+      </c>
+      <c r="K291" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10360,8 +11680,14 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
-      <c r="K292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>852</v>
+      </c>
+      <c r="K292" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10393,8 +11719,14 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
-      <c r="K293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>852</v>
+      </c>
+      <c r="K293" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10426,8 +11758,14 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
-      <c r="K294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>852</v>
+      </c>
+      <c r="K294" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10456,15 +11794,23 @@
         <v>23818.32804529567</v>
       </c>
       <c r="H295" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
-      <c r="K295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>852</v>
+      </c>
+      <c r="K295" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L295" t="n">
-        <v>1</v>
-      </c>
-      <c r="M295" t="inlineStr"/>
+        <v>1.072464788732394</v>
+      </c>
+      <c r="M295" t="n">
+        <v>1.01063829787234</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
@@ -10489,7 +11835,7 @@
         <v>24462.27674529567</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10522,7 +11868,7 @@
         <v>19763.90534529567</v>
       </c>
       <c r="H297" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10555,7 +11901,7 @@
         <v>20658.04084529567</v>
       </c>
       <c r="H298" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10588,7 +11934,7 @@
         <v>20992.00164529567</v>
       </c>
       <c r="H299" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10621,7 +11967,7 @@
         <v>20158.62394529567</v>
       </c>
       <c r="H300" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10654,7 +12000,7 @@
         <v>19778.62394529567</v>
       </c>
       <c r="H301" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10687,7 +12033,7 @@
         <v>19783.55884529567</v>
       </c>
       <c r="H302" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10720,7 +12066,7 @@
         <v>23449.40454529567</v>
       </c>
       <c r="H303" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10753,7 +12099,7 @@
         <v>23470.94174529567</v>
       </c>
       <c r="H304" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10786,7 +12132,7 @@
         <v>19276.21994529567</v>
       </c>
       <c r="H305" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10819,7 +12165,7 @@
         <v>19151.31994529567</v>
       </c>
       <c r="H306" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -10852,7 +12198,7 @@
         <v>19137.10824529567</v>
       </c>
       <c r="H307" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I307" t="inlineStr"/>
       <c r="J307" t="inlineStr"/>
@@ -10885,7 +12231,7 @@
         <v>17678.18344529567</v>
       </c>
       <c r="H308" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I308" t="inlineStr"/>
       <c r="J308" t="inlineStr"/>
@@ -10918,7 +12264,7 @@
         <v>23845.38014529567</v>
       </c>
       <c r="H309" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I309" t="inlineStr"/>
       <c r="J309" t="inlineStr"/>
@@ -11281,7 +12627,7 @@
         <v>24657.81974529566</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11314,7 +12660,7 @@
         <v>24657.81974529566</v>
       </c>
       <c r="H321" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I321" t="inlineStr"/>
       <c r="J321" t="inlineStr"/>
@@ -11347,7 +12693,7 @@
         <v>24262.81974529566</v>
       </c>
       <c r="H322" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I322" t="inlineStr"/>
       <c r="J322" t="inlineStr"/>
@@ -11380,7 +12726,7 @@
         <v>24262.81974529566</v>
       </c>
       <c r="H323" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I323" t="inlineStr"/>
       <c r="J323" t="inlineStr"/>
